--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="571">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,91 +47,91 @@
     <t xml:space="preserve">2.35517883300781</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28581142425537</t>
+    <t xml:space="preserve">2.28581166267395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397891998291</t>
+    <t xml:space="preserve">2.30397939682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185139656067</t>
+    <t xml:space="preserve">2.17185163497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.21974778175354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836736679077</t>
+    <t xml:space="preserve">2.18836760520935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019963264465</t>
+    <t xml:space="preserve">2.17019987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752917289734</t>
+    <t xml:space="preserve">2.0975296497345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08927154541016</t>
+    <t xml:space="preserve">2.08927130699158</t>
   </si>
   <si>
     <t xml:space="preserve">2.02320742607117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00503993034363</t>
+    <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
     <t xml:space="preserve">2.09257459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404514312744</t>
+    <t xml:space="preserve">2.1140456199646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542555809021</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
     <t xml:space="preserve">2.0628457069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449770927429</t>
+    <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972363471985</t>
+    <t xml:space="preserve">2.03972387313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03642058372498</t>
+    <t xml:space="preserve">2.03642010688782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852384090424</t>
+    <t xml:space="preserve">1.98852407932281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660108566284</t>
+    <t xml:space="preserve">2.01660084724426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365963459015</t>
+    <t xml:space="preserve">1.97365975379944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119441986084</t>
+    <t xml:space="preserve">2.06119418144226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017560482025</t>
+    <t xml:space="preserve">1.99017548561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329779624939</t>
+    <t xml:space="preserve">2.01329803466797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11734867095947</t>
+    <t xml:space="preserve">2.11734843254089</t>
   </si>
   <si>
     <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875299453735</t>
+    <t xml:space="preserve">2.32875323295593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35352730751038</t>
+    <t xml:space="preserve">2.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223726272583</t>
+    <t xml:space="preserve">2.31223702430725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22139954566956</t>
+    <t xml:space="preserve">2.22139930725098</t>
   </si>
   <si>
     <t xml:space="preserve">2.14707708358765</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">2.13716793060303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746318817139</t>
+    <t xml:space="preserve">2.28746294975281</t>
   </si>
   <si>
     <t xml:space="preserve">2.36839151382446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739720344543</t>
+    <t xml:space="preserve">2.47739672660828</t>
   </si>
   <si>
     <t xml:space="preserve">2.34526896476746</t>
@@ -164,28 +164,28 @@
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520274162292</t>
+    <t xml:space="preserve">2.5352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126709938049</t>
+    <t xml:space="preserve">2.60126686096191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135746955872</t>
+    <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117649078369</t>
+    <t xml:space="preserve">2.61117601394653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180932044983</t>
+    <t xml:space="preserve">2.54180908203125</t>
   </si>
   <si>
     <t xml:space="preserve">2.51703524589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868677139282</t>
+    <t xml:space="preserve">2.51868724822998</t>
   </si>
   <si>
     <t xml:space="preserve">2.47244238853455</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">2.41793942451477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574520111084</t>
+    <t xml:space="preserve">2.47574496269226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895788192749</t>
+    <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49391293525696</t>
+    <t xml:space="preserve">2.49391317367554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253252029419</t>
+    <t xml:space="preserve">2.46253299713135</t>
   </si>
   <si>
     <t xml:space="preserve">2.43610739707947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4030749797821</t>
+    <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4410617351532</t>
+    <t xml:space="preserve">2.44106221199036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4245457649231</t>
+    <t xml:space="preserve">2.42454600334167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37830138206482</t>
+    <t xml:space="preserve">2.3783016204834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21148991584778</t>
+    <t xml:space="preserve">2.21148943901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.1404709815979</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">2.10578727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04610919952393</t>
+    <t xml:space="preserve">2.0461094379425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598978996277</t>
+    <t xml:space="preserve">2.00598931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303565979004</t>
+    <t xml:space="preserve">2.13303542137146</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
@@ -257,43 +257,43 @@
     <t xml:space="preserve">2.04778099060059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03942251205444</t>
+    <t xml:space="preserve">2.03942275047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02270603179932</t>
+    <t xml:space="preserve">2.0227062702179</t>
   </si>
   <si>
     <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255611419678</t>
+    <t xml:space="preserve">1.97255623340607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431752204895</t>
+    <t xml:space="preserve">2.00431799888611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927295207977</t>
+    <t xml:space="preserve">1.98927307128906</t>
   </si>
   <si>
     <t xml:space="preserve">1.64825475215912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7970324754715</t>
+    <t xml:space="preserve">1.79703235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374883651733</t>
+    <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207728385925</t>
+    <t xml:space="preserve">1.81207704544067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195739746094</t>
+    <t xml:space="preserve">1.77195751667023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75356924533844</t>
+    <t xml:space="preserve">1.75356912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73016607761383</t>
+    <t xml:space="preserve">1.73016595840454</t>
   </si>
   <si>
     <t xml:space="preserve">1.72180759906769</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">1.7385241985321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837451934814</t>
+    <t xml:space="preserve">1.68837440013885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75524091720581</t>
+    <t xml:space="preserve">1.75524067878723</t>
   </si>
   <si>
     <t xml:space="preserve">1.74855411052704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688220024109</t>
+    <t xml:space="preserve">1.74688231945038</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344923973083</t>
+    <t xml:space="preserve">1.71344935894012</t>
   </si>
   <si>
     <t xml:space="preserve">1.68001616001129</t>
@@ -323,34 +323,34 @@
     <t xml:space="preserve">1.696732878685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225699424744</t>
+    <t xml:space="preserve">1.87225675582886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419823169708</t>
+    <t xml:space="preserve">1.96419787406921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754145622253</t>
+    <t xml:space="preserve">1.96754133701324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613923072815</t>
+    <t xml:space="preserve">2.05613899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933241844177</t>
+    <t xml:space="preserve">2.00933265686035</t>
   </si>
   <si>
     <t xml:space="preserve">2.02604937553406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443788528442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07787084579468</t>
+    <t xml:space="preserve">2.0778706073761</t>
   </si>
   <si>
     <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088468074799</t>
+    <t xml:space="preserve">1.97088479995728</t>
   </si>
   <si>
     <t xml:space="preserve">1.94413805007935</t>
@@ -359,67 +359,70 @@
     <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103447914124</t>
+    <t xml:space="preserve">2.02103424072266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763107299805</t>
+    <t xml:space="preserve">2.06449770927429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763143062592</t>
   </si>
   <si>
     <t xml:space="preserve">2.07118439674377</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07285594940186</t>
+    <t xml:space="preserve">2.07285618782043</t>
   </si>
   <si>
     <t xml:space="preserve">2.09625887870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464691162109</t>
+    <t xml:space="preserve">2.11464715003967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823026657104</t>
+    <t xml:space="preserve">2.19823050498962</t>
   </si>
   <si>
     <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652844429016</t>
+    <t xml:space="preserve">2.18652868270874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643858909607</t>
+    <t xml:space="preserve">2.15643882751465</t>
   </si>
   <si>
     <t xml:space="preserve">2.16312527656555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16479706764221</t>
+    <t xml:space="preserve">2.16479659080505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655823707581</t>
+    <t xml:space="preserve">2.19655847549438</t>
   </si>
   <si>
     <t xml:space="preserve">2.23166346549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330522537231</t>
+    <t xml:space="preserve">2.22330498695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29685807228088</t>
+    <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33196258544922</t>
+    <t xml:space="preserve">2.33196306228638</t>
   </si>
   <si>
     <t xml:space="preserve">2.34032106399536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34700775146484</t>
+    <t xml:space="preserve">2.34700751304626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38044118881226</t>
+    <t xml:space="preserve">2.38044095039368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536575317383</t>
+    <t xml:space="preserve">2.35536623001099</t>
   </si>
   <si>
     <t xml:space="preserve">2.32360434532166</t>
@@ -428,88 +431,88 @@
     <t xml:space="preserve">2.30855941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386492729187</t>
+    <t xml:space="preserve">2.33864951133728</t>
   </si>
   <si>
     <t xml:space="preserve">2.31691789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533596038818</t>
+    <t xml:space="preserve">2.34533643722534</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539602279663</t>
+    <t xml:space="preserve">2.36539554595947</t>
   </si>
   <si>
     <t xml:space="preserve">2.36372447013855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530616760254</t>
+    <t xml:space="preserve">2.33530592918396</t>
   </si>
   <si>
     <t xml:space="preserve">2.26008152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29518628120422</t>
+    <t xml:space="preserve">2.2951865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673818588257</t>
+    <t xml:space="preserve">2.25673842430115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30521631240845</t>
+    <t xml:space="preserve">2.30521607398987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24670839309692</t>
+    <t xml:space="preserve">2.24670815467834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14808058738708</t>
+    <t xml:space="preserve">2.14808011054993</t>
   </si>
   <si>
     <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631870269775</t>
+    <t xml:space="preserve">2.11631917953491</t>
   </si>
   <si>
     <t xml:space="preserve">2.21494698524475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324468612671</t>
+    <t xml:space="preserve">2.20324540138245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011132240295</t>
+    <t xml:space="preserve">2.27011179924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506639480591</t>
+    <t xml:space="preserve">2.25506663322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18987154960632</t>
+    <t xml:space="preserve">2.1898717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339508056641</t>
+    <t xml:space="preserve">2.25339484214783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19154357910156</t>
+    <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
     <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2433648109436</t>
+    <t xml:space="preserve">2.24336504936218</t>
   </si>
   <si>
     <t xml:space="preserve">2.1413938999176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14640879631042</t>
+    <t xml:space="preserve">2.14640855789185</t>
   </si>
   <si>
     <t xml:space="preserve">2.183185338974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688810348511</t>
+    <t xml:space="preserve">2.30688762664795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861971855164</t>
+    <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
     <t xml:space="preserve">2.41554594039917</t>
@@ -524,25 +527,25 @@
     <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709736824036</t>
+    <t xml:space="preserve">2.37709760665894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52754688262939</t>
+    <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50748705863953</t>
+    <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
     <t xml:space="preserve">2.54927825927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909831047058</t>
+    <t xml:space="preserve">2.48909878730774</t>
   </si>
   <si>
     <t xml:space="preserve">2.46569561958313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53256177902222</t>
+    <t xml:space="preserve">2.53256154060364</t>
   </si>
   <si>
     <t xml:space="preserve">2.48241186141968</t>
@@ -554,16 +557,16 @@
     <t xml:space="preserve">2.4389488697052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49077010154724</t>
+    <t xml:space="preserve">2.49077033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49912858009338</t>
+    <t xml:space="preserve">2.4991283416748</t>
   </si>
   <si>
     <t xml:space="preserve">2.50414347648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906851768494</t>
+    <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399379730225</t>
@@ -575,34 +578,34 @@
     <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390370368958</t>
+    <t xml:space="preserve">2.42390394210815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59942817687988</t>
+    <t xml:space="preserve">2.5994279384613</t>
   </si>
   <si>
     <t xml:space="preserve">2.6479058265686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62450313568115</t>
+    <t xml:space="preserve">2.62450289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67298078536987</t>
+    <t xml:space="preserve">2.67298126220703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64957785606384</t>
+    <t xml:space="preserve">2.64957761764526</t>
   </si>
   <si>
     <t xml:space="preserve">2.78163862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8418185710907</t>
+    <t xml:space="preserve">2.84181880950928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847498893738</t>
+    <t xml:space="preserve">2.83847546577454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513188362122</t>
+    <t xml:space="preserve">2.83513164520264</t>
   </si>
   <si>
     <t xml:space="preserve">2.81674361228943</t>
@@ -614,10 +617,10 @@
     <t xml:space="preserve">2.77328085899353</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811556816101</t>
+    <t xml:space="preserve">2.71811580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172871589661</t>
+    <t xml:space="preserve">2.81172895431519</t>
   </si>
   <si>
     <t xml:space="preserve">2.74987721443176</t>
@@ -629,16 +632,16 @@
     <t xml:space="preserve">2.75154900550842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495217323303</t>
+    <t xml:space="preserve">2.77495241165161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166865348816</t>
+    <t xml:space="preserve">2.79166841506958</t>
   </si>
   <si>
     <t xml:space="preserve">2.74486231803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319076538086</t>
+    <t xml:space="preserve">2.74319100379944</t>
   </si>
   <si>
     <t xml:space="preserve">2.67465257644653</t>
@@ -647,22 +650,22 @@
     <t xml:space="preserve">2.75823569297791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316049575806</t>
+    <t xml:space="preserve">2.73316025733948</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7833104133606</t>
+    <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838513374329</t>
+    <t xml:space="preserve">2.80838489532471</t>
   </si>
   <si>
     <t xml:space="preserve">2.79835557937622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002665519714</t>
+    <t xml:space="preserve">2.80002689361572</t>
   </si>
   <si>
     <t xml:space="preserve">3.02068591117859</t>
@@ -671,13 +674,13 @@
     <t xml:space="preserve">2.97387933731079</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95883417129517</t>
+    <t xml:space="preserve">2.95883440971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384930610657</t>
+    <t xml:space="preserve">2.96384954452515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856460571289</t>
+    <t xml:space="preserve">2.86856484413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.96552109718323</t>
@@ -692,10 +695,10 @@
     <t xml:space="preserve">2.86355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859511375427</t>
+    <t xml:space="preserve">2.87859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94867634773254</t>
+    <t xml:space="preserve">2.94867610931396</t>
   </si>
   <si>
     <t xml:space="preserve">3.00936913490295</t>
@@ -704,7 +707,7 @@
     <t xml:space="preserve">2.96216344833374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95036220550537</t>
+    <t xml:space="preserve">2.95036196708679</t>
   </si>
   <si>
     <t xml:space="preserve">3.02622842788696</t>
@@ -719,19 +722,19 @@
     <t xml:space="preserve">2.86606621742249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84246277809143</t>
+    <t xml:space="preserve">2.84246301651001</t>
   </si>
   <si>
     <t xml:space="preserve">2.87112355232239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80705881118774</t>
+    <t xml:space="preserve">2.80705857276917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75648093223572</t>
+    <t xml:space="preserve">2.7564811706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74973750114441</t>
+    <t xml:space="preserve">2.74973773956299</t>
   </si>
   <si>
     <t xml:space="preserve">2.73624992370605</t>
@@ -740,13 +743,13 @@
     <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502655982971</t>
+    <t xml:space="preserve">2.77502632141113</t>
   </si>
   <si>
     <t xml:space="preserve">2.83234739303589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8896689414978</t>
+    <t xml:space="preserve">2.88966917991638</t>
   </si>
   <si>
     <t xml:space="preserve">2.88629698753357</t>
@@ -755,10 +758,10 @@
     <t xml:space="preserve">2.85763669013977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8643798828125</t>
+    <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123941421509</t>
+    <t xml:space="preserve">2.88123917579651</t>
   </si>
   <si>
     <t xml:space="preserve">2.94193243980408</t>
@@ -773,19 +776,19 @@
     <t xml:space="preserve">2.9284451007843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93518900871277</t>
+    <t xml:space="preserve">2.93518877029419</t>
   </si>
   <si>
     <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507338523865</t>
+    <t xml:space="preserve">2.92507314682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91664385795593</t>
+    <t xml:space="preserve">2.91664361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93687462806702</t>
+    <t xml:space="preserve">2.9368748664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.96553540229797</t>
@@ -794,7 +797,7 @@
     <t xml:space="preserve">2.89978456497192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001557350159</t>
+    <t xml:space="preserve">2.92001533508301</t>
   </si>
   <si>
     <t xml:space="preserve">2.94024634361267</t>
@@ -812,16 +815,16 @@
     <t xml:space="preserve">2.98408031463623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97565078735352</t>
+    <t xml:space="preserve">2.97565102577209</t>
   </si>
   <si>
     <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879149436951</t>
+    <t xml:space="preserve">2.95879173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315651893616</t>
+    <t xml:space="preserve">2.90315628051758</t>
   </si>
   <si>
     <t xml:space="preserve">2.8492066860199</t>
@@ -848,22 +851,22 @@
     <t xml:space="preserve">2.95710563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227931022644</t>
+    <t xml:space="preserve">2.97227907180786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745226860046</t>
+    <t xml:space="preserve">2.98745203018188</t>
   </si>
   <si>
     <t xml:space="preserve">2.9183292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91158580780029</t>
+    <t xml:space="preserve">2.91158604621887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03465795516968</t>
+    <t xml:space="preserve">3.03465819358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01779913902283</t>
+    <t xml:space="preserve">3.01779890060425</t>
   </si>
   <si>
     <t xml:space="preserve">3.03803014755249</t>
@@ -872,19 +875,19 @@
     <t xml:space="preserve">3.07680630683899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00431132316589</t>
+    <t xml:space="preserve">3.00431156158447</t>
   </si>
   <si>
     <t xml:space="preserve">3.05657505989075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15098690986633</t>
+    <t xml:space="preserve">3.15098667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11895418167114</t>
+    <t xml:space="preserve">3.11895442008972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396492958069</t>
+    <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
     <t xml:space="preserve">3.02454280853271</t>
@@ -893,19 +896,19 @@
     <t xml:space="preserve">3.02285671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0211706161499</t>
+    <t xml:space="preserve">3.02117085456848</t>
   </si>
   <si>
     <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90146994590759</t>
+    <t xml:space="preserve">2.90147018432617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93013095855713</t>
+    <t xml:space="preserve">2.93013119697571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81548857688904</t>
+    <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449550628662</t>
@@ -917,9 +920,6 @@
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.87280964851379</t>
   </si>
   <si>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">2.90484237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87955355644226</t>
+    <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350291252136</t>
+    <t xml:space="preserve">2.93350315093994</t>
   </si>
   <si>
     <t xml:space="preserve">2.79862928390503</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">2.73962187767029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68061470985413</t>
+    <t xml:space="preserve">2.68061494827271</t>
   </si>
   <si>
     <t xml:space="preserve">2.69747376441956</t>
@@ -962,13 +962,13 @@
     <t xml:space="preserve">2.60474824905396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59631872177124</t>
+    <t xml:space="preserve">2.59631848335266</t>
   </si>
   <si>
     <t xml:space="preserve">2.55417037010193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58788895606995</t>
+    <t xml:space="preserve">2.58788919448853</t>
   </si>
   <si>
     <t xml:space="preserve">2.61317777633667</t>
@@ -977,46 +977,46 @@
     <t xml:space="preserve">2.62160730361938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65532612800598</t>
+    <t xml:space="preserve">2.6553258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71433305740356</t>
+    <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
     <t xml:space="preserve">2.79019951820374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05994725227356</t>
+    <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
     <t xml:space="preserve">2.962810754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94553518295288</t>
+    <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463842391968</t>
+    <t xml:space="preserve">3.01463866233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736261367798</t>
+    <t xml:space="preserve">2.99736285209656</t>
   </si>
   <si>
     <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85915541648865</t>
+    <t xml:space="preserve">2.85915565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81596612930298</t>
+    <t xml:space="preserve">2.8159658908844</t>
   </si>
   <si>
     <t xml:space="preserve">2.8332417011261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78141403198242</t>
+    <t xml:space="preserve">2.781414270401</t>
   </si>
   <si>
     <t xml:space="preserve">2.79005217552185</t>
@@ -1037,16 +1037,16 @@
     <t xml:space="preserve">2.7295868396759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775917053223</t>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137964248657</t>
+    <t xml:space="preserve">2.59137988090515</t>
   </si>
   <si>
     <t xml:space="preserve">2.73822474479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65184545516968</t>
+    <t xml:space="preserve">2.6518452167511</t>
   </si>
   <si>
     <t xml:space="preserve">2.71231079101562</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094869613647</t>
+    <t xml:space="preserve">2.72094893455505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550031661987</t>
+    <t xml:space="preserve">2.75550055503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70367288589478</t>
+    <t xml:space="preserve">2.70367312431335</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503474235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048312187195</t>
+    <t xml:space="preserve">2.66048288345337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.600017786026</t>
+    <t xml:space="preserve">2.60001754760742</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">2.57410407066345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5654661655426</t>
+    <t xml:space="preserve">2.56546592712402</t>
   </si>
   <si>
     <t xml:space="preserve">2.54819011688232</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">2.61729335784912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63456964492798</t>
+    <t xml:space="preserve">2.6345694065094</t>
   </si>
   <si>
     <t xml:space="preserve">2.6691210269928</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">2.84187984466553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85051774978638</t>
+    <t xml:space="preserve">2.8505175113678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8937075138092</t>
+    <t xml:space="preserve">2.89370727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92825937271118</t>
+    <t xml:space="preserve">2.9282591342926</t>
   </si>
   <si>
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86779356002808</t>
+    <t xml:space="preserve">2.8677933216095</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
@@ -1139,19 +1139,19 @@
     <t xml:space="preserve">3.06646609306335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04055190086365</t>
+    <t xml:space="preserve">3.04055213928223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00600075721741</t>
+    <t xml:space="preserve">3.00600051879883</t>
   </si>
   <si>
     <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191423416138</t>
+    <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9800865650177</t>
+    <t xml:space="preserve">2.98008704185486</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9455349445343</t>
+    <t xml:space="preserve">2.94553470611572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91875743865967</t>
+    <t xml:space="preserve">2.91875720024109</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231221199036</t>
+    <t xml:space="preserve">2.97231245040894</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">3.04371953010559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834886550903</t>
+    <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1329779624939</t>
@@ -1214,16 +1214,16 @@
     <t xml:space="preserve">2.9366090297699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768311500549</t>
+    <t xml:space="preserve">2.92768287658691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90090584754944</t>
+    <t xml:space="preserve">2.90090560913086</t>
   </si>
   <si>
     <t xml:space="preserve">2.90983152389526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95446062088013</t>
+    <t xml:space="preserve">2.95446085929871</t>
   </si>
   <si>
     <t xml:space="preserve">2.98123836517334</t>
@@ -1241,25 +1241,22 @@
     <t xml:space="preserve">2.74916577339172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.64205551147461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64205574989319</t>
+    <t xml:space="preserve">2.62420392036438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6242036819458</t>
+    <t xml:space="preserve">2.60635232925415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60635209083557</t>
+    <t xml:space="preserve">2.65990710258484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65990734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58850026130676</t>
+    <t xml:space="preserve">2.58850049972534</t>
   </si>
   <si>
     <t xml:space="preserve">2.71346235275269</t>
@@ -1283,25 +1280,25 @@
     <t xml:space="preserve">2.73131418228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65098166465759</t>
+    <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453643798828</t>
+    <t xml:space="preserve">2.70453667640686</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15975546836853</t>
+    <t xml:space="preserve">3.15975570678711</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14190363883972</t>
+    <t xml:space="preserve">3.1419038772583</t>
   </si>
   <si>
     <t xml:space="preserve">3.11512637138367</t>
   </si>
   <si>
-    <t xml:space="preserve">3.12405204772949</t>
+    <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
     <t xml:space="preserve">3.10620069503784</t>
@@ -1310,7 +1307,7 @@
     <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89197969436646</t>
+    <t xml:space="preserve">2.89197993278503</t>
   </si>
   <si>
     <t xml:space="preserve">2.80272102355957</t>
@@ -1346,7 +1343,7 @@
     <t xml:space="preserve">2.82949876785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85627627372742</t>
+    <t xml:space="preserve">2.856276512146</t>
   </si>
   <si>
     <t xml:space="preserve">2.88305377960205</t>
@@ -1373,19 +1370,19 @@
     <t xml:space="preserve">2.49031591415405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43676066398621</t>
+    <t xml:space="preserve">2.43676090240479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39213156700134</t>
+    <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320565223694</t>
+    <t xml:space="preserve">2.38320541381836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189088344574</t>
+    <t xml:space="preserve">2.41890907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45461225509644</t>
+    <t xml:space="preserve">2.45461249351501</t>
   </si>
   <si>
     <t xml:space="preserve">2.51709342002869</t>
@@ -1400,19 +1397,19 @@
     <t xml:space="preserve">3.18653321266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16868162155151</t>
+    <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545912742615</t>
+    <t xml:space="preserve">3.19545888900757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35612487792969</t>
+    <t xml:space="preserve">3.35612463951111</t>
   </si>
   <si>
     <t xml:space="preserve">3.28471779823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21331071853638</t>
+    <t xml:space="preserve">3.2133104801178</t>
   </si>
   <si>
     <t xml:space="preserve">3.24901437759399</t>
@@ -1427,13 +1424,13 @@
     <t xml:space="preserve">3.48108673095703</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42753124237061</t>
+    <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893856048584</t>
+    <t xml:space="preserve">3.49893832206726</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39182782173157</t>
+    <t xml:space="preserve">3.39182806015015</t>
   </si>
   <si>
     <t xml:space="preserve">3.3382728099823</t>
@@ -1448,7 +1445,7 @@
     <t xml:space="preserve">3.44538331031799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65960383415222</t>
+    <t xml:space="preserve">3.6596040725708</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1463,7 +1460,7 @@
     <t xml:space="preserve">3.51679015159607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967965126038</t>
+    <t xml:space="preserve">3.40967988967896</t>
   </si>
   <si>
     <t xml:space="preserve">3.17760729789734</t>
@@ -1487,10 +1484,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25992059707642</t>
+    <t xml:space="preserve">3.259920835495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675602912903</t>
+    <t xml:space="preserve">3.29675579071045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1502,7 +1499,10 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308540344238</t>
+    <t xml:space="preserve">3.22308564186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890919685364</t>
+    <t xml:space="preserve">3.03890895843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0112829208374</t>
+    <t xml:space="preserve">3.01128268241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653547286987</t>
+    <t xml:space="preserve">3.06653571128845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682097434998</t>
+    <t xml:space="preserve">2.94682121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523857116699</t>
+    <t xml:space="preserve">2.96523880958557</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625044822693</t>
+    <t xml:space="preserve">3.18625020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811787605286</t>
+    <t xml:space="preserve">3.04811811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049160003662</t>
+    <t xml:space="preserve">3.02049136161804</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365616798401</t>
+    <t xml:space="preserve">2.98365640640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1589,10 +1589,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286532402039</t>
+    <t xml:space="preserve">2.99286508560181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2415030002594</t>
+    <t xml:space="preserve">3.24150323867798</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1683,6 +1683,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -6735,7 +6738,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G180" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6813,7 +6816,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G183" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6839,7 +6842,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G184" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6865,7 +6868,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G185" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7021,7 +7024,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G191" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7047,7 +7050,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G192" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7073,7 +7076,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G193" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7125,7 +7128,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G195" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7177,7 +7180,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G197" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7203,7 +7206,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7229,7 +7232,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G199" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7255,7 +7258,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G200" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7281,7 +7284,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G201" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7307,7 +7310,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G202" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7333,7 +7336,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G203" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7359,7 +7362,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G204" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7385,7 +7388,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G205" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7411,7 +7414,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G206" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7437,7 +7440,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G207" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7463,7 +7466,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G208" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7489,7 +7492,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7515,7 +7518,7 @@
         <v>2.74799990653992</v>
       </c>
       <c r="G210" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7541,7 +7544,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7567,7 +7570,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G212" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7593,7 +7596,7 @@
         <v>2.80800008773804</v>
       </c>
       <c r="G213" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7619,7 +7622,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G214" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7645,7 +7648,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G215" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7671,7 +7674,7 @@
         <v>2.81800007820129</v>
       </c>
       <c r="G216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7697,7 +7700,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G217" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7723,7 +7726,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G218" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7749,7 +7752,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G219" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7775,7 +7778,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G220" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7801,7 +7804,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G221" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7827,7 +7830,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G222" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7853,7 +7856,7 @@
         <v>2.80599999427795</v>
       </c>
       <c r="G223" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7879,7 +7882,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G224" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7905,7 +7908,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G225" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7931,7 +7934,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G226" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7957,7 +7960,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G227" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -7983,7 +7986,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8009,7 +8012,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G229" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8035,7 +8038,7 @@
         <v>2.79399991035461</v>
       </c>
       <c r="G230" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8061,7 +8064,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G231" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8087,7 +8090,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G232" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8113,7 +8116,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8139,7 +8142,7 @@
         <v>2.75799989700317</v>
       </c>
       <c r="G234" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8165,7 +8168,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G235" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8191,7 +8194,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G236" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8217,7 +8220,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G237" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8243,7 +8246,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G238" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8269,7 +8272,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G239" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8295,7 +8298,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8321,7 +8324,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G241" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8347,7 +8350,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G242" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8373,7 +8376,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G243" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8399,7 +8402,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G244" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8425,7 +8428,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G245" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8451,7 +8454,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G246" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8477,7 +8480,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G247" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8503,7 +8506,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G248" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8529,7 +8532,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G249" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8555,7 +8558,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8581,7 +8584,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G251" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8607,7 +8610,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G252" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8633,7 +8636,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G253" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8659,7 +8662,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G254" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8685,7 +8688,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G255" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8711,7 +8714,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G256" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8737,7 +8740,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G257" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8763,7 +8766,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G258" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8789,7 +8792,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G259" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8815,7 +8818,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G260" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8841,7 +8844,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G261" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8867,7 +8870,7 @@
         <v>2.78600001335144</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8893,7 +8896,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G263" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8919,7 +8922,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G264" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8945,7 +8948,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G265" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8971,7 +8974,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G266" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -8997,7 +9000,7 @@
         <v>2.89800000190735</v>
       </c>
       <c r="G267" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9023,7 +9026,7 @@
         <v>2.87800002098083</v>
       </c>
       <c r="G268" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9049,7 +9052,7 @@
         <v>2.94199991226196</v>
       </c>
       <c r="G269" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9075,7 +9078,7 @@
         <v>2.84400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9101,7 +9104,7 @@
         <v>3.0239999294281</v>
       </c>
       <c r="G271" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9127,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="G272" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9153,7 +9156,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G273" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9179,7 +9182,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G274" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9205,7 +9208,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G275" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9231,7 +9234,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9257,7 +9260,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G277" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9283,7 +9286,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G278" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9309,7 +9312,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9335,7 +9338,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G280" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9361,7 +9364,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G281" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9387,7 +9390,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G282" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9413,7 +9416,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G283" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9439,7 +9442,7 @@
         <v>2.94199991226196</v>
       </c>
       <c r="G284" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9465,7 +9468,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G285" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9491,7 +9494,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9517,7 +9520,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G287" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9543,7 +9546,7 @@
         <v>2.99600005149841</v>
       </c>
       <c r="G288" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9569,7 +9572,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G289" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9595,7 +9598,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G290" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9621,7 +9624,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9647,7 +9650,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G292" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9673,7 +9676,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G293" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9699,7 +9702,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G294" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9725,7 +9728,7 @@
         <v>2.94799995422363</v>
       </c>
       <c r="G295" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9751,7 +9754,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9777,7 +9780,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G297" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9803,7 +9806,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9829,7 +9832,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G299" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9855,7 +9858,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9881,7 +9884,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9907,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="G302" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9933,7 +9936,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G303" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9959,7 +9962,7 @@
         <v>3</v>
       </c>
       <c r="G304" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -9985,7 +9988,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G305" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10011,7 +10014,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G306" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10037,7 +10040,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G307" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10063,7 +10066,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G308" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10089,7 +10092,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G309" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10115,7 +10118,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G310" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10141,7 +10144,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G311" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10167,7 +10170,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G312" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10193,7 +10196,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G313" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10219,7 +10222,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G314" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10245,7 +10248,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10271,7 +10274,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10297,7 +10300,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10323,7 +10326,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10349,7 +10352,7 @@
         <v>3.36400008201599</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10375,7 +10378,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10401,7 +10404,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10427,7 +10430,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10453,7 +10456,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G323" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10479,7 +10482,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G324" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10505,7 +10508,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G325" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10531,7 +10534,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G326" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10557,7 +10560,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G327" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10583,7 +10586,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G328" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10609,7 +10612,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G329" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10635,7 +10638,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G330" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10661,7 +10664,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G331" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10687,7 +10690,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G332" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10713,7 +10716,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G333" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10739,7 +10742,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G334" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10765,7 +10768,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G335" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10791,7 +10794,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G336" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10817,7 +10820,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10843,7 +10846,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G338" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10869,7 +10872,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G339" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10895,7 +10898,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G340" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10921,7 +10924,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G341" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10947,7 +10950,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G342" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10973,7 +10976,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G343" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -10999,7 +11002,7 @@
         <v>3.61400008201599</v>
       </c>
       <c r="G344" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11025,7 +11028,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G345" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11051,7 +11054,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G346" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11077,7 +11080,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G347" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11103,7 +11106,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G348" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11129,7 +11132,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G349" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11155,7 +11158,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G350" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11181,7 +11184,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G351" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11207,7 +11210,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G352" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11233,7 +11236,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G353" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11259,7 +11262,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G354" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11285,7 +11288,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11311,7 +11314,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G356" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11337,7 +11340,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G357" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11363,7 +11366,7 @@
         <v>3.5</v>
       </c>
       <c r="G358" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11389,7 +11392,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G359" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11415,7 +11418,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G360" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11441,7 +11444,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G361" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11467,7 +11470,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G362" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11493,7 +11496,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G363" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11519,7 +11522,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G364" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11545,7 +11548,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G365" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11571,7 +11574,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11597,7 +11600,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G367" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11623,7 +11626,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G368" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11649,7 +11652,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G369" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11675,7 +11678,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G370" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11701,7 +11704,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G371" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11727,7 +11730,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G372" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11753,7 +11756,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G373" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11779,7 +11782,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G374" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11805,7 +11808,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G375" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11831,7 +11834,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G376" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11857,7 +11860,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G377" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11883,7 +11886,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G378" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11909,7 +11912,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G379" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11935,7 +11938,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G380" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11961,7 +11964,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G381" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -11987,7 +11990,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G382" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12013,7 +12016,7 @@
         <v>3.5</v>
       </c>
       <c r="G383" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12039,7 +12042,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12065,7 +12068,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G385" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12091,7 +12094,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G386" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12117,7 +12120,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G387" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12143,7 +12146,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G388" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12169,7 +12172,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G389" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12195,7 +12198,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G390" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12221,7 +12224,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G391" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12247,7 +12250,7 @@
         <v>3.5</v>
       </c>
       <c r="G392" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12273,7 +12276,7 @@
         <v>3.5</v>
       </c>
       <c r="G393" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12299,7 +12302,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G394" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12325,7 +12328,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12351,7 +12354,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G396" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12377,7 +12380,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12403,7 +12406,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G398" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12429,7 +12432,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G399" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12455,7 +12458,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12481,7 +12484,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G401" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12507,7 +12510,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G402" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12533,7 +12536,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12559,7 +12562,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G404" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12585,7 +12588,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G405" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12611,7 +12614,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12637,7 +12640,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12663,7 +12666,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G408" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12689,7 +12692,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G409" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12715,7 +12718,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12741,7 +12744,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12767,7 +12770,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G412" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12793,7 +12796,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G413" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12819,7 +12822,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G414" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12845,7 +12848,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G415" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12871,7 +12874,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G416" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12897,7 +12900,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G417" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12923,7 +12926,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G418" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12949,7 +12952,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G419" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12975,7 +12978,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G420" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13001,7 +13004,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13027,7 +13030,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G422" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13053,7 +13056,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13079,7 +13082,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13105,7 +13108,7 @@
         <v>3.4779999256134</v>
       </c>
       <c r="G425" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13131,7 +13134,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G426" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13157,7 +13160,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G427" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13183,7 +13186,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13209,7 +13212,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G429" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13235,7 +13238,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G430" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13261,7 +13264,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G431" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13287,7 +13290,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G432" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13313,7 +13316,7 @@
         <v>3.52600002288818</v>
       </c>
       <c r="G433" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13339,7 +13342,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G434" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13365,7 +13368,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G435" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13391,7 +13394,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G436" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13417,7 +13420,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G437" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13443,7 +13446,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13469,7 +13472,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G439" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13495,7 +13498,7 @@
         <v>3.5</v>
       </c>
       <c r="G440" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13521,7 +13524,7 @@
         <v>3.5</v>
       </c>
       <c r="G441" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13547,7 +13550,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G442" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13573,7 +13576,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13599,7 +13602,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G444" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13625,7 +13628,7 @@
         <v>3.46199989318848</v>
       </c>
       <c r="G445" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13651,7 +13654,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G446" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13677,7 +13680,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13703,7 +13706,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13729,7 +13732,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13755,7 +13758,7 @@
         <v>3.4539999961853</v>
       </c>
       <c r="G450" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13781,7 +13784,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G451" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13807,7 +13810,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G452" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13833,7 +13836,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G453" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13859,7 +13862,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G454" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13885,7 +13888,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G455" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13911,7 +13914,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G456" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13937,7 +13940,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G457" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13963,7 +13966,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G458" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -13989,7 +13992,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14015,7 +14018,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G460" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14041,7 +14044,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G461" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14067,7 +14070,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G462" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14093,7 +14096,7 @@
         <v>3.62599992752075</v>
       </c>
       <c r="G463" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14119,7 +14122,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G464" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14145,7 +14148,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G465" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14171,7 +14174,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G466" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14197,7 +14200,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14223,7 +14226,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G468" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14249,7 +14252,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G469" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14275,7 +14278,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G470" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14301,7 +14304,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G471" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14327,7 +14330,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G472" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14353,7 +14356,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G473" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14379,7 +14382,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14405,7 +14408,7 @@
         <v>3.4779999256134</v>
       </c>
       <c r="G475" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14431,7 +14434,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G476" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14457,7 +14460,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G477" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14483,7 +14486,7 @@
         <v>3.44199991226196</v>
       </c>
       <c r="G478" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14509,7 +14512,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G479" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14535,7 +14538,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G480" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14561,7 +14564,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G481" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14587,7 +14590,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G482" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14613,7 +14616,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G483" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14639,7 +14642,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G484" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14665,7 +14668,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G485" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14691,7 +14694,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G486" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14717,7 +14720,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G487" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14743,7 +14746,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G488" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14769,7 +14772,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G489" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14795,7 +14798,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G490" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14821,7 +14824,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G491" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14847,7 +14850,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G492" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14873,7 +14876,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14899,7 +14902,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G494" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14925,7 +14928,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G495" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14951,7 +14954,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14977,7 +14980,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15003,7 +15006,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15029,7 +15032,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G499" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15055,7 +15058,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G500" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15081,7 +15084,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G501" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15133,7 +15136,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G503" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15159,7 +15162,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G504" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15211,7 +15214,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G506" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15289,7 +15292,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G509" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15315,7 +15318,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G510" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15341,7 +15344,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G511" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15367,7 +15370,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G512" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15393,7 +15396,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G513" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15419,7 +15422,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G514" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15445,7 +15448,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15471,7 +15474,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G516" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15523,7 +15526,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G518" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15549,7 +15552,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G519" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15575,7 +15578,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G520" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15601,7 +15604,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G521" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15627,7 +15630,7 @@
         <v>3.5</v>
       </c>
       <c r="G522" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15679,7 +15682,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G524" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15705,7 +15708,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G525" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15731,7 +15734,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G526" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15757,7 +15760,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G527" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15783,7 +15786,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G528" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15809,7 +15812,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G529" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15835,7 +15838,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G530" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15861,7 +15864,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G531" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15887,7 +15890,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G532" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15913,7 +15916,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G533" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15939,7 +15942,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15965,7 +15968,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G535" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -15991,7 +15994,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16017,7 +16020,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G537" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16043,7 +16046,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G538" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16069,7 +16072,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16771,7 +16774,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G566" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16797,7 +16800,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G567" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16823,7 +16826,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G568" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16849,7 +16852,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G569" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16875,7 +16878,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16901,7 +16904,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G571" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16927,7 +16930,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G572" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16953,7 +16956,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G573" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16979,7 +16982,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G574" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17005,7 +17008,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G575" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17057,7 +17060,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G577" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17083,7 +17086,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G578" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17109,7 +17112,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G579" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17135,7 +17138,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G580" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17161,7 +17164,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G581" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17187,7 +17190,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G582" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17213,7 +17216,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G583" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17239,7 +17242,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G584" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17265,7 +17268,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G585" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17291,7 +17294,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G586" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17317,7 +17320,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G587" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17369,7 +17372,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G589" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17395,7 +17398,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G590" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17421,7 +17424,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G591" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17447,7 +17450,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17499,7 +17502,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G594" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17525,7 +17528,7 @@
         <v>3.5</v>
       </c>
       <c r="G595" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17551,7 +17554,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17577,7 +17580,7 @@
         <v>3.5</v>
       </c>
       <c r="G597" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17629,7 +17632,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G599" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17655,7 +17658,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G600" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17681,7 +17684,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17707,7 +17710,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G602" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17759,7 +17762,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17785,7 +17788,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G605" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17811,7 +17814,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G606" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17837,7 +17840,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G607" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -25923,7 +25926,7 @@
         <v>3</v>
       </c>
       <c r="G918" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25949,7 +25952,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -25975,7 +25978,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G920" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26001,7 +26004,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26027,7 +26030,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26079,7 +26082,7 @@
         <v>3</v>
       </c>
       <c r="G924" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26105,7 +26108,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26131,7 +26134,7 @@
         <v>3</v>
       </c>
       <c r="G926" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26157,7 +26160,7 @@
         <v>3</v>
       </c>
       <c r="G927" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26183,7 +26186,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G928" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26209,7 +26212,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G929" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26235,7 +26238,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G930" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26261,7 +26264,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G931" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26287,7 +26290,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26313,7 +26316,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G933" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26339,7 +26342,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G934" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26365,7 +26368,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G935" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26443,7 +26446,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G938" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26469,7 +26472,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G939" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26495,7 +26498,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G940" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26521,7 +26524,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G941" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26547,7 +26550,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26573,7 +26576,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G943" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26599,7 +26602,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G944" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26625,7 +26628,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G945" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26651,7 +26654,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G946" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26677,7 +26680,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G947" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26703,7 +26706,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G948" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26729,7 +26732,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26755,7 +26758,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G950" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26781,7 +26784,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G951" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26807,7 +26810,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G952" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26833,7 +26836,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G953" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26859,7 +26862,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G954" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26885,7 +26888,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G955" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26911,7 +26914,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G956" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26937,7 +26940,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G957" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26963,7 +26966,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G958" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -26989,7 +26992,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G959" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27015,7 +27018,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G960" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27041,7 +27044,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G961" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27067,7 +27070,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G962" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27093,7 +27096,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G963" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27197,7 +27200,7 @@
         <v>3</v>
       </c>
       <c r="G967" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27223,7 +27226,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G968" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27249,7 +27252,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G969" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27275,7 +27278,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27301,7 +27304,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G971" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27327,7 +27330,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G972" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27457,7 +27460,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G977" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27483,7 +27486,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G978" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27509,7 +27512,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G979" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27535,7 +27538,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G980" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27561,7 +27564,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G981" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27639,7 +27642,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G984" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27691,7 +27694,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G986" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27743,7 +27746,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G988" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28653,7 +28656,7 @@
         <v>3.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28679,7 +28682,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1024" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28835,7 +28838,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1030" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28861,7 +28864,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1031" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29069,7 +29072,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1039" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29095,7 +29098,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29121,7 +29124,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1041" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29147,7 +29150,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1042" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29329,7 +29332,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1049" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29355,7 +29358,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1050" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29615,7 +29618,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1060" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29641,7 +29644,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1061" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29667,7 +29670,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1062" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29693,7 +29696,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1063" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29719,7 +29722,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1064" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29745,7 +29748,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1065" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29771,7 +29774,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1066" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29797,7 +29800,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1067" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29823,7 +29826,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29849,7 +29852,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1069" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29875,7 +29878,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1070" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29901,7 +29904,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1071" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29927,7 +29930,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1072" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29953,7 +29956,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1073" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -29979,7 +29982,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1074" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30005,7 +30008,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1075" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30031,7 +30034,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1076" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30057,7 +30060,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1077" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30083,7 +30086,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1078" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30109,7 +30112,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1079" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30161,7 +30164,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1081" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30187,7 +30190,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1082" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30213,7 +30216,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1083" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30239,7 +30242,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1084" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30265,7 +30268,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1085" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30291,7 +30294,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1086" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30317,7 +30320,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1087" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30343,7 +30346,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1088" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30369,7 +30372,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1089" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30395,7 +30398,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1090" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30447,7 +30450,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1092" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30473,7 +30476,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1093" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30525,7 +30528,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1095" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30551,7 +30554,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1096" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30707,7 +30710,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1102" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30733,7 +30736,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1103" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30759,7 +30762,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1104" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30785,7 +30788,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1105" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30811,7 +30814,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30837,7 +30840,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1107" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30863,7 +30866,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30889,7 +30892,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1109" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30915,7 +30918,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1110" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30941,7 +30944,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -30967,7 +30970,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31019,7 +31022,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31045,7 +31048,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31071,7 +31074,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31097,7 +31100,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31123,7 +31126,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31149,7 +31152,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31175,7 +31178,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1120" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31201,7 +31204,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31227,7 +31230,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31253,7 +31256,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31279,7 +31282,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1124" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31305,7 +31308,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31331,7 +31334,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31383,7 +31386,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1128" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31461,7 +31464,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1131" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31487,7 +31490,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1132" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31513,7 +31516,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1133" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31539,7 +31542,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1134" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31565,7 +31568,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31591,7 +31594,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1136" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31669,7 +31672,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31695,7 +31698,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1140" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31721,7 +31724,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1141" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31747,7 +31750,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1142" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31773,7 +31776,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1143" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31799,7 +31802,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31825,7 +31828,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1145" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31851,7 +31854,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31877,7 +31880,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1147" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31903,7 +31906,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1148" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31929,7 +31932,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31955,7 +31958,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1150" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -31981,7 +31984,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32007,7 +32010,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1152" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32033,7 +32036,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1153" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32059,7 +32062,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1154" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32085,7 +32088,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32111,7 +32114,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32215,7 +32218,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1160" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32241,7 +32244,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1161" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32267,7 +32270,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1162" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32293,7 +32296,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1163" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32319,7 +32322,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32345,7 +32348,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1165" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32371,7 +32374,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1166" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32397,7 +32400,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1167" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32423,7 +32426,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1168" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32449,7 +32452,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1169" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32475,7 +32478,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1170" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32501,7 +32504,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1171" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32527,7 +32530,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1172" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32553,7 +32556,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1173" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32579,7 +32582,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1174" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32605,7 +32608,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1175" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32631,7 +32634,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32657,7 +32660,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1177" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32735,7 +32738,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32761,7 +32764,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1181" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32891,7 +32894,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1186" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32917,7 +32920,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1187" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32943,7 +32946,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1188" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -32995,7 +32998,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1190" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33021,7 +33024,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1191" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33047,7 +33050,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33073,7 +33076,7 @@
         <v>3</v>
       </c>
       <c r="G1193" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33099,7 +33102,7 @@
         <v>3</v>
       </c>
       <c r="G1194" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33125,7 +33128,7 @@
         <v>3</v>
       </c>
       <c r="G1195" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33151,7 +33154,7 @@
         <v>3</v>
       </c>
       <c r="G1196" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33177,7 +33180,7 @@
         <v>3</v>
       </c>
       <c r="G1197" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33203,7 +33206,7 @@
         <v>3</v>
       </c>
       <c r="G1198" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33229,7 +33232,7 @@
         <v>3</v>
       </c>
       <c r="G1199" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33255,7 +33258,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1200" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33281,7 +33284,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1201" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33307,7 +33310,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1202" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33333,7 +33336,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1203" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33359,7 +33362,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1204" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33385,7 +33388,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1205" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33411,7 +33414,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1206" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33437,7 +33440,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1207" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33463,7 +33466,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1208" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33489,7 +33492,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1209" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33515,7 +33518,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1210" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33541,7 +33544,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33567,7 +33570,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1212" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33593,7 +33596,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1213" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33619,7 +33622,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1214" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33645,7 +33648,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1215" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33671,7 +33674,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1216" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33697,7 +33700,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1217" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33723,7 +33726,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1218" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33749,7 +33752,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1219" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33775,7 +33778,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33801,7 +33804,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1221" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33827,7 +33830,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1222" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33853,7 +33856,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1223" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33879,7 +33882,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1224" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33905,7 +33908,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33931,7 +33934,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1226" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33957,7 +33960,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -33983,7 +33986,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1228" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34009,7 +34012,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1229" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34035,7 +34038,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34061,7 +34064,7 @@
         <v>2.75</v>
       </c>
       <c r="G1231" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34087,7 +34090,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1232" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34113,7 +34116,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1233" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34139,7 +34142,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1234" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34165,7 +34168,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1235" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34191,7 +34194,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34217,7 +34220,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1237" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34243,7 +34246,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1238" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34269,7 +34272,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1239" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34295,7 +34298,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1240" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34321,7 +34324,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1241" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34347,7 +34350,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1242" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34373,7 +34376,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1243" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34399,7 +34402,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1244" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34425,7 +34428,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1245" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34451,7 +34454,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1246" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34477,7 +34480,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1247" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34503,7 +34506,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1248" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34529,7 +34532,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1249" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34555,7 +34558,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1250" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34581,7 +34584,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1251" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34607,7 +34610,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34633,7 +34636,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1253" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34659,7 +34662,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1254" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34685,7 +34688,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1255" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34711,7 +34714,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1256" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34737,7 +34740,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1257" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34763,7 +34766,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1258" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34815,7 +34818,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1260" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34841,7 +34844,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1261" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34867,7 +34870,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34893,7 +34896,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1263" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -34971,7 +34974,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1266" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35335,7 +35338,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35361,7 +35364,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1281" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35569,7 +35572,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1289" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35621,7 +35624,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1291" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35803,7 +35806,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1298" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35829,7 +35832,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1299" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35881,7 +35884,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1301" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35933,7 +35936,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1303" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35959,7 +35962,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1304" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36089,7 +36092,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1309" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36115,7 +36118,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36245,7 +36248,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1315" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36271,7 +36274,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1316" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36323,7 +36326,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1318" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36349,7 +36352,7 @@
         <v>3.5</v>
       </c>
       <c r="G1319" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36375,7 +36378,7 @@
         <v>3.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36401,7 +36404,7 @@
         <v>3.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36427,7 +36430,7 @@
         <v>3.5</v>
       </c>
       <c r="G1322" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36453,7 +36456,7 @@
         <v>3.5</v>
       </c>
       <c r="G1323" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36479,7 +36482,7 @@
         <v>3.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36609,7 +36612,7 @@
         <v>3.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36661,7 +36664,7 @@
         <v>3.5</v>
       </c>
       <c r="G1331" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36765,7 +36768,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36791,7 +36794,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1336" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36817,7 +36820,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36843,7 +36846,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1338" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36869,7 +36872,7 @@
         <v>3.5</v>
       </c>
       <c r="G1339" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36895,7 +36898,7 @@
         <v>3.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36947,7 +36950,7 @@
         <v>3.5</v>
       </c>
       <c r="G1342" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -36973,7 +36976,7 @@
         <v>3.5</v>
       </c>
       <c r="G1343" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -36999,7 +37002,7 @@
         <v>3.5</v>
       </c>
       <c r="G1344" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37025,7 +37028,7 @@
         <v>3.5</v>
       </c>
       <c r="G1345" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37051,7 +37054,7 @@
         <v>3.5</v>
       </c>
       <c r="G1346" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37077,7 +37080,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1347" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37103,7 +37106,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1348" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37129,7 +37132,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1349" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37259,7 +37262,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1354" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37285,7 +37288,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1355" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37311,7 +37314,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1356" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37337,7 +37340,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1357" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37363,7 +37366,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1358" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37389,7 +37392,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1359" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37415,7 +37418,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1360" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37623,7 +37626,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1368" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37649,7 +37652,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1369" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37779,7 +37782,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1374" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37805,7 +37808,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1375" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37857,7 +37860,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1377" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37909,7 +37912,7 @@
         <v>3.5</v>
       </c>
       <c r="G1379" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37961,7 +37964,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1381" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38039,7 +38042,7 @@
         <v>3.5</v>
       </c>
       <c r="G1384" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38091,7 +38094,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1386" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38143,7 +38146,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1388" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38169,7 +38172,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1389" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38845,7 +38848,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1415" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38949,7 +38952,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1419" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39001,7 +39004,7 @@
         <v>3.5</v>
       </c>
       <c r="G1421" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39027,7 +39030,7 @@
         <v>3.5</v>
       </c>
       <c r="G1422" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39105,7 +39108,7 @@
         <v>3.5</v>
       </c>
       <c r="G1425" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39131,7 +39134,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1426" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39157,7 +39160,7 @@
         <v>3.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39183,7 +39186,7 @@
         <v>3.5</v>
       </c>
       <c r="G1428" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39209,7 +39212,7 @@
         <v>3.5</v>
       </c>
       <c r="G1429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39235,7 +39238,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1430" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39261,7 +39264,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39339,7 +39342,7 @@
         <v>3.5</v>
       </c>
       <c r="G1434" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39365,7 +39368,7 @@
         <v>3.5</v>
       </c>
       <c r="G1435" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39391,7 +39394,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39417,7 +39420,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39443,7 +39446,7 @@
         <v>3.5</v>
       </c>
       <c r="G1438" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39469,7 +39472,7 @@
         <v>3.5</v>
       </c>
       <c r="G1439" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39495,7 +39498,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39521,7 +39524,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1441" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39547,7 +39550,7 @@
         <v>3.5</v>
       </c>
       <c r="G1442" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39651,7 +39654,7 @@
         <v>3.5</v>
       </c>
       <c r="G1446" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39677,7 +39680,7 @@
         <v>3.5</v>
       </c>
       <c r="G1447" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39729,7 +39732,7 @@
         <v>3.5</v>
       </c>
       <c r="G1449" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39755,7 +39758,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39781,7 +39784,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39911,7 +39914,7 @@
         <v>3.5</v>
       </c>
       <c r="G1456" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39937,7 +39940,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1457" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39963,7 +39966,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1458" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39989,7 +39992,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1459" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40015,7 +40018,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1460" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40041,7 +40044,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1461" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40067,7 +40070,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1462" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40093,7 +40096,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1463" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40119,7 +40122,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1464" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40145,7 +40148,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1465" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40171,7 +40174,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1466" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40197,7 +40200,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1467" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40223,7 +40226,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1468" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40249,7 +40252,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1469" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40275,7 +40278,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1470" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40301,7 +40304,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1471" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40327,7 +40330,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1472" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40353,7 +40356,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1473" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40379,7 +40382,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1474" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40405,7 +40408,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1475" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40431,7 +40434,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1476" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40457,7 +40460,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1477" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40483,7 +40486,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1478" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40509,7 +40512,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1479" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40535,7 +40538,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1480" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40561,7 +40564,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1481" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40587,7 +40590,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1482" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40613,7 +40616,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1483" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40639,7 +40642,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1484" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40665,7 +40668,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1485" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40691,7 +40694,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1486" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40717,7 +40720,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1487" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40743,7 +40746,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1488" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40769,7 +40772,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1489" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40795,7 +40798,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1490" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40821,7 +40824,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1491" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40847,7 +40850,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1492" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40873,7 +40876,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1493" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40899,7 +40902,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1494" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40925,7 +40928,7 @@
         <v>4</v>
       </c>
       <c r="G1495" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40951,7 +40954,7 @@
         <v>4</v>
       </c>
       <c r="G1496" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40977,7 +40980,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1497" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41003,7 +41006,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1498" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41029,7 +41032,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41055,7 +41058,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1500" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41081,7 +41084,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1501" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41107,7 +41110,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1502" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41133,7 +41136,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1503" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41159,7 +41162,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1504" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41185,7 +41188,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1505" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41211,7 +41214,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1506" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41237,7 +41240,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1507" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41263,7 +41266,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1508" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41289,7 +41292,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1509" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41315,7 +41318,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1510" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41341,7 +41344,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1511" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41367,7 +41370,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1512" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41393,7 +41396,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1513" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41419,7 +41422,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1514" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41445,7 +41448,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1515" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41471,7 +41474,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1516" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41497,7 +41500,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1517" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41523,7 +41526,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1518" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41549,7 +41552,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1519" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41575,7 +41578,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1520" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41601,7 +41604,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1521" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41627,7 +41630,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1522" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41653,7 +41656,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1523" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41679,7 +41682,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1524" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41705,7 +41708,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1525" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41731,7 +41734,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1526" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41757,7 +41760,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1527" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41783,7 +41786,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1528" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41809,7 +41812,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1529" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41835,7 +41838,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1530" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41861,7 +41864,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41887,7 +41890,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1532" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41913,7 +41916,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1533" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41939,7 +41942,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1534" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41965,7 +41968,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1535" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41991,7 +41994,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1536" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42017,7 +42020,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1537" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42043,7 +42046,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1538" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42069,7 +42072,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1539" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42095,7 +42098,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1540" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42121,7 +42124,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1541" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42147,7 +42150,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1542" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42173,7 +42176,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1543" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42199,7 +42202,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1544" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42225,7 +42228,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1545" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42251,7 +42254,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1546" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42277,7 +42280,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1547" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42303,7 +42306,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42329,7 +42332,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1549" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42355,7 +42358,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1550" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42381,7 +42384,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1551" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42407,7 +42410,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1552" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42433,7 +42436,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1553" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42459,7 +42462,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1554" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42485,7 +42488,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1555" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42511,7 +42514,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1556" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42537,7 +42540,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1557" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42563,7 +42566,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1558" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42589,7 +42592,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42615,7 +42618,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42641,7 +42644,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1561" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42667,7 +42670,7 @@
         <v>3.5</v>
       </c>
       <c r="G1562" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42693,7 +42696,7 @@
         <v>3.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42979,7 +42982,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1574" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43109,7 +43112,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1579" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43161,7 +43164,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1581" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43187,7 +43190,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1582" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43213,7 +43216,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1583" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43239,7 +43242,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1584" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43265,7 +43268,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1585" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43291,7 +43294,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1586" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43317,7 +43320,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1587" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43343,7 +43346,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43369,7 +43372,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1589" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43395,7 +43398,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1590" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43421,7 +43424,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1591" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43447,7 +43450,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1592" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43473,7 +43476,7 @@
         <v>3.5</v>
       </c>
       <c r="G1593" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43499,7 +43502,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1594" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43525,7 +43528,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1595" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43551,7 +43554,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1596" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43577,7 +43580,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1597" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43603,7 +43606,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1598" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43629,7 +43632,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43655,7 +43658,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1600" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43681,7 +43684,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1601" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43707,7 +43710,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1602" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43733,7 +43736,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1603" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43759,7 +43762,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1604" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43785,7 +43788,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1605" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43811,7 +43814,7 @@
         <v>3.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43837,7 +43840,7 @@
         <v>3.5</v>
       </c>
       <c r="G1607" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43863,7 +43866,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43889,7 +43892,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1609" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43941,7 +43944,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1611" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43993,7 +43996,7 @@
         <v>3.5</v>
       </c>
       <c r="G1613" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44045,7 +44048,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44071,7 +44074,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1616" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44097,7 +44100,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1617" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44227,7 +44230,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1622" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44253,7 +44256,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1623" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44279,7 +44282,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44305,7 +44308,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1625" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44331,7 +44334,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44357,7 +44360,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1627" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44383,7 +44386,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44409,7 +44412,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1629" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44435,7 +44438,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1630" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44461,7 +44464,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44487,7 +44490,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44513,7 +44516,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1633" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44539,7 +44542,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1634" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44565,7 +44568,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1635" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44591,7 +44594,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1636" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44617,7 +44620,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1637" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44643,7 +44646,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44669,7 +44672,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1639" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44695,7 +44698,7 @@
         <v>3.5</v>
       </c>
       <c r="G1640" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44721,7 +44724,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44747,7 +44750,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44773,7 +44776,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44825,7 +44828,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1645" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44929,7 +44932,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1649" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45163,7 +45166,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1658" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45787,7 +45790,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1682" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45865,7 +45868,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1685" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45891,7 +45894,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45917,7 +45920,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45943,7 +45946,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45995,7 +45998,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46021,7 +46024,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46047,7 +46050,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46125,7 +46128,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46151,7 +46154,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1696" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46177,7 +46180,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1697" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46281,7 +46284,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1701" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46463,7 +46466,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46489,7 +46492,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1709" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46515,7 +46518,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -56733,7 +56736,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56759,7 +56762,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56967,7 +56970,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57097,7 +57100,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57123,7 +57126,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57149,7 +57152,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57201,7 +57204,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57227,7 +57230,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57279,7 +57282,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57305,7 +57308,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57331,7 +57334,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57357,7 +57360,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57383,7 +57386,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57409,7 +57412,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57513,7 +57516,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57539,7 +57542,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57565,7 +57568,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57591,7 +57594,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57617,7 +57620,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57643,7 +57646,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57669,7 +57672,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57695,7 +57698,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57721,7 +57724,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57747,7 +57750,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57755,7 +57758,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.5598611111</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>2280</v>
@@ -57773,9 +57776,35 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.5103356481</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>3.05999994277954</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>3.07999992370605</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="570">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">2.28581166267395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397939682007</t>
+    <t xml:space="preserve">2.30397915840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.17185139656067</t>
@@ -59,10 +59,10 @@
     <t xml:space="preserve">2.21974778175354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836736679077</t>
+    <t xml:space="preserve">2.18836760520935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019987106323</t>
+    <t xml:space="preserve">2.17019963264465</t>
   </si>
   <si>
     <t xml:space="preserve">2.09752917289734</t>
@@ -71,64 +71,64 @@
     <t xml:space="preserve">2.08927130699158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00503945350647</t>
+    <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257459640503</t>
+    <t xml:space="preserve">2.09257483482361</t>
   </si>
   <si>
     <t xml:space="preserve">2.1140456199646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542555809021</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0628457069397</t>
+    <t xml:space="preserve">2.06284546852112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449770927429</t>
+    <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972363471985</t>
+    <t xml:space="preserve">2.03972339630127</t>
   </si>
   <si>
     <t xml:space="preserve">2.0364203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852407932281</t>
+    <t xml:space="preserve">1.98852384090424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660132408142</t>
+    <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365963459015</t>
+    <t xml:space="preserve">1.97365951538086</t>
   </si>
   <si>
     <t xml:space="preserve">2.06119441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017572402954</t>
+    <t xml:space="preserve">1.99017560482025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329779624939</t>
+    <t xml:space="preserve">2.01329803466797</t>
   </si>
   <si>
     <t xml:space="preserve">2.11734843254089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2544310092926</t>
+    <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875323295593</t>
+    <t xml:space="preserve">2.32875299453735</t>
   </si>
   <si>
     <t xml:space="preserve">2.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223702430725</t>
+    <t xml:space="preserve">2.31223726272583</t>
   </si>
   <si>
     <t xml:space="preserve">2.22139930725098</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">2.13716769218445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746318817139</t>
+    <t xml:space="preserve">2.28746342658997</t>
   </si>
   <si>
     <t xml:space="preserve">2.36839127540588</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">2.47739696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34526896476746</t>
+    <t xml:space="preserve">2.34526872634888</t>
   </si>
   <si>
     <t xml:space="preserve">2.42124247550964</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">2.39481711387634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4740936756134</t>
+    <t xml:space="preserve">2.47409391403198</t>
   </si>
   <si>
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5352029800415</t>
+    <t xml:space="preserve">2.53520274162292</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042866706848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126686096191</t>
+    <t xml:space="preserve">2.60126662254333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135723114014</t>
+    <t xml:space="preserve">2.59135699272156</t>
   </si>
   <si>
     <t xml:space="preserve">2.61117625236511</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">2.47244215011597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50712561607361</t>
+    <t xml:space="preserve">2.50712537765503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41793942451477</t>
+    <t xml:space="preserve">2.41793966293335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574520111084</t>
+    <t xml:space="preserve">2.47574496269226</t>
   </si>
   <si>
     <t xml:space="preserve">2.48895835876465</t>
@@ -206,19 +206,19 @@
     <t xml:space="preserve">2.49391317367554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253275871277</t>
+    <t xml:space="preserve">2.46253299713135</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43610715866089</t>
+    <t xml:space="preserve">2.43610692024231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40307545661926</t>
+    <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106221199036</t>
+    <t xml:space="preserve">2.44106197357178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4245457649231</t>
+    <t xml:space="preserve">2.42454600334167</t>
   </si>
   <si>
     <t xml:space="preserve">2.37830138206482</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">2.16854786872864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15533518791199</t>
+    <t xml:space="preserve">2.15533566474915</t>
   </si>
   <si>
     <t xml:space="preserve">2.10578727722168</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">2.0461094379425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598955154419</t>
+    <t xml:space="preserve">2.00598978996277</t>
   </si>
   <si>
     <t xml:space="preserve">2.13303542137146</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">2.04778099060059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03942251205444</t>
+    <t xml:space="preserve">2.03942275047302</t>
   </si>
   <si>
     <t xml:space="preserve">2.0227062702179</t>
@@ -272,19 +272,19 @@
     <t xml:space="preserve">2.00431776046753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927295207977</t>
+    <t xml:space="preserve">1.98927307128906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825475215912</t>
+    <t xml:space="preserve">1.64825463294983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7970324754715</t>
+    <t xml:space="preserve">1.79703235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374883651733</t>
+    <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207704544067</t>
+    <t xml:space="preserve">1.81207716464996</t>
   </si>
   <si>
     <t xml:space="preserve">1.77195739746094</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">1.75356912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73016595840454</t>
+    <t xml:space="preserve">1.73016583919525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7218074798584</t>
+    <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
     <t xml:space="preserve">1.7385241985321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837440013885</t>
+    <t xml:space="preserve">1.68837451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75524079799652</t>
+    <t xml:space="preserve">1.75524091720581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855434894562</t>
+    <t xml:space="preserve">1.74855411052704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688231945038</t>
+    <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344935894012</t>
+    <t xml:space="preserve">1.71344947814941</t>
   </si>
   <si>
     <t xml:space="preserve">1.68001616001129</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">1.87225675582886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419787406921</t>
+    <t xml:space="preserve">1.96419775485992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754121780396</t>
+    <t xml:space="preserve">1.96754133701324</t>
   </si>
   <si>
     <t xml:space="preserve">2.05613899230957</t>
@@ -347,31 +347,31 @@
     <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05781102180481</t>
+    <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088468074799</t>
+    <t xml:space="preserve">1.97088479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413781166077</t>
+    <t xml:space="preserve">1.94413793087006</t>
   </si>
   <si>
     <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103424072266</t>
+    <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763131141663</t>
+    <t xml:space="preserve">1.99763119220734</t>
   </si>
   <si>
     <t xml:space="preserve">2.0711841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07285571098328</t>
+    <t xml:space="preserve">2.07285594940186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625911712646</t>
+    <t xml:space="preserve">2.09625887870789</t>
   </si>
   <si>
     <t xml:space="preserve">2.11464715003967</t>
@@ -392,22 +392,22 @@
     <t xml:space="preserve">2.16312527656555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16479682922363</t>
+    <t xml:space="preserve">2.16479659080505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655871391296</t>
+    <t xml:space="preserve">2.19655847549438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23166346549988</t>
+    <t xml:space="preserve">2.2316632270813</t>
   </si>
   <si>
     <t xml:space="preserve">2.22330498695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29685807228088</t>
+    <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33196306228638</t>
+    <t xml:space="preserve">2.3319628238678</t>
   </si>
   <si>
     <t xml:space="preserve">2.34032106399536</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">2.31691789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533619880676</t>
+    <t xml:space="preserve">2.34533596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539578437805</t>
+    <t xml:space="preserve">2.36539554595947</t>
   </si>
   <si>
     <t xml:space="preserve">2.36372447013855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530616760254</t>
+    <t xml:space="preserve">2.33530592918396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008152961731</t>
+    <t xml:space="preserve">2.26008129119873</t>
   </si>
   <si>
     <t xml:space="preserve">2.2951865196228</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">2.25673818588257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30521631240845</t>
+    <t xml:space="preserve">2.30521607398987</t>
   </si>
   <si>
     <t xml:space="preserve">2.24670839309692</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">2.11631894111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21494674682617</t>
+    <t xml:space="preserve">2.21494698524475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324516296387</t>
+    <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
     <t xml:space="preserve">2.27011132240295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506639480591</t>
+    <t xml:space="preserve">2.25506663322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.1898717880249</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990181922913</t>
+    <t xml:space="preserve">2.19990158081055</t>
   </si>
   <si>
     <t xml:space="preserve">2.24336504936218</t>
@@ -506,25 +506,25 @@
     <t xml:space="preserve">2.183185338974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688762664795</t>
+    <t xml:space="preserve">2.30688786506653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861971855164</t>
+    <t xml:space="preserve">2.32861924171448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554570198059</t>
+    <t xml:space="preserve">2.41554594039917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223238945007</t>
+    <t xml:space="preserve">2.42223215103149</t>
   </si>
   <si>
     <t xml:space="preserve">2.40551567077637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45900845527649</t>
+    <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709760665894</t>
+    <t xml:space="preserve">2.37709784507751</t>
   </si>
   <si>
     <t xml:space="preserve">2.52754664421082</t>
@@ -533,19 +533,19 @@
     <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54927825927734</t>
+    <t xml:space="preserve">2.54927849769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.48909831047058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46569561958313</t>
+    <t xml:space="preserve">2.46569538116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.53256154060364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241186141968</t>
+    <t xml:space="preserve">2.48241209983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.39715719223022</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">2.4389488697052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49077033996582</t>
+    <t xml:space="preserve">2.4907705783844</t>
   </si>
   <si>
     <t xml:space="preserve">2.49912858009338</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">2.50414371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906875610352</t>
+    <t xml:space="preserve">2.47906899452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46402406692505</t>
+    <t xml:space="preserve">2.46402382850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.39882898330688</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">2.59942817687988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64790558815002</t>
+    <t xml:space="preserve">2.64790606498718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62450289726257</t>
+    <t xml:space="preserve">2.62450313568115</t>
   </si>
   <si>
     <t xml:space="preserve">2.67298102378845</t>
@@ -596,7 +596,7 @@
     <t xml:space="preserve">2.78163862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84181880950928</t>
+    <t xml:space="preserve">2.8418185710907</t>
   </si>
   <si>
     <t xml:space="preserve">2.83847522735596</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">2.83513164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81674337387085</t>
+    <t xml:space="preserve">2.81674361228943</t>
   </si>
   <si>
     <t xml:space="preserve">2.83346033096313</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811604499817</t>
+    <t xml:space="preserve">2.71811580657959</t>
   </si>
   <si>
     <t xml:space="preserve">2.81172871589661</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">2.76659369468689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.751549243927</t>
+    <t xml:space="preserve">2.75154900550842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495241165161</t>
+    <t xml:space="preserve">2.77495217323303</t>
   </si>
   <si>
     <t xml:space="preserve">2.79166865348816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486231803894</t>
+    <t xml:space="preserve">2.74486207962036</t>
   </si>
   <si>
     <t xml:space="preserve">2.74319052696228</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">2.73316049575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78330993652344</t>
+    <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817539215088</t>
   </si>
   <si>
     <t xml:space="preserve">2.80838513374329</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">2.79835557937622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002665519714</t>
+    <t xml:space="preserve">2.80002689361572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068567276001</t>
+    <t xml:space="preserve">3.02068591117859</t>
   </si>
   <si>
     <t xml:space="preserve">2.97387957572937</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99728274345398</t>
+    <t xml:space="preserve">2.99728298187256</t>
   </si>
   <si>
     <t xml:space="preserve">3.00898432731628</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622842788696</t>
+    <t xml:space="preserve">3.02622866630554</t>
   </si>
   <si>
     <t xml:space="preserve">2.97733688354492</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">2.84246301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87112355232239</t>
+    <t xml:space="preserve">2.87112331390381</t>
   </si>
   <si>
     <t xml:space="preserve">2.80705857276917</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">2.74973773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73625016212463</t>
+    <t xml:space="preserve">2.73624992370605</t>
   </si>
   <si>
     <t xml:space="preserve">2.75816702842712</t>
@@ -746,19 +746,19 @@
     <t xml:space="preserve">2.83234739303589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8896689414978</t>
+    <t xml:space="preserve">2.88966917991638</t>
   </si>
   <si>
     <t xml:space="preserve">2.88629722595215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85763645172119</t>
+    <t xml:space="preserve">2.85763669013977</t>
   </si>
   <si>
     <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123917579651</t>
+    <t xml:space="preserve">2.88123941421509</t>
   </si>
   <si>
     <t xml:space="preserve">2.94193243980408</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507314682007</t>
+    <t xml:space="preserve">2.92507338523865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91664361953735</t>
+    <t xml:space="preserve">2.91664385795593</t>
   </si>
   <si>
     <t xml:space="preserve">2.9368748664856</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89978456497192</t>
+    <t xml:space="preserve">2.89978432655334</t>
   </si>
   <si>
     <t xml:space="preserve">2.92001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024634361267</t>
+    <t xml:space="preserve">2.94024610519409</t>
   </si>
   <si>
     <t xml:space="preserve">2.91495776176453</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">2.9537341594696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879173278809</t>
+    <t xml:space="preserve">2.95879197120667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315628051758</t>
+    <t xml:space="preserve">2.903156042099</t>
   </si>
   <si>
     <t xml:space="preserve">2.84920692443848</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.938560962677</t>
+    <t xml:space="preserve">2.93856072425842</t>
   </si>
   <si>
     <t xml:space="preserve">2.93181681632996</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95710563659668</t>
+    <t xml:space="preserve">2.95710587501526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227907180786</t>
+    <t xml:space="preserve">2.97227883338928</t>
   </si>
   <si>
     <t xml:space="preserve">2.98745226860046</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">2.91832947731018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91158604621887</t>
+    <t xml:space="preserve">2.91158580780029</t>
   </si>
   <si>
     <t xml:space="preserve">3.03465819358826</t>
@@ -872,22 +872,22 @@
     <t xml:space="preserve">3.07680606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00431156158447</t>
+    <t xml:space="preserve">3.00431132316589</t>
   </si>
   <si>
     <t xml:space="preserve">3.05657505989075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15098667144775</t>
+    <t xml:space="preserve">3.15098643302917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11895442008972</t>
+    <t xml:space="preserve">3.11895418167114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396492958069</t>
+    <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454257011414</t>
+    <t xml:space="preserve">3.02454280853271</t>
   </si>
   <si>
     <t xml:space="preserve">3.02285695075989</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">2.93013119697571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81548810005188</t>
+    <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96890735626221</t>
+    <t xml:space="preserve">2.96890711784363</t>
   </si>
   <si>
     <t xml:space="preserve">2.99251008033752</t>
@@ -932,7 +932,7 @@
     <t xml:space="preserve">2.93350315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862952232361</t>
+    <t xml:space="preserve">2.79862928390503</t>
   </si>
   <si>
     <t xml:space="preserve">2.73962187767029</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">2.68061494827271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69747400283813</t>
+    <t xml:space="preserve">2.69747376441956</t>
   </si>
   <si>
     <t xml:space="preserve">2.73119235038757</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">2.60474824905396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59631848335266</t>
+    <t xml:space="preserve">2.59631824493408</t>
   </si>
   <si>
     <t xml:space="preserve">2.55417037010193</t>
@@ -968,25 +968,25 @@
     <t xml:space="preserve">2.58788895606995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61317777633667</t>
+    <t xml:space="preserve">2.61317801475525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160730361938</t>
+    <t xml:space="preserve">2.62160754203796</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71433305740356</t>
+    <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
     <t xml:space="preserve">2.79019951820374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0599467754364</t>
+    <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96281099319458</t>
+    <t xml:space="preserve">2.962810754776</t>
   </si>
   <si>
     <t xml:space="preserve">2.94553518295288</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736285209656</t>
+    <t xml:space="preserve">2.99736261367798</t>
   </si>
   <si>
     <t xml:space="preserve">2.95417284965515</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">2.8159658908844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8332417011261</t>
+    <t xml:space="preserve">2.83324193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.781414270401</t>
+    <t xml:space="preserve">2.78141450881958</t>
   </si>
   <si>
     <t xml:space="preserve">2.79005217552185</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">2.79869031906128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7641384601593</t>
+    <t xml:space="preserve">2.76413822174072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77277612686157</t>
+    <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
     <t xml:space="preserve">2.6863968372345</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094869613647</t>
+    <t xml:space="preserve">2.72094893455505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550079345703</t>
+    <t xml:space="preserve">2.75550055503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">2.54819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55682826042175</t>
+    <t xml:space="preserve">2.55682802200317</t>
   </si>
   <si>
     <t xml:space="preserve">2.6172935962677</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">2.82460379600525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84187984466553</t>
+    <t xml:space="preserve">2.84187960624695</t>
   </si>
   <si>
     <t xml:space="preserve">2.85051774978638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89370727539062</t>
+    <t xml:space="preserve">2.8937075138092</t>
   </si>
   <si>
     <t xml:space="preserve">2.9282591342926</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8677933216095</t>
+    <t xml:space="preserve">2.86779356002808</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">3.02327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646585464478</t>
+    <t xml:space="preserve">3.06646609306335</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04055237770081</t>
+    <t xml:space="preserve">3.04055213928223</t>
   </si>
   <si>
     <t xml:space="preserve">3.00600051879883</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191423416138</t>
+    <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
     <t xml:space="preserve">2.98008680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0923798084259</t>
+    <t xml:space="preserve">3.09238004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97144865989685</t>
+    <t xml:space="preserve">2.97144889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07510375976562</t>
+    <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
     <t xml:space="preserve">2.9455349445343</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">3.03479361534119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02586770057678</t>
+    <t xml:space="preserve">3.02586793899536</t>
   </si>
   <si>
     <t xml:space="preserve">3.07049703598022</t>
@@ -1184,28 +1184,28 @@
     <t xml:space="preserve">3.05264544487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694178581238</t>
+    <t xml:space="preserve">3.01694202423096</t>
   </si>
   <si>
     <t xml:space="preserve">2.99908995628357</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0615713596344</t>
+    <t xml:space="preserve">3.06157112121582</t>
   </si>
   <si>
     <t xml:space="preserve">3.07942271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09727478027344</t>
+    <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
     <t xml:space="preserve">3.04371929168701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834886550903</t>
+    <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1329779624939</t>
+    <t xml:space="preserve">3.13297820091248</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660879135132</t>
@@ -1214,13 +1214,13 @@
     <t xml:space="preserve">2.92768311500549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90090537071228</t>
+    <t xml:space="preserve">2.90090560913086</t>
   </si>
   <si>
     <t xml:space="preserve">2.90983152389526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95446085929871</t>
+    <t xml:space="preserve">2.95446062088013</t>
   </si>
   <si>
     <t xml:space="preserve">2.98123836517334</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">2.75809168815613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81164717674255</t>
+    <t xml:space="preserve">2.81164693832397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74916577339172</t>
+    <t xml:space="preserve">2.7491660118103</t>
   </si>
   <si>
     <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64205574989319</t>
+    <t xml:space="preserve">2.64205551147461</t>
   </si>
   <si>
     <t xml:space="preserve">2.62420392036438</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">2.69561076164246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72238826751709</t>
+    <t xml:space="preserve">2.72238802909851</t>
   </si>
   <si>
     <t xml:space="preserve">2.59742617607117</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">2.73131418228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65098142623901</t>
+    <t xml:space="preserve">2.65098166465759</t>
   </si>
   <si>
     <t xml:space="preserve">2.70453643798828</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">3.23116254806519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15975546836853</t>
+    <t xml:space="preserve">3.15975570678711</t>
   </si>
   <si>
     <t xml:space="preserve">3.1419038772583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11512613296509</t>
+    <t xml:space="preserve">3.11512637138367</t>
   </si>
   <si>
     <t xml:space="preserve">3.12405228614807</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">3.10620045661926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99016404151917</t>
+    <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
     <t xml:space="preserve">2.89197969436646</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">2.80272126197815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379510879517</t>
+    <t xml:space="preserve">2.79379534721375</t>
   </si>
   <si>
     <t xml:space="preserve">2.4278347492218</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">2.46353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57957482337952</t>
+    <t xml:space="preserve">2.57957458496094</t>
   </si>
   <si>
     <t xml:space="preserve">2.61527800559998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78486943244934</t>
+    <t xml:space="preserve">2.78486919403076</t>
   </si>
   <si>
     <t xml:space="preserve">2.77594351768494</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">2.84735035896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82949876785278</t>
+    <t xml:space="preserve">2.8294985294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305377960205</t>
+    <t xml:space="preserve">2.88305401802063</t>
   </si>
   <si>
     <t xml:space="preserve">2.82057285308838</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">2.57064867019653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49924182891846</t>
+    <t xml:space="preserve">2.49924159049988</t>
   </si>
   <si>
     <t xml:space="preserve">2.55279684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031591415405</t>
+    <t xml:space="preserve">2.49031567573547</t>
   </si>
   <si>
     <t xml:space="preserve">2.43676090240479</t>
@@ -1373,25 +1373,25 @@
     <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320565223694</t>
+    <t xml:space="preserve">2.38320541381836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189088344574</t>
+    <t xml:space="preserve">2.41890907287598</t>
   </si>
   <si>
     <t xml:space="preserve">2.45461249351501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709342002869</t>
+    <t xml:space="preserve">2.51709365844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520218849182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15082979202271</t>
+    <t xml:space="preserve">3.15082955360413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653321266174</t>
+    <t xml:space="preserve">3.18653297424316</t>
   </si>
   <si>
     <t xml:space="preserve">3.16868138313293</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042121887207</t>
+    <t xml:space="preserve">3.32042098045349</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">3.33827304840088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30256938934326</t>
+    <t xml:space="preserve">3.30256962776184</t>
   </si>
   <si>
     <t xml:space="preserve">3.2668662071228</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">3.44538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65960383415222</t>
+    <t xml:space="preserve">3.65960359573364</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">3.64175224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5346417427063</t>
+    <t xml:space="preserve">3.53464198112488</t>
   </si>
   <si>
     <t xml:space="preserve">3.51679039001465</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25992059707642</t>
+    <t xml:space="preserve">3.259920835495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675602912903</t>
+    <t xml:space="preserve">3.29675579071045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308540344238</t>
+    <t xml:space="preserve">3.22308564186096</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890919685364</t>
+    <t xml:space="preserve">3.03890895843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1517,16 +1517,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0112829208374</t>
+    <t xml:space="preserve">3.01128268241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653547286987</t>
+    <t xml:space="preserve">3.06653571128845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682097434998</t>
+    <t xml:space="preserve">2.94682121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523857116699</t>
+    <t xml:space="preserve">2.96523880958557</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625044822693</t>
+    <t xml:space="preserve">3.18625020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811787605286</t>
+    <t xml:space="preserve">3.04811811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049160003662</t>
+    <t xml:space="preserve">3.02049136161804</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365616798401</t>
+    <t xml:space="preserve">2.98365640640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286532402039</t>
+    <t xml:space="preserve">2.99286508560181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2415030002594</t>
+    <t xml:space="preserve">3.24150323867798</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1677,6 +1677,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -56730,7 +56733,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56756,7 +56759,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>503</v>
+        <v>555</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56964,7 +56967,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57094,7 +57097,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57120,7 +57123,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57146,7 +57149,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57198,7 +57201,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57224,7 +57227,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57276,7 +57279,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57302,7 +57305,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57328,7 +57331,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57354,7 +57357,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57380,7 +57383,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57406,7 +57409,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57510,7 +57513,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57536,7 +57539,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57562,7 +57565,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57588,7 +57591,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57614,7 +57617,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57640,7 +57643,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57666,7 +57669,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57692,7 +57695,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57718,7 +57721,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57744,7 +57747,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57770,7 +57773,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57796,7 +57799,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57822,7 +57825,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57830,7 +57833,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6436342593</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>745</v>
@@ -57848,9 +57851,35 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.5755555556</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>5088</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>3.08999991416931</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>3.09999990463257</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>3.09999990463257</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>569</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="572">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33370733261108</t>
+    <t xml:space="preserve">2.33370804786682</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35517883300781</t>
+    <t xml:space="preserve">2.35517835617065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28581142425537</t>
+    <t xml:space="preserve">2.28581166267395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397891998291</t>
+    <t xml:space="preserve">2.30397915840149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185139656067</t>
+    <t xml:space="preserve">2.17185115814209</t>
   </si>
   <si>
     <t xml:space="preserve">2.21974754333496</t>
@@ -62,31 +62,31 @@
     <t xml:space="preserve">2.18836736679077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019963264465</t>
+    <t xml:space="preserve">2.17019939422607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752941131592</t>
+    <t xml:space="preserve">2.09752917289734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08927154541016</t>
+    <t xml:space="preserve">2.08927130699158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00504016876221</t>
+    <t xml:space="preserve">2.00503993034363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257483482361</t>
+    <t xml:space="preserve">2.09257459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404538154602</t>
+    <t xml:space="preserve">2.1140456199646</t>
   </si>
   <si>
     <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0628457069397</t>
+    <t xml:space="preserve">2.06284594535828</t>
   </si>
   <si>
     <t xml:space="preserve">2.06449747085571</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365975379944</t>
+    <t xml:space="preserve">1.97365963459015</t>
   </si>
   <si>
     <t xml:space="preserve">2.06119441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017560482025</t>
+    <t xml:space="preserve">1.99017524719238</t>
   </si>
   <si>
     <t xml:space="preserve">2.01329779624939</t>
@@ -119,25 +119,25 @@
     <t xml:space="preserve">2.11734843254089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2544310092926</t>
+    <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875299453735</t>
+    <t xml:space="preserve">2.32875323295593</t>
   </si>
   <si>
     <t xml:space="preserve">2.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223726272583</t>
+    <t xml:space="preserve">2.31223702430725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22139978408813</t>
+    <t xml:space="preserve">2.22139954566956</t>
   </si>
   <si>
     <t xml:space="preserve">2.14707732200623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716793060303</t>
+    <t xml:space="preserve">2.13716745376587</t>
   </si>
   <si>
     <t xml:space="preserve">2.28746318817139</t>
@@ -158,37 +158,37 @@
     <t xml:space="preserve">2.39481711387634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47409343719482</t>
+    <t xml:space="preserve">2.4740936756134</t>
   </si>
   <si>
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520274162292</t>
+    <t xml:space="preserve">2.5352029800415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51042890548706</t>
+    <t xml:space="preserve">2.51042914390564</t>
   </si>
   <si>
     <t xml:space="preserve">2.60126686096191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135723114014</t>
+    <t xml:space="preserve">2.59135699272156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117625236511</t>
+    <t xml:space="preserve">2.61117672920227</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180955886841</t>
+    <t xml:space="preserve">2.54180932044983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51703524589539</t>
+    <t xml:space="preserve">2.51703548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868677139282</t>
+    <t xml:space="preserve">2.5186870098114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47244191169739</t>
+    <t xml:space="preserve">2.47244215011597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50712585449219</t>
@@ -200,16 +200,16 @@
     <t xml:space="preserve">2.47574496269226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895788192749</t>
+    <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
     <t xml:space="preserve">2.49391293525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253252029419</t>
+    <t xml:space="preserve">2.46253275871277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43610715866089</t>
+    <t xml:space="preserve">2.43610692024231</t>
   </si>
   <si>
     <t xml:space="preserve">2.40307521820068</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">2.42454600334167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37830114364624</t>
+    <t xml:space="preserve">2.37830138206482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2114896774292</t>
+    <t xml:space="preserve">2.21148991584778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1404709815979</t>
+    <t xml:space="preserve">2.14047074317932</t>
   </si>
   <si>
     <t xml:space="preserve">2.16854810714722</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">2.15533518791199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10578727722168</t>
+    <t xml:space="preserve">2.10578751564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0461094379425</t>
+    <t xml:space="preserve">2.04610919952393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598978996277</t>
+    <t xml:space="preserve">2.00598955154419</t>
   </si>
   <si>
     <t xml:space="preserve">2.13303542137146</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">2.08957242965698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0277214050293</t>
+    <t xml:space="preserve">2.02772116661072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04778075218201</t>
+    <t xml:space="preserve">2.04778122901917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03942275047302</t>
+    <t xml:space="preserve">2.03942251205444</t>
   </si>
   <si>
     <t xml:space="preserve">2.0227062702179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01434779167175</t>
+    <t xml:space="preserve">2.01434803009033</t>
   </si>
   <si>
     <t xml:space="preserve">1.97255623340607</t>
@@ -272,40 +272,40 @@
     <t xml:space="preserve">2.00431752204895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927330970764</t>
+    <t xml:space="preserve">1.98927295207977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825463294983</t>
+    <t xml:space="preserve">1.64825475215912</t>
   </si>
   <si>
     <t xml:space="preserve">1.79703223705292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374907493591</t>
+    <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
     <t xml:space="preserve">1.81207704544067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195739746094</t>
+    <t xml:space="preserve">1.77195715904236</t>
   </si>
   <si>
     <t xml:space="preserve">1.75356912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73016583919525</t>
+    <t xml:space="preserve">1.73016571998596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72180771827698</t>
+    <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7385241985321</t>
+    <t xml:space="preserve">1.73852407932281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837463855743</t>
+    <t xml:space="preserve">1.68837440013885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75524079799652</t>
+    <t xml:space="preserve">1.75524067878723</t>
   </si>
   <si>
     <t xml:space="preserve">1.74855422973633</t>
@@ -314,46 +314,46 @@
     <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344947814941</t>
+    <t xml:space="preserve">1.71344923973083</t>
   </si>
   <si>
     <t xml:space="preserve">1.68001616001129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673275947571</t>
+    <t xml:space="preserve">1.69673264026642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225699424744</t>
+    <t xml:space="preserve">1.87225675582886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419823169708</t>
+    <t xml:space="preserve">1.96419787406921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754133701324</t>
+    <t xml:space="preserve">1.96754145622253</t>
   </si>
   <si>
     <t xml:space="preserve">2.05613923072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933265686035</t>
+    <t xml:space="preserve">2.00933289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604961395264</t>
+    <t xml:space="preserve">2.02604913711548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443788528442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07787084579468</t>
+    <t xml:space="preserve">2.0778706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05781078338623</t>
+    <t xml:space="preserve">2.05781102180481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9708845615387</t>
+    <t xml:space="preserve">1.97088491916656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413793087006</t>
+    <t xml:space="preserve">1.94413828849792</t>
   </si>
   <si>
     <t xml:space="preserve">1.97757124900818</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763119220734</t>
+    <t xml:space="preserve">1.99763131141663</t>
   </si>
   <si>
     <t xml:space="preserve">2.0711841583252</t>
@@ -371,40 +371,40 @@
     <t xml:space="preserve">2.07285571098328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625887870789</t>
+    <t xml:space="preserve">2.09625911712646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464715003967</t>
+    <t xml:space="preserve">2.11464738845825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823026657104</t>
+    <t xml:space="preserve">2.19823050498962</t>
   </si>
   <si>
     <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652868270874</t>
+    <t xml:space="preserve">2.18652820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643858909607</t>
+    <t xml:space="preserve">2.15643835067749</t>
   </si>
   <si>
     <t xml:space="preserve">2.16312551498413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16479659080505</t>
+    <t xml:space="preserve">2.16479682922363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655871391296</t>
+    <t xml:space="preserve">2.19655847549438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2316632270813</t>
+    <t xml:space="preserve">2.23166346549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330498695374</t>
+    <t xml:space="preserve">2.22330522537231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2968578338623</t>
+    <t xml:space="preserve">2.29685807228088</t>
   </si>
   <si>
     <t xml:space="preserve">2.33196306228638</t>
@@ -416,46 +416,46 @@
     <t xml:space="preserve">2.34700775146484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38044118881226</t>
+    <t xml:space="preserve">2.38044095039368</t>
   </si>
   <si>
     <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32360434532166</t>
+    <t xml:space="preserve">2.32360458374023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855941772461</t>
+    <t xml:space="preserve">2.30855965614319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33864951133728</t>
+    <t xml:space="preserve">2.3386492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31691789627075</t>
+    <t xml:space="preserve">2.31691813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533596038818</t>
+    <t xml:space="preserve">2.34533619880676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539554595947</t>
+    <t xml:space="preserve">2.36539602279663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36372447013855</t>
+    <t xml:space="preserve">2.36372470855713</t>
   </si>
   <si>
     <t xml:space="preserve">2.33530592918396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008152961731</t>
+    <t xml:space="preserve">2.26008129119873</t>
   </si>
   <si>
     <t xml:space="preserve">2.2951865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673818588257</t>
+    <t xml:space="preserve">2.25673794746399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30521607398987</t>
+    <t xml:space="preserve">2.30521583557129</t>
   </si>
   <si>
     <t xml:space="preserve">2.24670839309692</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">2.14808034896851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17984175682068</t>
+    <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631870269775</t>
+    <t xml:space="preserve">2.11631894111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21494698524475</t>
+    <t xml:space="preserve">2.21494722366333</t>
   </si>
   <si>
     <t xml:space="preserve">2.20324492454529</t>
@@ -485,10 +485,10 @@
     <t xml:space="preserve">2.1898717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339484214783</t>
+    <t xml:space="preserve">2.25339508056641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19154357910156</t>
+    <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
     <t xml:space="preserve">2.19990181922913</t>
@@ -506,25 +506,25 @@
     <t xml:space="preserve">2.18318510055542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688786506653</t>
+    <t xml:space="preserve">2.30688762664795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861924171448</t>
+    <t xml:space="preserve">2.32861971855164</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554570198059</t>
+    <t xml:space="preserve">2.41554594039917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223215103149</t>
+    <t xml:space="preserve">2.42223238945007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551590919495</t>
+    <t xml:space="preserve">2.40551567077637</t>
   </si>
   <si>
     <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709760665894</t>
+    <t xml:space="preserve">2.37709736824036</t>
   </si>
   <si>
     <t xml:space="preserve">2.52754664421082</t>
@@ -533,37 +533,37 @@
     <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54927849769592</t>
+    <t xml:space="preserve">2.54927825927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909831047058</t>
+    <t xml:space="preserve">2.48909854888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.46569538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53256154060364</t>
+    <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241209983826</t>
+    <t xml:space="preserve">2.48241233825684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39715719223022</t>
+    <t xml:space="preserve">2.39715790748596</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43894910812378</t>
+    <t xml:space="preserve">2.4389488697052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4907705783844</t>
+    <t xml:space="preserve">2.49077033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49912858009338</t>
+    <t xml:space="preserve">2.49912881851196</t>
   </si>
   <si>
     <t xml:space="preserve">2.50414347648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906875610352</t>
+    <t xml:space="preserve">2.47906851768494</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399379730225</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">2.39882922172546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390394210815</t>
+    <t xml:space="preserve">2.42390418052673</t>
   </si>
   <si>
     <t xml:space="preserve">2.59942817687988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64790606498718</t>
+    <t xml:space="preserve">2.6479058265686</t>
   </si>
   <si>
     <t xml:space="preserve">2.62450313568115</t>
@@ -593,19 +593,19 @@
     <t xml:space="preserve">2.64957785606384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163886070251</t>
+    <t xml:space="preserve">2.78163862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84181833267212</t>
+    <t xml:space="preserve">2.8418185710907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847522735596</t>
+    <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513188362122</t>
+    <t xml:space="preserve">2.83513164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81674361228943</t>
+    <t xml:space="preserve">2.81674337387085</t>
   </si>
   <si>
     <t xml:space="preserve">2.83346033096313</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811556816101</t>
+    <t xml:space="preserve">2.71811604499817</t>
   </si>
   <si>
     <t xml:space="preserve">2.81172871589661</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659369468689</t>
+    <t xml:space="preserve">2.76659345626831</t>
   </si>
   <si>
     <t xml:space="preserve">2.751549243927</t>
@@ -632,16 +632,16 @@
     <t xml:space="preserve">2.77495193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166865348816</t>
+    <t xml:space="preserve">2.79166889190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486207962036</t>
+    <t xml:space="preserve">2.74486231803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319076538086</t>
+    <t xml:space="preserve">2.74319052696228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67465257644653</t>
+    <t xml:space="preserve">2.67465281486511</t>
   </si>
   <si>
     <t xml:space="preserve">2.75823545455933</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817586898804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838537216187</t>
+    <t xml:space="preserve">2.80838513374329</t>
   </si>
   <si>
     <t xml:space="preserve">2.79835534095764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8000271320343</t>
+    <t xml:space="preserve">2.80002689361572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068591117859</t>
+    <t xml:space="preserve">3.02068614959717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387933731079</t>
+    <t xml:space="preserve">2.97387981414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.95883464813232</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99728274345398</t>
+    <t xml:space="preserve">2.9972825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898456573486</t>
+    <t xml:space="preserve">3.00898408889771</t>
   </si>
   <si>
     <t xml:space="preserve">2.86355018615723</t>
@@ -698,76 +698,76 @@
     <t xml:space="preserve">2.94867610931396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00936913490295</t>
+    <t xml:space="preserve">3.00936889648438</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216344833374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95036196708679</t>
+    <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622818946838</t>
+    <t xml:space="preserve">3.02622866630554</t>
   </si>
   <si>
     <t xml:space="preserve">2.97733688354492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88292551040649</t>
+    <t xml:space="preserve">2.88292527198792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86606597900391</t>
+    <t xml:space="preserve">2.86606621742249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84246277809143</t>
+    <t xml:space="preserve">2.84246325492859</t>
   </si>
   <si>
     <t xml:space="preserve">2.87112355232239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80705857276917</t>
+    <t xml:space="preserve">2.80705881118774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75648093223572</t>
+    <t xml:space="preserve">2.7564811706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74973773956299</t>
+    <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73625016212463</t>
+    <t xml:space="preserve">2.73625040054321</t>
   </si>
   <si>
     <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502655982971</t>
+    <t xml:space="preserve">2.77502632141113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83234763145447</t>
+    <t xml:space="preserve">2.83234739303589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88966870307922</t>
+    <t xml:space="preserve">2.88966917991638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629722595215</t>
+    <t xml:space="preserve">2.88629698753357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85763669013977</t>
+    <t xml:space="preserve">2.85763645172119</t>
   </si>
   <si>
     <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123917579651</t>
+    <t xml:space="preserve">2.88123893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94193267822266</t>
+    <t xml:space="preserve">2.94193243980408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92675924301147</t>
+    <t xml:space="preserve">2.9267590045929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96722102165222</t>
+    <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
     <t xml:space="preserve">2.92844486236572</t>
@@ -776,40 +776,40 @@
     <t xml:space="preserve">2.93518877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699025154114</t>
+    <t xml:space="preserve">2.94699001312256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507314682007</t>
+    <t xml:space="preserve">2.92507338523865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91664385795593</t>
+    <t xml:space="preserve">2.91664361953735</t>
   </si>
   <si>
     <t xml:space="preserve">2.9368748664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96553564071655</t>
+    <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89978432655334</t>
+    <t xml:space="preserve">2.89978456497192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001533508301</t>
+    <t xml:space="preserve">2.92001557350159</t>
   </si>
   <si>
     <t xml:space="preserve">2.94024634361267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91495776176453</t>
+    <t xml:space="preserve">2.91495752334595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94530439376831</t>
+    <t xml:space="preserve">2.94530415534973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97902250289917</t>
+    <t xml:space="preserve">2.97902274131775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98408055305481</t>
+    <t xml:space="preserve">2.98408079147339</t>
   </si>
   <si>
     <t xml:space="preserve">2.97565078735352</t>
@@ -818,64 +818,64 @@
     <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879173278809</t>
+    <t xml:space="preserve">2.95879149436951</t>
   </si>
   <si>
     <t xml:space="preserve">2.90315628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84920692443848</t>
+    <t xml:space="preserve">2.84920716285706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86269426345825</t>
+    <t xml:space="preserve">2.86269402503967</t>
   </si>
   <si>
     <t xml:space="preserve">2.93856072425842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93181681632996</t>
+    <t xml:space="preserve">2.93181705474854</t>
   </si>
   <si>
     <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86943793296814</t>
+    <t xml:space="preserve">2.86943769454956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84077715873718</t>
+    <t xml:space="preserve">2.8407769203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95710587501526</t>
+    <t xml:space="preserve">2.95710563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227883338928</t>
+    <t xml:space="preserve">2.97227931022644</t>
   </si>
   <si>
     <t xml:space="preserve">2.98745226860046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9183292388916</t>
+    <t xml:space="preserve">2.91832947731018</t>
   </si>
   <si>
     <t xml:space="preserve">2.91158604621887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03465843200684</t>
+    <t xml:space="preserve">3.03465795516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.01779890060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03803014755249</t>
+    <t xml:space="preserve">3.03803038597107</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07680630683899</t>
+    <t xml:space="preserve">3.07680606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00431132316589</t>
+    <t xml:space="preserve">3.00431156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05657505989075</t>
+    <t xml:space="preserve">3.05657482147217</t>
   </si>
   <si>
     <t xml:space="preserve">3.15098643302917</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">3.11895418167114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396516799927</t>
+    <t xml:space="preserve">2.97396492958069</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454280853271</t>
+    <t xml:space="preserve">3.02454257011414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285671234131</t>
+    <t xml:space="preserve">3.02285647392273</t>
   </si>
   <si>
     <t xml:space="preserve">3.0211706161499</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147018432617</t>
+    <t xml:space="preserve">2.90147042274475</t>
   </si>
   <si>
     <t xml:space="preserve">2.93013119697571</t>
@@ -917,43 +917,46 @@
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
+    <t xml:space="preserve">2.96384954452515</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.87280988693237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96047759056091</t>
+    <t xml:space="preserve">2.96047782897949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484237670898</t>
+    <t xml:space="preserve">2.90484213829041</t>
   </si>
   <si>
     <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350315093994</t>
+    <t xml:space="preserve">2.93350291252136</t>
   </si>
   <si>
     <t xml:space="preserve">2.79862904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962211608887</t>
+    <t xml:space="preserve">2.73962187767029</t>
   </si>
   <si>
     <t xml:space="preserve">2.68061470985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69747376441956</t>
+    <t xml:space="preserve">2.69747400283813</t>
   </si>
   <si>
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904423713684</t>
+    <t xml:space="preserve">2.68904447555542</t>
   </si>
   <si>
     <t xml:space="preserve">2.63003706932068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57945919036865</t>
+    <t xml:space="preserve">2.57945942878723</t>
   </si>
   <si>
     <t xml:space="preserve">2.60474801063538</t>
@@ -962,46 +965,46 @@
     <t xml:space="preserve">2.59631848335266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417037010193</t>
+    <t xml:space="preserve">2.55417084693909</t>
   </si>
   <si>
     <t xml:space="preserve">2.58788895606995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61317801475525</t>
+    <t xml:space="preserve">2.61317777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160754203796</t>
+    <t xml:space="preserve">2.62160730361938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65532565116882</t>
+    <t xml:space="preserve">2.6553258895874</t>
   </si>
   <si>
     <t xml:space="preserve">2.71433305740356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79019951820374</t>
+    <t xml:space="preserve">2.79019975662231</t>
   </si>
   <si>
     <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.962810754776</t>
+    <t xml:space="preserve">2.96281099319458</t>
   </si>
   <si>
     <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463866233826</t>
+    <t xml:space="preserve">3.01463842391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98872447013855</t>
+    <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736261367798</t>
+    <t xml:space="preserve">2.99736285209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417284965515</t>
+    <t xml:space="preserve">2.95417308807373</t>
   </si>
   <si>
     <t xml:space="preserve">2.85915589332581</t>
@@ -1010,10 +1013,10 @@
     <t xml:space="preserve">2.81596612930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83324193954468</t>
+    <t xml:space="preserve">2.8332417011261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78141450881958</t>
+    <t xml:space="preserve">2.781414270401</t>
   </si>
   <si>
     <t xml:space="preserve">2.79005217552185</t>
@@ -1025,28 +1028,28 @@
     <t xml:space="preserve">2.7641384601593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77277636528015</t>
+    <t xml:space="preserve">2.77277612686157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68639659881592</t>
+    <t xml:space="preserve">2.6863968372345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7295868396759</t>
+    <t xml:space="preserve">2.72958660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.67775917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137988090515</t>
+    <t xml:space="preserve">2.59137964248657</t>
   </si>
   <si>
     <t xml:space="preserve">2.73822474479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65184497833252</t>
+    <t xml:space="preserve">2.6518452167511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71231079101562</t>
+    <t xml:space="preserve">2.7123110294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
@@ -1055,7 +1058,7 @@
     <t xml:space="preserve">2.72094869613647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550055503845</t>
+    <t xml:space="preserve">2.75550079345703</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
@@ -1064,19 +1067,19 @@
     <t xml:space="preserve">2.70367288589478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69503474235535</t>
+    <t xml:space="preserve">2.69503498077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.66048312187195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.600017786026</t>
+    <t xml:space="preserve">2.60001754760742</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410383224487</t>
+    <t xml:space="preserve">2.57410407066345</t>
   </si>
   <si>
     <t xml:space="preserve">2.5654661655426</t>
@@ -1118,13 +1121,13 @@
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86779379844666</t>
+    <t xml:space="preserve">2.8677933216095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88506960868835</t>
+    <t xml:space="preserve">2.88506937026978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91962122917175</t>
+    <t xml:space="preserve">2.91962146759033</t>
   </si>
   <si>
     <t xml:space="preserve">2.93689727783203</t>
@@ -1133,22 +1136,22 @@
     <t xml:space="preserve">3.02327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646609306335</t>
+    <t xml:space="preserve">3.06646585464478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04055213928223</t>
+    <t xml:space="preserve">3.04055237770081</t>
   </si>
   <si>
     <t xml:space="preserve">3.00600051879883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04919028282166</t>
+    <t xml:space="preserve">3.04919004440308</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191447257996</t>
+    <t xml:space="preserve">3.03191423416138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9800865650177</t>
+    <t xml:space="preserve">2.98008680343628</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
@@ -1157,19 +1160,16 @@
     <t xml:space="preserve">2.97144865989685</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0751039981842</t>
+    <t xml:space="preserve">3.07510375976562</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94553470611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91875720024109</t>
+    <t xml:space="preserve">2.91875743865967</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231245040894</t>
+    <t xml:space="preserve">2.97231221199036</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
@@ -1178,34 +1178,34 @@
     <t xml:space="preserve">3.02586770057678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07049679756165</t>
+    <t xml:space="preserve">3.07049703598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264520645142</t>
+    <t xml:space="preserve">3.05264544487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694202423096</t>
+    <t xml:space="preserve">3.01694178581238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99909019470215</t>
+    <t xml:space="preserve">2.99908995628357</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06157112121582</t>
+    <t xml:space="preserve">3.0615713596344</t>
   </si>
   <si>
     <t xml:space="preserve">3.07942271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09727454185486</t>
+    <t xml:space="preserve">3.09727478027344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371953010559</t>
+    <t xml:space="preserve">3.04371929168701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834862709045</t>
+    <t xml:space="preserve">3.08834886550903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13297820091248</t>
+    <t xml:space="preserve">3.1329779624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660879135132</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">2.92768311500549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90090560913086</t>
+    <t xml:space="preserve">2.90090537071228</t>
   </si>
   <si>
     <t xml:space="preserve">2.90983152389526</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">2.75809168815613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81164693832397</t>
+    <t xml:space="preserve">2.81164717674255</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7491660118103</t>
+    <t xml:space="preserve">2.74916577339172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668508529663</t>
+    <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775917053223</t>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205574989319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6242036819458</t>
+    <t xml:space="preserve">2.62420392036438</t>
   </si>
   <si>
     <t xml:space="preserve">2.60635209083557</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883301734924</t>
+    <t xml:space="preserve">2.66883325576782</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453667640686</t>
+    <t xml:space="preserve">2.70453643798828</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
@@ -1295,28 +1295,28 @@
     <t xml:space="preserve">3.1419038772583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11512637138367</t>
+    <t xml:space="preserve">3.11512613296509</t>
   </si>
   <si>
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620069503784</t>
+    <t xml:space="preserve">3.10620045661926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99016427993774</t>
+    <t xml:space="preserve">2.99016404151917</t>
   </si>
   <si>
     <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272102355957</t>
+    <t xml:space="preserve">2.80272126197815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379534721375</t>
+    <t xml:space="preserve">2.79379510879517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42783498764038</t>
+    <t xml:space="preserve">2.4278347492218</t>
   </si>
   <si>
     <t xml:space="preserve">2.47246408462524</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">2.46353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57957458496094</t>
+    <t xml:space="preserve">2.57957482337952</t>
   </si>
   <si>
     <t xml:space="preserve">2.61527800559998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78486919403076</t>
+    <t xml:space="preserve">2.78486943244934</t>
   </si>
   <si>
     <t xml:space="preserve">2.77594351768494</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305401802063</t>
+    <t xml:space="preserve">2.88305377960205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057309150696</t>
+    <t xml:space="preserve">2.82057285308838</t>
   </si>
   <si>
     <t xml:space="preserve">2.74023985862732</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">2.63312983512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064890861511</t>
+    <t xml:space="preserve">2.57064867019653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49924159049988</t>
+    <t xml:space="preserve">2.49924182891846</t>
   </si>
   <si>
     <t xml:space="preserve">2.55279684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031567573547</t>
+    <t xml:space="preserve">2.49031591415405</t>
   </si>
   <si>
     <t xml:space="preserve">2.43676090240479</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320541381836</t>
+    <t xml:space="preserve">2.38320565223694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41890907287598</t>
+    <t xml:space="preserve">2.4189088344574</t>
   </si>
   <si>
     <t xml:space="preserve">2.45461249351501</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">3.15082979202271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653297424316</t>
+    <t xml:space="preserve">3.18653321266174</t>
   </si>
   <si>
     <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545888900757</t>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.35612463951111</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042098045349</t>
+    <t xml:space="preserve">3.32042121887207</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108673095703</t>
+    <t xml:space="preserve">3.48108696937561</t>
   </si>
   <si>
     <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893832206726</t>
+    <t xml:space="preserve">3.49893856048584</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">3.64175224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.53464198112488</t>
+    <t xml:space="preserve">3.5346417427063</t>
   </si>
   <si>
     <t xml:space="preserve">3.51679039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967965126038</t>
+    <t xml:space="preserve">3.40967988967896</t>
   </si>
   <si>
     <t xml:space="preserve">3.17760729789734</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.259920835495</t>
+    <t xml:space="preserve">3.25992059707642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675579071045</t>
+    <t xml:space="preserve">3.29675602912903</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1499,10 +1499,7 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308564186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19545912742615</t>
+    <t xml:space="preserve">3.22308540344238</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1511,7 +1508,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890895843506</t>
+    <t xml:space="preserve">3.03890919685364</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1523,16 +1520,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01128268241882</t>
+    <t xml:space="preserve">3.0112829208374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653571128845</t>
+    <t xml:space="preserve">3.06653547286987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682121276855</t>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523880958557</t>
+    <t xml:space="preserve">2.96523857116699</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1547,22 +1544,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625020980835</t>
+    <t xml:space="preserve">3.18625044822693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811811447144</t>
+    <t xml:space="preserve">3.04811787605286</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049136161804</t>
+    <t xml:space="preserve">3.02049160003662</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365640640259</t>
+    <t xml:space="preserve">2.98365616798401</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1589,10 +1586,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286508560181</t>
+    <t xml:space="preserve">2.99286532402039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24150323867798</t>
+    <t xml:space="preserve">3.2415030002594</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1683,9 +1680,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -15015,7 +15009,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15119,7 +15113,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G502" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15197,7 +15191,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G505" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15249,7 +15243,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G507" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15275,7 +15269,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15509,7 +15503,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15665,7 +15659,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G523" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16107,7 +16101,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G540" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16133,7 +16127,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16159,7 +16153,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G542" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16185,7 +16179,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16211,7 +16205,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G544" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16237,7 +16231,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16263,7 +16257,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G546" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16289,7 +16283,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G547" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16315,7 +16309,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G548" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16341,7 +16335,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16367,7 +16361,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G550" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16393,7 +16387,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G551" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16419,7 +16413,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G552" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16445,7 +16439,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G553" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16471,7 +16465,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G554" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16497,7 +16491,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16523,7 +16517,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G556" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16549,7 +16543,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G557" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16575,7 +16569,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G558" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16601,7 +16595,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G559" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16627,7 +16621,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16653,7 +16647,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16679,7 +16673,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16705,7 +16699,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G563" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16731,7 +16725,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16757,7 +16751,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G565" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17043,7 +17037,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G576" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17355,7 +17349,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G588" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17485,7 +17479,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G593" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17615,7 +17609,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17745,7 +17739,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G603" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17875,7 +17869,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G608" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17901,7 +17895,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17927,7 +17921,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G610" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17953,7 +17947,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17979,7 +17973,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G612" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18005,7 +17999,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18031,7 +18025,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18057,7 +18051,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G615" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18083,7 +18077,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G616" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18109,7 +18103,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G617" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18135,7 +18129,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G618" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18161,7 +18155,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G619" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18187,7 +18181,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G620" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18213,7 +18207,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18239,7 +18233,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18265,7 +18259,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18291,7 +18285,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G624" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18317,7 +18311,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G625" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18343,7 +18337,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18369,7 +18363,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G627" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18395,7 +18389,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G628" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18421,7 +18415,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18447,7 +18441,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G630" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18473,7 +18467,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G631" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18499,7 +18493,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G632" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18525,7 +18519,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18551,7 +18545,7 @@
         <v>3</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18577,7 +18571,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G635" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18603,7 +18597,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G636" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18629,7 +18623,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G637" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18655,7 +18649,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G638" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18681,7 +18675,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18707,7 +18701,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18733,7 +18727,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G641" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18759,7 +18753,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G642" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18785,7 +18779,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18811,7 +18805,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18837,7 +18831,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18863,7 +18857,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G646" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18889,7 +18883,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18915,7 +18909,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G648" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18941,7 +18935,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18967,7 +18961,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G650" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -18993,7 +18987,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19019,7 +19013,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19045,7 +19039,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G653" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19071,7 +19065,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G654" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19097,7 +19091,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G655" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19123,7 +19117,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G656" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19149,7 +19143,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G657" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19175,7 +19169,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G658" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19201,7 +19195,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19227,7 +19221,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G660" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19253,7 +19247,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19279,7 +19273,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G662" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19305,7 +19299,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G663" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19331,7 +19325,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G664" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19357,7 +19351,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G665" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19383,7 +19377,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G666" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19409,7 +19403,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G667" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19435,7 +19429,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19461,7 +19455,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19487,7 +19481,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G670" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19513,7 +19507,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G671" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19539,7 +19533,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19565,7 +19559,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G673" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19591,7 +19585,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19617,7 +19611,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G675" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19643,7 +19637,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G676" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19669,7 +19663,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19695,7 +19689,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19721,7 +19715,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G679" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19747,7 +19741,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G680" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19773,7 +19767,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19799,7 +19793,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G682" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19825,7 +19819,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19851,7 +19845,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G684" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19877,7 +19871,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G685" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19903,7 +19897,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G686" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19929,7 +19923,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G687" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19955,7 +19949,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19981,7 +19975,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20007,7 +20001,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G690" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20033,7 +20027,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G691" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20059,7 +20053,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G692" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20085,7 +20079,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G693" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20111,7 +20105,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G694" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20137,7 +20131,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G695" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20163,7 +20157,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G696" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20189,7 +20183,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G697" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20215,7 +20209,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G698" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20241,7 +20235,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G699" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20267,7 +20261,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G700" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20293,7 +20287,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G701" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20319,7 +20313,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G702" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20345,7 +20339,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20371,7 +20365,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G704" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20397,7 +20391,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G705" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20423,7 +20417,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G706" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20449,7 +20443,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G707" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20475,7 +20469,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G708" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20501,7 +20495,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G709" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20527,7 +20521,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20553,7 +20547,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20579,7 +20573,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20605,7 +20599,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20631,7 +20625,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20657,7 +20651,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G715" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20683,7 +20677,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G716" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20709,7 +20703,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G717" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20735,7 +20729,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20761,7 +20755,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G719" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20787,7 +20781,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G720" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20813,7 +20807,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20839,7 +20833,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G722" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20865,7 +20859,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G723" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20891,7 +20885,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G724" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20917,7 +20911,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20943,7 +20937,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20969,7 +20963,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G727" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -20995,7 +20989,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G728" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21021,7 +21015,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G729" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21047,7 +21041,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21073,7 +21067,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G731" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21099,7 +21093,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G732" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21125,7 +21119,7 @@
         <v>3.25</v>
       </c>
       <c r="G733" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21151,7 +21145,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G734" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21177,7 +21171,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21203,7 +21197,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21229,7 +21223,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G737" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21255,7 +21249,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21281,7 +21275,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G739" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21307,7 +21301,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G740" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21333,7 +21327,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G741" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21359,7 +21353,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21385,7 +21379,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G743" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21411,7 +21405,7 @@
         <v>3.25</v>
       </c>
       <c r="G744" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21437,7 +21431,7 @@
         <v>3.25</v>
       </c>
       <c r="G745" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21463,7 +21457,7 @@
         <v>3.25</v>
       </c>
       <c r="G746" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21489,7 +21483,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G747" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21515,7 +21509,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G748" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21541,7 +21535,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G749" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21567,7 +21561,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21593,7 +21587,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21619,7 +21613,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G752" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21645,7 +21639,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G753" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21671,7 +21665,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G754" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21697,7 +21691,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21723,7 +21717,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21749,7 +21743,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G757" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21775,7 +21769,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G758" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21801,7 +21795,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G759" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21827,7 +21821,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21853,7 +21847,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21879,7 +21873,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G762" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21905,7 +21899,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G763" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21931,7 +21925,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G764" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21957,7 +21951,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G765" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21983,7 +21977,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G766" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22009,7 +22003,7 @@
         <v>3.25</v>
       </c>
       <c r="G767" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22035,7 +22029,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G768" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22061,7 +22055,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22087,7 +22081,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G770" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22113,7 +22107,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G771" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22139,7 +22133,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G772" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22165,7 +22159,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22191,7 +22185,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G774" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22217,7 +22211,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22243,7 +22237,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22269,7 +22263,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G777" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22295,7 +22289,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G778" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22321,7 +22315,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G779" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22347,7 +22341,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22373,7 +22367,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G781" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22399,7 +22393,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G782" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22425,7 +22419,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G783" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22451,7 +22445,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G784" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22477,7 +22471,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G785" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22503,7 +22497,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G786" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22529,7 +22523,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22555,7 +22549,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22581,7 +22575,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22607,7 +22601,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G790" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22633,7 +22627,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22659,7 +22653,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G792" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22685,7 +22679,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22711,7 +22705,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G794" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22737,7 +22731,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G795" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22763,7 +22757,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G796" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22789,7 +22783,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G797" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22815,7 +22809,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G798" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22841,7 +22835,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22867,7 +22861,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G800" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22893,7 +22887,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G801" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22919,7 +22913,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22945,7 +22939,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22971,7 +22965,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -22997,7 +22991,7 @@
         <v>3.5</v>
       </c>
       <c r="G805" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23023,7 +23017,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23049,7 +23043,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G807" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23075,7 +23069,7 @@
         <v>3.5</v>
       </c>
       <c r="G808" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23101,7 +23095,7 @@
         <v>3.5</v>
       </c>
       <c r="G809" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23127,7 +23121,7 @@
         <v>3.5</v>
       </c>
       <c r="G810" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23153,7 +23147,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23179,7 +23173,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23205,7 +23199,7 @@
         <v>3.5</v>
       </c>
       <c r="G813" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23231,7 +23225,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23257,7 +23251,7 @@
         <v>3.5</v>
       </c>
       <c r="G815" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23283,7 +23277,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23309,7 +23303,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G817" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23335,7 +23329,7 @@
         <v>3.5</v>
       </c>
       <c r="G818" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23361,7 +23355,7 @@
         <v>3.5</v>
       </c>
       <c r="G819" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23387,7 +23381,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23413,7 +23407,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23439,7 +23433,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G822" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23465,7 +23459,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23491,7 +23485,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G824" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23517,7 +23511,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G825" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23543,7 +23537,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23569,7 +23563,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23595,7 +23589,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G828" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23621,7 +23615,7 @@
         <v>3.5</v>
       </c>
       <c r="G829" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23647,7 +23641,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G830" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23673,7 +23667,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23699,7 +23693,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G832" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23725,7 +23719,7 @@
         <v>3.5</v>
       </c>
       <c r="G833" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23751,7 +23745,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G834" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23777,7 +23771,7 @@
         <v>3.5</v>
       </c>
       <c r="G835" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23803,7 +23797,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G836" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23829,7 +23823,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G837" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23855,7 +23849,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G838" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23881,7 +23875,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G839" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23907,7 +23901,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G840" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23933,7 +23927,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G841" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23959,7 +23953,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G842" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23985,7 +23979,7 @@
         <v>3.5</v>
       </c>
       <c r="G843" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24011,7 +24005,7 @@
         <v>3.5</v>
       </c>
       <c r="G844" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24037,7 +24031,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G845" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24063,7 +24057,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24089,7 +24083,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24115,7 +24109,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G848" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24141,7 +24135,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G849" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24167,7 +24161,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24193,7 +24187,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24219,7 +24213,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G852" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24245,7 +24239,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G853" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24271,7 +24265,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G854" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24297,7 +24291,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G855" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24323,7 +24317,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G856" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24349,7 +24343,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G857" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24375,7 +24369,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G858" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24401,7 +24395,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25155,7 +25149,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25259,7 +25253,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25285,7 +25279,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25597,7 +25591,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25727,7 +25721,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25753,7 +25747,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29549,7 +29543,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30693,7 +30687,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -35217,7 +35211,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35269,7 +35263,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -38727,7 +38721,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -43069,7 +43063,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44759,7 +44753,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44785,7 +44779,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44811,7 +44805,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44863,7 +44857,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1646" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44889,7 +44883,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1647" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44915,7 +44909,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1648" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44967,7 +44961,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44993,7 +44987,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45019,7 +45013,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45045,7 +45039,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45071,7 +45065,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1654" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45097,7 +45091,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1655" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45123,7 +45117,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1656" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45149,7 +45143,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1657" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45201,7 +45195,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1659" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45227,7 +45221,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45253,7 +45247,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1661" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45279,7 +45273,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1662" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45305,7 +45299,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45331,7 +45325,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45357,7 +45351,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45383,7 +45377,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1666" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45409,7 +45403,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1667" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45435,7 +45429,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45461,7 +45455,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1669" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45487,7 +45481,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45513,7 +45507,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1671" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45539,7 +45533,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45565,7 +45559,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45591,7 +45585,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1674" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45617,7 +45611,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1675" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45643,7 +45637,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1676" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45669,7 +45663,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1677" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45695,7 +45689,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1678" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45721,7 +45715,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45747,7 +45741,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45773,7 +45767,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1681" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45825,7 +45819,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1683" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45851,7 +45845,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1684" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45903,7 +45897,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45929,7 +45923,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45955,7 +45949,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45981,7 +45975,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1689" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46007,7 +46001,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46033,7 +46027,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46059,7 +46053,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46085,7 +46079,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1693" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46111,7 +46105,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1694" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46137,7 +46131,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46215,7 +46209,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46241,7 +46235,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1699" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46267,7 +46261,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46319,7 +46313,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1702" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46345,7 +46339,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46371,7 +46365,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1704" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46397,7 +46391,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1705" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46423,7 +46417,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46449,7 +46443,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1707" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46553,7 +46547,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46579,7 +46573,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46605,7 +46599,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46631,7 +46625,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1714" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46657,7 +46651,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46683,7 +46677,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46709,7 +46703,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46735,7 +46729,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1718" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46761,7 +46755,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46787,7 +46781,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46813,7 +46807,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46839,7 +46833,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46865,7 +46859,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1723" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46891,7 +46885,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1724" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46917,7 +46911,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46943,7 +46937,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1726" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46969,7 +46963,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1727" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46995,7 +46989,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47021,7 +47015,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1729" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47047,7 +47041,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47073,7 +47067,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1731" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47099,7 +47093,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1732" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47125,7 +47119,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47151,7 +47145,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1734" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47177,7 +47171,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1735" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47203,7 +47197,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47229,7 +47223,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1737" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47255,7 +47249,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47281,7 +47275,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47307,7 +47301,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1740" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47333,7 +47327,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47359,7 +47353,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1742" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47385,7 +47379,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47411,7 +47405,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1744" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47437,7 +47431,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1745" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47463,7 +47457,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47489,7 +47483,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1747" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47515,7 +47509,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47541,7 +47535,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1749" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47567,7 +47561,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1750" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47593,7 +47587,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47619,7 +47613,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1752" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47645,7 +47639,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1753" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47671,7 +47665,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47697,7 +47691,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1755" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47723,7 +47717,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1756" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47749,7 +47743,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1757" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47775,7 +47769,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1758" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47801,7 +47795,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47827,7 +47821,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1760" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47853,7 +47847,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47879,7 +47873,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47905,7 +47899,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47931,7 +47925,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47957,7 +47951,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1765" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47983,7 +47977,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1766" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48009,7 +48003,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48035,7 +48029,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1768" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48061,7 +48055,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48087,7 +48081,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1770" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48113,7 +48107,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1771" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48139,7 +48133,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1772" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48165,7 +48159,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1773" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48191,7 +48185,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1774" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48217,7 +48211,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1775" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48243,7 +48237,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1776" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48269,7 +48263,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1777" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48295,7 +48289,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1778" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48321,7 +48315,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1779" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48347,7 +48341,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48373,7 +48367,7 @@
         <v>3.25</v>
       </c>
       <c r="G1781" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48399,7 +48393,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1782" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48425,7 +48419,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48451,7 +48445,7 @@
         <v>3.25</v>
       </c>
       <c r="G1784" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48477,7 +48471,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1785" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48503,7 +48497,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1786" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48529,7 +48523,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48555,7 +48549,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48581,7 +48575,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1789" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48607,7 +48601,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1790" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48633,7 +48627,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1791" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48659,7 +48653,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1792" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48685,7 +48679,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48711,7 +48705,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48737,7 +48731,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1795" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48763,7 +48757,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48789,7 +48783,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48815,7 +48809,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48841,7 +48835,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1799" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48867,7 +48861,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48893,7 +48887,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1801" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48919,7 +48913,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1802" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48945,7 +48939,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1803" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48971,7 +48965,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48997,7 +48991,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1805" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49023,7 +49017,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1806" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49049,7 +49043,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1807" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49075,7 +49069,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49101,7 +49095,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1809" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49127,7 +49121,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1810" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49153,7 +49147,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1811" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49179,7 +49173,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49205,7 +49199,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1813" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49231,7 +49225,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1814" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49257,7 +49251,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1815" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49283,7 +49277,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49309,7 +49303,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1817" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49335,7 +49329,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1818" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49361,7 +49355,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49387,7 +49381,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49413,7 +49407,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49439,7 +49433,7 @@
         <v>3.25</v>
       </c>
       <c r="G1822" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49465,7 +49459,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49491,7 +49485,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1824" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49517,7 +49511,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1825" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49543,7 +49537,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1826" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49569,7 +49563,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49595,7 +49589,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49621,7 +49615,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1829" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49647,7 +49641,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49673,7 +49667,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49699,7 +49693,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49725,7 +49719,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1833" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49751,7 +49745,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1834" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49777,7 +49771,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1835" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49803,7 +49797,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49829,7 +49823,7 @@
         <v>3.25</v>
       </c>
       <c r="G1837" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49855,7 +49849,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1838" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49881,7 +49875,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1839" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49907,7 +49901,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49933,7 +49927,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1841" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49959,7 +49953,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1842" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49985,7 +49979,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1843" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50011,7 +50005,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50037,7 +50031,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1845" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50063,7 +50057,7 @@
         <v>3.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50089,7 +50083,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1847" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50115,7 +50109,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1848" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50141,7 +50135,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1849" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50167,7 +50161,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1850" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50193,7 +50187,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1851" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50219,7 +50213,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50245,7 +50239,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1853" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50271,7 +50265,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1854" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50297,7 +50291,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1855" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50323,7 +50317,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1856" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50349,7 +50343,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1857" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50375,7 +50369,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1858" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50401,7 +50395,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1859" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50427,7 +50421,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1860" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50453,7 +50447,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1861" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50479,7 +50473,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1862" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50505,7 +50499,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1863" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50531,7 +50525,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1864" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50557,7 +50551,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1865" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50583,7 +50577,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1866" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50609,7 +50603,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50635,7 +50629,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50661,7 +50655,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1869" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50687,7 +50681,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1870" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50713,7 +50707,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1871" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50739,7 +50733,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1872" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50765,7 +50759,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1873" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50791,7 +50785,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1874" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50817,7 +50811,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1875" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50843,7 +50837,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1876" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50869,7 +50863,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1877" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50895,7 +50889,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1878" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50921,7 +50915,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1879" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50947,7 +50941,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1880" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50973,7 +50967,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1881" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50999,7 +50993,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1882" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51025,7 +51019,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1883" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51051,7 +51045,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1884" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51077,7 +51071,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1885" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51103,7 +51097,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1886" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51129,7 +51123,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1887" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51155,7 +51149,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1888" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51181,7 +51175,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1889" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51207,7 +51201,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1890" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51233,7 +51227,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1891" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51259,7 +51253,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1892" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51285,7 +51279,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1893" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51311,7 +51305,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1894" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51337,7 +51331,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1895" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51363,7 +51357,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1896" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51389,7 +51383,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1897" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51415,7 +51409,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1898" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51441,7 +51435,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1899" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51467,7 +51461,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1900" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51493,7 +51487,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1901" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51519,7 +51513,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1902" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51545,7 +51539,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1903" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51571,7 +51565,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1904" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51597,7 +51591,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1905" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51623,7 +51617,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1906" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51649,7 +51643,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1907" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51675,7 +51669,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51701,7 +51695,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1909" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51727,7 +51721,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1910" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51753,7 +51747,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51779,7 +51773,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1912" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51805,7 +51799,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51831,7 +51825,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1914" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51857,7 +51851,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51883,7 +51877,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1916" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51909,7 +51903,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51935,7 +51929,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1918" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51961,7 +51955,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1919" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51987,7 +51981,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1920" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52013,7 +52007,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52039,7 +52033,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52065,7 +52059,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52091,7 +52085,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52117,7 +52111,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1925" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52143,7 +52137,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1926" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52169,7 +52163,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1927" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52195,7 +52189,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1928" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52221,7 +52215,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1929" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52247,7 +52241,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1930" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52273,7 +52267,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1931" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52299,7 +52293,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1932" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52325,7 +52319,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1933" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52351,7 +52345,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1934" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52377,7 +52371,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1935" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52403,7 +52397,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1936" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52429,7 +52423,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52455,7 +52449,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1938" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52481,7 +52475,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1939" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52507,7 +52501,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1940" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52533,7 +52527,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52559,7 +52553,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52585,7 +52579,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1943" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52611,7 +52605,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1944" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52637,7 +52631,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52663,7 +52657,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52689,7 +52683,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1947" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52715,7 +52709,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1948" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52741,7 +52735,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1949" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52767,7 +52761,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52793,7 +52787,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52819,7 +52813,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1952" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52845,7 +52839,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1953" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52871,7 +52865,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1954" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52897,7 +52891,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1955" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52923,7 +52917,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1956" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52949,7 +52943,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52975,7 +52969,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53001,7 +52995,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1959" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53027,7 +53021,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53053,7 +53047,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53079,7 +53073,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53105,7 +53099,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1963" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53131,7 +53125,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53157,7 +53151,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53183,7 +53177,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1966" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53209,7 +53203,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1967" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53235,7 +53229,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53261,7 +53255,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53287,7 +53281,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53313,7 +53307,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53339,7 +53333,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1972" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53365,7 +53359,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1973" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53391,7 +53385,7 @@
         <v>3</v>
       </c>
       <c r="G1974" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53417,7 +53411,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1975" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53443,7 +53437,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53469,7 +53463,7 @@
         <v>3</v>
       </c>
       <c r="G1977" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53495,7 +53489,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1978" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53521,7 +53515,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1979" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53547,7 +53541,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53573,7 +53567,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53599,7 +53593,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1982" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53625,7 +53619,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1983" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53651,7 +53645,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1984" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53677,7 +53671,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1985" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53703,7 +53697,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1986" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53729,7 +53723,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1987" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53755,7 +53749,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1988" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53781,7 +53775,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1989" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53807,7 +53801,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1990" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53833,7 +53827,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53859,7 +53853,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1992" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53885,7 +53879,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1993" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53911,7 +53905,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1994" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53937,7 +53931,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1995" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53963,7 +53957,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1996" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53989,7 +53983,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1997" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54015,7 +54009,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54041,7 +54035,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1999" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54067,7 +54061,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G2000" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54093,7 +54087,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54119,7 +54113,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54145,7 +54139,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54171,7 +54165,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54197,7 +54191,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54223,7 +54217,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2006" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54249,7 +54243,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2007" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54275,7 +54269,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G2008" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54301,7 +54295,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2009" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54327,7 +54321,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2010" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54353,7 +54347,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2011" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54379,7 +54373,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2012" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54405,7 +54399,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2013" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54431,7 +54425,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2014" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54457,7 +54451,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54483,7 +54477,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2016" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54509,7 +54503,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2017" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54535,7 +54529,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2018" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54561,7 +54555,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2019" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54587,7 +54581,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2020" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54613,7 +54607,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2021" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54639,7 +54633,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2022" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54665,7 +54659,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2023" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54691,7 +54685,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54717,7 +54711,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2025" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54743,7 +54737,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2026" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54769,7 +54763,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2027" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54795,7 +54789,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2028" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54821,7 +54815,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2029" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54847,7 +54841,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2030" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54873,7 +54867,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54899,7 +54893,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2032" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54925,7 +54919,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2033" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54951,7 +54945,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54977,7 +54971,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2035" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55003,7 +54997,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2036" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55029,7 +55023,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2037" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55055,7 +55049,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2038" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55081,7 +55075,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55107,7 +55101,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2040" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55133,7 +55127,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2041" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55159,7 +55153,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2042" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55185,7 +55179,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2043" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55211,7 +55205,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55237,7 +55231,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2045" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55263,7 +55257,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2046" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55289,7 +55283,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2047" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55315,7 +55309,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2048" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55341,7 +55335,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2049" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55367,7 +55361,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2050" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55393,7 +55387,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2051" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55419,7 +55413,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2052" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55445,7 +55439,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55471,7 +55465,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2054" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55497,7 +55491,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2055" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55523,7 +55517,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2056" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55549,7 +55543,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2057" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55575,7 +55569,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2058" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55601,7 +55595,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2059" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55627,7 +55621,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2060" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55653,7 +55647,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2061" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55679,7 +55673,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2062" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55705,7 +55699,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2063" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55731,7 +55725,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2064" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55757,7 +55751,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2065" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55783,7 +55777,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2066" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55809,7 +55803,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2067" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55835,7 +55829,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2068" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55861,7 +55855,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2069" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55887,7 +55881,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2070" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55913,7 +55907,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2071" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55939,7 +55933,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2072" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55965,7 +55959,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55991,7 +55985,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2074" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56017,7 +56011,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2075" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56043,7 +56037,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2076" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56069,7 +56063,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2077" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56095,7 +56089,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2078" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56121,7 +56115,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2079" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56147,7 +56141,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2080" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56173,7 +56167,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2081" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56199,7 +56193,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2082" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56225,7 +56219,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2083" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56251,7 +56245,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2084" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56277,7 +56271,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2085" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56303,7 +56297,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2086" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56329,7 +56323,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56355,7 +56349,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2088" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56381,7 +56375,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56407,7 +56401,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56433,7 +56427,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2091" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56459,7 +56453,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56485,7 +56479,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56511,7 +56505,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2094" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56537,7 +56531,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2095" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56563,7 +56557,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56589,7 +56583,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2097" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56615,7 +56609,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2098" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56641,7 +56635,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2099" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56667,7 +56661,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2100" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56693,7 +56687,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2101" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56719,7 +56713,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56745,7 +56739,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56771,7 +56765,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56797,7 +56791,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56823,7 +56817,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2106" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56849,7 +56843,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2107" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56875,7 +56869,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56901,7 +56895,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2109" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56927,7 +56921,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56953,7 +56947,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56979,7 +56973,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57005,7 +56999,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2113" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57031,7 +57025,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57057,7 +57051,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2115" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57083,7 +57077,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57109,7 +57103,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57135,7 +57129,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57161,7 +57155,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57187,7 +57181,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2120" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57213,7 +57207,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57239,7 +57233,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57265,7 +57259,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2123" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57291,7 +57285,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57317,7 +57311,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57343,7 +57337,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57369,7 +57363,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57395,7 +57389,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57421,7 +57415,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57447,7 +57441,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2130" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57473,7 +57467,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2131" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57499,7 +57493,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57525,7 +57519,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57551,7 +57545,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57577,7 +57571,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57603,7 +57597,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57629,7 +57623,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57655,7 +57649,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57681,7 +57675,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57707,7 +57701,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57733,7 +57727,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57759,7 +57753,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57785,7 +57779,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57811,7 +57805,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57837,7 +57831,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57863,7 +57857,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57889,7 +57883,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57915,7 +57909,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57941,7 +57935,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57967,7 +57961,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57975,7 +57969,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.649375</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>555</v>
@@ -57993,9 +57987,35 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.649525463</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>4811</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>3.03999996185303</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>3.07999992370605</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397963523865</t>
+    <t xml:space="preserve">2.30397915840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.17185163497925</t>
@@ -62,28 +62,28 @@
     <t xml:space="preserve">2.18836736679077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019963264465</t>
+    <t xml:space="preserve">2.17019987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752941131592</t>
+    <t xml:space="preserve">2.09752917289734</t>
   </si>
   <si>
     <t xml:space="preserve">2.08927130699158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
     <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257435798645</t>
+    <t xml:space="preserve">2.09257507324219</t>
   </si>
   <si>
     <t xml:space="preserve">2.11404538154602</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542603492737</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
     <t xml:space="preserve">2.06284594535828</t>
@@ -95,31 +95,31 @@
     <t xml:space="preserve">2.03972363471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0364203453064</t>
+    <t xml:space="preserve">2.03642010688782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852384090424</t>
+    <t xml:space="preserve">1.98852396011353</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660084724426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365939617157</t>
+    <t xml:space="preserve">1.97365951538086</t>
   </si>
   <si>
     <t xml:space="preserve">2.06119418144226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017560482025</t>
+    <t xml:space="preserve">1.99017548561096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329803466797</t>
+    <t xml:space="preserve">2.01329779624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11734867095947</t>
+    <t xml:space="preserve">2.11734890937805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2544310092926</t>
+    <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
     <t xml:space="preserve">2.32875299453735</t>
@@ -128,43 +128,43 @@
     <t xml:space="preserve">2.35352683067322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223702430725</t>
+    <t xml:space="preserve">2.31223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2213990688324</t>
+    <t xml:space="preserve">2.22139954566956</t>
   </si>
   <si>
     <t xml:space="preserve">2.14707732200623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716769218445</t>
+    <t xml:space="preserve">2.13716793060303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746342658997</t>
+    <t xml:space="preserve">2.28746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36839127540588</t>
+    <t xml:space="preserve">2.36839151382446</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739672660828</t>
+    <t xml:space="preserve">2.47739696502686</t>
   </si>
   <si>
     <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42124223709106</t>
+    <t xml:space="preserve">2.42124271392822</t>
   </si>
   <si>
     <t xml:space="preserve">2.39481711387634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47409391403198</t>
+    <t xml:space="preserve">2.4740936756134</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43445539474487</t>
+    <t xml:space="preserve">2.43445563316345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520274162292</t>
+    <t xml:space="preserve">2.5352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
@@ -173,13 +173,13 @@
     <t xml:space="preserve">2.60126709938049</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135699272156</t>
+    <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117601394653</t>
+    <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180955886841</t>
+    <t xml:space="preserve">2.54180932044983</t>
   </si>
   <si>
     <t xml:space="preserve">2.51703548431396</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">2.5186870098114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47244215011597</t>
+    <t xml:space="preserve">2.47244191169739</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50712561607361</t>
+    <t xml:space="preserve">2.50712585449219</t>
   </si>
   <si>
     <t xml:space="preserve">2.41793942451477</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">2.47574543952942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895835876465</t>
+    <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
     <t xml:space="preserve">2.49391293525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253275871277</t>
+    <t xml:space="preserve">2.46253252029419</t>
   </si>
   <si>
     <t xml:space="preserve">2.43610692024231</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106197357178</t>
+    <t xml:space="preserve">2.4410617351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.4245457649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37830138206482</t>
+    <t xml:space="preserve">2.37830090522766</t>
   </si>
   <si>
     <t xml:space="preserve">2.2114896774292</t>
@@ -233,73 +233,73 @@
     <t xml:space="preserve">2.16854786872864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15533542633057</t>
+    <t xml:space="preserve">2.15533566474915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10578727722168</t>
+    <t xml:space="preserve">2.10578751564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04610896110535</t>
+    <t xml:space="preserve">2.0461094379425</t>
   </si>
   <si>
     <t xml:space="preserve">2.00598978996277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303565979004</t>
+    <t xml:space="preserve">2.13303518295288</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02772092819214</t>
+    <t xml:space="preserve">2.0277214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04778099060059</t>
+    <t xml:space="preserve">2.04778122901917</t>
   </si>
   <si>
     <t xml:space="preserve">2.03942275047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02270603179932</t>
+    <t xml:space="preserve">2.0227062702179</t>
   </si>
   <si>
     <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255635261536</t>
+    <t xml:space="preserve">1.97255623340607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431776046753</t>
+    <t xml:space="preserve">2.00431799888611</t>
   </si>
   <si>
     <t xml:space="preserve">1.98927295207977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825463294983</t>
+    <t xml:space="preserve">1.64825475215912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79703223705292</t>
+    <t xml:space="preserve">1.7970324754715</t>
   </si>
   <si>
     <t xml:space="preserve">1.81374883651733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207704544067</t>
+    <t xml:space="preserve">1.81207728385925</t>
   </si>
   <si>
     <t xml:space="preserve">1.77195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75356912612915</t>
+    <t xml:space="preserve">1.75356924533844</t>
   </si>
   <si>
     <t xml:space="preserve">1.73016583919525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7218074798584</t>
+    <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7385241985321</t>
+    <t xml:space="preserve">1.73852431774139</t>
   </si>
   <si>
     <t xml:space="preserve">1.68837451934814</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">1.75524067878723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855411052704</t>
+    <t xml:space="preserve">1.74855422973633</t>
   </si>
   <si>
     <t xml:space="preserve">1.74688243865967</t>
@@ -329,37 +329,37 @@
     <t xml:space="preserve">1.9641979932785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754145622253</t>
+    <t xml:space="preserve">1.96754133701324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613923072815</t>
+    <t xml:space="preserve">2.05613946914673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933289527893</t>
+    <t xml:space="preserve">2.00933265686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604937553406</t>
+    <t xml:space="preserve">2.02604961395264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443788528442</t>
+    <t xml:space="preserve">2.04443764686584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0778706073761</t>
+    <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
     <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088444232941</t>
+    <t xml:space="preserve">1.97088515758514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413805007935</t>
+    <t xml:space="preserve">1.94413793087006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97757136821747</t>
+    <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103424072266</t>
+    <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
     <t xml:space="preserve">2.06449770927429</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">2.11464715003967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823026657104</t>
+    <t xml:space="preserve">2.19823002815247</t>
   </si>
   <si>
     <t xml:space="preserve">2.18820023536682</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16312503814697</t>
+    <t xml:space="preserve">2.16312551498413</t>
   </si>
   <si>
     <t xml:space="preserve">2.16479706764221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655847549438</t>
+    <t xml:space="preserve">2.19655871391296</t>
   </si>
   <si>
     <t xml:space="preserve">2.23166346549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330522537231</t>
+    <t xml:space="preserve">2.22330498695374</t>
   </si>
   <si>
     <t xml:space="preserve">2.2968578338623</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">2.34700798988342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38044142723083</t>
+    <t xml:space="preserve">2.38044118881226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536623001099</t>
+    <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
     <t xml:space="preserve">2.32360458374023</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">2.30855965614319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386492729187</t>
+    <t xml:space="preserve">2.33864974975586</t>
   </si>
   <si>
     <t xml:space="preserve">2.31691789627075</t>
@@ -446,16 +446,16 @@
     <t xml:space="preserve">2.36372447013855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530616760254</t>
+    <t xml:space="preserve">2.33530592918396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008129119873</t>
+    <t xml:space="preserve">2.26008152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29518628120422</t>
+    <t xml:space="preserve">2.2951865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673842430115</t>
+    <t xml:space="preserve">2.25673818588257</t>
   </si>
   <si>
     <t xml:space="preserve">2.30521631240845</t>
@@ -464,70 +464,70 @@
     <t xml:space="preserve">2.24670839309692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14808058738708</t>
+    <t xml:space="preserve">2.14808034896851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17984175682068</t>
+    <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631894111633</t>
+    <t xml:space="preserve">2.11631870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21494698524475</t>
+    <t xml:space="preserve">2.21494674682617</t>
   </si>
   <si>
     <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011132240295</t>
+    <t xml:space="preserve">2.27011156082153</t>
   </si>
   <si>
     <t xml:space="preserve">2.25506639480591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1898717880249</t>
+    <t xml:space="preserve">2.18987202644348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339484214783</t>
+    <t xml:space="preserve">2.25339508056641</t>
   </si>
   <si>
     <t xml:space="preserve">2.19154357910156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990205764771</t>
+    <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2433648109436</t>
+    <t xml:space="preserve">2.24336504936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1413938999176</t>
+    <t xml:space="preserve">2.14139366149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.14640879631042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.183185338974</t>
+    <t xml:space="preserve">2.18318510055542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688786506653</t>
+    <t xml:space="preserve">2.30688810348511</t>
   </si>
   <si>
     <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554570198059</t>
+    <t xml:space="preserve">2.41554546356201</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223262786865</t>
+    <t xml:space="preserve">2.42223238945007</t>
   </si>
   <si>
     <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45900893211365</t>
+    <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709736824036</t>
+    <t xml:space="preserve">2.37709760665894</t>
   </si>
   <si>
     <t xml:space="preserve">2.52754688262939</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">2.54927825927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909854888916</t>
+    <t xml:space="preserve">2.48909878730774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46569561958313</t>
+    <t xml:space="preserve">2.46569538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53256177902222</t>
+    <t xml:space="preserve">2.53256154060364</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241186141968</t>
+    <t xml:space="preserve">2.48241209983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.3971574306488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43894910812378</t>
+    <t xml:space="preserve">2.4389488697052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49077033996582</t>
+    <t xml:space="preserve">2.49077010154724</t>
   </si>
   <si>
     <t xml:space="preserve">2.49912858009338</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">2.50414371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906899452209</t>
+    <t xml:space="preserve">2.47906851768494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45399403572083</t>
+    <t xml:space="preserve">2.45399379730225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46402382850647</t>
+    <t xml:space="preserve">2.46402406692505</t>
   </si>
   <si>
     <t xml:space="preserve">2.39882898330688</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">2.5994279384613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64790606498718</t>
+    <t xml:space="preserve">2.64790630340576</t>
   </si>
   <si>
     <t xml:space="preserve">2.62450289726257</t>
@@ -593,10 +593,10 @@
     <t xml:space="preserve">2.67298126220703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64957785606384</t>
+    <t xml:space="preserve">2.64957809448242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163862228394</t>
+    <t xml:space="preserve">2.78163886070251</t>
   </si>
   <si>
     <t xml:space="preserve">2.8418185710907</t>
@@ -605,19 +605,19 @@
     <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513188362122</t>
+    <t xml:space="preserve">2.83513164520264</t>
   </si>
   <si>
     <t xml:space="preserve">2.81674337387085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346033096313</t>
+    <t xml:space="preserve">2.83346056938171</t>
   </si>
   <si>
     <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811580657959</t>
+    <t xml:space="preserve">2.71811556816101</t>
   </si>
   <si>
     <t xml:space="preserve">2.81172871589661</t>
@@ -626,7 +626,7 @@
     <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659369468689</t>
+    <t xml:space="preserve">2.76659393310547</t>
   </si>
   <si>
     <t xml:space="preserve">2.75154900550842</t>
@@ -635,43 +635,43 @@
     <t xml:space="preserve">2.77495217323303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166841506958</t>
+    <t xml:space="preserve">2.79166865348816</t>
   </si>
   <si>
     <t xml:space="preserve">2.74486231803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319100379944</t>
+    <t xml:space="preserve">2.74319052696228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67465257644653</t>
+    <t xml:space="preserve">2.67465281486511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823545455933</t>
+    <t xml:space="preserve">2.75823521614075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316049575806</t>
+    <t xml:space="preserve">2.73316073417664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78331017494202</t>
+    <t xml:space="preserve">2.7833104133606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817586898804</t>
+    <t xml:space="preserve">2.73817539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838513374329</t>
+    <t xml:space="preserve">2.80838537216187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79835510253906</t>
+    <t xml:space="preserve">2.79835557937622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002689361572</t>
+    <t xml:space="preserve">2.80002665519714</t>
   </si>
   <si>
     <t xml:space="preserve">3.02068567276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387933731079</t>
+    <t xml:space="preserve">2.97387957572937</t>
   </si>
   <si>
     <t xml:space="preserve">2.95883440971375</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">2.86856484413147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96552109718323</t>
+    <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
     <t xml:space="preserve">2.99728274345398</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">2.86354994773865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859511375427</t>
+    <t xml:space="preserve">2.87859463691711</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94867634773254</t>
+    <t xml:space="preserve">2.94867610931396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00936913490295</t>
+    <t xml:space="preserve">3.00936937332153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96216344833374</t>
+    <t xml:space="preserve">2.96216368675232</t>
   </si>
   <si>
     <t xml:space="preserve">2.95036196708679</t>
@@ -716,34 +716,34 @@
     <t xml:space="preserve">2.97733688354492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88292527198792</t>
+    <t xml:space="preserve">2.88292551040649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86606597900391</t>
+    <t xml:space="preserve">2.86606621742249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84246277809143</t>
+    <t xml:space="preserve">2.84246301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87112355232239</t>
+    <t xml:space="preserve">2.87112331390381</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80705881118774</t>
+    <t xml:space="preserve">2.80705857276917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75648093223572</t>
+    <t xml:space="preserve">2.7564811706543</t>
   </si>
   <si>
     <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624992370605</t>
+    <t xml:space="preserve">2.73625016212463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7581672668457</t>
+    <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502655982971</t>
+    <t xml:space="preserve">2.77502632141113</t>
   </si>
   <si>
     <t xml:space="preserve">2.83234763145447</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">2.8896689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629698753357</t>
+    <t xml:space="preserve">2.88629722595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.85763669013977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8643798828125</t>
+    <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
     <t xml:space="preserve">2.88123941421509</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">2.94193243980408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92675924301147</t>
+    <t xml:space="preserve">2.9267590045929</t>
   </si>
   <si>
     <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92844486236572</t>
+    <t xml:space="preserve">2.9284451007843</t>
   </si>
   <si>
     <t xml:space="preserve">2.93518877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699001312256</t>
+    <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
     <t xml:space="preserve">2.92507338523865</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">2.91664385795593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93687462806702</t>
+    <t xml:space="preserve">2.9368748664856</t>
   </si>
   <si>
     <t xml:space="preserve">2.96553540229797</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">2.89978432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001557350159</t>
+    <t xml:space="preserve">2.92001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024634361267</t>
+    <t xml:space="preserve">2.94024658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91495752334595</t>
+    <t xml:space="preserve">2.91495776176453</t>
   </si>
   <si>
     <t xml:space="preserve">2.94530439376831</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">2.98408055305481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97565078735352</t>
+    <t xml:space="preserve">2.97565054893494</t>
   </si>
   <si>
     <t xml:space="preserve">2.95373392105103</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">2.95879173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315628051758</t>
+    <t xml:space="preserve">2.903156042099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8492066860199</t>
+    <t xml:space="preserve">2.84920692443848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86269426345825</t>
+    <t xml:space="preserve">2.86269402503967</t>
   </si>
   <si>
     <t xml:space="preserve">2.93856072425842</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">2.93181681632996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90821433067322</t>
+    <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
     <t xml:space="preserve">2.86943793296814</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95710563659668</t>
+    <t xml:space="preserve">2.95710587501526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227907180786</t>
+    <t xml:space="preserve">2.97227883338928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745179176331</t>
+    <t xml:space="preserve">2.98745226860046</t>
   </si>
   <si>
     <t xml:space="preserve">2.9183292388916</t>
@@ -866,10 +866,10 @@
     <t xml:space="preserve">3.03465819358826</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01779913902283</t>
+    <t xml:space="preserve">3.01779890060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03802990913391</t>
+    <t xml:space="preserve">3.03803014755249</t>
   </si>
   <si>
     <t xml:space="preserve">3.07680630683899</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">3.02454280853271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285647392273</t>
+    <t xml:space="preserve">3.02285671234131</t>
   </si>
   <si>
     <t xml:space="preserve">3.02117085456848</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449550628662</t>
+    <t xml:space="preserve">2.8744957447052</t>
   </si>
   <si>
     <t xml:space="preserve">2.96890711784363</t>
@@ -920,28 +920,28 @@
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87280964851379</t>
+    <t xml:space="preserve">2.87280988693237</t>
   </si>
   <si>
     <t xml:space="preserve">2.96047759056091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484237670898</t>
+    <t xml:space="preserve">2.90484261512756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87955355644226</t>
+    <t xml:space="preserve">2.8795530796051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350315093994</t>
+    <t xml:space="preserve">2.93350291252136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862928390503</t>
+    <t xml:space="preserve">2.79862904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962187767029</t>
+    <t xml:space="preserve">2.73962211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68061494827271</t>
+    <t xml:space="preserve">2.68061447143555</t>
   </si>
   <si>
     <t xml:space="preserve">2.69747376441956</t>
@@ -950,16 +950,16 @@
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904447555542</t>
+    <t xml:space="preserve">2.68904423713684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63003730773926</t>
+    <t xml:space="preserve">2.63003706932068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57945942878723</t>
+    <t xml:space="preserve">2.57945919036865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60474824905396</t>
+    <t xml:space="preserve">2.60474801063538</t>
   </si>
   <si>
     <t xml:space="preserve">2.59631848335266</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">2.55417037010193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58788895606995</t>
+    <t xml:space="preserve">2.58788919448853</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61317777633667</t>
+    <t xml:space="preserve">2.61317801475525</t>
   </si>
   <si>
     <t xml:space="preserve">2.62160754203796</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">2.6553258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71433305740356</t>
+    <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
     <t xml:space="preserve">2.79019951820374</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96281099319458</t>
+    <t xml:space="preserve">2.962810754776</t>
   </si>
   <si>
     <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0146381855011</t>
+    <t xml:space="preserve">3.01463866233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736285209656</t>
+    <t xml:space="preserve">2.99736261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417308807373</t>
+    <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
     <t xml:space="preserve">2.85915565490723</t>
@@ -1013,16 +1013,16 @@
     <t xml:space="preserve">2.81596612930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8332417011261</t>
+    <t xml:space="preserve">2.83324193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.781414270401</t>
+    <t xml:space="preserve">2.78141450881958</t>
   </si>
   <si>
     <t xml:space="preserve">2.79005217552185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7986900806427</t>
+    <t xml:space="preserve">2.79869031906128</t>
   </si>
   <si>
     <t xml:space="preserve">2.7641384601593</t>
@@ -1031,10 +1031,10 @@
     <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68639707565308</t>
+    <t xml:space="preserve">2.6863968372345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72958660125732</t>
+    <t xml:space="preserve">2.7295868396759</t>
   </si>
   <si>
     <t xml:space="preserve">2.67775917053223</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">2.73822474479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6518452167511</t>
+    <t xml:space="preserve">2.65184497833252</t>
   </si>
   <si>
     <t xml:space="preserve">2.7123110294342</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">2.72094893455505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550031661987</t>
+    <t xml:space="preserve">2.75550055503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70367288589478</t>
+    <t xml:space="preserve">2.70367312431335</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503498077393</t>
@@ -1076,34 +1076,34 @@
     <t xml:space="preserve">2.600017786026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60865569114685</t>
+    <t xml:space="preserve">2.60865545272827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410407066345</t>
+    <t xml:space="preserve">2.57410383224487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56546592712402</t>
+    <t xml:space="preserve">2.5654661655426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481903553009</t>
+    <t xml:space="preserve">2.54819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55682826042175</t>
+    <t xml:space="preserve">2.55682802200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61729335784912</t>
+    <t xml:space="preserve">2.6172935962677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6345694065094</t>
+    <t xml:space="preserve">2.63456916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6691210269928</t>
+    <t xml:space="preserve">2.66912078857422</t>
   </si>
   <si>
     <t xml:space="preserve">2.80732798576355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82460403442383</t>
+    <t xml:space="preserve">2.82460379600525</t>
   </si>
   <si>
     <t xml:space="preserve">2.84187960624695</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689703941345</t>
+    <t xml:space="preserve">2.93689727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327656745911</t>
+    <t xml:space="preserve">3.02327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646585464478</t>
+    <t xml:space="preserve">3.06646609306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.04055213928223</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191423416138</t>
+    <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9800865650177</t>
+    <t xml:space="preserve">2.98008680343628</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
@@ -1163,13 +1163,16 @@
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91875743865967</t>
+    <t xml:space="preserve">2.94553470611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91875720024109</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231221199036</t>
+    <t xml:space="preserve">2.97231245040894</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
@@ -1178,34 +1181,34 @@
     <t xml:space="preserve">3.02586770057678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07049703598022</t>
+    <t xml:space="preserve">3.07049679756165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264544487</t>
+    <t xml:space="preserve">3.05264520645142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694178581238</t>
+    <t xml:space="preserve">3.01694202423096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908995628357</t>
+    <t xml:space="preserve">2.99909019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0615713596344</t>
+    <t xml:space="preserve">3.06157112121582</t>
   </si>
   <si>
     <t xml:space="preserve">3.07942271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09727478027344</t>
+    <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371929168701</t>
+    <t xml:space="preserve">3.04371953010559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834886550903</t>
+    <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1329779624939</t>
+    <t xml:space="preserve">3.13297820091248</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660879135132</t>
@@ -1214,7 +1217,7 @@
     <t xml:space="preserve">2.92768311500549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90090537071228</t>
+    <t xml:space="preserve">2.90090560913086</t>
   </si>
   <si>
     <t xml:space="preserve">2.90983152389526</t>
@@ -1232,22 +1235,19 @@
     <t xml:space="preserve">2.75809168815613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81164717674255</t>
+    <t xml:space="preserve">2.81164693832397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74916577339172</t>
+    <t xml:space="preserve">2.7491660118103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668484687805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205574989319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62420392036438</t>
+    <t xml:space="preserve">2.6242036819458</t>
   </si>
   <si>
     <t xml:space="preserve">2.60635209083557</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883325576782</t>
+    <t xml:space="preserve">2.66883301734924</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453643798828</t>
+    <t xml:space="preserve">2.70453667640686</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
@@ -1295,28 +1295,28 @@
     <t xml:space="preserve">3.1419038772583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11512613296509</t>
+    <t xml:space="preserve">3.11512637138367</t>
   </si>
   <si>
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620045661926</t>
+    <t xml:space="preserve">3.10620069503784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99016404151917</t>
+    <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
     <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272126197815</t>
+    <t xml:space="preserve">2.80272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379510879517</t>
+    <t xml:space="preserve">2.79379534721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4278347492218</t>
+    <t xml:space="preserve">2.42783498764038</t>
   </si>
   <si>
     <t xml:space="preserve">2.47246408462524</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">2.46353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57957482337952</t>
+    <t xml:space="preserve">2.57957458496094</t>
   </si>
   <si>
     <t xml:space="preserve">2.61527800559998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78486943244934</t>
+    <t xml:space="preserve">2.78486919403076</t>
   </si>
   <si>
     <t xml:space="preserve">2.77594351768494</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305377960205</t>
+    <t xml:space="preserve">2.88305401802063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057285308838</t>
+    <t xml:space="preserve">2.82057309150696</t>
   </si>
   <si>
     <t xml:space="preserve">2.74023985862732</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">2.63312983512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064867019653</t>
+    <t xml:space="preserve">2.57064890861511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49924182891846</t>
+    <t xml:space="preserve">2.49924159049988</t>
   </si>
   <si>
     <t xml:space="preserve">2.55279684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031591415405</t>
+    <t xml:space="preserve">2.49031567573547</t>
   </si>
   <si>
     <t xml:space="preserve">2.43676090240479</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320565223694</t>
+    <t xml:space="preserve">2.38320541381836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189088344574</t>
+    <t xml:space="preserve">2.41890907287598</t>
   </si>
   <si>
     <t xml:space="preserve">2.45461249351501</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">3.15082979202271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653321266174</t>
+    <t xml:space="preserve">3.18653297424316</t>
   </si>
   <si>
     <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545912742615</t>
+    <t xml:space="preserve">3.19545888900757</t>
   </si>
   <si>
     <t xml:space="preserve">3.35612463951111</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042121887207</t>
+    <t xml:space="preserve">3.32042098045349</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108696937561</t>
+    <t xml:space="preserve">3.48108673095703</t>
   </si>
   <si>
     <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893856048584</t>
+    <t xml:space="preserve">3.49893832206726</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">3.64175224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5346417427063</t>
+    <t xml:space="preserve">3.53464198112488</t>
   </si>
   <si>
     <t xml:space="preserve">3.51679039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967988967896</t>
+    <t xml:space="preserve">3.40967965126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.17760729789734</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25992059707642</t>
+    <t xml:space="preserve">3.259920835495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675602912903</t>
+    <t xml:space="preserve">3.29675579071045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1499,7 +1499,10 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308540344238</t>
+    <t xml:space="preserve">3.22308564186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1508,7 +1511,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890919685364</t>
+    <t xml:space="preserve">3.03890895843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1520,16 +1523,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0112829208374</t>
+    <t xml:space="preserve">3.01128268241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653547286987</t>
+    <t xml:space="preserve">3.06653571128845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682097434998</t>
+    <t xml:space="preserve">2.94682121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523857116699</t>
+    <t xml:space="preserve">2.96523880958557</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1544,22 +1547,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625044822693</t>
+    <t xml:space="preserve">3.18625020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811787605286</t>
+    <t xml:space="preserve">3.04811811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049160003662</t>
+    <t xml:space="preserve">3.02049136161804</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365616798401</t>
+    <t xml:space="preserve">2.98365640640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1586,10 +1589,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286532402039</t>
+    <t xml:space="preserve">2.99286508560181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2415030002594</t>
+    <t xml:space="preserve">3.24150323867798</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1680,6 +1683,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -24395,7 +24401,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24421,7 +24427,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24447,7 +24453,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G861" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24473,7 +24479,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G862" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24499,7 +24505,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G863" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24525,7 +24531,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G864" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24551,7 +24557,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G865" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24577,7 +24583,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G866" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24603,7 +24609,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G867" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24629,7 +24635,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G868" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24655,7 +24661,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G869" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24681,7 +24687,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G870" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24707,7 +24713,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24733,7 +24739,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G872" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24759,7 +24765,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24785,7 +24791,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G874" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24811,7 +24817,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G875" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24837,7 +24843,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24863,7 +24869,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24889,7 +24895,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G878" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24915,7 +24921,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G879" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24941,7 +24947,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G880" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24967,7 +24973,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G881" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -24993,7 +24999,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G882" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25019,7 +25025,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G883" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25045,7 +25051,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G884" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25071,7 +25077,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G885" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25097,7 +25103,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G886" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25123,7 +25129,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G887" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25149,7 +25155,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25175,7 +25181,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25201,7 +25207,7 @@
         <v>3.25</v>
       </c>
       <c r="G890" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25227,7 +25233,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G891" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25253,7 +25259,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25279,7 +25285,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25305,7 +25311,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G894" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25331,7 +25337,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G895" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25357,7 +25363,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G896" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25383,7 +25389,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G897" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25409,7 +25415,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25435,7 +25441,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G899" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25461,7 +25467,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G900" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25487,7 +25493,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G901" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25513,7 +25519,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G902" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25539,7 +25545,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25565,7 +25571,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G904" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25591,7 +25597,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25617,7 +25623,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25643,7 +25649,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G907" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25669,7 +25675,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G908" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25695,7 +25701,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25721,7 +25727,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25747,7 +25753,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25773,7 +25779,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G912" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25799,7 +25805,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G913" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25825,7 +25831,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25851,7 +25857,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25877,7 +25883,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G916" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25903,7 +25909,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G917" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25929,7 +25935,7 @@
         <v>3</v>
       </c>
       <c r="G918" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26059,7 +26065,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G923" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26085,7 +26091,7 @@
         <v>3</v>
       </c>
       <c r="G924" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26137,7 +26143,7 @@
         <v>3</v>
       </c>
       <c r="G926" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26163,7 +26169,7 @@
         <v>3</v>
       </c>
       <c r="G927" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26397,7 +26403,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26423,7 +26429,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G937" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27125,7 +27131,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G964" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27151,7 +27157,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G965" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27177,7 +27183,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G966" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27203,7 +27209,7 @@
         <v>3</v>
       </c>
       <c r="G967" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27359,7 +27365,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27385,7 +27391,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G974" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27411,7 +27417,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G975" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27437,7 +27443,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G976" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27593,7 +27599,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27619,7 +27625,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G983" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27671,7 +27677,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G985" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27723,7 +27729,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G987" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27775,7 +27781,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27801,7 +27807,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27827,7 +27833,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27853,7 +27859,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G992" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27879,7 +27885,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27905,7 +27911,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G994" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27931,7 +27937,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G995" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27957,7 +27963,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G996" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -27983,7 +27989,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G997" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28009,7 +28015,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G998" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28035,7 +28041,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G999" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28061,7 +28067,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1000" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28087,7 +28093,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1001" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28113,7 +28119,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1002" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28139,7 +28145,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1003" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28165,7 +28171,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1004" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28191,7 +28197,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1005" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28217,7 +28223,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1006" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28243,7 +28249,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1007" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28269,7 +28275,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1008" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28295,7 +28301,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1009" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28321,7 +28327,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1010" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28347,7 +28353,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1011" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28373,7 +28379,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1012" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28399,7 +28405,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1013" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28425,7 +28431,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1014" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28451,7 +28457,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1015" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28477,7 +28483,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1016" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28503,7 +28509,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1017" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28529,7 +28535,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1018" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28555,7 +28561,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1019" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28581,7 +28587,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1020" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28607,7 +28613,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1021" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28633,7 +28639,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1022" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28711,7 +28717,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1025" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28737,7 +28743,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1026" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28763,7 +28769,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1027" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28789,7 +28795,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1028" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28815,7 +28821,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1029" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28893,7 +28899,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1032" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28919,7 +28925,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1033" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28945,7 +28951,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1034" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28971,7 +28977,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1035" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -28997,7 +29003,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1036" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29023,7 +29029,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1037" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29049,7 +29055,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1038" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29179,7 +29185,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29205,7 +29211,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1044" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29231,7 +29237,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1045" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29257,7 +29263,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29283,7 +29289,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1047" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29309,7 +29315,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29387,7 +29393,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1051" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29413,7 +29419,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1052" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29439,7 +29445,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1053" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29465,7 +29471,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1054" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29491,7 +29497,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1055" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29517,7 +29523,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1056" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29543,7 +29549,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29569,7 +29575,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1058" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29595,7 +29601,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1059" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30141,7 +30147,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1080" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30427,7 +30433,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1091" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30505,7 +30511,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1094" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30583,7 +30589,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1097" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30609,7 +30615,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1098" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30635,7 +30641,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1099" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30661,7 +30667,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1100" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30687,7 +30693,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30999,7 +31005,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1113" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31363,7 +31369,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31415,7 +31421,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31441,7 +31447,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31623,7 +31629,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31649,7 +31655,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32143,7 +32149,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1157" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32169,7 +32175,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1158" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32195,7 +32201,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32689,7 +32695,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1178" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32715,7 +32721,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1179" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32793,7 +32799,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1182" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32819,7 +32825,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1183" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32845,7 +32851,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32871,7 +32877,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1185" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32975,7 +32981,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1189" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33079,7 +33085,7 @@
         <v>3</v>
       </c>
       <c r="G1193" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33105,7 +33111,7 @@
         <v>3</v>
       </c>
       <c r="G1194" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33131,7 +33137,7 @@
         <v>3</v>
       </c>
       <c r="G1195" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33157,7 +33163,7 @@
         <v>3</v>
       </c>
       <c r="G1196" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33183,7 +33189,7 @@
         <v>3</v>
       </c>
       <c r="G1197" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33209,7 +33215,7 @@
         <v>3</v>
       </c>
       <c r="G1198" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33235,7 +33241,7 @@
         <v>3</v>
       </c>
       <c r="G1199" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34795,7 +34801,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1259" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34925,7 +34931,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1264" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34951,7 +34957,7 @@
         <v>3.25</v>
       </c>
       <c r="G1265" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35003,7 +35009,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1267" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35029,7 +35035,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1268" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35055,7 +35061,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1269" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35081,7 +35087,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1270" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35107,7 +35113,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1271" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35133,7 +35139,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1272" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35159,7 +35165,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35185,7 +35191,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1274" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35211,7 +35217,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35237,7 +35243,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1276" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35263,7 +35269,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35289,7 +35295,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1278" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35315,7 +35321,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1279" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35393,7 +35399,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1282" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35419,7 +35425,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1283" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35445,7 +35451,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1284" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35471,7 +35477,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1285" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35497,7 +35503,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1286" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35523,7 +35529,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1287" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35549,7 +35555,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1288" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35601,7 +35607,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1290" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35653,7 +35659,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1292" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35679,7 +35685,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1293" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35705,7 +35711,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1294" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35731,7 +35737,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1295" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35757,7 +35763,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1296" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35783,7 +35789,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1297" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35861,7 +35867,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1300" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35913,7 +35919,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1302" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -35991,7 +35997,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36017,7 +36023,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36043,7 +36049,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1307" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36069,7 +36075,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1308" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36147,7 +36153,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1311" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36173,7 +36179,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1312" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36199,7 +36205,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1313" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36225,7 +36231,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1314" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36303,7 +36309,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1317" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36511,7 +36517,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1325" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36537,7 +36543,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1326" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36563,7 +36569,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1327" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36589,7 +36595,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1328" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36641,7 +36647,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36693,7 +36699,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1332" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36719,7 +36725,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36745,7 +36751,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1334" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36927,7 +36933,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1341" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37161,7 +37167,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37187,7 +37193,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1351" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37213,7 +37219,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1352" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37239,7 +37245,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1353" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37447,7 +37453,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1361" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37473,7 +37479,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1362" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37499,7 +37505,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1363" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37525,7 +37531,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1364" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37551,7 +37557,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1365" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37577,7 +37583,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1366" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37603,7 +37609,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1367" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37681,7 +37687,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1370" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37707,7 +37713,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1371" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37733,7 +37739,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1372" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37759,7 +37765,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37837,7 +37843,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1376" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37889,7 +37895,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1378" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37941,7 +37947,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1380" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37993,7 +37999,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1382" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38019,7 +38025,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1383" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38071,7 +38077,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1385" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38123,7 +38129,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38201,7 +38207,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1390" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38227,7 +38233,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1391" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38253,7 +38259,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38279,7 +38285,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1393" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38305,7 +38311,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1394" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38331,7 +38337,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1395" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38357,7 +38363,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1396" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38383,7 +38389,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38409,7 +38415,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1398" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38435,7 +38441,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1399" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38461,7 +38467,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1400" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38487,7 +38493,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1401" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38513,7 +38519,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38539,7 +38545,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1403" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38565,7 +38571,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1404" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38591,7 +38597,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1405" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38617,7 +38623,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38643,7 +38649,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1407" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38669,7 +38675,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38695,7 +38701,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1409" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38721,7 +38727,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38747,7 +38753,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1411" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38773,7 +38779,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1412" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38799,7 +38805,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1413" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38825,7 +38831,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1414" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38877,7 +38883,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38903,7 +38909,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1417" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38929,7 +38935,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1418" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38981,7 +38987,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1420" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39059,7 +39065,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1423" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39085,7 +39091,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1424" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39293,7 +39299,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1432" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39319,7 +39325,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1433" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39579,7 +39585,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1443" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39605,7 +39611,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1444" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39631,7 +39637,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1445" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39709,7 +39715,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1448" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39813,7 +39819,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39839,7 +39845,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39865,7 +39871,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39891,7 +39897,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1455" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42725,7 +42731,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1564" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42751,7 +42757,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1565" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42777,7 +42783,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1566" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42803,7 +42809,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42829,7 +42835,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42855,7 +42861,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1569" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42881,7 +42887,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1570" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42907,7 +42913,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1571" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42933,7 +42939,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1572" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42959,7 +42965,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1573" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43011,7 +43017,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1575" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43037,7 +43043,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1576" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43063,7 +43069,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43089,7 +43095,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1578" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43141,7 +43147,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1580" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43921,7 +43927,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1610" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43973,7 +43979,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1612" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44025,7 +44031,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1614" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44129,7 +44135,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1618" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44155,7 +44161,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1619" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44181,7 +44187,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1620" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44207,7 +44213,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1621" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44753,7 +44759,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44779,7 +44785,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44805,7 +44811,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44857,7 +44863,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1646" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44883,7 +44889,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1647" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44909,7 +44915,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1648" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44961,7 +44967,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44987,7 +44993,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45013,7 +45019,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45039,7 +45045,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45065,7 +45071,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1654" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45091,7 +45097,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1655" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45117,7 +45123,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1656" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45143,7 +45149,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1657" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45195,7 +45201,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1659" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45221,7 +45227,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45247,7 +45253,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1661" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45273,7 +45279,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1662" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45299,7 +45305,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45325,7 +45331,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45351,7 +45357,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45377,7 +45383,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1666" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45403,7 +45409,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1667" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45429,7 +45435,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45455,7 +45461,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1669" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45481,7 +45487,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45507,7 +45513,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1671" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45533,7 +45539,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45559,7 +45565,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45585,7 +45591,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1674" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45611,7 +45617,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1675" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45637,7 +45643,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1676" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45663,7 +45669,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1677" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45689,7 +45695,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1678" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45715,7 +45721,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45741,7 +45747,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45767,7 +45773,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1681" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45819,7 +45825,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1683" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45845,7 +45851,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1684" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45897,7 +45903,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45923,7 +45929,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45949,7 +45955,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45975,7 +45981,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1689" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46001,7 +46007,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46027,7 +46033,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46053,7 +46059,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46079,7 +46085,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1693" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46105,7 +46111,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1694" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46131,7 +46137,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46209,7 +46215,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46235,7 +46241,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1699" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46261,7 +46267,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46313,7 +46319,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46339,7 +46345,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46365,7 +46371,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1704" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46391,7 +46397,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1705" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46417,7 +46423,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46443,7 +46449,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1707" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46547,7 +46553,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46573,7 +46579,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46599,7 +46605,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46625,7 +46631,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1714" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46651,7 +46657,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46677,7 +46683,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46703,7 +46709,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46729,7 +46735,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1718" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46755,7 +46761,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46781,7 +46787,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46807,7 +46813,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46833,7 +46839,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46859,7 +46865,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1723" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46885,7 +46891,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1724" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46911,7 +46917,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46937,7 +46943,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1726" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46963,7 +46969,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1727" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46989,7 +46995,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47015,7 +47021,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1729" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47041,7 +47047,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47067,7 +47073,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1731" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47093,7 +47099,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1732" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47119,7 +47125,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47145,7 +47151,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1734" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47171,7 +47177,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1735" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47197,7 +47203,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47223,7 +47229,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1737" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47249,7 +47255,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47275,7 +47281,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47301,7 +47307,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1740" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47327,7 +47333,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47353,7 +47359,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1742" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47379,7 +47385,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47405,7 +47411,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1744" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47431,7 +47437,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1745" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47457,7 +47463,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47483,7 +47489,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1747" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47509,7 +47515,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47535,7 +47541,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1749" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47561,7 +47567,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1750" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47587,7 +47593,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47613,7 +47619,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1752" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47639,7 +47645,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1753" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47665,7 +47671,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47691,7 +47697,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1755" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47717,7 +47723,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1756" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47743,7 +47749,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1757" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47769,7 +47775,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1758" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47795,7 +47801,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47821,7 +47827,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1760" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47847,7 +47853,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47873,7 +47879,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47899,7 +47905,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47925,7 +47931,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47951,7 +47957,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1765" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47977,7 +47983,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1766" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48003,7 +48009,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48029,7 +48035,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1768" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48055,7 +48061,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48081,7 +48087,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1770" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48107,7 +48113,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1771" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48133,7 +48139,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1772" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48159,7 +48165,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1773" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48185,7 +48191,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1774" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48211,7 +48217,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1775" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48237,7 +48243,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1776" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48263,7 +48269,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1777" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48289,7 +48295,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1778" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48315,7 +48321,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1779" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48341,7 +48347,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48367,7 +48373,7 @@
         <v>3.25</v>
       </c>
       <c r="G1781" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48393,7 +48399,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1782" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48419,7 +48425,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48445,7 +48451,7 @@
         <v>3.25</v>
       </c>
       <c r="G1784" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48471,7 +48477,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1785" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48497,7 +48503,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1786" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48523,7 +48529,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48549,7 +48555,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48575,7 +48581,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1789" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48601,7 +48607,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1790" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48627,7 +48633,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1791" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48653,7 +48659,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1792" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48679,7 +48685,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48705,7 +48711,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48731,7 +48737,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1795" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48757,7 +48763,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48783,7 +48789,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48809,7 +48815,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48835,7 +48841,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1799" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48861,7 +48867,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48887,7 +48893,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1801" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48913,7 +48919,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1802" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48939,7 +48945,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1803" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48965,7 +48971,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48991,7 +48997,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1805" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49017,7 +49023,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1806" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49043,7 +49049,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1807" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49069,7 +49075,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49095,7 +49101,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1809" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49121,7 +49127,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1810" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49147,7 +49153,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1811" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49173,7 +49179,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49199,7 +49205,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1813" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49225,7 +49231,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1814" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49251,7 +49257,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1815" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49277,7 +49283,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49303,7 +49309,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1817" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49329,7 +49335,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1818" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49355,7 +49361,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49381,7 +49387,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49407,7 +49413,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49433,7 +49439,7 @@
         <v>3.25</v>
       </c>
       <c r="G1822" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49459,7 +49465,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49485,7 +49491,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1824" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49511,7 +49517,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1825" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49537,7 +49543,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1826" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49563,7 +49569,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49589,7 +49595,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49615,7 +49621,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1829" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49641,7 +49647,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49667,7 +49673,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49693,7 +49699,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49719,7 +49725,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1833" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49745,7 +49751,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1834" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49771,7 +49777,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1835" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49797,7 +49803,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49823,7 +49829,7 @@
         <v>3.25</v>
       </c>
       <c r="G1837" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49849,7 +49855,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1838" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49875,7 +49881,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1839" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49901,7 +49907,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49927,7 +49933,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1841" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49953,7 +49959,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1842" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49979,7 +49985,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1843" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50005,7 +50011,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50031,7 +50037,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1845" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50057,7 +50063,7 @@
         <v>3.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50083,7 +50089,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1847" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50109,7 +50115,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1848" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50135,7 +50141,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1849" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50161,7 +50167,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1850" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50187,7 +50193,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1851" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50213,7 +50219,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50239,7 +50245,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1853" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50265,7 +50271,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1854" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50291,7 +50297,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1855" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50317,7 +50323,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1856" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50343,7 +50349,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1857" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50369,7 +50375,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1858" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50395,7 +50401,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1859" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50421,7 +50427,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1860" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50447,7 +50453,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1861" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50473,7 +50479,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1862" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50499,7 +50505,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1863" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50525,7 +50531,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1864" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50551,7 +50557,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1865" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50577,7 +50583,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1866" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50603,7 +50609,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50629,7 +50635,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50655,7 +50661,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1869" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50681,7 +50687,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1870" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50707,7 +50713,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1871" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50733,7 +50739,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1872" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50759,7 +50765,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1873" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50785,7 +50791,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1874" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50811,7 +50817,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1875" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50837,7 +50843,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1876" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50863,7 +50869,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1877" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50889,7 +50895,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1878" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50915,7 +50921,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1879" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50941,7 +50947,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1880" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50967,7 +50973,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1881" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50993,7 +50999,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1882" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51019,7 +51025,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1883" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51045,7 +51051,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1884" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51071,7 +51077,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1885" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51097,7 +51103,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1886" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51123,7 +51129,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1887" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51149,7 +51155,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1888" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51175,7 +51181,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1889" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51201,7 +51207,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1890" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51227,7 +51233,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1891" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51253,7 +51259,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1892" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51279,7 +51285,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1893" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51305,7 +51311,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1894" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51331,7 +51337,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1895" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51357,7 +51363,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1896" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51383,7 +51389,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1897" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51409,7 +51415,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1898" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51435,7 +51441,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1899" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51461,7 +51467,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1900" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51487,7 +51493,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1901" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51513,7 +51519,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1902" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51539,7 +51545,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1903" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51565,7 +51571,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1904" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51591,7 +51597,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1905" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51617,7 +51623,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1906" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51643,7 +51649,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1907" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51669,7 +51675,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51695,7 +51701,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1909" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51721,7 +51727,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1910" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51747,7 +51753,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51773,7 +51779,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1912" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51799,7 +51805,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51825,7 +51831,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1914" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51851,7 +51857,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51877,7 +51883,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1916" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51903,7 +51909,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51929,7 +51935,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1918" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51955,7 +51961,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1919" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51981,7 +51987,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1920" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52007,7 +52013,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52033,7 +52039,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52059,7 +52065,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52085,7 +52091,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52111,7 +52117,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1925" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52137,7 +52143,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1926" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52163,7 +52169,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1927" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52189,7 +52195,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1928" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52215,7 +52221,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1929" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52241,7 +52247,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1930" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52267,7 +52273,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1931" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52293,7 +52299,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1932" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52319,7 +52325,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1933" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52345,7 +52351,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1934" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52371,7 +52377,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1935" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52397,7 +52403,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1936" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52423,7 +52429,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52449,7 +52455,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1938" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52475,7 +52481,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1939" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52501,7 +52507,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1940" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52527,7 +52533,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52553,7 +52559,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52579,7 +52585,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1943" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52605,7 +52611,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1944" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52631,7 +52637,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52657,7 +52663,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52683,7 +52689,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1947" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52709,7 +52715,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1948" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52735,7 +52741,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1949" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52761,7 +52767,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52787,7 +52793,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52813,7 +52819,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1952" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52839,7 +52845,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1953" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52865,7 +52871,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1954" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52891,7 +52897,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1955" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52917,7 +52923,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1956" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52943,7 +52949,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52969,7 +52975,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52995,7 +53001,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1959" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53021,7 +53027,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53047,7 +53053,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53073,7 +53079,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53099,7 +53105,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1963" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53125,7 +53131,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53151,7 +53157,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53177,7 +53183,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1966" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53203,7 +53209,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1967" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53229,7 +53235,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53255,7 +53261,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53281,7 +53287,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53307,7 +53313,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53333,7 +53339,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1972" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53359,7 +53365,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1973" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53385,7 +53391,7 @@
         <v>3</v>
       </c>
       <c r="G1974" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53411,7 +53417,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1975" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53437,7 +53443,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53463,7 +53469,7 @@
         <v>3</v>
       </c>
       <c r="G1977" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53489,7 +53495,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1978" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53515,7 +53521,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1979" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53541,7 +53547,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53567,7 +53573,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53593,7 +53599,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1982" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53619,7 +53625,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1983" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53645,7 +53651,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1984" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53671,7 +53677,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1985" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53697,7 +53703,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1986" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53723,7 +53729,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1987" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53749,7 +53755,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1988" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53775,7 +53781,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1989" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53801,7 +53807,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1990" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53827,7 +53833,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53853,7 +53859,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1992" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53879,7 +53885,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1993" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53905,7 +53911,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1994" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53931,7 +53937,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1995" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53957,7 +53963,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1996" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53983,7 +53989,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54009,7 +54015,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54035,7 +54041,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1999" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54061,7 +54067,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G2000" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54087,7 +54093,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54113,7 +54119,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54139,7 +54145,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54165,7 +54171,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54191,7 +54197,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54217,7 +54223,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2006" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54243,7 +54249,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2007" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54269,7 +54275,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G2008" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54295,7 +54301,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54321,7 +54327,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2010" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54347,7 +54353,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2011" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54373,7 +54379,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2012" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54399,7 +54405,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2013" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54425,7 +54431,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2014" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54451,7 +54457,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54477,7 +54483,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2016" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54503,7 +54509,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2017" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54529,7 +54535,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2018" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54555,7 +54561,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2019" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54581,7 +54587,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2020" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54607,7 +54613,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2021" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54633,7 +54639,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2022" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54659,7 +54665,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2023" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54685,7 +54691,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54711,7 +54717,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2025" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54737,7 +54743,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2026" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54763,7 +54769,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2027" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54789,7 +54795,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2028" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54815,7 +54821,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2029" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54841,7 +54847,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2030" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54867,7 +54873,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54893,7 +54899,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2032" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54919,7 +54925,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2033" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54945,7 +54951,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54971,7 +54977,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2035" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54997,7 +55003,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2036" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55023,7 +55029,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2037" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55049,7 +55055,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2038" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55075,7 +55081,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55101,7 +55107,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2040" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55127,7 +55133,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2041" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55153,7 +55159,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2042" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55179,7 +55185,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2043" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55205,7 +55211,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55231,7 +55237,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2045" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55257,7 +55263,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2046" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55283,7 +55289,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2047" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55309,7 +55315,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2048" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55335,7 +55341,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2049" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55361,7 +55367,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2050" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55387,7 +55393,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2051" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55413,7 +55419,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2052" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55439,7 +55445,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55465,7 +55471,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2054" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55491,7 +55497,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2055" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55517,7 +55523,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2056" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55543,7 +55549,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2057" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55569,7 +55575,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2058" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55595,7 +55601,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2059" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55621,7 +55627,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2060" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55647,7 +55653,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2061" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55673,7 +55679,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2062" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55699,7 +55705,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2063" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55725,7 +55731,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2064" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55751,7 +55757,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2065" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55777,7 +55783,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2066" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55803,7 +55809,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2067" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55829,7 +55835,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2068" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55855,7 +55861,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2069" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55881,7 +55887,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2070" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55907,7 +55913,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2071" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55933,7 +55939,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2072" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55959,7 +55965,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55985,7 +55991,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2074" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56011,7 +56017,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2075" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56037,7 +56043,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2076" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56063,7 +56069,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2077" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56089,7 +56095,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2078" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56115,7 +56121,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2079" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56141,7 +56147,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2080" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56167,7 +56173,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2081" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56193,7 +56199,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2082" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56219,7 +56225,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2083" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56245,7 +56251,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2084" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56271,7 +56277,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2085" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56297,7 +56303,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2086" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56323,7 +56329,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56349,7 +56355,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2088" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56375,7 +56381,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56401,7 +56407,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56427,7 +56433,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2091" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56453,7 +56459,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56479,7 +56485,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56505,7 +56511,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2094" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56531,7 +56537,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2095" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56557,7 +56563,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56583,7 +56589,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2097" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56609,7 +56615,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2098" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56635,7 +56641,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2099" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56661,7 +56667,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2100" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56687,7 +56693,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2101" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56713,7 +56719,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56739,7 +56745,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56765,7 +56771,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56791,7 +56797,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2105" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56817,7 +56823,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2106" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56843,7 +56849,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2107" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56869,7 +56875,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2108" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56895,7 +56901,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2109" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56921,7 +56927,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2110" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56947,7 +56953,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56973,7 +56979,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56999,7 +57005,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2113" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57025,7 +57031,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57051,7 +57057,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57077,7 +57083,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57103,7 +57109,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57129,7 +57135,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57155,7 +57161,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57181,7 +57187,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2120" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57207,7 +57213,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57233,7 +57239,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57259,7 +57265,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2123" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57285,7 +57291,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57311,7 +57317,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57337,7 +57343,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57363,7 +57369,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57389,7 +57395,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57415,7 +57421,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57441,7 +57447,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57467,7 +57473,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57493,7 +57499,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57519,7 +57525,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57545,7 +57551,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57571,7 +57577,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57597,7 +57603,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57623,7 +57629,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57649,7 +57655,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57675,7 +57681,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57701,7 +57707,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57727,7 +57733,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57753,7 +57759,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57779,7 +57785,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57805,7 +57811,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57831,7 +57837,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57857,7 +57863,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57883,7 +57889,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57909,7 +57915,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57935,7 +57941,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57961,7 +57967,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57987,7 +57993,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58013,7 +58019,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58039,7 +58045,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58047,7 +58053,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6229861111</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>6344</v>
@@ -58065,9 +58071,35 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.5559837963</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>316</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>570</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33370780944824</t>
+    <t xml:space="preserve">2.33370804786682</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35517883300781</t>
+    <t xml:space="preserve">2.35517859458923</t>
   </si>
   <si>
     <t xml:space="preserve">2.28581166267395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397915840149</t>
+    <t xml:space="preserve">2.30397939682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185163497925</t>
+    <t xml:space="preserve">2.17185139656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.21974778175354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836736679077</t>
+    <t xml:space="preserve">2.18836760520935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019963264465</t>
+    <t xml:space="preserve">2.17019987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752941131592</t>
+    <t xml:space="preserve">2.09752917289734</t>
   </si>
   <si>
     <t xml:space="preserve">2.08927130699158</t>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00503969192505</t>
+    <t xml:space="preserve">2.00504016876221</t>
   </si>
   <si>
     <t xml:space="preserve">2.09257459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404538154602</t>
+    <t xml:space="preserve">2.1140456199646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542603492737</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06284546852112</t>
+    <t xml:space="preserve">2.0628457069397</t>
   </si>
   <si>
     <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972363471985</t>
+    <t xml:space="preserve">2.03972339630127</t>
   </si>
   <si>
     <t xml:space="preserve">2.0364203453064</t>
@@ -101,19 +101,19 @@
     <t xml:space="preserve">1.98852384090424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660108566284</t>
+    <t xml:space="preserve">2.01660084724426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365951538086</t>
+    <t xml:space="preserve">1.97365975379944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119418144226</t>
+    <t xml:space="preserve">2.06119441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017584323883</t>
+    <t xml:space="preserve">1.99017560482025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329779624939</t>
+    <t xml:space="preserve">2.01329803466797</t>
   </si>
   <si>
     <t xml:space="preserve">2.11734867095947</t>
@@ -122,19 +122,19 @@
     <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875323295593</t>
+    <t xml:space="preserve">2.32875299453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35352730751038</t>
+    <t xml:space="preserve">2.3535270690918</t>
   </si>
   <si>
     <t xml:space="preserve">2.31223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2213990688324</t>
+    <t xml:space="preserve">2.22139954566956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14707708358765</t>
+    <t xml:space="preserve">2.14707684516907</t>
   </si>
   <si>
     <t xml:space="preserve">2.13716793060303</t>
@@ -146,13 +146,13 @@
     <t xml:space="preserve">2.36839175224304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739720344543</t>
+    <t xml:space="preserve">2.47739696502686</t>
   </si>
   <si>
     <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42124223709106</t>
+    <t xml:space="preserve">2.42124247550964</t>
   </si>
   <si>
     <t xml:space="preserve">2.39481711387634</t>
@@ -164,49 +164,49 @@
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5352029800415</t>
+    <t xml:space="preserve">2.53520274162292</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126686096191</t>
+    <t xml:space="preserve">2.60126662254333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135746955872</t>
+    <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117649078369</t>
+    <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
     <t xml:space="preserve">2.54180932044983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51703572273254</t>
+    <t xml:space="preserve">2.51703524589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868653297424</t>
+    <t xml:space="preserve">2.51868677139282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47244238853455</t>
+    <t xml:space="preserve">2.47244215011597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50712561607361</t>
+    <t xml:space="preserve">2.50712537765503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41793942451477</t>
+    <t xml:space="preserve">2.41793966293335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574543952942</t>
+    <t xml:space="preserve">2.47574520111084</t>
   </si>
   <si>
     <t xml:space="preserve">2.48895835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49391269683838</t>
+    <t xml:space="preserve">2.49391293525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253252029419</t>
+    <t xml:space="preserve">2.46253275871277</t>
   </si>
   <si>
     <t xml:space="preserve">2.43610715866089</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106221199036</t>
+    <t xml:space="preserve">2.44106197357178</t>
   </si>
   <si>
     <t xml:space="preserve">2.4245457649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37830114364624</t>
+    <t xml:space="preserve">2.37830138206482</t>
   </si>
   <si>
     <t xml:space="preserve">2.21148991584778</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">2.1404709815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16854786872864</t>
+    <t xml:space="preserve">2.1685483455658</t>
   </si>
   <si>
     <t xml:space="preserve">2.15533542633057</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">2.10578751564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0461094379425</t>
+    <t xml:space="preserve">2.04610919952393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598955154419</t>
+    <t xml:space="preserve">2.00598978996277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303518295288</t>
+    <t xml:space="preserve">2.13303542137146</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
@@ -263,31 +263,31 @@
     <t xml:space="preserve">2.02270603179932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01434803009033</t>
+    <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255623340607</t>
+    <t xml:space="preserve">1.97255647182465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431799888611</t>
+    <t xml:space="preserve">2.00431776046753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927283287048</t>
+    <t xml:space="preserve">1.98927307128906</t>
   </si>
   <si>
     <t xml:space="preserve">1.64825463294983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79703235626221</t>
+    <t xml:space="preserve">1.79703223705292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374907493591</t>
+    <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207704544067</t>
+    <t xml:space="preserve">1.81207716464996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195727825165</t>
+    <t xml:space="preserve">1.77195739746094</t>
   </si>
   <si>
     <t xml:space="preserve">1.75356924533844</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">1.73016595840454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72180771827698</t>
+    <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7385241985321</t>
+    <t xml:space="preserve">1.73852407932281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837440013885</t>
+    <t xml:space="preserve">1.68837451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75524067878723</t>
+    <t xml:space="preserve">1.75524079799652</t>
   </si>
   <si>
     <t xml:space="preserve">1.74855399131775</t>
@@ -314,46 +314,46 @@
     <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344923973083</t>
+    <t xml:space="preserve">1.71344935894012</t>
   </si>
   <si>
     <t xml:space="preserve">1.68001616001129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673275947571</t>
+    <t xml:space="preserve">1.69673264026642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225675582886</t>
+    <t xml:space="preserve">1.87225687503815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419787406921</t>
+    <t xml:space="preserve">1.9641979932785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754133701324</t>
+    <t xml:space="preserve">1.96754157543182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613923072815</t>
+    <t xml:space="preserve">2.05613946914673</t>
   </si>
   <si>
     <t xml:space="preserve">2.00933289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604937553406</t>
+    <t xml:space="preserve">2.02604961395264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443740844727</t>
+    <t xml:space="preserve">2.04443764686584</t>
   </si>
   <si>
     <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05781054496765</t>
+    <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
     <t xml:space="preserve">1.97088479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413805007935</t>
+    <t xml:space="preserve">1.94413816928864</t>
   </si>
   <si>
     <t xml:space="preserve">1.97757124900818</t>
@@ -362,16 +362,13 @@
     <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449770927429</t>
+    <t xml:space="preserve">1.99763143062592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763119220734</t>
+    <t xml:space="preserve">2.0711841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07118391990662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07285594940186</t>
+    <t xml:space="preserve">2.07285571098328</t>
   </si>
   <si>
     <t xml:space="preserve">2.09625887870789</t>
@@ -380,16 +377,16 @@
     <t xml:space="preserve">2.11464715003967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823050498962</t>
+    <t xml:space="preserve">2.19823026657104</t>
   </si>
   <si>
     <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652844429016</t>
+    <t xml:space="preserve">2.18652868270874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643882751465</t>
+    <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
     <t xml:space="preserve">2.16312551498413</t>
@@ -398,10 +395,10 @@
     <t xml:space="preserve">2.16479682922363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655847549438</t>
+    <t xml:space="preserve">2.19655871391296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23166346549988</t>
+    <t xml:space="preserve">2.2316632270813</t>
   </si>
   <si>
     <t xml:space="preserve">2.22330498695374</t>
@@ -410,13 +407,13 @@
     <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3319628238678</t>
+    <t xml:space="preserve">2.33196306228638</t>
   </si>
   <si>
     <t xml:space="preserve">2.34032106399536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34700751304626</t>
+    <t xml:space="preserve">2.34700798988342</t>
   </si>
   <si>
     <t xml:space="preserve">2.38044095039368</t>
@@ -428,34 +425,34 @@
     <t xml:space="preserve">2.32360458374023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855965614319</t>
+    <t xml:space="preserve">2.30855941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33864951133728</t>
+    <t xml:space="preserve">2.33864974975586</t>
   </si>
   <si>
     <t xml:space="preserve">2.31691765785217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533596038818</t>
+    <t xml:space="preserve">2.3453357219696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539578437805</t>
+    <t xml:space="preserve">2.36539554595947</t>
   </si>
   <si>
     <t xml:space="preserve">2.36372447013855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530616760254</t>
+    <t xml:space="preserve">2.33530592918396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008176803589</t>
+    <t xml:space="preserve">2.26008152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2951865196228</t>
+    <t xml:space="preserve">2.29518628120422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673818588257</t>
+    <t xml:space="preserve">2.25673794746399</t>
   </si>
   <si>
     <t xml:space="preserve">2.30521631240845</t>
@@ -473,19 +470,19 @@
     <t xml:space="preserve">2.11631894111633</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21494674682617</t>
+    <t xml:space="preserve">2.21494698524475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324516296387</t>
+    <t xml:space="preserve">2.20324468612671</t>
   </si>
   <si>
     <t xml:space="preserve">2.27011156082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506639480591</t>
+    <t xml:space="preserve">2.25506663322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1898717880249</t>
+    <t xml:space="preserve">2.18987202644348</t>
   </si>
   <si>
     <t xml:space="preserve">2.25339484214783</t>
@@ -494,13 +491,13 @@
     <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990181922913</t>
+    <t xml:space="preserve">2.19990158081055</t>
   </si>
   <si>
     <t xml:space="preserve">2.24336528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14139366149902</t>
+    <t xml:space="preserve">2.1413938999176</t>
   </si>
   <si>
     <t xml:space="preserve">2.14640879631042</t>
@@ -509,19 +506,19 @@
     <t xml:space="preserve">2.18318510055542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688786506653</t>
+    <t xml:space="preserve">2.30688762664795</t>
   </si>
   <si>
     <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554594039917</t>
+    <t xml:space="preserve">2.41554570198059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223238945007</t>
+    <t xml:space="preserve">2.42223215103149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551567077637</t>
+    <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
     <t xml:space="preserve">2.45900869369507</t>
@@ -530,16 +527,16 @@
     <t xml:space="preserve">2.37709784507751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52754688262939</t>
+    <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50748705863953</t>
+    <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54927802085876</t>
+    <t xml:space="preserve">2.54927825927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909878730774</t>
+    <t xml:space="preserve">2.48909854888916</t>
   </si>
   <si>
     <t xml:space="preserve">2.46569561958313</t>
@@ -548,7 +545,7 @@
     <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241186141968</t>
+    <t xml:space="preserve">2.48241209983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.39715766906738</t>
@@ -557,7 +554,7 @@
     <t xml:space="preserve">2.43894910812378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49077033996582</t>
+    <t xml:space="preserve">2.4907705783844</t>
   </si>
   <si>
     <t xml:space="preserve">2.4991283416748</t>
@@ -566,7 +563,7 @@
     <t xml:space="preserve">2.50414347648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906875610352</t>
+    <t xml:space="preserve">2.47906851768494</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399379730225</t>
@@ -581,13 +578,13 @@
     <t xml:space="preserve">2.42390394210815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5994279384613</t>
+    <t xml:space="preserve">2.59942817687988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64790606498718</t>
+    <t xml:space="preserve">2.64790630340576</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62450289726257</t>
+    <t xml:space="preserve">2.62450337409973</t>
   </si>
   <si>
     <t xml:space="preserve">2.67298126220703</t>
@@ -596,19 +593,19 @@
     <t xml:space="preserve">2.64957785606384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163886070251</t>
+    <t xml:space="preserve">2.78163909912109</t>
   </si>
   <si>
     <t xml:space="preserve">2.8418185710907</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847522735596</t>
+    <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
     <t xml:space="preserve">2.83513188362122</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81674337387085</t>
+    <t xml:space="preserve">2.81674361228943</t>
   </si>
   <si>
     <t xml:space="preserve">2.83346009254456</t>
@@ -617,28 +614,28 @@
     <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811580657959</t>
+    <t xml:space="preserve">2.71811556816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172895431519</t>
+    <t xml:space="preserve">2.81172871589661</t>
   </si>
   <si>
     <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659393310547</t>
+    <t xml:space="preserve">2.76659345626831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75154876708984</t>
+    <t xml:space="preserve">2.75154900550842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495217323303</t>
+    <t xml:space="preserve">2.77495193481445</t>
   </si>
   <si>
     <t xml:space="preserve">2.79166865348816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486231803894</t>
+    <t xml:space="preserve">2.74486207962036</t>
   </si>
   <si>
     <t xml:space="preserve">2.74319052696228</t>
@@ -647,7 +644,7 @@
     <t xml:space="preserve">2.67465257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823545455933</t>
+    <t xml:space="preserve">2.75823569297791</t>
   </si>
   <si>
     <t xml:space="preserve">2.73316073417664</t>
@@ -656,28 +653,28 @@
     <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838513374329</t>
+    <t xml:space="preserve">2.80838537216187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79835557937622</t>
+    <t xml:space="preserve">2.79835534095764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002689361572</t>
+    <t xml:space="preserve">2.8000271320343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068614959717</t>
+    <t xml:space="preserve">3.02068591117859</t>
   </si>
   <si>
     <t xml:space="preserve">2.97387957572937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95883464813232</t>
+    <t xml:space="preserve">2.95883440971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.96384930610657</t>
   </si>
   <si>
     <t xml:space="preserve">2.86856508255005</t>
@@ -686,13 +683,13 @@
     <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9972825050354</t>
+    <t xml:space="preserve">2.99728274345398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898432731628</t>
+    <t xml:space="preserve">3.00898408889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86355018615723</t>
+    <t xml:space="preserve">2.86354994773865</t>
   </si>
   <si>
     <t xml:space="preserve">2.87859487533569</t>
@@ -704,7 +701,7 @@
     <t xml:space="preserve">3.00936913490295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96216368675232</t>
+    <t xml:space="preserve">2.96216344833374</t>
   </si>
   <si>
     <t xml:space="preserve">2.95036220550537</t>
@@ -713,19 +710,19 @@
     <t xml:space="preserve">3.02622842788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97733664512634</t>
+    <t xml:space="preserve">2.97733688354492</t>
   </si>
   <si>
     <t xml:space="preserve">2.88292503356934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86606597900391</t>
+    <t xml:space="preserve">2.86606621742249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84246301651001</t>
+    <t xml:space="preserve">2.84246277809143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87112379074097</t>
+    <t xml:space="preserve">2.87112355232239</t>
   </si>
   <si>
     <t xml:space="preserve">2.80705857276917</t>
@@ -743,31 +740,31 @@
     <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502608299255</t>
+    <t xml:space="preserve">2.77502632141113</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83234739303589</t>
+    <t xml:space="preserve">2.83234763145447</t>
   </si>
   <si>
     <t xml:space="preserve">2.88966917991638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629698753357</t>
+    <t xml:space="preserve">2.88629722595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.85763645172119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86438012123108</t>
+    <t xml:space="preserve">2.86438035964966</t>
   </si>
   <si>
     <t xml:space="preserve">2.88123941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94193267822266</t>
+    <t xml:space="preserve">2.94193243980408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9267590045929</t>
+    <t xml:space="preserve">2.92675876617432</t>
   </si>
   <si>
     <t xml:space="preserve">2.9672212600708</t>
@@ -779,22 +776,22 @@
     <t xml:space="preserve">2.93518877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699001312256</t>
+    <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507314682007</t>
+    <t xml:space="preserve">2.92507338523865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91664361953735</t>
+    <t xml:space="preserve">2.91664385795593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93687462806702</t>
+    <t xml:space="preserve">2.9368748664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96553564071655</t>
+    <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8997848033905</t>
+    <t xml:space="preserve">2.89978432655334</t>
   </si>
   <si>
     <t xml:space="preserve">2.92001557350159</t>
@@ -803,16 +800,16 @@
     <t xml:space="preserve">2.94024658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91495752334595</t>
+    <t xml:space="preserve">2.91495776176453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94530415534973</t>
+    <t xml:space="preserve">2.94530439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97902250289917</t>
+    <t xml:space="preserve">2.97902274131775</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98408055305481</t>
+    <t xml:space="preserve">2.98408031463623</t>
   </si>
   <si>
     <t xml:space="preserve">2.97565102577209</t>
@@ -821,7 +818,7 @@
     <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879149436951</t>
+    <t xml:space="preserve">2.95879173278809</t>
   </si>
   <si>
     <t xml:space="preserve">2.90315628051758</t>
@@ -833,37 +830,37 @@
     <t xml:space="preserve">2.86269402503967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93856048583984</t>
+    <t xml:space="preserve">2.93856072425842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93181705474854</t>
+    <t xml:space="preserve">2.93181681632996</t>
   </si>
   <si>
     <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86943817138672</t>
+    <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8407769203186</t>
+    <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.95710563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227907180786</t>
+    <t xml:space="preserve">2.97227883338928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745203018188</t>
+    <t xml:space="preserve">2.98745226860046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9183292388916</t>
+    <t xml:space="preserve">2.91832947731018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91158604621887</t>
+    <t xml:space="preserve">2.91158580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03465819358826</t>
+    <t xml:space="preserve">3.03465795516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.01779890060425</t>
@@ -872,7 +869,7 @@
     <t xml:space="preserve">3.03803014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07680630683899</t>
+    <t xml:space="preserve">3.07680606842041</t>
   </si>
   <si>
     <t xml:space="preserve">3.00431156158447</t>
@@ -881,7 +878,7 @@
     <t xml:space="preserve">3.05657505989075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15098667144775</t>
+    <t xml:space="preserve">3.15098643302917</t>
   </si>
   <si>
     <t xml:space="preserve">3.11895418167114</t>
@@ -899,19 +896,19 @@
     <t xml:space="preserve">3.02117085456848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89135503768921</t>
+    <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147042274475</t>
+    <t xml:space="preserve">2.90147018432617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93013119697571</t>
+    <t xml:space="preserve">2.93013095855713</t>
   </si>
   <si>
     <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449550628662</t>
+    <t xml:space="preserve">2.8744957447052</t>
   </si>
   <si>
     <t xml:space="preserve">2.96890711784363</t>
@@ -920,37 +917,40 @@
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
+    <t xml:space="preserve">2.96384954452515</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.87280964851379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96047759056091</t>
+    <t xml:space="preserve">2.96047735214233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484213829041</t>
+    <t xml:space="preserve">2.90484237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87955331802368</t>
+    <t xml:space="preserve">2.8795530796051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350315093994</t>
+    <t xml:space="preserve">2.93350291252136</t>
   </si>
   <si>
     <t xml:space="preserve">2.79862904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962187767029</t>
+    <t xml:space="preserve">2.73962211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68061494827271</t>
+    <t xml:space="preserve">2.68061470985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69747400283813</t>
+    <t xml:space="preserve">2.69747376441956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73119235038757</t>
+    <t xml:space="preserve">2.73119258880615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904447555542</t>
+    <t xml:space="preserve">2.68904423713684</t>
   </si>
   <si>
     <t xml:space="preserve">2.63003706932068</t>
@@ -962,10 +962,10 @@
     <t xml:space="preserve">2.60474801063538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59631848335266</t>
+    <t xml:space="preserve">2.59631872177124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417037010193</t>
+    <t xml:space="preserve">2.55417060852051</t>
   </si>
   <si>
     <t xml:space="preserve">2.58788895606995</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">2.61317777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160730361938</t>
+    <t xml:space="preserve">2.62160754203796</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553258895874</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79019951820374</t>
+    <t xml:space="preserve">2.79019927978516</t>
   </si>
   <si>
     <t xml:space="preserve">3.05994701385498</t>
@@ -992,16 +992,16 @@
     <t xml:space="preserve">2.962810754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9455349445343</t>
+    <t xml:space="preserve">2.94553518295288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463866233826</t>
+    <t xml:space="preserve">3.01463842391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736285209656</t>
+    <t xml:space="preserve">2.99736261367798</t>
   </si>
   <si>
     <t xml:space="preserve">2.95417284965515</t>
@@ -1013,34 +1013,34 @@
     <t xml:space="preserve">2.8159658908844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8332417011261</t>
+    <t xml:space="preserve">2.83324193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.781414270401</t>
+    <t xml:space="preserve">2.78141450881958</t>
   </si>
   <si>
     <t xml:space="preserve">2.79005217552185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7986900806427</t>
+    <t xml:space="preserve">2.79869031906128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7641384601593</t>
+    <t xml:space="preserve">2.76413822174072</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68639707565308</t>
+    <t xml:space="preserve">2.6863968372345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7295868396759</t>
+    <t xml:space="preserve">2.72958660125732</t>
   </si>
   <si>
     <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137988090515</t>
+    <t xml:space="preserve">2.59137964248657</t>
   </si>
   <si>
     <t xml:space="preserve">2.73822474479675</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">2.6518452167511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71231079101562</t>
+    <t xml:space="preserve">2.7123110294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
@@ -1067,52 +1067,52 @@
     <t xml:space="preserve">2.70367312431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69503474235535</t>
+    <t xml:space="preserve">2.69503498077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048288345337</t>
+    <t xml:space="preserve">2.66048336029053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60001754760742</t>
+    <t xml:space="preserve">2.600017786026</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410407066345</t>
+    <t xml:space="preserve">2.57410383224487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56546592712402</t>
+    <t xml:space="preserve">2.5654661655426</t>
   </si>
   <si>
     <t xml:space="preserve">2.54819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55682826042175</t>
+    <t xml:space="preserve">2.55682802200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61729335784912</t>
+    <t xml:space="preserve">2.6172935962677</t>
   </si>
   <si>
     <t xml:space="preserve">2.6345694065094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6691210269928</t>
+    <t xml:space="preserve">2.66912078857422</t>
   </si>
   <si>
     <t xml:space="preserve">2.80732822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82460403442383</t>
+    <t xml:space="preserve">2.82460379600525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84187984466553</t>
+    <t xml:space="preserve">2.84187960624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8505175113678</t>
+    <t xml:space="preserve">2.85051774978638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89370727539062</t>
+    <t xml:space="preserve">2.8937075138092</t>
   </si>
   <si>
     <t xml:space="preserve">2.9282591342926</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8677933216095</t>
+    <t xml:space="preserve">2.86779356002808</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689703941345</t>
+    <t xml:space="preserve">2.93689727783203</t>
   </si>
   <si>
     <t xml:space="preserve">3.02327632904053</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98008704185486</t>
+    <t xml:space="preserve">2.98008680343628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0923798084259</t>
+    <t xml:space="preserve">3.09238004684448</t>
   </si>
   <si>
     <t xml:space="preserve">2.97144889831543</t>
@@ -1163,16 +1163,16 @@
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94553470611572</t>
+    <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91875720024109</t>
+    <t xml:space="preserve">2.91875743865967</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231245040894</t>
+    <t xml:space="preserve">2.97231221199036</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">3.07049703598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264520645142</t>
+    <t xml:space="preserve">3.05264544487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694178581238</t>
+    <t xml:space="preserve">3.01694202423096</t>
   </si>
   <si>
     <t xml:space="preserve">2.99908995628357</t>
@@ -1202,19 +1202,19 @@
     <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371953010559</t>
+    <t xml:space="preserve">3.04371929168701</t>
   </si>
   <si>
     <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1329779624939</t>
+    <t xml:space="preserve">3.13297820091248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9366090297699</t>
+    <t xml:space="preserve">2.93660879135132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768287658691</t>
+    <t xml:space="preserve">2.92768311500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.90090560913086</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">2.90983152389526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95446085929871</t>
+    <t xml:space="preserve">2.95446062088013</t>
   </si>
   <si>
     <t xml:space="preserve">2.98123836517334</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">2.81164693832397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74916577339172</t>
+    <t xml:space="preserve">2.7491660118103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668508529663</t>
+    <t xml:space="preserve">2.68668484687805</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205551147461</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">2.62420392036438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60635232925415</t>
+    <t xml:space="preserve">2.60635209083557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65990710258484</t>
+    <t xml:space="preserve">2.65990734100342</t>
   </si>
   <si>
     <t xml:space="preserve">2.58850049972534</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883301734924</t>
+    <t xml:space="preserve">2.66883325576782</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72238850593567</t>
+    <t xml:space="preserve">2.72238802909851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59742641448975</t>
+    <t xml:space="preserve">2.59742617607117</t>
   </si>
   <si>
     <t xml:space="preserve">2.76701760292053</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">2.73131418228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65098142623901</t>
+    <t xml:space="preserve">2.65098166465759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453667640686</t>
+    <t xml:space="preserve">2.70453643798828</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
@@ -1301,25 +1301,25 @@
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620069503784</t>
+    <t xml:space="preserve">3.10620045661926</t>
   </si>
   <si>
     <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89197993278503</t>
+    <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272102355957</t>
+    <t xml:space="preserve">2.80272126197815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379510879517</t>
+    <t xml:space="preserve">2.79379534721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42783498764038</t>
+    <t xml:space="preserve">2.4278347492218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47246432304382</t>
+    <t xml:space="preserve">2.47246408462524</t>
   </si>
   <si>
     <t xml:space="preserve">2.46353816986084</t>
@@ -1340,34 +1340,34 @@
     <t xml:space="preserve">2.84735035896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82949876785278</t>
+    <t xml:space="preserve">2.8294985294342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.856276512146</t>
+    <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305377960205</t>
+    <t xml:space="preserve">2.88305401802063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057309150696</t>
+    <t xml:space="preserve">2.82057285308838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7402400970459</t>
+    <t xml:space="preserve">2.74023985862732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63312959671021</t>
+    <t xml:space="preserve">2.63312983512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064890861511</t>
+    <t xml:space="preserve">2.57064867019653</t>
   </si>
   <si>
     <t xml:space="preserve">2.49924159049988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5527970790863</t>
+    <t xml:space="preserve">2.55279684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031591415405</t>
+    <t xml:space="preserve">2.49031567573547</t>
   </si>
   <si>
     <t xml:space="preserve">2.43676090240479</t>
@@ -1385,22 +1385,22 @@
     <t xml:space="preserve">2.45461249351501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709342002869</t>
+    <t xml:space="preserve">2.51709365844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520218849182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15082979202271</t>
+    <t xml:space="preserve">3.15082955360413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653321266174</t>
+    <t xml:space="preserve">3.18653297424316</t>
   </si>
   <si>
     <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545888900757</t>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.35612463951111</t>
@@ -1409,43 +1409,43 @@
     <t xml:space="preserve">3.28471779823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2133104801178</t>
+    <t xml:space="preserve">3.21331071853638</t>
   </si>
   <si>
     <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042121887207</t>
+    <t xml:space="preserve">3.32042098045349</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108673095703</t>
+    <t xml:space="preserve">3.48108696937561</t>
   </si>
   <si>
     <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893832206726</t>
+    <t xml:space="preserve">3.49893856048584</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3382728099823</t>
+    <t xml:space="preserve">3.33827304840088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30256938934326</t>
+    <t xml:space="preserve">3.30256962776184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26686596870422</t>
+    <t xml:space="preserve">3.2668662071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44538331031799</t>
+    <t xml:space="preserve">3.44538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6596040725708</t>
+    <t xml:space="preserve">3.65960359573364</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">3.53464198112488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51679015159607</t>
+    <t xml:space="preserve">3.51679039001465</t>
   </si>
   <si>
     <t xml:space="preserve">3.40967988967896</t>
@@ -1500,9 +1500,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.22308564186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1740,6 +1737,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.25999999046326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.26999998092651</t>
   </si>
 </sst>
 </file>
@@ -6753,7 +6753,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G180" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6831,7 +6831,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G183" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G184" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6883,7 +6883,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G185" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7039,7 +7039,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G191" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7065,7 +7065,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G192" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7091,7 +7091,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G193" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7143,7 +7143,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G195" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7195,7 +7195,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G197" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7221,7 +7221,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G198" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7247,7 +7247,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G199" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7273,7 +7273,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G200" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7299,7 +7299,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G201" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G202" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7351,7 +7351,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G203" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7377,7 +7377,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G204" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7403,7 +7403,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G205" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7429,7 +7429,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G206" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G207" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7481,7 +7481,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G208" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7507,7 +7507,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7533,7 +7533,7 @@
         <v>2.74799990653992</v>
       </c>
       <c r="G210" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7559,7 +7559,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7585,7 +7585,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G212" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7611,7 +7611,7 @@
         <v>2.80800008773804</v>
       </c>
       <c r="G213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7637,7 +7637,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G214" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7663,7 +7663,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G215" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7689,7 +7689,7 @@
         <v>2.81800007820129</v>
       </c>
       <c r="G216" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7715,7 +7715,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G217" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7741,7 +7741,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G218" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7767,7 +7767,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G219" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7793,7 +7793,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G220" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7819,7 +7819,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G221" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7845,7 +7845,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G222" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7871,7 +7871,7 @@
         <v>2.80599999427795</v>
       </c>
       <c r="G223" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7897,7 +7897,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G224" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7923,7 +7923,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G225" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7949,7 +7949,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G226" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7975,7 +7975,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G227" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8001,7 +8001,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G228" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8027,7 +8027,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G229" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8053,7 +8053,7 @@
         <v>2.79399991035461</v>
       </c>
       <c r="G230" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8079,7 +8079,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G231" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8105,7 +8105,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G232" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8131,7 +8131,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G233" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8157,7 +8157,7 @@
         <v>2.75799989700317</v>
       </c>
       <c r="G234" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8183,7 +8183,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G235" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8209,7 +8209,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G237" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8261,7 +8261,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G238" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8287,7 +8287,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G239" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8313,7 +8313,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8339,7 +8339,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G241" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8365,7 +8365,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G242" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8391,7 +8391,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G243" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8417,7 +8417,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G244" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8443,7 +8443,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G245" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8469,7 +8469,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G246" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8495,7 +8495,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G247" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8521,7 +8521,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8547,7 +8547,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G249" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8573,7 +8573,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8599,7 +8599,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G251" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8625,7 +8625,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G252" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8651,7 +8651,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G253" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8677,7 +8677,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G254" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8703,7 +8703,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G255" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8729,7 +8729,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G256" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8755,7 +8755,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G257" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8781,7 +8781,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G258" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8807,7 +8807,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G259" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8833,7 +8833,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G260" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8859,7 +8859,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G261" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8885,7 +8885,7 @@
         <v>2.78600001335144</v>
       </c>
       <c r="G262" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8911,7 +8911,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G263" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8937,7 +8937,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G264" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8963,7 +8963,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G265" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8989,7 +8989,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G266" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9015,7 +9015,7 @@
         <v>2.89800000190735</v>
       </c>
       <c r="G267" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9041,7 +9041,7 @@
         <v>2.87800002098083</v>
       </c>
       <c r="G268" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9067,7 +9067,7 @@
         <v>2.94199991226196</v>
       </c>
       <c r="G269" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9093,7 +9093,7 @@
         <v>2.84400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9119,7 +9119,7 @@
         <v>3.0239999294281</v>
       </c>
       <c r="G271" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9145,7 +9145,7 @@
         <v>3</v>
       </c>
       <c r="G272" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9171,7 +9171,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G273" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9197,7 +9197,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G274" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9223,7 +9223,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G275" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9249,7 +9249,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G276" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9275,7 +9275,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G277" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9301,7 +9301,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G278" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9327,7 +9327,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G279" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9353,7 +9353,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G280" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9379,7 +9379,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G281" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9405,7 +9405,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G282" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9431,7 +9431,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G283" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9457,7 +9457,7 @@
         <v>2.94199991226196</v>
       </c>
       <c r="G284" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9483,7 +9483,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G285" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9509,7 +9509,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9535,7 +9535,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G287" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9561,7 +9561,7 @@
         <v>2.99600005149841</v>
       </c>
       <c r="G288" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9587,7 +9587,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G289" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9613,7 +9613,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G290" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9639,7 +9639,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9665,7 +9665,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G292" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9691,7 +9691,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G293" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9717,7 +9717,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G294" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9743,7 +9743,7 @@
         <v>2.94799995422363</v>
       </c>
       <c r="G295" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9769,7 +9769,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G296" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9795,7 +9795,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G297" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9821,7 +9821,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G298" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9847,7 +9847,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G299" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9873,7 +9873,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G300" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9899,7 +9899,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G301" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9925,7 +9925,7 @@
         <v>3</v>
       </c>
       <c r="G302" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9951,7 +9951,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G303" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9977,7 +9977,7 @@
         <v>3</v>
       </c>
       <c r="G304" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10003,7 +10003,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G305" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10029,7 +10029,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G306" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10055,7 +10055,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G307" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10081,7 +10081,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G308" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10107,7 +10107,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G309" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10133,7 +10133,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G310" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10159,7 +10159,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G311" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10185,7 +10185,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G312" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10211,7 +10211,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G313" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10237,7 +10237,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G314" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10263,7 +10263,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G315" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10289,7 +10289,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G316" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10315,7 +10315,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G317" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10341,7 +10341,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G318" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10367,7 +10367,7 @@
         <v>3.36400008201599</v>
       </c>
       <c r="G319" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10393,7 +10393,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10419,7 +10419,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10445,7 +10445,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10471,7 +10471,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G323" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10497,7 +10497,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G324" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10523,7 +10523,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G325" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10549,7 +10549,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G326" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10575,7 +10575,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G327" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10601,7 +10601,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G328" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10627,7 +10627,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G329" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10653,7 +10653,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G330" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10679,7 +10679,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G331" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10705,7 +10705,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G332" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10731,7 +10731,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G333" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10757,7 +10757,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10783,7 +10783,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G335" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10809,7 +10809,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G336" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10835,7 +10835,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10861,7 +10861,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G338" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10887,7 +10887,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G339" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10913,7 +10913,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G340" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10939,7 +10939,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G341" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10965,7 +10965,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G342" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -10991,7 +10991,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G343" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11017,7 +11017,7 @@
         <v>3.61400008201599</v>
       </c>
       <c r="G344" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11043,7 +11043,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G345" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11069,7 +11069,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G346" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11095,7 +11095,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G347" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11121,7 +11121,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G348" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11147,7 +11147,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G349" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11173,7 +11173,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G350" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11199,7 +11199,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G351" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11225,7 +11225,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G352" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11251,7 +11251,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G353" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11277,7 +11277,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G354" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11303,7 +11303,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11329,7 +11329,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G356" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11355,7 +11355,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G357" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11381,7 +11381,7 @@
         <v>3.5</v>
       </c>
       <c r="G358" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11407,7 +11407,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G359" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11433,7 +11433,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G360" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11459,7 +11459,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G361" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11485,7 +11485,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G362" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11511,7 +11511,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G363" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11537,7 +11537,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G364" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G365" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11589,7 +11589,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11615,7 +11615,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G367" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11641,7 +11641,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G368" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11667,7 +11667,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G369" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11693,7 +11693,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G370" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11719,7 +11719,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G371" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11745,7 +11745,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G372" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11771,7 +11771,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G373" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11797,7 +11797,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G374" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11823,7 +11823,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G375" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11849,7 +11849,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G376" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11875,7 +11875,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G377" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11901,7 +11901,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G378" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11927,7 +11927,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G379" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11953,7 +11953,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G380" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11979,7 +11979,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G381" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12005,7 +12005,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G382" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12031,7 +12031,7 @@
         <v>3.5</v>
       </c>
       <c r="G383" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12057,7 +12057,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12083,7 +12083,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G385" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12109,7 +12109,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G386" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12135,7 +12135,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G387" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12161,7 +12161,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G388" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12187,7 +12187,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G389" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12213,7 +12213,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G390" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12239,7 +12239,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G391" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12265,7 +12265,7 @@
         <v>3.5</v>
       </c>
       <c r="G392" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12291,7 +12291,7 @@
         <v>3.5</v>
       </c>
       <c r="G393" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12317,7 +12317,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G394" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12343,7 +12343,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G395" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12369,7 +12369,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G396" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12395,7 +12395,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12421,7 +12421,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G398" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12447,7 +12447,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G399" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12473,7 +12473,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G400" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12499,7 +12499,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G401" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12525,7 +12525,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G402" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G403" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12577,7 +12577,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G404" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12603,7 +12603,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G405" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12629,7 +12629,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G406" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12655,7 +12655,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12681,7 +12681,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G408" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12707,7 +12707,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G409" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12733,7 +12733,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G410" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12759,7 +12759,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G411" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12785,7 +12785,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G412" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12811,7 +12811,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G413" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12837,7 +12837,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G414" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12863,7 +12863,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G415" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12889,7 +12889,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G416" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12915,7 +12915,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G417" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12941,7 +12941,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G418" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12967,7 +12967,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G419" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -12993,7 +12993,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G420" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13019,7 +13019,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13045,7 +13045,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G422" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13071,7 +13071,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13097,7 +13097,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G424" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13123,7 +13123,7 @@
         <v>3.4779999256134</v>
       </c>
       <c r="G425" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13149,7 +13149,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G426" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13175,7 +13175,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G427" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13201,7 +13201,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G428" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13227,7 +13227,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G429" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13253,7 +13253,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G430" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13279,7 +13279,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G431" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13305,7 +13305,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G432" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13331,7 +13331,7 @@
         <v>3.52600002288818</v>
       </c>
       <c r="G433" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13357,7 +13357,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G434" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13383,7 +13383,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G435" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13409,7 +13409,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G436" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13435,7 +13435,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G437" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13461,7 +13461,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13487,7 +13487,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G439" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13513,7 +13513,7 @@
         <v>3.5</v>
       </c>
       <c r="G440" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13539,7 +13539,7 @@
         <v>3.5</v>
       </c>
       <c r="G441" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13565,7 +13565,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G442" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13591,7 +13591,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13617,7 +13617,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G444" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13643,7 +13643,7 @@
         <v>3.46199989318848</v>
       </c>
       <c r="G445" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13669,7 +13669,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G446" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13695,7 +13695,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G447" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13721,7 +13721,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G448" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13747,7 +13747,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G449" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13773,7 +13773,7 @@
         <v>3.4539999961853</v>
       </c>
       <c r="G450" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13799,7 +13799,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G451" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13825,7 +13825,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G452" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13851,7 +13851,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G453" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13877,7 +13877,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G454" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13903,7 +13903,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G455" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13929,7 +13929,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G456" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13955,7 +13955,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G457" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13981,7 +13981,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G458" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14007,7 +14007,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14033,7 +14033,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G460" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14059,7 +14059,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G461" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14085,7 +14085,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G462" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14111,7 +14111,7 @@
         <v>3.62599992752075</v>
       </c>
       <c r="G463" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14137,7 +14137,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G464" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14163,7 +14163,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G465" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14189,7 +14189,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G466" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14215,7 +14215,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14241,7 +14241,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G468" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14267,7 +14267,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G469" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14293,7 +14293,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G470" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14319,7 +14319,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G471" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14345,7 +14345,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G472" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14371,7 +14371,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G473" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14397,7 +14397,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14423,7 +14423,7 @@
         <v>3.4779999256134</v>
       </c>
       <c r="G475" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14449,7 +14449,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G476" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14475,7 +14475,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G477" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14501,7 +14501,7 @@
         <v>3.44199991226196</v>
       </c>
       <c r="G478" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14527,7 +14527,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G479" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14553,7 +14553,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G480" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14579,7 +14579,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G481" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14605,7 +14605,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G482" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14631,7 +14631,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G483" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14657,7 +14657,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G484" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14683,7 +14683,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G485" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14709,7 +14709,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G486" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14735,7 +14735,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G487" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14761,7 +14761,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G488" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14787,7 +14787,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G489" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14813,7 +14813,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G490" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14839,7 +14839,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G491" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14865,7 +14865,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G492" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14891,7 +14891,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14917,7 +14917,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G494" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14943,7 +14943,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G495" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14969,7 +14969,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G496" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -14995,7 +14995,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G497" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15021,7 +15021,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15047,7 +15047,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G499" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15073,7 +15073,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G500" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15099,7 +15099,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G501" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15151,7 +15151,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G503" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15177,7 +15177,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G504" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15229,7 +15229,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G506" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15307,7 +15307,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G509" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15333,7 +15333,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G510" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15359,7 +15359,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G511" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15385,7 +15385,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G512" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15411,7 +15411,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G513" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15437,7 +15437,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G514" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15463,7 +15463,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15489,7 +15489,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G516" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15541,7 +15541,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G518" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15567,7 +15567,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G519" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15593,7 +15593,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G520" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15619,7 +15619,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G521" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15645,7 +15645,7 @@
         <v>3.5</v>
       </c>
       <c r="G522" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15697,7 +15697,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G524" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15723,7 +15723,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G525" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15749,7 +15749,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G526" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15775,7 +15775,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G527" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15801,7 +15801,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G528" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15827,7 +15827,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G529" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15853,7 +15853,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G530" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15879,7 +15879,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G531" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15905,7 +15905,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G532" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15931,7 +15931,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G533" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15957,7 +15957,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15983,7 +15983,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G535" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16009,7 +16009,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16035,7 +16035,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G537" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16061,7 +16061,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G538" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16087,7 +16087,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16789,7 +16789,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G566" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16815,7 +16815,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G567" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16841,7 +16841,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G568" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16867,7 +16867,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G569" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16893,7 +16893,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16919,7 +16919,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G571" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16945,7 +16945,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G572" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16971,7 +16971,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G573" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -16997,7 +16997,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G574" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17023,7 +17023,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G575" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17075,7 +17075,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G577" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17101,7 +17101,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G578" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17127,7 +17127,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G579" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17153,7 +17153,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G580" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17179,7 +17179,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G581" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17205,7 +17205,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G582" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17231,7 +17231,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G583" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17257,7 +17257,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G584" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17283,7 +17283,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G585" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17309,7 +17309,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G586" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17335,7 +17335,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G587" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17387,7 +17387,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G589" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G590" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17439,7 +17439,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G591" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17465,7 +17465,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17517,7 +17517,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G594" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17543,7 +17543,7 @@
         <v>3.5</v>
       </c>
       <c r="G595" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17569,7 +17569,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17595,7 +17595,7 @@
         <v>3.5</v>
       </c>
       <c r="G597" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17647,7 +17647,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G599" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17673,7 +17673,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G600" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17699,7 +17699,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17725,7 +17725,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G602" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17803,7 +17803,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G605" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17829,7 +17829,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G606" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17855,7 +17855,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G607" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -44765,7 +44765,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44791,7 +44791,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44817,7 +44817,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44869,7 +44869,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1646" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44895,7 +44895,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1647" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44921,7 +44921,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1648" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44973,7 +44973,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44999,7 +44999,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45025,7 +45025,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45051,7 +45051,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45077,7 +45077,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1654" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45103,7 +45103,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1655" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45129,7 +45129,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1656" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45155,7 +45155,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1657" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45207,7 +45207,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1659" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45233,7 +45233,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45259,7 +45259,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1661" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45285,7 +45285,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1662" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45311,7 +45311,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45337,7 +45337,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45363,7 +45363,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45389,7 +45389,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1666" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45415,7 +45415,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1667" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45441,7 +45441,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45467,7 +45467,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1669" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45493,7 +45493,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45519,7 +45519,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1671" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45545,7 +45545,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45571,7 +45571,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45597,7 +45597,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1674" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45623,7 +45623,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1675" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45649,7 +45649,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1676" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45675,7 +45675,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1677" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45701,7 +45701,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1678" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45727,7 +45727,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45753,7 +45753,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45779,7 +45779,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1681" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45831,7 +45831,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1683" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45857,7 +45857,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1684" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45909,7 +45909,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45935,7 +45935,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45961,7 +45961,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45987,7 +45987,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1689" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46013,7 +46013,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46039,7 +46039,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46065,7 +46065,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46091,7 +46091,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1693" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46117,7 +46117,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1694" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46143,7 +46143,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46221,7 +46221,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46247,7 +46247,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1699" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46273,7 +46273,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46325,7 +46325,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1702" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46351,7 +46351,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46377,7 +46377,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1704" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46403,7 +46403,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1705" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46429,7 +46429,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46455,7 +46455,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1707" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46559,7 +46559,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46585,7 +46585,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46611,7 +46611,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46637,7 +46637,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1714" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46663,7 +46663,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46689,7 +46689,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46715,7 +46715,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46741,7 +46741,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1718" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46767,7 +46767,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46793,7 +46793,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46819,7 +46819,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46845,7 +46845,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46871,7 +46871,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1723" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46897,7 +46897,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1724" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46923,7 +46923,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46949,7 +46949,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1726" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46975,7 +46975,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1727" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47001,7 +47001,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47027,7 +47027,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1729" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47053,7 +47053,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47079,7 +47079,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1731" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47105,7 +47105,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1732" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47131,7 +47131,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47157,7 +47157,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1734" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47183,7 +47183,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1735" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47209,7 +47209,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47235,7 +47235,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1737" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47261,7 +47261,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47287,7 +47287,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47313,7 +47313,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1740" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47339,7 +47339,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47365,7 +47365,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1742" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47391,7 +47391,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47417,7 +47417,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1744" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47443,7 +47443,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1745" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47469,7 +47469,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47495,7 +47495,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1747" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47521,7 +47521,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47547,7 +47547,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1749" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47573,7 +47573,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1750" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47599,7 +47599,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47625,7 +47625,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1752" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47651,7 +47651,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1753" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47677,7 +47677,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47703,7 +47703,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1755" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47729,7 +47729,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1756" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47755,7 +47755,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1757" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47781,7 +47781,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1758" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47807,7 +47807,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47833,7 +47833,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1760" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47859,7 +47859,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47885,7 +47885,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47911,7 +47911,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47937,7 +47937,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47963,7 +47963,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1765" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47989,7 +47989,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1766" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48015,7 +48015,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48041,7 +48041,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1768" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48067,7 +48067,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48093,7 +48093,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1770" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48119,7 +48119,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1771" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48145,7 +48145,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1772" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48171,7 +48171,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1773" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48197,7 +48197,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1774" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48223,7 +48223,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1775" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48249,7 +48249,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1776" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48275,7 +48275,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1777" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48301,7 +48301,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1778" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48327,7 +48327,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1779" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48353,7 +48353,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48379,7 +48379,7 @@
         <v>3.25</v>
       </c>
       <c r="G1781" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48405,7 +48405,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1782" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48431,7 +48431,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48457,7 +48457,7 @@
         <v>3.25</v>
       </c>
       <c r="G1784" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48483,7 +48483,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1785" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48509,7 +48509,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1786" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48535,7 +48535,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48561,7 +48561,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48587,7 +48587,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1789" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48613,7 +48613,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1790" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48639,7 +48639,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1791" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48665,7 +48665,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1792" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48691,7 +48691,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48717,7 +48717,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48743,7 +48743,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1795" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48769,7 +48769,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48795,7 +48795,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48821,7 +48821,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48847,7 +48847,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1799" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48873,7 +48873,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48899,7 +48899,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1801" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48925,7 +48925,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1802" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48951,7 +48951,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1803" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48977,7 +48977,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49003,7 +49003,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1805" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49029,7 +49029,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1806" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49055,7 +49055,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1807" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49081,7 +49081,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49107,7 +49107,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1809" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49133,7 +49133,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1810" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49159,7 +49159,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1811" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49185,7 +49185,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49211,7 +49211,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1813" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49237,7 +49237,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1814" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49263,7 +49263,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1815" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49289,7 +49289,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49315,7 +49315,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1817" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49341,7 +49341,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1818" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49367,7 +49367,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49393,7 +49393,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49419,7 +49419,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49445,7 +49445,7 @@
         <v>3.25</v>
       </c>
       <c r="G1822" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49471,7 +49471,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49497,7 +49497,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1824" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49523,7 +49523,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1825" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49549,7 +49549,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1826" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49575,7 +49575,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49601,7 +49601,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49627,7 +49627,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1829" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49653,7 +49653,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49679,7 +49679,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49705,7 +49705,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49731,7 +49731,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1833" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49757,7 +49757,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1834" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49783,7 +49783,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1835" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49809,7 +49809,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49835,7 +49835,7 @@
         <v>3.25</v>
       </c>
       <c r="G1837" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49861,7 +49861,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1838" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49887,7 +49887,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1839" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49913,7 +49913,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49939,7 +49939,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1841" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49965,7 +49965,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1842" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49991,7 +49991,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1843" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50017,7 +50017,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50043,7 +50043,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1845" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50069,7 +50069,7 @@
         <v>3.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50095,7 +50095,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1847" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50121,7 +50121,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1848" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50147,7 +50147,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1849" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50173,7 +50173,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1850" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50199,7 +50199,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1851" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50225,7 +50225,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50251,7 +50251,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1853" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50277,7 +50277,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1854" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50303,7 +50303,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1855" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50329,7 +50329,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1856" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50355,7 +50355,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1857" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50381,7 +50381,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1858" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50407,7 +50407,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1859" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50433,7 +50433,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1860" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50459,7 +50459,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1861" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50485,7 +50485,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1862" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50511,7 +50511,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1863" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50537,7 +50537,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1864" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50563,7 +50563,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1865" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50589,7 +50589,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1866" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50615,7 +50615,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50641,7 +50641,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50667,7 +50667,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1869" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50693,7 +50693,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1870" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50719,7 +50719,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1871" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50745,7 +50745,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1872" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50771,7 +50771,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1873" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50797,7 +50797,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1874" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50823,7 +50823,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1875" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50849,7 +50849,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1876" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50875,7 +50875,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1877" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50901,7 +50901,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1878" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50927,7 +50927,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1879" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50953,7 +50953,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1880" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50979,7 +50979,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1881" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51005,7 +51005,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1882" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51031,7 +51031,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1883" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51057,7 +51057,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1884" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51083,7 +51083,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1885" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51109,7 +51109,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1886" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51135,7 +51135,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1887" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51161,7 +51161,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1888" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51187,7 +51187,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1889" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51213,7 +51213,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1890" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51239,7 +51239,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1891" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51265,7 +51265,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1892" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51291,7 +51291,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1893" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51317,7 +51317,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1894" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51343,7 +51343,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1895" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51369,7 +51369,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1896" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51395,7 +51395,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1897" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51421,7 +51421,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1898" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51447,7 +51447,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1899" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51473,7 +51473,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1900" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51499,7 +51499,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1901" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51525,7 +51525,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1902" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51551,7 +51551,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1903" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51577,7 +51577,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1904" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51603,7 +51603,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1905" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51629,7 +51629,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1906" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51655,7 +51655,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1907" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51681,7 +51681,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51707,7 +51707,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1909" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51733,7 +51733,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1910" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51759,7 +51759,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51785,7 +51785,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1912" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51811,7 +51811,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51837,7 +51837,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1914" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51863,7 +51863,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51889,7 +51889,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1916" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51915,7 +51915,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51941,7 +51941,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1918" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51967,7 +51967,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1919" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51993,7 +51993,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1920" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52019,7 +52019,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52045,7 +52045,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52071,7 +52071,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52097,7 +52097,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52123,7 +52123,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1925" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52149,7 +52149,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1926" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52175,7 +52175,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1927" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52201,7 +52201,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1928" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52227,7 +52227,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1929" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52253,7 +52253,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1930" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52279,7 +52279,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1931" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52305,7 +52305,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1932" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52331,7 +52331,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1933" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52357,7 +52357,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1934" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52383,7 +52383,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1935" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52409,7 +52409,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1936" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52435,7 +52435,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52461,7 +52461,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1938" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52487,7 +52487,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1939" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52513,7 +52513,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1940" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52539,7 +52539,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52565,7 +52565,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52591,7 +52591,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1943" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52617,7 +52617,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1944" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52643,7 +52643,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52669,7 +52669,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52695,7 +52695,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1947" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52721,7 +52721,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1948" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52747,7 +52747,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1949" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52773,7 +52773,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52799,7 +52799,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52825,7 +52825,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1952" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52851,7 +52851,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1953" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52877,7 +52877,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1954" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52903,7 +52903,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1955" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52929,7 +52929,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1956" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52955,7 +52955,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52981,7 +52981,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53007,7 +53007,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1959" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53033,7 +53033,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53059,7 +53059,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53085,7 +53085,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53111,7 +53111,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1963" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53137,7 +53137,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53163,7 +53163,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53189,7 +53189,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1966" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53215,7 +53215,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1967" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53241,7 +53241,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53267,7 +53267,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53293,7 +53293,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53319,7 +53319,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53345,7 +53345,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1972" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53371,7 +53371,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1973" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53397,7 +53397,7 @@
         <v>3</v>
       </c>
       <c r="G1974" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53423,7 +53423,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1975" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53449,7 +53449,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53475,7 +53475,7 @@
         <v>3</v>
       </c>
       <c r="G1977" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53501,7 +53501,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1978" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53527,7 +53527,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1979" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53553,7 +53553,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53579,7 +53579,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53605,7 +53605,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1982" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53631,7 +53631,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1983" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53657,7 +53657,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1984" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53683,7 +53683,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1985" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53709,7 +53709,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1986" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53735,7 +53735,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1987" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53761,7 +53761,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1988" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53787,7 +53787,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1989" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53813,7 +53813,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1990" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53839,7 +53839,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53865,7 +53865,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1992" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53891,7 +53891,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1993" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53917,7 +53917,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1994" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53943,7 +53943,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1995" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53969,7 +53969,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1996" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53995,7 +53995,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1997" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54021,7 +54021,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54047,7 +54047,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1999" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54073,7 +54073,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G2000" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54099,7 +54099,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54125,7 +54125,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54151,7 +54151,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54177,7 +54177,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54203,7 +54203,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54229,7 +54229,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2006" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54255,7 +54255,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2007" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54281,7 +54281,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G2008" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54307,7 +54307,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2009" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54333,7 +54333,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2010" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54359,7 +54359,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2011" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54385,7 +54385,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2012" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54411,7 +54411,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2013" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54437,7 +54437,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2014" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54463,7 +54463,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54489,7 +54489,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2016" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54515,7 +54515,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2017" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54541,7 +54541,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2018" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54567,7 +54567,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2019" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54593,7 +54593,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2020" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54619,7 +54619,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2021" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54645,7 +54645,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2022" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54671,7 +54671,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2023" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54697,7 +54697,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54723,7 +54723,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2025" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54749,7 +54749,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2026" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54775,7 +54775,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2027" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54801,7 +54801,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2028" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54827,7 +54827,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2029" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54853,7 +54853,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2030" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54879,7 +54879,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54905,7 +54905,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2032" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54931,7 +54931,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2033" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54957,7 +54957,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54983,7 +54983,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2035" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55009,7 +55009,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2036" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55035,7 +55035,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2037" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55061,7 +55061,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2038" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55087,7 +55087,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55113,7 +55113,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2040" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55139,7 +55139,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2041" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55165,7 +55165,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2042" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55191,7 +55191,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2043" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55217,7 +55217,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55243,7 +55243,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2045" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55269,7 +55269,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2046" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55295,7 +55295,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2047" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55321,7 +55321,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2048" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55347,7 +55347,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2049" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55373,7 +55373,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2050" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55399,7 +55399,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2051" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55425,7 +55425,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2052" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55451,7 +55451,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55477,7 +55477,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2054" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55503,7 +55503,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2055" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55529,7 +55529,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2056" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55555,7 +55555,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2057" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55581,7 +55581,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2058" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55607,7 +55607,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2059" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55633,7 +55633,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2060" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55659,7 +55659,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2061" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55685,7 +55685,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2062" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55711,7 +55711,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2063" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55737,7 +55737,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2064" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55763,7 +55763,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2065" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55789,7 +55789,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2066" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55815,7 +55815,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2067" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55841,7 +55841,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2068" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55867,7 +55867,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2069" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55893,7 +55893,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2070" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55919,7 +55919,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2071" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55945,7 +55945,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2072" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55971,7 +55971,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55997,7 +55997,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2074" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56023,7 +56023,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2075" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56049,7 +56049,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2076" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56075,7 +56075,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2077" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56101,7 +56101,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2078" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56127,7 +56127,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2079" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56153,7 +56153,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2080" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56179,7 +56179,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2081" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56205,7 +56205,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2082" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56231,7 +56231,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2083" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56257,7 +56257,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2084" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56283,7 +56283,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2085" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56309,7 +56309,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2086" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56335,7 +56335,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56361,7 +56361,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2088" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56387,7 +56387,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56413,7 +56413,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56439,7 +56439,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2091" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56465,7 +56465,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56491,7 +56491,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56517,7 +56517,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2094" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56543,7 +56543,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2095" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56569,7 +56569,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56595,7 +56595,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2097" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56621,7 +56621,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2098" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56647,7 +56647,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2099" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56673,7 +56673,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2100" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56699,7 +56699,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2101" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56725,7 +56725,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56751,7 +56751,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56777,7 +56777,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56803,7 +56803,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2105" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56829,7 +56829,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2106" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56855,7 +56855,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2107" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56881,7 +56881,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56907,7 +56907,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2109" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56933,7 +56933,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2110" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56959,7 +56959,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56985,7 +56985,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57011,7 +57011,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2113" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57037,7 +57037,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57063,7 +57063,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2115" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57089,7 +57089,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57115,7 +57115,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57141,7 +57141,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57167,7 +57167,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57193,7 +57193,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2120" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57219,7 +57219,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57245,7 +57245,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57271,7 +57271,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2123" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57297,7 +57297,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57323,7 +57323,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57349,7 +57349,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57375,7 +57375,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57401,7 +57401,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57427,7 +57427,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57453,7 +57453,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2130" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57479,7 +57479,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2131" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57505,7 +57505,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57531,7 +57531,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57557,7 +57557,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57583,7 +57583,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57609,7 +57609,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57635,7 +57635,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57661,7 +57661,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57687,7 +57687,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57713,7 +57713,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57739,7 +57739,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57765,7 +57765,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57791,7 +57791,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57817,7 +57817,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57843,7 +57843,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57869,7 +57869,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57895,7 +57895,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57921,7 +57921,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57947,7 +57947,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57973,7 +57973,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57999,7 +57999,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58025,7 +58025,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58051,7 +58051,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58077,7 +58077,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58103,7 +58103,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2155" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58129,7 +58129,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58155,7 +58155,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58181,7 +58181,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2158" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58207,7 +58207,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2159" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58233,7 +58233,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2160" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58259,7 +58259,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2161" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58285,7 +58285,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2162" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58311,7 +58311,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2163" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58337,7 +58337,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2164" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58345,7 +58345,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.494212963</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>731</v>
@@ -58363,9 +58363,35 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2165" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6494444444</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>3.23000001907349</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>3.15000009536743</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>3.15000009536743</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>3.26999998092651</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33370804786682</t>
+    <t xml:space="preserve">2.33370780944824</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35517835617065</t>
+    <t xml:space="preserve">2.35517859458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28581166267395</t>
+    <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397891998291</t>
+    <t xml:space="preserve">2.30397915840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.17185139656067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21974754333496</t>
+    <t xml:space="preserve">2.21974778175354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836760520935</t>
+    <t xml:space="preserve">2.18836736679077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019939422607</t>
+    <t xml:space="preserve">2.17019987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752917289734</t>
+    <t xml:space="preserve">2.0975296497345</t>
   </si>
   <si>
     <t xml:space="preserve">2.08927154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
     <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257459640503</t>
+    <t xml:space="preserve">2.09257483482361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404538154602</t>
+    <t xml:space="preserve">2.1140456199646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542555809021</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
     <t xml:space="preserve">2.0628457069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449723243713</t>
+    <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972363471985</t>
+    <t xml:space="preserve">2.03972387313843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03642058372498</t>
+    <t xml:space="preserve">2.0364203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852407932281</t>
+    <t xml:space="preserve">1.98852396011353</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660084724426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365987300873</t>
+    <t xml:space="preserve">1.97365975379944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119418144226</t>
+    <t xml:space="preserve">2.06119394302368</t>
   </si>
   <si>
     <t xml:space="preserve">1.99017548561096</t>
@@ -116,34 +116,34 @@
     <t xml:space="preserve">2.01329803466797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11734843254089</t>
+    <t xml:space="preserve">2.11734867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25443148612976</t>
+    <t xml:space="preserve">2.2544310092926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875323295593</t>
+    <t xml:space="preserve">2.32875299453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35352730751038</t>
+    <t xml:space="preserve">2.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223702430725</t>
+    <t xml:space="preserve">2.31223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22139954566956</t>
+    <t xml:space="preserve">2.22139930725098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1470775604248</t>
+    <t xml:space="preserve">2.14707732200623</t>
   </si>
   <si>
     <t xml:space="preserve">2.13716793060303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746342658997</t>
+    <t xml:space="preserve">2.28746294975281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36839199066162</t>
+    <t xml:space="preserve">2.36839175224304</t>
   </si>
   <si>
     <t xml:space="preserve">2.47739696502686</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42124271392822</t>
+    <t xml:space="preserve">2.42124247550964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39481711387634</t>
+    <t xml:space="preserve">2.39481687545776</t>
   </si>
   <si>
     <t xml:space="preserve">2.47409391403198</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5352029800415</t>
+    <t xml:space="preserve">2.53520274162292</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
@@ -173,25 +173,25 @@
     <t xml:space="preserve">2.60126686096191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135746955872</t>
+    <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
     <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180908203125</t>
+    <t xml:space="preserve">2.54180932044983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51703524589539</t>
+    <t xml:space="preserve">2.51703548431396</t>
   </si>
   <si>
     <t xml:space="preserve">2.51868677139282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47244215011597</t>
+    <t xml:space="preserve">2.47244238853455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50712561607361</t>
+    <t xml:space="preserve">2.50712585449219</t>
   </si>
   <si>
     <t xml:space="preserve">2.41793942451477</t>
@@ -200,10 +200,10 @@
     <t xml:space="preserve">2.47574543952942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895812034607</t>
+    <t xml:space="preserve">2.48895835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49391293525696</t>
+    <t xml:space="preserve">2.49391269683838</t>
   </si>
   <si>
     <t xml:space="preserve">2.46253252029419</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">2.4030749797821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106197357178</t>
+    <t xml:space="preserve">2.44106221199036</t>
   </si>
   <si>
     <t xml:space="preserve">2.42454600334167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37830138206482</t>
+    <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2114896774292</t>
+    <t xml:space="preserve">2.21148943901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.1404709815979</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">2.16854810714722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15533494949341</t>
+    <t xml:space="preserve">2.15533542633057</t>
   </si>
   <si>
     <t xml:space="preserve">2.10578751564026</t>
@@ -248,10 +248,10 @@
     <t xml:space="preserve">2.13303542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0895721912384</t>
+    <t xml:space="preserve">2.08957242965698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02772116661072</t>
+    <t xml:space="preserve">2.02772092819214</t>
   </si>
   <si>
     <t xml:space="preserve">2.04778099060059</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">1.97255623340607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431776046753</t>
+    <t xml:space="preserve">2.00431799888611</t>
   </si>
   <si>
     <t xml:space="preserve">1.98927295207977</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">1.79703223705292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374883651733</t>
+    <t xml:space="preserve">1.81374907493591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207728385925</t>
+    <t xml:space="preserve">1.81207704544067</t>
   </si>
   <si>
     <t xml:space="preserve">1.77195727825165</t>
@@ -299,55 +299,55 @@
     <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7385241985321</t>
+    <t xml:space="preserve">1.73852431774139</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837451934814</t>
+    <t xml:space="preserve">1.68837440013885</t>
   </si>
   <si>
     <t xml:space="preserve">1.75524079799652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855422973633</t>
+    <t xml:space="preserve">1.74855399131775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688231945038</t>
+    <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
     <t xml:space="preserve">1.71344935894012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68001627922058</t>
+    <t xml:space="preserve">1.68001616001129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673264026642</t>
+    <t xml:space="preserve">1.69673275947571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225675582886</t>
+    <t xml:space="preserve">1.87225687503815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419811248779</t>
+    <t xml:space="preserve">1.9641979932785</t>
   </si>
   <si>
     <t xml:space="preserve">1.96754145622253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613899230957</t>
+    <t xml:space="preserve">2.05613923072815</t>
   </si>
   <si>
     <t xml:space="preserve">2.00933289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604961395264</t>
+    <t xml:space="preserve">2.02604937553406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443740844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05781102180481</t>
+    <t xml:space="preserve">2.05781054496765</t>
   </si>
   <si>
     <t xml:space="preserve">1.97088491916656</t>
@@ -356,19 +356,19 @@
     <t xml:space="preserve">1.94413828849792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9775710105896</t>
+    <t xml:space="preserve">1.97757136821747</t>
   </si>
   <si>
     <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449747085571</t>
+    <t xml:space="preserve">2.06449770927429</t>
   </si>
   <si>
     <t xml:space="preserve">1.99763131141663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0711841583252</t>
+    <t xml:space="preserve">2.07118391990662</t>
   </si>
   <si>
     <t xml:space="preserve">2.07285571098328</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">2.11464738845825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823026657104</t>
+    <t xml:space="preserve">2.19823050498962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1882004737854</t>
+    <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652820587158</t>
+    <t xml:space="preserve">2.18652868270874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643858909607</t>
+    <t xml:space="preserve">2.15643882751465</t>
   </si>
   <si>
     <t xml:space="preserve">2.16312575340271</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">2.19655847549438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23166346549988</t>
+    <t xml:space="preserve">2.2316632270813</t>
   </si>
   <si>
     <t xml:space="preserve">2.22330498695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29685807228088</t>
+    <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3319628238678</t>
+    <t xml:space="preserve">2.33196258544922</t>
   </si>
   <si>
     <t xml:space="preserve">2.34032106399536</t>
@@ -422,67 +422,67 @@
     <t xml:space="preserve">2.38044095039368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536623001099</t>
+    <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32360458374023</t>
+    <t xml:space="preserve">2.32360482215881</t>
   </si>
   <si>
     <t xml:space="preserve">2.30855965614319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386492729187</t>
+    <t xml:space="preserve">2.33864951133728</t>
   </si>
   <si>
     <t xml:space="preserve">2.31691789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533619880676</t>
+    <t xml:space="preserve">2.34533596038818</t>
   </si>
   <si>
     <t xml:space="preserve">2.36539602279663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36372447013855</t>
+    <t xml:space="preserve">2.36372423171997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530592918396</t>
+    <t xml:space="preserve">2.33530640602112</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008152961731</t>
+    <t xml:space="preserve">2.26008176803589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29518628120422</t>
+    <t xml:space="preserve">2.2951865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673818588257</t>
+    <t xml:space="preserve">2.25673794746399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30521607398987</t>
+    <t xml:space="preserve">2.30521631240845</t>
   </si>
   <si>
     <t xml:space="preserve">2.24670839309692</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14808034896851</t>
+    <t xml:space="preserve">2.14808011054993</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17984223365784</t>
+    <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631894111633</t>
+    <t xml:space="preserve">2.11631870269775</t>
   </si>
   <si>
     <t xml:space="preserve">2.21494698524475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324516296387</t>
+    <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011132240295</t>
+    <t xml:space="preserve">2.27011156082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506663322449</t>
+    <t xml:space="preserve">2.25506639480591</t>
   </si>
   <si>
     <t xml:space="preserve">2.18987154960632</t>
@@ -494,16 +494,16 @@
     <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990181922913</t>
+    <t xml:space="preserve">2.19990158081055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2433648109436</t>
+    <t xml:space="preserve">2.24336504936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1413938999176</t>
+    <t xml:space="preserve">2.14139366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.146409034729</t>
+    <t xml:space="preserve">2.14640879631042</t>
   </si>
   <si>
     <t xml:space="preserve">2.18318510055542</t>
@@ -512,16 +512,16 @@
     <t xml:space="preserve">2.30688786506653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861971855164</t>
+    <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554594039917</t>
+    <t xml:space="preserve">2.41554570198059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223215103149</t>
+    <t xml:space="preserve">2.42223238945007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551567077637</t>
+    <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
     <t xml:space="preserve">2.45900845527649</t>
@@ -533,28 +533,28 @@
     <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50748705863953</t>
+    <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
     <t xml:space="preserve">2.54927825927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909854888916</t>
+    <t xml:space="preserve">2.48909878730774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46569561958313</t>
+    <t xml:space="preserve">2.46569538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5325620174408</t>
+    <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241209983826</t>
+    <t xml:space="preserve">2.48241186141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.39715766906738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4389488697052</t>
+    <t xml:space="preserve">2.43894910812378</t>
   </si>
   <si>
     <t xml:space="preserve">2.49077033996582</t>
@@ -566,22 +566,22 @@
     <t xml:space="preserve">2.50414371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906851768494</t>
+    <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4539942741394</t>
+    <t xml:space="preserve">2.45399403572083</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46402382850647</t>
+    <t xml:space="preserve">2.46402359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39882922172546</t>
+    <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390418052673</t>
+    <t xml:space="preserve">2.42390394210815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5994279384613</t>
+    <t xml:space="preserve">2.59942817687988</t>
   </si>
   <si>
     <t xml:space="preserve">2.64790606498718</t>
@@ -590,22 +590,22 @@
     <t xml:space="preserve">2.62450313568115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67298102378845</t>
+    <t xml:space="preserve">2.67298126220703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64957785606384</t>
+    <t xml:space="preserve">2.64957761764526</t>
   </si>
   <si>
     <t xml:space="preserve">2.78163886070251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8418185710907</t>
+    <t xml:space="preserve">2.84181833267212</t>
   </si>
   <si>
     <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513164520264</t>
+    <t xml:space="preserve">2.83513212203979</t>
   </si>
   <si>
     <t xml:space="preserve">2.81674337387085</t>
@@ -614,31 +614,31 @@
     <t xml:space="preserve">2.83346009254456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77328085899353</t>
+    <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
     <t xml:space="preserve">2.71811580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172895431519</t>
+    <t xml:space="preserve">2.81172871589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74987721443176</t>
+    <t xml:space="preserve">2.74987745285034</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659345626831</t>
+    <t xml:space="preserve">2.76659369468689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75154876708984</t>
+    <t xml:space="preserve">2.75154900550842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495193481445</t>
+    <t xml:space="preserve">2.77495217323303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166841506958</t>
+    <t xml:space="preserve">2.79166889190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486207962036</t>
+    <t xml:space="preserve">2.74486231803894</t>
   </si>
   <si>
     <t xml:space="preserve">2.74319052696228</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">2.67465281486511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823545455933</t>
+    <t xml:space="preserve">2.75823521614075</t>
   </si>
   <si>
     <t xml:space="preserve">2.73316073417664</t>
@@ -656,52 +656,52 @@
     <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817586898804</t>
   </si>
   <si>
     <t xml:space="preserve">2.80838513374329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79835534095764</t>
+    <t xml:space="preserve">2.79835557937622</t>
   </si>
   <si>
     <t xml:space="preserve">2.80002665519714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068591117859</t>
+    <t xml:space="preserve">3.02068614959717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387981414795</t>
+    <t xml:space="preserve">2.97387957572937</t>
   </si>
   <si>
     <t xml:space="preserve">2.95883464813232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.96384930610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856484413147</t>
+    <t xml:space="preserve">2.86856508255005</t>
   </si>
   <si>
     <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99728226661682</t>
+    <t xml:space="preserve">2.99728274345398</t>
   </si>
   <si>
     <t xml:space="preserve">3.00898432731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86355018615723</t>
+    <t xml:space="preserve">2.86354994773865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859511375427</t>
+    <t xml:space="preserve">2.87859487533569</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94867610931396</t>
+    <t xml:space="preserve">2.94867634773254</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00936889648438</t>
+    <t xml:space="preserve">3.00936937332153</t>
   </si>
   <si>
     <t xml:space="preserve">2.96216344833374</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">3.02622842788696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97733688354492</t>
+    <t xml:space="preserve">2.97733664512634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88292527198792</t>
+    <t xml:space="preserve">2.88292503356934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86606621742249</t>
+    <t xml:space="preserve">2.86606597900391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84246301651001</t>
+    <t xml:space="preserve">2.84246325492859</t>
   </si>
   <si>
     <t xml:space="preserve">2.87112355232239</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">2.80705881118774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75648140907288</t>
+    <t xml:space="preserve">2.7564811706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74973726272583</t>
+    <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
     <t xml:space="preserve">2.73625016212463</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502632141113</t>
+    <t xml:space="preserve">2.77502608299255</t>
   </si>
   <si>
     <t xml:space="preserve">2.83234739303589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8896689414978</t>
+    <t xml:space="preserve">2.88966870307922</t>
   </si>
   <si>
     <t xml:space="preserve">2.88629722595215</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">2.9267590045929</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96722102165222</t>
+    <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
     <t xml:space="preserve">2.9284451007843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93518877029419</t>
+    <t xml:space="preserve">2.93518900871277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699001312256</t>
+    <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507314682007</t>
+    <t xml:space="preserve">2.92507362365723</t>
   </si>
   <si>
     <t xml:space="preserve">2.91664361953735</t>
@@ -791,37 +791,37 @@
     <t xml:space="preserve">2.93687462806702</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96553564071655</t>
+    <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
     <t xml:space="preserve">2.89978456497192</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001533508301</t>
+    <t xml:space="preserve">2.92001557350159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024658203125</t>
+    <t xml:space="preserve">2.94024634361267</t>
   </si>
   <si>
     <t xml:space="preserve">2.91495776176453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94530439376831</t>
+    <t xml:space="preserve">2.94530415534973</t>
   </si>
   <si>
     <t xml:space="preserve">2.97902250289917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98408055305481</t>
+    <t xml:space="preserve">2.98408031463623</t>
   </si>
   <si>
     <t xml:space="preserve">2.97565102577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9537341594696</t>
+    <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879149436951</t>
+    <t xml:space="preserve">2.95879173278809</t>
   </si>
   <si>
     <t xml:space="preserve">2.90315628051758</t>
@@ -830,34 +830,34 @@
     <t xml:space="preserve">2.84920692443848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86269402503967</t>
+    <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93856072425842</t>
+    <t xml:space="preserve">2.93856048583984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93181681632996</t>
+    <t xml:space="preserve">2.93181705474854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90821409225464</t>
+    <t xml:space="preserve">2.90821433067322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86943769454956</t>
+    <t xml:space="preserve">2.86943817138672</t>
   </si>
   <si>
     <t xml:space="preserve">2.8407769203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95710587501526</t>
+    <t xml:space="preserve">2.95710563659668</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227907180786</t>
+    <t xml:space="preserve">2.97227883338928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745226860046</t>
+    <t xml:space="preserve">2.98745250701904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91832947731018</t>
+    <t xml:space="preserve">2.91832971572876</t>
   </si>
   <si>
     <t xml:space="preserve">2.91158604621887</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">3.03803014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07680606842041</t>
+    <t xml:space="preserve">3.07680630683899</t>
   </si>
   <si>
     <t xml:space="preserve">3.00431156158447</t>
@@ -884,34 +884,34 @@
     <t xml:space="preserve">3.15098667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11895418167114</t>
+    <t xml:space="preserve">3.11895394325256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396492958069</t>
+    <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
     <t xml:space="preserve">3.02454280853271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285647392273</t>
+    <t xml:space="preserve">3.02285671234131</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0211706161499</t>
+    <t xml:space="preserve">3.02117085456848</t>
   </si>
   <si>
     <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147018432617</t>
+    <t xml:space="preserve">2.90147042274475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93013119697571</t>
+    <t xml:space="preserve">2.93013095855713</t>
   </si>
   <si>
     <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8744957447052</t>
+    <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
     <t xml:space="preserve">2.96890735626221</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87280988693237</t>
+    <t xml:space="preserve">2.87280964851379</t>
   </si>
   <si>
     <t xml:space="preserve">2.96047759056091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484213829041</t>
+    <t xml:space="preserve">2.90484237670898</t>
   </si>
   <si>
     <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350315093994</t>
+    <t xml:space="preserve">2.93350291252136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862928390503</t>
+    <t xml:space="preserve">2.79862880706787</t>
   </si>
   <si>
     <t xml:space="preserve">2.73962211608887</t>
@@ -944,28 +944,28 @@
     <t xml:space="preserve">2.68061470985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69747424125671</t>
+    <t xml:space="preserve">2.69747400283813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73119211196899</t>
+    <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904423713684</t>
+    <t xml:space="preserve">2.68904447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63003706932068</t>
+    <t xml:space="preserve">2.6300368309021</t>
   </si>
   <si>
     <t xml:space="preserve">2.57945942878723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60474824905396</t>
+    <t xml:space="preserve">2.60474801063538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59631848335266</t>
+    <t xml:space="preserve">2.59631824493408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417060852051</t>
+    <t xml:space="preserve">2.55417037010193</t>
   </si>
   <si>
     <t xml:space="preserve">2.58788895606995</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">2.61317777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160730361938</t>
+    <t xml:space="preserve">2.62160754203796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553258895874</t>
+    <t xml:space="preserve">2.65532612800598</t>
   </si>
   <si>
     <t xml:space="preserve">2.71433305740356</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96281099319458</t>
+    <t xml:space="preserve">2.962810754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94553518295288</t>
+    <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463842391968</t>
+    <t xml:space="preserve">3.01463866233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736261367798</t>
+    <t xml:space="preserve">2.99736285209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417308807373</t>
+    <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
     <t xml:space="preserve">2.85915565490723</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">2.8159658908844</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83324193954468</t>
+    <t xml:space="preserve">2.8332417011261</t>
   </si>
   <si>
     <t xml:space="preserve">2.781414270401</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">2.7986900806427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76413869857788</t>
+    <t xml:space="preserve">2.7641384601593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77277612686157</t>
+    <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6863968372345</t>
+    <t xml:space="preserve">2.68639707565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72958660125732</t>
+    <t xml:space="preserve">2.7295868396759</t>
   </si>
   <si>
     <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137964248657</t>
+    <t xml:space="preserve">2.59137988090515</t>
   </si>
   <si>
     <t xml:space="preserve">2.73822474479675</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">2.6518452167511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7123110294342</t>
+    <t xml:space="preserve">2.71231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094869613647</t>
+    <t xml:space="preserve">2.72094893455505</t>
   </si>
   <si>
     <t xml:space="preserve">2.75550055503845</t>
@@ -1067,22 +1067,22 @@
     <t xml:space="preserve">2.70367312431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69503498077393</t>
+    <t xml:space="preserve">2.69503474235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048312187195</t>
+    <t xml:space="preserve">2.66048288345337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.600017786026</t>
+    <t xml:space="preserve">2.60001754760742</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410383224487</t>
+    <t xml:space="preserve">2.57410407066345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5654661655426</t>
+    <t xml:space="preserve">2.56546592712402</t>
   </si>
   <si>
     <t xml:space="preserve">2.54819011688232</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">2.55682826042175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6172935962677</t>
+    <t xml:space="preserve">2.61729335784912</t>
   </si>
   <si>
     <t xml:space="preserve">2.6345694065094</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">2.82460403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84187960624695</t>
+    <t xml:space="preserve">2.84187984466553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85051774978638</t>
+    <t xml:space="preserve">2.8505175113678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8937075138092</t>
+    <t xml:space="preserve">2.89370727539062</t>
   </si>
   <si>
     <t xml:space="preserve">2.9282591342926</t>
@@ -1121,7 +1121,7 @@
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86779356002808</t>
+    <t xml:space="preserve">2.8677933216095</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
@@ -1130,43 +1130,43 @@
     <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689727783203</t>
+    <t xml:space="preserve">2.93689703941345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327609062195</t>
+    <t xml:space="preserve">3.02327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646585464478</t>
+    <t xml:space="preserve">3.06646609306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.04055213928223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00600075721741</t>
+    <t xml:space="preserve">3.00600051879883</t>
   </si>
   <si>
     <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191423416138</t>
+    <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98008680343628</t>
+    <t xml:space="preserve">2.98008704185486</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97144865989685</t>
+    <t xml:space="preserve">2.97144889831543</t>
   </si>
   <si>
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9455349445343</t>
+    <t xml:space="preserve">2.94553470611572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91875743865967</t>
+    <t xml:space="preserve">2.91875720024109</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">3.03479361534119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02586770057678</t>
+    <t xml:space="preserve">3.02586793899536</t>
   </si>
   <si>
     <t xml:space="preserve">3.07049703598022</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">3.07942271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09727478027344</t>
+    <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371929168701</t>
+    <t xml:space="preserve">3.04371953010559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834886550903</t>
+    <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1329779624939</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">2.9366090297699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768335342407</t>
+    <t xml:space="preserve">2.92768287658691</t>
   </si>
   <si>
     <t xml:space="preserve">2.90090560913086</t>
@@ -1238,31 +1238,31 @@
     <t xml:space="preserve">2.81164693832397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7491660118103</t>
+    <t xml:space="preserve">2.74916577339172</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64205574989319</t>
+    <t xml:space="preserve">2.64205551147461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6242036819458</t>
+    <t xml:space="preserve">2.62420392036438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60635209083557</t>
+    <t xml:space="preserve">2.60635232925415</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65990734100342</t>
+    <t xml:space="preserve">2.65990710258484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58850026130676</t>
+    <t xml:space="preserve">2.58850049972534</t>
   </si>
   <si>
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883325576782</t>
+    <t xml:space="preserve">2.66883301734924</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">2.72238850593567</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59742617607117</t>
+    <t xml:space="preserve">2.59742641448975</t>
   </si>
   <si>
     <t xml:space="preserve">2.76701760292053</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453643798828</t>
+    <t xml:space="preserve">2.70453667640686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23116230964661</t>
+    <t xml:space="preserve">3.23116254806519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15975546836853</t>
+    <t xml:space="preserve">3.15975570678711</t>
   </si>
   <si>
     <t xml:space="preserve">3.1419038772583</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620045661926</t>
+    <t xml:space="preserve">3.10620069503784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99016404151917</t>
+    <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89197969436646</t>
+    <t xml:space="preserve">2.89197993278503</t>
   </si>
   <si>
     <t xml:space="preserve">2.80272102355957</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">2.79379510879517</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4278347492218</t>
+    <t xml:space="preserve">2.42783498764038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47246408462524</t>
+    <t xml:space="preserve">2.47246432304382</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46353840827942</t>
+    <t xml:space="preserve">2.46353816986084</t>
   </si>
   <si>
     <t xml:space="preserve">2.57957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6152777671814</t>
+    <t xml:space="preserve">2.61527800559998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78486943244934</t>
+    <t xml:space="preserve">2.78486919403076</t>
   </si>
   <si>
     <t xml:space="preserve">2.77594351768494</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">2.82949876785278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85627627372742</t>
+    <t xml:space="preserve">2.856276512146</t>
   </si>
   <si>
     <t xml:space="preserve">2.88305377960205</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057285308838</t>
+    <t xml:space="preserve">2.82057309150696</t>
   </si>
   <si>
     <t xml:space="preserve">2.7402400970459</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">2.57064890861511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49924182891846</t>
+    <t xml:space="preserve">2.49924159049988</t>
   </si>
   <si>
     <t xml:space="preserve">2.5527970790863</t>
@@ -1370,19 +1370,19 @@
     <t xml:space="preserve">2.49031591415405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43676066398621</t>
+    <t xml:space="preserve">2.43676090240479</t>
   </si>
   <si>
     <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320565223694</t>
+    <t xml:space="preserve">2.38320541381836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189088344574</t>
+    <t xml:space="preserve">2.41890907287598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45461225509644</t>
+    <t xml:space="preserve">2.45461249351501</t>
   </si>
   <si>
     <t xml:space="preserve">2.51709342002869</t>
@@ -1397,22 +1397,22 @@
     <t xml:space="preserve">3.18653321266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16868162155151</t>
+    <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545912742615</t>
+    <t xml:space="preserve">3.19545888900757</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35612487792969</t>
+    <t xml:space="preserve">3.35612463951111</t>
   </si>
   <si>
     <t xml:space="preserve">3.28471779823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21331071853638</t>
+    <t xml:space="preserve">3.2133104801178</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24901413917542</t>
+    <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
     <t xml:space="preserve">3.32042121887207</t>
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">3.48108673095703</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42753124237061</t>
+    <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893856048584</t>
+    <t xml:space="preserve">3.49893832206726</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">3.30256938934326</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2668662071228</t>
+    <t xml:space="preserve">3.26686596870422</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44538307189941</t>
+    <t xml:space="preserve">3.44538331031799</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65960383415222</t>
+    <t xml:space="preserve">3.6596040725708</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">3.51679015159607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967965126038</t>
+    <t xml:space="preserve">3.40967988967896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17760753631592</t>
+    <t xml:space="preserve">3.17760729789734</t>
   </si>
   <si>
     <t xml:space="preserve">3.32438230514526</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25992059707642</t>
+    <t xml:space="preserve">3.259920835495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675602912903</t>
+    <t xml:space="preserve">3.29675579071045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1499,7 +1499,10 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308540344238</t>
+    <t xml:space="preserve">3.22308564186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1508,7 +1511,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890919685364</t>
+    <t xml:space="preserve">3.03890895843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1520,16 +1523,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0112829208374</t>
+    <t xml:space="preserve">3.01128268241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653547286987</t>
+    <t xml:space="preserve">3.06653571128845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682097434998</t>
+    <t xml:space="preserve">2.94682121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523857116699</t>
+    <t xml:space="preserve">2.96523880958557</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1544,22 +1547,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625044822693</t>
+    <t xml:space="preserve">3.18625020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811787605286</t>
+    <t xml:space="preserve">3.04811811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049160003662</t>
+    <t xml:space="preserve">3.02049136161804</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365616798401</t>
+    <t xml:space="preserve">2.98365640640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1586,10 +1589,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286532402039</t>
+    <t xml:space="preserve">2.99286508560181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2415030002594</t>
+    <t xml:space="preserve">3.24150323867798</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1680,6 +1683,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -44768,7 +44774,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44794,7 +44800,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44820,7 +44826,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44872,7 +44878,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1646" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44898,7 +44904,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1647" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44924,7 +44930,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1648" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44976,7 +44982,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45002,7 +45008,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45028,7 +45034,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45054,7 +45060,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45080,7 +45086,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1654" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45106,7 +45112,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1655" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45132,7 +45138,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1656" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45158,7 +45164,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1657" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45210,7 +45216,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1659" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45236,7 +45242,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45262,7 +45268,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1661" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45288,7 +45294,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1662" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45314,7 +45320,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45340,7 +45346,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45366,7 +45372,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45392,7 +45398,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1666" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45418,7 +45424,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1667" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45444,7 +45450,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45470,7 +45476,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1669" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45496,7 +45502,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45522,7 +45528,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1671" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45548,7 +45554,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45574,7 +45580,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45600,7 +45606,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1674" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45626,7 +45632,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1675" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45652,7 +45658,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1676" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45678,7 +45684,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1677" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45704,7 +45710,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1678" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45730,7 +45736,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45756,7 +45762,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45782,7 +45788,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1681" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45834,7 +45840,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1683" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45860,7 +45866,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1684" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45912,7 +45918,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45938,7 +45944,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45964,7 +45970,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45990,7 +45996,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1689" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46016,7 +46022,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46042,7 +46048,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46068,7 +46074,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46094,7 +46100,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1693" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46120,7 +46126,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1694" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46146,7 +46152,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46224,7 +46230,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46250,7 +46256,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1699" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46276,7 +46282,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46328,7 +46334,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46354,7 +46360,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46380,7 +46386,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1704" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46406,7 +46412,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1705" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46432,7 +46438,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46458,7 +46464,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1707" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46562,7 +46568,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46588,7 +46594,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46614,7 +46620,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46640,7 +46646,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1714" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46666,7 +46672,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46692,7 +46698,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46718,7 +46724,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46744,7 +46750,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1718" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46770,7 +46776,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46796,7 +46802,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46822,7 +46828,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46848,7 +46854,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46874,7 +46880,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1723" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46900,7 +46906,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1724" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46926,7 +46932,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46952,7 +46958,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1726" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46978,7 +46984,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1727" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47004,7 +47010,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47030,7 +47036,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1729" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47056,7 +47062,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47082,7 +47088,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1731" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47108,7 +47114,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1732" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47134,7 +47140,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47160,7 +47166,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1734" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47186,7 +47192,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1735" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47212,7 +47218,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47238,7 +47244,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1737" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47264,7 +47270,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47290,7 +47296,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47316,7 +47322,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1740" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47342,7 +47348,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47368,7 +47374,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1742" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47394,7 +47400,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47420,7 +47426,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1744" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47446,7 +47452,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1745" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47472,7 +47478,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47498,7 +47504,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1747" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47524,7 +47530,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47550,7 +47556,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1749" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47576,7 +47582,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1750" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47602,7 +47608,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47628,7 +47634,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1752" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47654,7 +47660,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1753" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47680,7 +47686,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47706,7 +47712,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1755" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47732,7 +47738,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1756" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47758,7 +47764,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1757" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47784,7 +47790,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1758" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47810,7 +47816,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47836,7 +47842,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1760" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47862,7 +47868,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47888,7 +47894,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47914,7 +47920,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47940,7 +47946,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47966,7 +47972,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1765" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47992,7 +47998,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1766" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48018,7 +48024,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48044,7 +48050,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1768" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48070,7 +48076,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48096,7 +48102,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1770" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48122,7 +48128,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1771" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48148,7 +48154,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1772" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48174,7 +48180,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1773" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48200,7 +48206,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1774" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48226,7 +48232,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1775" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48252,7 +48258,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1776" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48278,7 +48284,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1777" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48304,7 +48310,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1778" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48330,7 +48336,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1779" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48356,7 +48362,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48382,7 +48388,7 @@
         <v>3.25</v>
       </c>
       <c r="G1781" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48408,7 +48414,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1782" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48434,7 +48440,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48460,7 +48466,7 @@
         <v>3.25</v>
       </c>
       <c r="G1784" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48486,7 +48492,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1785" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48512,7 +48518,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1786" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48538,7 +48544,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48564,7 +48570,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48590,7 +48596,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1789" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48616,7 +48622,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1790" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48642,7 +48648,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1791" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48668,7 +48674,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1792" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48694,7 +48700,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48720,7 +48726,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48746,7 +48752,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1795" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48772,7 +48778,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48798,7 +48804,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48824,7 +48830,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48850,7 +48856,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1799" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48876,7 +48882,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48902,7 +48908,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1801" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48928,7 +48934,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1802" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48954,7 +48960,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1803" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48980,7 +48986,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49006,7 +49012,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1805" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49032,7 +49038,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1806" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49058,7 +49064,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1807" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49084,7 +49090,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49110,7 +49116,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1809" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49136,7 +49142,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1810" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49162,7 +49168,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1811" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49188,7 +49194,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49214,7 +49220,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1813" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49240,7 +49246,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1814" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49266,7 +49272,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1815" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49292,7 +49298,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49318,7 +49324,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1817" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49344,7 +49350,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1818" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49370,7 +49376,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49396,7 +49402,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49422,7 +49428,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49448,7 +49454,7 @@
         <v>3.25</v>
       </c>
       <c r="G1822" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49474,7 +49480,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49500,7 +49506,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1824" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49526,7 +49532,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1825" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49552,7 +49558,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1826" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49578,7 +49584,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49604,7 +49610,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49630,7 +49636,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1829" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49656,7 +49662,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49682,7 +49688,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49708,7 +49714,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49734,7 +49740,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1833" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49760,7 +49766,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1834" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49786,7 +49792,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1835" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49812,7 +49818,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49838,7 +49844,7 @@
         <v>3.25</v>
       </c>
       <c r="G1837" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49864,7 +49870,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1838" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49890,7 +49896,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1839" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49916,7 +49922,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49942,7 +49948,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1841" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49968,7 +49974,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1842" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49994,7 +50000,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1843" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50020,7 +50026,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50046,7 +50052,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1845" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50072,7 +50078,7 @@
         <v>3.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50098,7 +50104,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1847" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50124,7 +50130,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1848" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50150,7 +50156,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1849" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50176,7 +50182,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1850" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50202,7 +50208,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1851" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50228,7 +50234,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50254,7 +50260,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1853" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50280,7 +50286,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1854" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50306,7 +50312,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1855" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50332,7 +50338,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1856" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50358,7 +50364,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1857" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50384,7 +50390,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1858" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50410,7 +50416,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1859" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50436,7 +50442,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1860" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50462,7 +50468,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1861" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50488,7 +50494,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1862" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50514,7 +50520,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1863" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50540,7 +50546,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1864" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50566,7 +50572,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1865" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50592,7 +50598,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1866" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50618,7 +50624,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50644,7 +50650,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50670,7 +50676,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1869" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50696,7 +50702,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1870" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50722,7 +50728,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1871" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50748,7 +50754,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1872" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50774,7 +50780,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1873" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50800,7 +50806,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1874" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50826,7 +50832,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1875" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50852,7 +50858,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1876" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50878,7 +50884,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1877" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50904,7 +50910,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1878" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50930,7 +50936,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1879" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50956,7 +50962,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1880" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50982,7 +50988,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1881" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51008,7 +51014,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1882" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51034,7 +51040,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1883" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51060,7 +51066,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1884" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51086,7 +51092,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1885" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51112,7 +51118,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1886" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51138,7 +51144,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1887" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51164,7 +51170,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1888" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51190,7 +51196,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1889" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51216,7 +51222,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1890" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51242,7 +51248,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1891" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51268,7 +51274,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1892" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51294,7 +51300,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1893" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51320,7 +51326,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1894" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51346,7 +51352,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1895" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51372,7 +51378,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1896" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51398,7 +51404,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1897" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51424,7 +51430,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1898" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51450,7 +51456,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1899" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51476,7 +51482,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1900" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51502,7 +51508,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1901" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51528,7 +51534,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1902" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51554,7 +51560,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1903" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51580,7 +51586,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1904" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51606,7 +51612,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1905" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51632,7 +51638,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1906" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51658,7 +51664,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1907" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51684,7 +51690,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51710,7 +51716,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1909" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51736,7 +51742,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1910" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51762,7 +51768,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51788,7 +51794,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1912" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51814,7 +51820,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51840,7 +51846,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1914" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51866,7 +51872,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51892,7 +51898,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1916" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51918,7 +51924,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51944,7 +51950,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1918" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51970,7 +51976,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1919" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51996,7 +52002,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1920" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52022,7 +52028,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52048,7 +52054,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52074,7 +52080,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52100,7 +52106,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52126,7 +52132,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1925" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52152,7 +52158,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1926" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52178,7 +52184,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1927" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52204,7 +52210,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1928" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52230,7 +52236,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1929" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52256,7 +52262,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1930" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52282,7 +52288,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1931" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52308,7 +52314,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1932" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52334,7 +52340,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1933" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52360,7 +52366,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1934" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52386,7 +52392,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1935" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52412,7 +52418,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1936" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52438,7 +52444,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52464,7 +52470,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1938" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52490,7 +52496,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1939" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52516,7 +52522,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1940" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52542,7 +52548,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52568,7 +52574,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52594,7 +52600,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1943" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52620,7 +52626,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1944" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52646,7 +52652,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52672,7 +52678,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52698,7 +52704,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1947" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52724,7 +52730,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1948" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52750,7 +52756,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1949" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52776,7 +52782,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52802,7 +52808,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52828,7 +52834,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1952" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52854,7 +52860,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1953" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52880,7 +52886,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1954" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52906,7 +52912,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1955" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52932,7 +52938,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1956" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52958,7 +52964,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52984,7 +52990,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53010,7 +53016,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1959" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53036,7 +53042,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53062,7 +53068,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53088,7 +53094,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53114,7 +53120,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1963" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53140,7 +53146,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53166,7 +53172,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53192,7 +53198,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1966" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53218,7 +53224,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1967" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53244,7 +53250,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53270,7 +53276,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53296,7 +53302,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53322,7 +53328,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53348,7 +53354,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1972" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53374,7 +53380,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1973" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53400,7 +53406,7 @@
         <v>3</v>
       </c>
       <c r="G1974" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53426,7 +53432,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1975" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53452,7 +53458,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53478,7 +53484,7 @@
         <v>3</v>
       </c>
       <c r="G1977" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53504,7 +53510,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1978" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53530,7 +53536,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1979" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53556,7 +53562,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53582,7 +53588,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53608,7 +53614,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1982" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53634,7 +53640,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1983" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53660,7 +53666,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1984" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53686,7 +53692,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1985" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53712,7 +53718,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1986" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53738,7 +53744,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1987" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53764,7 +53770,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1988" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53790,7 +53796,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1989" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53816,7 +53822,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1990" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53842,7 +53848,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53868,7 +53874,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1992" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53894,7 +53900,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1993" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53920,7 +53926,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1994" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53946,7 +53952,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1995" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53972,7 +53978,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1996" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53998,7 +54004,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54024,7 +54030,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54050,7 +54056,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1999" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54076,7 +54082,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G2000" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54102,7 +54108,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54128,7 +54134,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54154,7 +54160,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54180,7 +54186,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54206,7 +54212,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54232,7 +54238,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2006" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54258,7 +54264,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2007" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54284,7 +54290,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G2008" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54310,7 +54316,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54336,7 +54342,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2010" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54362,7 +54368,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2011" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54388,7 +54394,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2012" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54414,7 +54420,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2013" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54440,7 +54446,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2014" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54466,7 +54472,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54492,7 +54498,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2016" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54518,7 +54524,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2017" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54544,7 +54550,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2018" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54570,7 +54576,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2019" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54596,7 +54602,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2020" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54622,7 +54628,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2021" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54648,7 +54654,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2022" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54674,7 +54680,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2023" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54700,7 +54706,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54726,7 +54732,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2025" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54752,7 +54758,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2026" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54778,7 +54784,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2027" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54804,7 +54810,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2028" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54830,7 +54836,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2029" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54856,7 +54862,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2030" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54882,7 +54888,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54908,7 +54914,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2032" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54934,7 +54940,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2033" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54960,7 +54966,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54986,7 +54992,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2035" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55012,7 +55018,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2036" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55038,7 +55044,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2037" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55064,7 +55070,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2038" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55090,7 +55096,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55116,7 +55122,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2040" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55142,7 +55148,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2041" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55168,7 +55174,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2042" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55194,7 +55200,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2043" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55220,7 +55226,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55246,7 +55252,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2045" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55272,7 +55278,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2046" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55298,7 +55304,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2047" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55324,7 +55330,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2048" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55350,7 +55356,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2049" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55376,7 +55382,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2050" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55402,7 +55408,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2051" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55428,7 +55434,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2052" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55454,7 +55460,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55480,7 +55486,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2054" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55506,7 +55512,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2055" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55532,7 +55538,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2056" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55558,7 +55564,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2057" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55584,7 +55590,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2058" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55610,7 +55616,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2059" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55636,7 +55642,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2060" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55662,7 +55668,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2061" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55688,7 +55694,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2062" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55714,7 +55720,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2063" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55740,7 +55746,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2064" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55766,7 +55772,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2065" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55792,7 +55798,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2066" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55818,7 +55824,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2067" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55844,7 +55850,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2068" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55870,7 +55876,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2069" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55896,7 +55902,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2070" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55922,7 +55928,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2071" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55948,7 +55954,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2072" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55974,7 +55980,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56000,7 +56006,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2074" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56026,7 +56032,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2075" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56052,7 +56058,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2076" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56078,7 +56084,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2077" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56104,7 +56110,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2078" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56130,7 +56136,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2079" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56156,7 +56162,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2080" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56182,7 +56188,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2081" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56208,7 +56214,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2082" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56234,7 +56240,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2083" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56260,7 +56266,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2084" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56286,7 +56292,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2085" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56312,7 +56318,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2086" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56338,7 +56344,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56364,7 +56370,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2088" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56390,7 +56396,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56416,7 +56422,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56442,7 +56448,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2091" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56468,7 +56474,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56494,7 +56500,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56520,7 +56526,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2094" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56546,7 +56552,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2095" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56572,7 +56578,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56598,7 +56604,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2097" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56624,7 +56630,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2098" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56650,7 +56656,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2099" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56676,7 +56682,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2100" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56702,7 +56708,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2101" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56728,7 +56734,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56754,7 +56760,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56780,7 +56786,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56806,7 +56812,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2105" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56832,7 +56838,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2106" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56858,7 +56864,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2107" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56884,7 +56890,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2108" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56910,7 +56916,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2109" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56936,7 +56942,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2110" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56962,7 +56968,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56988,7 +56994,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57014,7 +57020,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2113" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57040,7 +57046,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57066,7 +57072,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57092,7 +57098,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57118,7 +57124,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57144,7 +57150,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57170,7 +57176,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57196,7 +57202,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2120" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57222,7 +57228,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57248,7 +57254,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57274,7 +57280,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2123" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57300,7 +57306,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57326,7 +57332,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57352,7 +57358,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57378,7 +57384,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57404,7 +57410,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57430,7 +57436,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57456,7 +57462,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57482,7 +57488,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57508,7 +57514,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57534,7 +57540,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57560,7 +57566,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57586,7 +57592,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57612,7 +57618,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57638,7 +57644,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57664,7 +57670,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57690,7 +57696,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57716,7 +57722,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57742,7 +57748,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57768,7 +57774,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57794,7 +57800,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57820,7 +57826,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57846,7 +57852,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57872,7 +57878,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57898,7 +57904,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57924,7 +57930,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57950,7 +57956,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57976,7 +57982,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58002,7 +58008,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58028,7 +58034,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58054,7 +58060,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58080,7 +58086,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58106,7 +58112,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2155" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58132,7 +58138,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58158,7 +58164,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58184,7 +58190,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2158" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58210,7 +58216,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2159" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58236,7 +58242,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2160" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58262,7 +58268,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2161" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58288,7 +58294,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2162" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58314,7 +58320,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2163" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58340,7 +58346,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2164" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58366,7 +58372,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2165" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58392,7 +58398,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2166" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58418,7 +58424,7 @@
         <v>3.25</v>
       </c>
       <c r="G2167" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58444,7 +58450,7 @@
         <v>3.25</v>
       </c>
       <c r="G2168" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58470,7 +58476,7 @@
         <v>3.25</v>
       </c>
       <c r="G2169" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58496,7 +58502,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2170" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58522,7 +58528,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58530,7 +58536,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.3451041667</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>150</v>
@@ -58548,9 +58554,35 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2172" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6265393519</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>3.25999999046326</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>3.25999999046326</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>575</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3337082862854</t>
+    <t xml:space="preserve">2.33370780944824</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
@@ -47,73 +47,73 @@
     <t xml:space="preserve">2.35517859458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28581118583679</t>
+    <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
     <t xml:space="preserve">2.30397939682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185163497925</t>
+    <t xml:space="preserve">2.17185139656067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21974778175354</t>
+    <t xml:space="preserve">2.21974754333496</t>
   </si>
   <si>
     <t xml:space="preserve">2.18836736679077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019987106323</t>
+    <t xml:space="preserve">2.17019963264465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752917289734</t>
+    <t xml:space="preserve">2.0975296497345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08927130699158</t>
+    <t xml:space="preserve">2.08927154541016</t>
   </si>
   <si>
     <t xml:space="preserve">2.02320742607117</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00503993034363</t>
+    <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257483482361</t>
+    <t xml:space="preserve">2.09257435798645</t>
   </si>
   <si>
     <t xml:space="preserve">2.11404514312744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542579650879</t>
+    <t xml:space="preserve">2.14542555809021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06284618377686</t>
+    <t xml:space="preserve">2.06284594535828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449723243713</t>
+    <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972339630127</t>
+    <t xml:space="preserve">2.03972363471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03642058372498</t>
+    <t xml:space="preserve">2.03642010688782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852407932281</t>
+    <t xml:space="preserve">1.98852384090424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660108566284</t>
+    <t xml:space="preserve">2.01660132408142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365987300873</t>
+    <t xml:space="preserve">1.97365939617157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119418144226</t>
+    <t xml:space="preserve">2.06119394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017572402954</t>
+    <t xml:space="preserve">1.99017560482025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329803466797</t>
+    <t xml:space="preserve">2.01329779624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.11734867095947</t>
@@ -125,19 +125,19 @@
     <t xml:space="preserve">2.32875323295593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3535270690918</t>
+    <t xml:space="preserve">2.35352730751038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223702430725</t>
+    <t xml:space="preserve">2.31223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22139930725098</t>
+    <t xml:space="preserve">2.22139954566956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14707732200623</t>
+    <t xml:space="preserve">2.14707708358765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716793060303</t>
+    <t xml:space="preserve">2.13716769218445</t>
   </si>
   <si>
     <t xml:space="preserve">2.28746318817139</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42124247550964</t>
+    <t xml:space="preserve">2.42124271392822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39481687545776</t>
+    <t xml:space="preserve">2.39481735229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.47409391403198</t>
@@ -164,19 +164,19 @@
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5352029800415</t>
+    <t xml:space="preserve">2.53520274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51042890548706</t>
+    <t xml:space="preserve">2.51042866706848</t>
   </si>
   <si>
     <t xml:space="preserve">2.60126686096191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135746955872</t>
+    <t xml:space="preserve">2.59135699272156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117601394653</t>
+    <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
     <t xml:space="preserve">2.54180932044983</t>
@@ -185,37 +185,37 @@
     <t xml:space="preserve">2.51703524589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5186870098114</t>
+    <t xml:space="preserve">2.51868653297424</t>
   </si>
   <si>
     <t xml:space="preserve">2.47244215011597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50712561607361</t>
+    <t xml:space="preserve">2.50712585449219</t>
   </si>
   <si>
     <t xml:space="preserve">2.41793942451477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574543952942</t>
+    <t xml:space="preserve">2.47574520111084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895835876465</t>
+    <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49391293525696</t>
+    <t xml:space="preserve">2.49391317367554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253228187561</t>
+    <t xml:space="preserve">2.46253252029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43610715866089</t>
+    <t xml:space="preserve">2.43610692024231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40307545661926</t>
+    <t xml:space="preserve">2.4030749797821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4410617351532</t>
+    <t xml:space="preserve">2.44106197357178</t>
   </si>
   <si>
     <t xml:space="preserve">2.4245457649231</t>
@@ -224,28 +224,28 @@
     <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21148991584778</t>
+    <t xml:space="preserve">2.21149015426636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14047074317932</t>
+    <t xml:space="preserve">2.1404709815979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16854810714722</t>
+    <t xml:space="preserve">2.16854786872864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15533542633057</t>
+    <t xml:space="preserve">2.15533566474915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10578751564026</t>
+    <t xml:space="preserve">2.10578727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0461094379425</t>
+    <t xml:space="preserve">2.04610896110535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598955154419</t>
+    <t xml:space="preserve">2.00598931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303518295288</t>
+    <t xml:space="preserve">2.13303542137146</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
@@ -257,37 +257,37 @@
     <t xml:space="preserve">2.04778099060059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03942275047302</t>
+    <t xml:space="preserve">2.03942251205444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02270603179932</t>
+    <t xml:space="preserve">2.02270579338074</t>
   </si>
   <si>
     <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255623340607</t>
+    <t xml:space="preserve">1.97255611419678</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431776046753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927295207977</t>
+    <t xml:space="preserve">1.98927283287048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825475215912</t>
+    <t xml:space="preserve">1.64825463294983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7970324754715</t>
+    <t xml:space="preserve">1.79703223705292</t>
   </si>
   <si>
     <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207728385925</t>
+    <t xml:space="preserve">1.81207716464996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195739746094</t>
+    <t xml:space="preserve">1.77195703983307</t>
   </si>
   <si>
     <t xml:space="preserve">1.75356912612915</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">1.73016571998596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7218074798584</t>
+    <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7385241985321</t>
+    <t xml:space="preserve">1.73852407932281</t>
   </si>
   <si>
     <t xml:space="preserve">1.68837440013885</t>
@@ -311,58 +311,58 @@
     <t xml:space="preserve">1.74855422973633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688243865967</t>
+    <t xml:space="preserve">1.74688255786896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344935894012</t>
+    <t xml:space="preserve">1.71344923973083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68001616001129</t>
+    <t xml:space="preserve">1.680016040802</t>
   </si>
   <si>
     <t xml:space="preserve">1.69673275947571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225675582886</t>
+    <t xml:space="preserve">1.87225687503815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419787406921</t>
+    <t xml:space="preserve">1.96419775485992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754121780396</t>
+    <t xml:space="preserve">1.96754145622253</t>
   </si>
   <si>
     <t xml:space="preserve">2.05613923072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933313369751</t>
+    <t xml:space="preserve">2.00933289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604961395264</t>
+    <t xml:space="preserve">2.02604937553406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443740844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05781102180481</t>
+    <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088491916656</t>
+    <t xml:space="preserve">1.97088444232941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413805007935</t>
+    <t xml:space="preserve">1.94413828849792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97757148742676</t>
+    <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
     <t xml:space="preserve">2.02103424072266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449747085571</t>
+    <t xml:space="preserve">2.06449770927429</t>
   </si>
   <si>
     <t xml:space="preserve">1.99763107299805</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">2.0711841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07285571098328</t>
+    <t xml:space="preserve">2.07285594940186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625911712646</t>
+    <t xml:space="preserve">2.09625887870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464691162109</t>
+    <t xml:space="preserve">2.11464738845825</t>
   </si>
   <si>
     <t xml:space="preserve">2.19823026657104</t>
@@ -389,148 +389,148 @@
     <t xml:space="preserve">2.18652820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643835067749</t>
+    <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16312551498413</t>
+    <t xml:space="preserve">2.16312503814697</t>
   </si>
   <si>
     <t xml:space="preserve">2.16479706764221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655871391296</t>
+    <t xml:space="preserve">2.19655847549438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2316632270813</t>
+    <t xml:space="preserve">2.23166346549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330498695374</t>
+    <t xml:space="preserve">2.22330522537231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29685807228088</t>
+    <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
     <t xml:space="preserve">2.3319628238678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34032106399536</t>
+    <t xml:space="preserve">2.34032130241394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34700798988342</t>
+    <t xml:space="preserve">2.34700775146484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38044118881226</t>
+    <t xml:space="preserve">2.38044095039368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536623001099</t>
+    <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32360458374023</t>
+    <t xml:space="preserve">2.32360434532166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855965614319</t>
+    <t xml:space="preserve">2.30855989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33864951133728</t>
+    <t xml:space="preserve">2.3386492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31691789627075</t>
+    <t xml:space="preserve">2.31691813468933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533619880676</t>
+    <t xml:space="preserve">2.34533596038818</t>
   </si>
   <si>
     <t xml:space="preserve">2.36539578437805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36372447013855</t>
+    <t xml:space="preserve">2.36372470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530592918396</t>
+    <t xml:space="preserve">2.33530616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008152961731</t>
+    <t xml:space="preserve">2.26008129119873</t>
   </si>
   <si>
     <t xml:space="preserve">2.2951865196228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673818588257</t>
+    <t xml:space="preserve">2.25673842430115</t>
   </si>
   <si>
     <t xml:space="preserve">2.30521631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24670839309692</t>
+    <t xml:space="preserve">2.24670815467834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14808011054993</t>
+    <t xml:space="preserve">2.14808058738708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17984199523926</t>
+    <t xml:space="preserve">2.17984175682068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631870269775</t>
+    <t xml:space="preserve">2.11631894111633</t>
   </si>
   <si>
     <t xml:space="preserve">2.21494674682617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324468612671</t>
+    <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011132240295</t>
+    <t xml:space="preserve">2.27011156082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506639480591</t>
+    <t xml:space="preserve">2.25506663322449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1898717880249</t>
+    <t xml:space="preserve">2.18987202644348</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339508056641</t>
+    <t xml:space="preserve">2.25339484214783</t>
   </si>
   <si>
     <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990158081055</t>
+    <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24336504936218</t>
+    <t xml:space="preserve">2.2433648109436</t>
   </si>
   <si>
     <t xml:space="preserve">2.1413938999176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.146409034729</t>
+    <t xml:space="preserve">2.14640879631042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18318510055542</t>
+    <t xml:space="preserve">2.18318557739258</t>
   </si>
   <si>
     <t xml:space="preserve">2.30688786506653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861971855164</t>
+    <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554570198059</t>
+    <t xml:space="preserve">2.41554594039917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223238945007</t>
+    <t xml:space="preserve">2.42223262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551567077637</t>
+    <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45900869369507</t>
+    <t xml:space="preserve">2.45900893211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.37709760665894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52754688262939</t>
+    <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
     <t xml:space="preserve">2.50748682022095</t>
@@ -545,13 +545,13 @@
     <t xml:space="preserve">2.46569538116455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53256154060364</t>
+    <t xml:space="preserve">2.5325620174408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241209983826</t>
+    <t xml:space="preserve">2.48241233825684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39715766906738</t>
+    <t xml:space="preserve">2.3971574306488</t>
   </si>
   <si>
     <t xml:space="preserve">2.4389488697052</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">2.50414371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906851768494</t>
+    <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399379730225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46402406692505</t>
+    <t xml:space="preserve">2.46402382850647</t>
   </si>
   <si>
     <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390394210815</t>
+    <t xml:space="preserve">2.42390418052673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59942817687988</t>
+    <t xml:space="preserve">2.5994279384613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6479058265686</t>
+    <t xml:space="preserve">2.64790606498718</t>
   </si>
   <si>
     <t xml:space="preserve">2.62450289726257</t>
@@ -596,19 +596,19 @@
     <t xml:space="preserve">2.64957785606384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163886070251</t>
+    <t xml:space="preserve">2.78163862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84181880950928</t>
+    <t xml:space="preserve">2.84181833267212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847522735596</t>
+    <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
     <t xml:space="preserve">2.83513164520264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81674313545227</t>
+    <t xml:space="preserve">2.81674337387085</t>
   </si>
   <si>
     <t xml:space="preserve">2.83346033096313</t>
@@ -623,82 +623,82 @@
     <t xml:space="preserve">2.81172871589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74987697601318</t>
+    <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
     <t xml:space="preserve">2.76659369468689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75154876708984</t>
+    <t xml:space="preserve">2.751549243927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495217323303</t>
+    <t xml:space="preserve">2.77495169639587</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166865348816</t>
+    <t xml:space="preserve">2.79166889190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486231803894</t>
+    <t xml:space="preserve">2.74486255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319076538086</t>
+    <t xml:space="preserve">2.74319052696228</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67465281486511</t>
+    <t xml:space="preserve">2.67465257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823569297791</t>
+    <t xml:space="preserve">2.75823545455933</t>
   </si>
   <si>
     <t xml:space="preserve">2.73316049575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78330993652344</t>
+    <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817586898804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838513374329</t>
+    <t xml:space="preserve">2.80838537216187</t>
   </si>
   <si>
     <t xml:space="preserve">2.79835534095764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002665519714</t>
+    <t xml:space="preserve">2.80002689361572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068567276001</t>
+    <t xml:space="preserve">3.02068614959717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387981414795</t>
+    <t xml:space="preserve">2.97387933731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.95883464813232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.96384906768799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856484413147</t>
+    <t xml:space="preserve">2.86856508255005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96552109718323</t>
+    <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
     <t xml:space="preserve">2.99728274345398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898432731628</t>
+    <t xml:space="preserve">3.00898408889771</t>
   </si>
   <si>
     <t xml:space="preserve">2.86354994773865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859487533569</t>
+    <t xml:space="preserve">2.87859535217285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94867610931396</t>
+    <t xml:space="preserve">2.94867587089539</t>
   </si>
   <si>
     <t xml:space="preserve">3.00936913490295</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622842788696</t>
+    <t xml:space="preserve">3.02622866630554</t>
   </si>
   <si>
     <t xml:space="preserve">2.97733688354492</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">2.88292527198792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86606621742249</t>
+    <t xml:space="preserve">2.86606597900391</t>
   </si>
   <si>
     <t xml:space="preserve">2.84246301651001</t>
@@ -731,28 +731,28 @@
     <t xml:space="preserve">2.80705857276917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7564811706543</t>
+    <t xml:space="preserve">2.75648093223572</t>
   </si>
   <si>
     <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73625016212463</t>
+    <t xml:space="preserve">2.73624992370605</t>
   </si>
   <si>
     <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502608299255</t>
+    <t xml:space="preserve">2.77502655982971</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83234739303589</t>
+    <t xml:space="preserve">2.83234763145447</t>
   </si>
   <si>
     <t xml:space="preserve">2.8896689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629722595215</t>
+    <t xml:space="preserve">2.88629698753357</t>
   </si>
   <si>
     <t xml:space="preserve">2.85763645172119</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">2.88123941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94193243980408</t>
+    <t xml:space="preserve">2.9419322013855</t>
   </si>
   <si>
     <t xml:space="preserve">2.9267590045929</t>
@@ -773,19 +773,19 @@
     <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9284451007843</t>
+    <t xml:space="preserve">2.92844486236572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93518877029419</t>
+    <t xml:space="preserve">2.93518853187561</t>
   </si>
   <si>
     <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507314682007</t>
+    <t xml:space="preserve">2.92507338523865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91664361953735</t>
+    <t xml:space="preserve">2.91664385795593</t>
   </si>
   <si>
     <t xml:space="preserve">2.9368748664856</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89978456497192</t>
+    <t xml:space="preserve">2.89978432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001533508301</t>
+    <t xml:space="preserve">2.92001557350159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024634361267</t>
+    <t xml:space="preserve">2.94024658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91495800018311</t>
+    <t xml:space="preserve">2.91495752334595</t>
   </si>
   <si>
     <t xml:space="preserve">2.94530439376831</t>
@@ -815,37 +815,37 @@
     <t xml:space="preserve">2.98408055305481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97565054893494</t>
+    <t xml:space="preserve">2.97565078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9537341594696</t>
+    <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
     <t xml:space="preserve">2.95879149436951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315628051758</t>
+    <t xml:space="preserve">2.90315651893616</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84920716285706</t>
+    <t xml:space="preserve">2.8492066860199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86269402503967</t>
+    <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.938560962677</t>
+    <t xml:space="preserve">2.93856072425842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93181681632996</t>
+    <t xml:space="preserve">2.93181705474854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90821385383606</t>
+    <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
     <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8407769203186</t>
+    <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.95710563659668</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">2.97227907180786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745226860046</t>
+    <t xml:space="preserve">2.98745203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91832947731018</t>
+    <t xml:space="preserve">2.9183292388916</t>
   </si>
   <si>
     <t xml:space="preserve">2.91158580780029</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03465819358826</t>
+    <t xml:space="preserve">3.03465795516968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01779890060425</t>
+    <t xml:space="preserve">3.01779913902283</t>
   </si>
   <si>
     <t xml:space="preserve">3.03803014755249</t>
@@ -878,28 +878,28 @@
     <t xml:space="preserve">3.00431156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05657505989075</t>
+    <t xml:space="preserve">3.05657482147217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15098690986633</t>
+    <t xml:space="preserve">3.15098667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11895442008972</t>
+    <t xml:space="preserve">3.11895418167114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396492958069</t>
+    <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454257011414</t>
+    <t xml:space="preserve">3.02454280853271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285671234131</t>
+    <t xml:space="preserve">3.02285647392273</t>
   </si>
   <si>
     <t xml:space="preserve">3.02117085456848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89135479927063</t>
+    <t xml:space="preserve">2.89135503768921</t>
   </si>
   <si>
     <t xml:space="preserve">2.90147018432617</t>
@@ -908,16 +908,16 @@
     <t xml:space="preserve">2.93013119697571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81548810005188</t>
+    <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8744957447052</t>
+    <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
     <t xml:space="preserve">2.96890735626221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99251008033752</t>
+    <t xml:space="preserve">2.99250984191895</t>
   </si>
   <si>
     <t xml:space="preserve">2.96384930610657</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">2.87280964851379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96047759056091</t>
+    <t xml:space="preserve">2.96047782897949</t>
   </si>
   <si>
     <t xml:space="preserve">2.90484237670898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8795530796051</t>
+    <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
     <t xml:space="preserve">2.93350291252136</t>
@@ -947,37 +947,37 @@
     <t xml:space="preserve">2.68061470985413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69747400283813</t>
+    <t xml:space="preserve">2.69747376441956</t>
   </si>
   <si>
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904423713684</t>
+    <t xml:space="preserve">2.68904447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63003706932068</t>
+    <t xml:space="preserve">2.63003730773926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57945919036865</t>
+    <t xml:space="preserve">2.57945966720581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60474824905396</t>
+    <t xml:space="preserve">2.60474801063538</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59631872177124</t>
+    <t xml:space="preserve">2.59631848335266</t>
   </si>
   <si>
     <t xml:space="preserve">2.55417037010193</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58788895606995</t>
+    <t xml:space="preserve">2.58788871765137</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61317777633667</t>
+    <t xml:space="preserve">2.61317801475525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160730361938</t>
+    <t xml:space="preserve">2.62160754203796</t>
   </si>
   <si>
     <t xml:space="preserve">2.6553258895874</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.79019951820374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0599467754364</t>
+    <t xml:space="preserve">3.05994725227356</t>
   </si>
   <si>
     <t xml:space="preserve">2.96281099319458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94553518295288</t>
+    <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463842391968</t>
+    <t xml:space="preserve">3.0146381855011</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872470855713</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">2.99736285209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417284965515</t>
+    <t xml:space="preserve">2.95417308807373</t>
   </si>
   <si>
     <t xml:space="preserve">2.85915565490723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8159658908844</t>
+    <t xml:space="preserve">2.81596612930298</t>
   </si>
   <si>
     <t xml:space="preserve">2.8332417011261</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">2.79005217552185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79869031906128</t>
+    <t xml:space="preserve">2.7986900806427</t>
   </si>
   <si>
     <t xml:space="preserve">2.7641384601593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77277612686157</t>
+    <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6863968372345</t>
+    <t xml:space="preserve">2.68639707565308</t>
   </si>
   <si>
     <t xml:space="preserve">2.72958660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.67775917053223</t>
   </si>
   <si>
     <t xml:space="preserve">2.59137964248657</t>
@@ -1058,22 +1058,22 @@
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094869613647</t>
+    <t xml:space="preserve">2.72094893455505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550079345703</t>
+    <t xml:space="preserve">2.75550031661987</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70367312431335</t>
+    <t xml:space="preserve">2.70367288589478</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503498077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048336029053</t>
+    <t xml:space="preserve">2.66048312187195</t>
   </si>
   <si>
     <t xml:space="preserve">2.600017786026</t>
@@ -1082,34 +1082,34 @@
     <t xml:space="preserve">2.60865569114685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410383224487</t>
+    <t xml:space="preserve">2.57410407066345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5654661655426</t>
+    <t xml:space="preserve">2.56546592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54819011688232</t>
+    <t xml:space="preserve">2.5481903553009</t>
   </si>
   <si>
     <t xml:space="preserve">2.55682826042175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6172935962677</t>
+    <t xml:space="preserve">2.61729335784912</t>
   </si>
   <si>
     <t xml:space="preserve">2.6345694065094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66912078857422</t>
+    <t xml:space="preserve">2.6691210269928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80732822418213</t>
+    <t xml:space="preserve">2.80732798576355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82460379600525</t>
+    <t xml:space="preserve">2.82460403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84187984466553</t>
+    <t xml:space="preserve">2.84187960624695</t>
   </si>
   <si>
     <t xml:space="preserve">2.85051774978638</t>
@@ -1124,7 +1124,7 @@
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8677933216095</t>
+    <t xml:space="preserve">2.86779356002808</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689727783203</t>
+    <t xml:space="preserve">2.93689703941345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327632904053</t>
+    <t xml:space="preserve">3.02327656745911</t>
   </si>
   <si>
     <t xml:space="preserve">3.06646585464478</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04055237770081</t>
+    <t xml:space="preserve">3.04055213928223</t>
   </si>
   <si>
     <t xml:space="preserve">3.00600051879883</t>
@@ -1154,19 +1154,16 @@
     <t xml:space="preserve">3.03191423416138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98008680343628</t>
+    <t xml:space="preserve">2.9800865650177</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97144865989685</t>
+    <t xml:space="preserve">2.97144889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07510375976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9455349445343</t>
+    <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
     <t xml:space="preserve">2.91875743865967</t>
@@ -1245,6 +1242,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.68668484687805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205574989319</t>
@@ -24413,7 +24413,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24439,7 +24439,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24465,7 +24465,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G861" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24491,7 +24491,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G862" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24517,7 +24517,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G863" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24543,7 +24543,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G864" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24569,7 +24569,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G865" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24595,7 +24595,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G866" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24621,7 +24621,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G867" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24647,7 +24647,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G868" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24673,7 +24673,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G869" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24699,7 +24699,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G870" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24725,7 +24725,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24751,7 +24751,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G872" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24777,7 +24777,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24803,7 +24803,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G874" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24829,7 +24829,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G875" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24855,7 +24855,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24881,7 +24881,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24907,7 +24907,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G878" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24933,7 +24933,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G879" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24959,7 +24959,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G880" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24985,7 +24985,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G881" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25011,7 +25011,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G882" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25037,7 +25037,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G883" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25063,7 +25063,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G884" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25089,7 +25089,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G885" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25115,7 +25115,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G886" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25141,7 +25141,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G887" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25167,7 +25167,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25193,7 +25193,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25219,7 +25219,7 @@
         <v>3.25</v>
       </c>
       <c r="G890" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25245,7 +25245,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G891" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25271,7 +25271,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25297,7 +25297,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25323,7 +25323,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G894" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25349,7 +25349,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G895" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25375,7 +25375,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G896" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25401,7 +25401,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G897" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25427,7 +25427,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25453,7 +25453,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G899" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25479,7 +25479,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G900" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25505,7 +25505,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G901" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25531,7 +25531,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G902" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25557,7 +25557,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25583,7 +25583,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G904" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25609,7 +25609,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25635,7 +25635,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25661,7 +25661,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G907" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25687,7 +25687,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G908" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25713,7 +25713,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25739,7 +25739,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25765,7 +25765,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25791,7 +25791,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G912" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25817,7 +25817,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G913" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25843,7 +25843,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25869,7 +25869,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25895,7 +25895,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G916" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25921,7 +25921,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G917" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25947,7 +25947,7 @@
         <v>3</v>
       </c>
       <c r="G918" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26077,7 +26077,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G923" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26103,7 +26103,7 @@
         <v>3</v>
       </c>
       <c r="G924" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="G926" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26181,7 +26181,7 @@
         <v>3</v>
       </c>
       <c r="G927" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26415,7 +26415,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26441,7 +26441,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G937" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27143,7 +27143,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G964" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27169,7 +27169,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G965" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27195,7 +27195,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G966" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27221,7 +27221,7 @@
         <v>3</v>
       </c>
       <c r="G967" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27377,7 +27377,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27403,7 +27403,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G974" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27429,7 +27429,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G975" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27455,7 +27455,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G976" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27611,7 +27611,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27637,7 +27637,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G983" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27689,7 +27689,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G985" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27741,7 +27741,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G987" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27793,7 +27793,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27819,7 +27819,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27845,7 +27845,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27871,7 +27871,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G992" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27897,7 +27897,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27923,7 +27923,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G994" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27949,7 +27949,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G995" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27975,7 +27975,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G996" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28001,7 +28001,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G997" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28027,7 +28027,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G998" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28053,7 +28053,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G999" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28079,7 +28079,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1000" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28105,7 +28105,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1001" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28131,7 +28131,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1002" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28157,7 +28157,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1003" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28183,7 +28183,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1004" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28209,7 +28209,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1005" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28235,7 +28235,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1006" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28261,7 +28261,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1007" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28287,7 +28287,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1008" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28313,7 +28313,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1009" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28339,7 +28339,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1010" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28365,7 +28365,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1011" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28391,7 +28391,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1012" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28417,7 +28417,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1013" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28443,7 +28443,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1014" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28469,7 +28469,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1015" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28495,7 +28495,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1016" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28521,7 +28521,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1017" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28547,7 +28547,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1018" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28573,7 +28573,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1019" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28599,7 +28599,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1020" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28625,7 +28625,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1021" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28651,7 +28651,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1022" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28729,7 +28729,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1025" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28755,7 +28755,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1026" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28781,7 +28781,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1027" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28807,7 +28807,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1028" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28833,7 +28833,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1029" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28911,7 +28911,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1032" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28937,7 +28937,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1033" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28963,7 +28963,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1034" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28989,7 +28989,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1035" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29015,7 +29015,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1036" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29041,7 +29041,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1037" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29067,7 +29067,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1038" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29197,7 +29197,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29223,7 +29223,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1044" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29249,7 +29249,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1045" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29275,7 +29275,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29301,7 +29301,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1047" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29327,7 +29327,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29405,7 +29405,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1051" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29431,7 +29431,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1052" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29457,7 +29457,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1053" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29483,7 +29483,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1054" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29509,7 +29509,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1055" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29535,7 +29535,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1056" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29561,7 +29561,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29587,7 +29587,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1058" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29613,7 +29613,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1059" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30159,7 +30159,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1080" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30445,7 +30445,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1091" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30523,7 +30523,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1094" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30601,7 +30601,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1097" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30627,7 +30627,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1098" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30653,7 +30653,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1099" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30679,7 +30679,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30705,7 +30705,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31017,7 +31017,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1113" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31381,7 +31381,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31433,7 +31433,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31459,7 +31459,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1130" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31641,7 +31641,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31667,7 +31667,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32161,7 +32161,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1157" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32187,7 +32187,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1158" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32213,7 +32213,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32707,7 +32707,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1178" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32733,7 +32733,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1179" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32811,7 +32811,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1182" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32837,7 +32837,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1183" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32863,7 +32863,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32889,7 +32889,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1185" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32993,7 +32993,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33097,7 +33097,7 @@
         <v>3</v>
       </c>
       <c r="G1193" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33123,7 +33123,7 @@
         <v>3</v>
       </c>
       <c r="G1194" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33149,7 +33149,7 @@
         <v>3</v>
       </c>
       <c r="G1195" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33175,7 +33175,7 @@
         <v>3</v>
       </c>
       <c r="G1196" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33201,7 +33201,7 @@
         <v>3</v>
       </c>
       <c r="G1197" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33227,7 +33227,7 @@
         <v>3</v>
       </c>
       <c r="G1198" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33253,7 +33253,7 @@
         <v>3</v>
       </c>
       <c r="G1199" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34813,7 +34813,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34943,7 +34943,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1264" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34969,7 +34969,7 @@
         <v>3.25</v>
       </c>
       <c r="G1265" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35021,7 +35021,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1267" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35047,7 +35047,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1268" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35073,7 +35073,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1269" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35099,7 +35099,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1270" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35125,7 +35125,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1271" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35151,7 +35151,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1272" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35177,7 +35177,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1273" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35203,7 +35203,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1274" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35229,7 +35229,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35255,7 +35255,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1276" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35281,7 +35281,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35307,7 +35307,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1278" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35333,7 +35333,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1279" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35411,7 +35411,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1282" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35437,7 +35437,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1283" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35463,7 +35463,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1284" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35489,7 +35489,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1285" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35515,7 +35515,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1286" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35541,7 +35541,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1287" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35567,7 +35567,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1288" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35619,7 +35619,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1290" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35671,7 +35671,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1292" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35697,7 +35697,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1293" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35723,7 +35723,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1294" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35749,7 +35749,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1295" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35775,7 +35775,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1296" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35801,7 +35801,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1297" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35879,7 +35879,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1300" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35931,7 +35931,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1302" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36009,7 +36009,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36035,7 +36035,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36061,7 +36061,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1307" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36087,7 +36087,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1308" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36165,7 +36165,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1311" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36191,7 +36191,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1312" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36217,7 +36217,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1313" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36243,7 +36243,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1314" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36321,7 +36321,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1317" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36529,7 +36529,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1325" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36555,7 +36555,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1326" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36581,7 +36581,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1327" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36607,7 +36607,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1328" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36659,7 +36659,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36711,7 +36711,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1332" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36737,7 +36737,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36763,7 +36763,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1334" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36945,7 +36945,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1341" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37179,7 +37179,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37205,7 +37205,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1351" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37231,7 +37231,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1352" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37257,7 +37257,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1353" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37465,7 +37465,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1361" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37491,7 +37491,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1362" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37517,7 +37517,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1363" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37543,7 +37543,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1364" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37569,7 +37569,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1365" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37595,7 +37595,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1366" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37621,7 +37621,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1367" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37699,7 +37699,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1370" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37725,7 +37725,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1371" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37751,7 +37751,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1372" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37777,7 +37777,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37855,7 +37855,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1376" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37907,7 +37907,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1378" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37959,7 +37959,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1380" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38011,7 +38011,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1382" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38037,7 +38037,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1383" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38089,7 +38089,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1385" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38141,7 +38141,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38219,7 +38219,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1390" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38245,7 +38245,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38271,7 +38271,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38297,7 +38297,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1393" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38323,7 +38323,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1394" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38349,7 +38349,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38375,7 +38375,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1396" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38401,7 +38401,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38427,7 +38427,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38453,7 +38453,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38479,7 +38479,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38505,7 +38505,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1401" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38531,7 +38531,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38557,7 +38557,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1403" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38583,7 +38583,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1404" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38609,7 +38609,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1405" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38635,7 +38635,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38661,7 +38661,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1407" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38687,7 +38687,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38713,7 +38713,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1409" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38739,7 +38739,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38765,7 +38765,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1411" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38791,7 +38791,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1412" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38817,7 +38817,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1413" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38843,7 +38843,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1414" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38895,7 +38895,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38921,7 +38921,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1417" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38947,7 +38947,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1418" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38999,7 +38999,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1420" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39077,7 +39077,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1423" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39103,7 +39103,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1424" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39311,7 +39311,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1432" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39337,7 +39337,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1433" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39597,7 +39597,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1443" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39623,7 +39623,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1444" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39649,7 +39649,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1445" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39727,7 +39727,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1448" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39831,7 +39831,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39857,7 +39857,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39883,7 +39883,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39909,7 +39909,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1455" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42743,7 +42743,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1564" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42769,7 +42769,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1565" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42795,7 +42795,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1566" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42821,7 +42821,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42847,7 +42847,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42873,7 +42873,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1569" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42899,7 +42899,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1570" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42925,7 +42925,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1571" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42951,7 +42951,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1572" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42977,7 +42977,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1573" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43029,7 +43029,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1575" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43055,7 +43055,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1576" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43081,7 +43081,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43107,7 +43107,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1578" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43159,7 +43159,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1580" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43939,7 +43939,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1610" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43991,7 +43991,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1612" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44043,7 +44043,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1614" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44147,7 +44147,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1618" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44173,7 +44173,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1619" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44199,7 +44199,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1620" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44225,7 +44225,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1621" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -58585,7 +58585,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.3821064815</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>6000</v>
@@ -58606,6 +58606,32 @@
         <v>577</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.5278240741</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>3.20000004768372</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>566</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33370757102966</t>
+    <t xml:space="preserve">2.33370780944824</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397939682007</t>
+    <t xml:space="preserve">2.30397891998291</t>
   </si>
   <si>
     <t xml:space="preserve">2.17185139656067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21974778175354</t>
+    <t xml:space="preserve">2.21974754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836736679077</t>
+    <t xml:space="preserve">2.18836712837219</t>
   </si>
   <si>
     <t xml:space="preserve">2.17019987106323</t>
@@ -68,10 +68,10 @@
     <t xml:space="preserve">2.09752941131592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08927154541016</t>
+    <t xml:space="preserve">2.089271068573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
     <t xml:space="preserve">2.00504016876221</t>
@@ -80,40 +80,40 @@
     <t xml:space="preserve">2.09257459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1140456199646</t>
+    <t xml:space="preserve">2.11404538154602</t>
   </si>
   <si>
     <t xml:space="preserve">2.14542603492737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0628457069397</t>
+    <t xml:space="preserve">2.06284594535828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449770927429</t>
+    <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972339630127</t>
+    <t xml:space="preserve">2.03972363471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0364203453064</t>
+    <t xml:space="preserve">2.03642010688782</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852407932281</t>
+    <t xml:space="preserve">1.98852384090424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660132408142</t>
+    <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365963459015</t>
+    <t xml:space="preserve">1.97365975379944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119418144226</t>
+    <t xml:space="preserve">2.06119441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017560482025</t>
+    <t xml:space="preserve">1.99017596244812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329803466797</t>
+    <t xml:space="preserve">2.01329779624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.11734843254089</t>
@@ -125,37 +125,37 @@
     <t xml:space="preserve">2.32875323295593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3535270690918</t>
+    <t xml:space="preserve">2.35352730751038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223726272583</t>
+    <t xml:space="preserve">2.31223702430725</t>
   </si>
   <si>
     <t xml:space="preserve">2.22139930725098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14707732200623</t>
+    <t xml:space="preserve">2.1470775604248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716769218445</t>
+    <t xml:space="preserve">2.13716793060303</t>
   </si>
   <si>
     <t xml:space="preserve">2.28746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36839151382446</t>
+    <t xml:space="preserve">2.36839127540588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739696502686</t>
+    <t xml:space="preserve">2.47739744186401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34526920318604</t>
+    <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
     <t xml:space="preserve">2.42124247550964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39481711387634</t>
+    <t xml:space="preserve">2.39481735229492</t>
   </si>
   <si>
     <t xml:space="preserve">2.4740936756134</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117625236511</t>
+    <t xml:space="preserve">2.61117649078369</t>
   </si>
   <si>
     <t xml:space="preserve">2.54180932044983</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51703572273254</t>
+    <t xml:space="preserve">2.51703548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868629455566</t>
+    <t xml:space="preserve">2.5186870098114</t>
   </si>
   <si>
     <t xml:space="preserve">2.47244238853455</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">2.48895835876465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49391269683838</t>
+    <t xml:space="preserve">2.49391317367554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253228187561</t>
+    <t xml:space="preserve">2.46253252029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43610692024231</t>
+    <t xml:space="preserve">2.43610715866089</t>
   </si>
   <si>
     <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106197357178</t>
+    <t xml:space="preserve">2.4410617351532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42454600334167</t>
+    <t xml:space="preserve">2.4245457649231</t>
   </si>
   <si>
     <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2114896774292</t>
+    <t xml:space="preserve">2.21148943901062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14047074317932</t>
+    <t xml:space="preserve">2.14047145843506</t>
   </si>
   <si>
     <t xml:space="preserve">2.16854810714722</t>
@@ -251,28 +251,28 @@
     <t xml:space="preserve">2.08957242965698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02772116661072</t>
+    <t xml:space="preserve">2.02772092819214</t>
   </si>
   <si>
     <t xml:space="preserve">2.04778099060059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03942251205444</t>
+    <t xml:space="preserve">2.03942275047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02270603179932</t>
+    <t xml:space="preserve">2.02270650863647</t>
   </si>
   <si>
     <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255635261536</t>
+    <t xml:space="preserve">1.97255599498749</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431799888611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927283287048</t>
+    <t xml:space="preserve">1.98927307128906</t>
   </si>
   <si>
     <t xml:space="preserve">1.64825475215912</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207716464996</t>
+    <t xml:space="preserve">1.81207728385925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195715904236</t>
+    <t xml:space="preserve">1.77195739746094</t>
   </si>
   <si>
     <t xml:space="preserve">1.75356912612915</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">1.72180771827698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73852431774139</t>
+    <t xml:space="preserve">1.73852407932281</t>
   </si>
   <si>
     <t xml:space="preserve">1.68837451934814</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">1.75524079799652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855411052704</t>
+    <t xml:space="preserve">1.74855422973633</t>
   </si>
   <si>
     <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344947814941</t>
+    <t xml:space="preserve">1.71344923973083</t>
   </si>
   <si>
     <t xml:space="preserve">1.68001616001129</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">1.87225699424744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9641979932785</t>
+    <t xml:space="preserve">1.96419811248779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754169464111</t>
+    <t xml:space="preserve">1.96754157543182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613946914673</t>
+    <t xml:space="preserve">2.05613923072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933289527893</t>
+    <t xml:space="preserve">2.00933265686035</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604961395264</t>
+    <t xml:space="preserve">2.02604913711548</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443788528442</t>
+    <t xml:space="preserve">2.04443740844727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07787084579468</t>
+    <t xml:space="preserve">2.07787108421326</t>
   </si>
   <si>
     <t xml:space="preserve">2.05781078338623</t>
@@ -353,40 +353,40 @@
     <t xml:space="preserve">1.97088479995728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413816928864</t>
+    <t xml:space="preserve">1.94413828849792</t>
   </si>
   <si>
     <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103424072266</t>
+    <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763095378876</t>
+    <t xml:space="preserve">1.99763119220734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07118391990662</t>
+    <t xml:space="preserve">2.0711841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07285618782043</t>
+    <t xml:space="preserve">2.07285594940186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625887870789</t>
+    <t xml:space="preserve">2.09625864028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464738845825</t>
+    <t xml:space="preserve">2.11464715003967</t>
   </si>
   <si>
     <t xml:space="preserve">2.19823026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1882004737854</t>
+    <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
     <t xml:space="preserve">2.18652868270874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643858909607</t>
+    <t xml:space="preserve">2.15643882751465</t>
   </si>
   <si>
     <t xml:space="preserve">2.16312551498413</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">2.19655871391296</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2316632270813</t>
+    <t xml:space="preserve">2.23166346549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330522537231</t>
+    <t xml:space="preserve">2.22330498695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29685807228088</t>
+    <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
     <t xml:space="preserve">2.3319628238678</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">2.34700775146484</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38044095039368</t>
+    <t xml:space="preserve">2.3804407119751</t>
   </si>
   <si>
     <t xml:space="preserve">2.35536599159241</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">2.32360458374023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855941772461</t>
+    <t xml:space="preserve">2.30855917930603</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33864974975586</t>
+    <t xml:space="preserve">2.33864951133728</t>
   </si>
   <si>
     <t xml:space="preserve">2.31691789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533596038818</t>
+    <t xml:space="preserve">2.34533619880676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539602279663</t>
+    <t xml:space="preserve">2.36539578437805</t>
   </si>
   <si>
     <t xml:space="preserve">2.36372447013855</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">2.26008152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2951865196228</t>
+    <t xml:space="preserve">2.29518628120422</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25673818588257</t>
+    <t xml:space="preserve">2.25673842430115</t>
   </si>
   <si>
     <t xml:space="preserve">2.30521631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24670815467834</t>
+    <t xml:space="preserve">2.24670791625977</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14808058738708</t>
+    <t xml:space="preserve">2.14808082580566</t>
   </si>
   <si>
     <t xml:space="preserve">2.17984199523926</t>
@@ -473,55 +473,55 @@
     <t xml:space="preserve">2.21494674682617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324516296387</t>
+    <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011132240295</t>
+    <t xml:space="preserve">2.27011156082153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506687164307</t>
+    <t xml:space="preserve">2.25506663322449</t>
   </si>
   <si>
     <t xml:space="preserve">2.1898717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339531898499</t>
+    <t xml:space="preserve">2.25339508056641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19154334068298</t>
+    <t xml:space="preserve">2.19154357910156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990158081055</t>
+    <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24336528778076</t>
+    <t xml:space="preserve">2.2433648109436</t>
   </si>
   <si>
     <t xml:space="preserve">2.14139366149902</t>
   </si>
   <si>
-    <t xml:space="preserve">2.146409034729</t>
+    <t xml:space="preserve">2.14640879631042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.183185338974</t>
+    <t xml:space="preserve">2.18318510055542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688786506653</t>
+    <t xml:space="preserve">2.30688810348511</t>
   </si>
   <si>
     <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554594039917</t>
+    <t xml:space="preserve">2.41554570198059</t>
   </si>
   <si>
     <t xml:space="preserve">2.42223215103149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551614761353</t>
+    <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45900845527649</t>
+    <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
     <t xml:space="preserve">2.37709784507751</t>
@@ -530,25 +530,25 @@
     <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50748682022095</t>
+    <t xml:space="preserve">2.50748705863953</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54927825927734</t>
+    <t xml:space="preserve">2.54927849769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.48909854888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46569538116455</t>
+    <t xml:space="preserve">2.46569561958313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53256154060364</t>
+    <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
     <t xml:space="preserve">2.48241209983826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39715790748596</t>
+    <t xml:space="preserve">2.39715719223022</t>
   </si>
   <si>
     <t xml:space="preserve">2.43894910812378</t>
@@ -560,37 +560,37 @@
     <t xml:space="preserve">2.4991283416748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50414371490479</t>
+    <t xml:space="preserve">2.50414347648621</t>
   </si>
   <si>
     <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45399403572083</t>
+    <t xml:space="preserve">2.45399379730225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46402382850647</t>
+    <t xml:space="preserve">2.46402359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39882922172546</t>
+    <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390394210815</t>
+    <t xml:space="preserve">2.42390418052673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5994279384613</t>
+    <t xml:space="preserve">2.59942770004272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64790630340576</t>
+    <t xml:space="preserve">2.64790606498718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62450337409973</t>
+    <t xml:space="preserve">2.62450289726257</t>
   </si>
   <si>
     <t xml:space="preserve">2.67298102378845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64957809448242</t>
+    <t xml:space="preserve">2.64957785606384</t>
   </si>
   <si>
     <t xml:space="preserve">2.78163886070251</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">2.84181833267212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847498893738</t>
+    <t xml:space="preserve">2.83847546577454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513212203979</t>
+    <t xml:space="preserve">2.83513188362122</t>
   </si>
   <si>
     <t xml:space="preserve">2.81674337387085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346009254456</t>
+    <t xml:space="preserve">2.83346033096313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77328062057495</t>
+    <t xml:space="preserve">2.77328038215637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811556816101</t>
+    <t xml:space="preserve">2.71811580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172871589661</t>
+    <t xml:space="preserve">2.81172847747803</t>
   </si>
   <si>
     <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659369468689</t>
+    <t xml:space="preserve">2.76659417152405</t>
   </si>
   <si>
     <t xml:space="preserve">2.75154876708984</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495193481445</t>
+    <t xml:space="preserve">2.77495217323303</t>
   </si>
   <si>
     <t xml:space="preserve">2.79166865348816</t>
@@ -638,19 +638,19 @@
     <t xml:space="preserve">2.74486207962036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319052696228</t>
+    <t xml:space="preserve">2.74319100379944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67465281486511</t>
+    <t xml:space="preserve">2.67465257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823569297791</t>
+    <t xml:space="preserve">2.75823521614075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316073417664</t>
+    <t xml:space="preserve">2.73316049575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78331017494202</t>
+    <t xml:space="preserve">2.7833104133606</t>
   </si>
   <si>
     <t xml:space="preserve">2.73817563056946</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">2.79835557937622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002689361572</t>
+    <t xml:space="preserve">2.8000271320343</t>
   </si>
   <si>
     <t xml:space="preserve">3.02068591117859</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">2.97387957572937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95883464813232</t>
+    <t xml:space="preserve">2.95883440971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384906768799</t>
+    <t xml:space="preserve">2.96384954452515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856484413147</t>
+    <t xml:space="preserve">2.86856532096863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96552133560181</t>
+    <t xml:space="preserve">2.96552109718323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99728274345398</t>
+    <t xml:space="preserve">2.9972825050354</t>
   </si>
   <si>
     <t xml:space="preserve">3.00898432731628</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">2.86355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859487533569</t>
+    <t xml:space="preserve">2.87859511375427</t>
   </si>
   <si>
     <t xml:space="preserve">2.94867610931396</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">3.00936913490295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96216368675232</t>
+    <t xml:space="preserve">2.96216344833374</t>
   </si>
   <si>
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622842788696</t>
+    <t xml:space="preserve">3.02622818946838</t>
   </si>
   <si>
     <t xml:space="preserve">2.97733664512634</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">2.87112379074097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80705857276917</t>
+    <t xml:space="preserve">2.80705881118774</t>
   </si>
   <si>
     <t xml:space="preserve">2.7564811706543</t>
@@ -734,37 +734,37 @@
     <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624992370605</t>
+    <t xml:space="preserve">2.73625016212463</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75816702842712</t>
+    <t xml:space="preserve">2.75816679000854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502608299255</t>
+    <t xml:space="preserve">2.77502632141113</t>
   </si>
   <si>
     <t xml:space="preserve">2.83234739303589</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88966917991638</t>
+    <t xml:space="preserve">2.8896689414978</t>
   </si>
   <si>
     <t xml:space="preserve">2.88629698753357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85763645172119</t>
+    <t xml:space="preserve">2.85763669013977</t>
   </si>
   <si>
     <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123941421509</t>
+    <t xml:space="preserve">2.88123917579651</t>
   </si>
   <si>
     <t xml:space="preserve">2.94193267822266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9267590045929</t>
+    <t xml:space="preserve">2.92675924301147</t>
   </si>
   <si>
     <t xml:space="preserve">2.9672212600708</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">2.93518877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699001312256</t>
+    <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
     <t xml:space="preserve">2.92507314682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91664361953735</t>
+    <t xml:space="preserve">2.91664338111877</t>
   </si>
   <si>
     <t xml:space="preserve">2.93687462806702</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">2.96553564071655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8997848033905</t>
+    <t xml:space="preserve">2.89978432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001557350159</t>
+    <t xml:space="preserve">2.92001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024658203125</t>
+    <t xml:space="preserve">2.94024634361267</t>
   </si>
   <si>
     <t xml:space="preserve">2.91495752334595</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">2.97565102577209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95373392105103</t>
+    <t xml:space="preserve">2.95373368263245</t>
   </si>
   <si>
     <t xml:space="preserve">2.95879149436951</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">2.84920692443848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86269402503967</t>
+    <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
     <t xml:space="preserve">2.93856048583984</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86943817138672</t>
+    <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
     <t xml:space="preserve">2.8407769203186</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">3.01779890060425</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03803014755249</t>
+    <t xml:space="preserve">3.03803038597107</t>
   </si>
   <si>
     <t xml:space="preserve">3.07680630683899</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00431156158447</t>
+    <t xml:space="preserve">3.00431180000305</t>
   </si>
   <si>
     <t xml:space="preserve">3.05657505989075</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">3.11895418167114</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396540641785</t>
+    <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454280853271</t>
+    <t xml:space="preserve">3.02454257011414</t>
   </si>
   <si>
     <t xml:space="preserve">3.02285671234131</t>
@@ -911,13 +911,10 @@
     <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96890711784363</t>
+    <t xml:space="preserve">2.96890735626221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99251008033752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.99250984191895</t>
   </si>
   <si>
     <t xml:space="preserve">2.87280964851379</t>
@@ -938,7 +935,7 @@
     <t xml:space="preserve">2.79862904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962187767029</t>
+    <t xml:space="preserve">2.73962163925171</t>
   </si>
   <si>
     <t xml:space="preserve">2.68061494827271</t>
@@ -950,7 +947,7 @@
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904447555542</t>
+    <t xml:space="preserve">2.68904423713684</t>
   </si>
   <si>
     <t xml:space="preserve">2.63003706932068</t>
@@ -959,13 +956,13 @@
     <t xml:space="preserve">2.57945919036865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60474801063538</t>
+    <t xml:space="preserve">2.60474824905396</t>
   </si>
   <si>
     <t xml:space="preserve">2.59631848335266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417037010193</t>
+    <t xml:space="preserve">2.55417060852051</t>
   </si>
   <si>
     <t xml:space="preserve">2.58788895606995</t>
@@ -974,16 +971,16 @@
     <t xml:space="preserve">2.61317777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160730361938</t>
+    <t xml:space="preserve">2.62160706520081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553258895874</t>
+    <t xml:space="preserve">2.65532565116882</t>
   </si>
   <si>
     <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79019951820374</t>
+    <t xml:space="preserve">2.79019975662231</t>
   </si>
   <si>
     <t xml:space="preserve">3.05994701385498</t>
@@ -998,7 +995,7 @@
     <t xml:space="preserve">3.01463866233826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98872470855713</t>
+    <t xml:space="preserve">2.98872447013855</t>
   </si>
   <si>
     <t xml:space="preserve">2.99736285209656</t>
@@ -1007,7 +1004,7 @@
     <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85915565490723</t>
+    <t xml:space="preserve">2.85915589332581</t>
   </si>
   <si>
     <t xml:space="preserve">2.8159658908844</t>
@@ -1031,13 +1028,13 @@
     <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68639707565308</t>
+    <t xml:space="preserve">2.6863968372345</t>
   </si>
   <si>
     <t xml:space="preserve">2.7295868396759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.67775869369507</t>
   </si>
   <si>
     <t xml:space="preserve">2.59137988090515</t>
@@ -1055,7 +1052,7 @@
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094893455505</t>
+    <t xml:space="preserve">2.72094869613647</t>
   </si>
   <si>
     <t xml:space="preserve">2.75550055503845</t>
@@ -1064,16 +1061,16 @@
     <t xml:space="preserve">2.64320731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70367312431335</t>
+    <t xml:space="preserve">2.70367288589478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69503474235535</t>
+    <t xml:space="preserve">2.69503450393677</t>
   </si>
   <si>
     <t xml:space="preserve">2.66048288345337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60001754760742</t>
+    <t xml:space="preserve">2.600017786026</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
@@ -1091,10 +1088,10 @@
     <t xml:space="preserve">2.55682826042175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61729335784912</t>
+    <t xml:space="preserve">2.6172935962677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6345694065094</t>
+    <t xml:space="preserve">2.63456964492798</t>
   </si>
   <si>
     <t xml:space="preserve">2.6691210269928</t>
@@ -1121,7 +1118,7 @@
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8677933216095</t>
+    <t xml:space="preserve">2.86779356002808</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
@@ -1151,13 +1148,13 @@
     <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98008704185486</t>
+    <t xml:space="preserve">2.98008680343628</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97144889831543</t>
+    <t xml:space="preserve">2.97144865989685</t>
   </si>
   <si>
     <t xml:space="preserve">3.0751039981842</t>
@@ -1242,6 +1239,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.68668508529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205551147461</t>
@@ -15033,7 +15033,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15137,7 +15137,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G502" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15215,7 +15215,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G505" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15267,7 +15267,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G507" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15293,7 +15293,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15527,7 +15527,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15683,7 +15683,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G523" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16125,7 +16125,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G540" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16151,7 +16151,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16177,7 +16177,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G542" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16203,7 +16203,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16229,7 +16229,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G544" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16255,7 +16255,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16281,7 +16281,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G546" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16307,7 +16307,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G547" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16333,7 +16333,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G548" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16359,7 +16359,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16385,7 +16385,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G550" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16411,7 +16411,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G551" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16437,7 +16437,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G552" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16463,7 +16463,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G553" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16489,7 +16489,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G554" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16515,7 +16515,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16541,7 +16541,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G556" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16567,7 +16567,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G557" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16593,7 +16593,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G558" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16619,7 +16619,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G559" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16645,7 +16645,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16671,7 +16671,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16697,7 +16697,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16723,7 +16723,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G563" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16749,7 +16749,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16775,7 +16775,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G565" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17061,7 +17061,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G576" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17373,7 +17373,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G588" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17503,7 +17503,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G593" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17633,7 +17633,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17763,7 +17763,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G603" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17893,7 +17893,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17919,7 +17919,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G609" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17945,7 +17945,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G610" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17971,7 +17971,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17997,7 +17997,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G612" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18023,7 +18023,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18049,7 +18049,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18075,7 +18075,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G615" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18101,7 +18101,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G616" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18127,7 +18127,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18153,7 +18153,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G618" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18179,7 +18179,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G619" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18205,7 +18205,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18231,7 +18231,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18257,7 +18257,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18283,7 +18283,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18309,7 +18309,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18335,7 +18335,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18361,7 +18361,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18387,7 +18387,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G627" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18413,7 +18413,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G628" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18439,7 +18439,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G629" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18465,7 +18465,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G630" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18491,7 +18491,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G631" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18517,7 +18517,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18543,7 +18543,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18569,7 +18569,7 @@
         <v>3</v>
       </c>
       <c r="G634" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18595,7 +18595,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G635" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18621,7 +18621,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G636" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18647,7 +18647,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G637" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18673,7 +18673,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G638" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18699,7 +18699,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G639" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18725,7 +18725,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18751,7 +18751,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G641" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18777,7 +18777,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G642" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18803,7 +18803,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18829,7 +18829,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18855,7 +18855,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18881,7 +18881,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G646" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18907,7 +18907,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18933,7 +18933,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G648" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18959,7 +18959,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18985,7 +18985,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G650" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19011,7 +19011,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19037,7 +19037,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19063,7 +19063,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G653" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19089,7 +19089,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G654" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19115,7 +19115,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G655" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19141,7 +19141,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G656" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19167,7 +19167,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G657" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19193,7 +19193,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19219,7 +19219,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19245,7 +19245,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G660" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19271,7 +19271,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19297,7 +19297,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G662" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19323,7 +19323,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G663" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19349,7 +19349,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G664" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19375,7 +19375,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G665" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19401,7 +19401,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G666" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19427,7 +19427,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G667" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19453,7 +19453,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G668" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19479,7 +19479,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19505,7 +19505,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G670" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19531,7 +19531,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G671" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19557,7 +19557,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19583,7 +19583,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19609,7 +19609,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19635,7 +19635,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G675" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19661,7 +19661,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G676" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19687,7 +19687,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19713,7 +19713,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19739,7 +19739,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G679" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19765,7 +19765,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G680" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19791,7 +19791,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19817,7 +19817,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G682" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19843,7 +19843,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G683" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19869,7 +19869,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G684" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19895,7 +19895,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G685" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19921,7 +19921,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19947,7 +19947,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G687" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19973,7 +19973,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19999,7 +19999,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20025,7 +20025,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G690" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20051,7 +20051,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G691" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20077,7 +20077,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G692" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20103,7 +20103,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G693" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20129,7 +20129,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G694" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20155,7 +20155,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G695" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20181,7 +20181,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G696" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20207,7 +20207,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G697" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20233,7 +20233,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G698" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20259,7 +20259,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G699" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20285,7 +20285,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G700" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20311,7 +20311,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G701" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20337,7 +20337,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G702" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20363,7 +20363,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G703" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20389,7 +20389,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G704" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20415,7 +20415,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G705" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20441,7 +20441,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G706" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20467,7 +20467,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20493,7 +20493,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G708" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20519,7 +20519,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G709" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20545,7 +20545,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20571,7 +20571,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20597,7 +20597,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20623,7 +20623,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20649,7 +20649,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20675,7 +20675,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G715" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20701,7 +20701,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G716" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20727,7 +20727,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G717" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20753,7 +20753,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20779,7 +20779,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G719" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20805,7 +20805,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G720" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20831,7 +20831,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20857,7 +20857,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G722" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20883,7 +20883,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G723" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20909,7 +20909,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G724" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20935,7 +20935,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20961,7 +20961,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20987,7 +20987,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G727" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21013,7 +21013,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G728" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21039,7 +21039,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G729" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21065,7 +21065,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21091,7 +21091,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G731" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21117,7 +21117,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G732" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21143,7 +21143,7 @@
         <v>3.25</v>
       </c>
       <c r="G733" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21169,7 +21169,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G734" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21195,7 +21195,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21221,7 +21221,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21247,7 +21247,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G737" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21273,7 +21273,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21299,7 +21299,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G739" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21325,7 +21325,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G740" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21351,7 +21351,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G741" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21377,7 +21377,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21403,7 +21403,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G743" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21429,7 +21429,7 @@
         <v>3.25</v>
       </c>
       <c r="G744" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21455,7 +21455,7 @@
         <v>3.25</v>
       </c>
       <c r="G745" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21481,7 +21481,7 @@
         <v>3.25</v>
       </c>
       <c r="G746" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21507,7 +21507,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G747" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21533,7 +21533,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G748" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21559,7 +21559,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G749" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21585,7 +21585,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21611,7 +21611,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21637,7 +21637,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G752" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21663,7 +21663,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G753" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21689,7 +21689,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G754" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21715,7 +21715,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21741,7 +21741,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21767,7 +21767,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G757" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21793,7 +21793,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G758" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21819,7 +21819,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G759" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21845,7 +21845,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21871,7 +21871,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21897,7 +21897,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G762" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21923,7 +21923,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G763" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21949,7 +21949,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G764" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21975,7 +21975,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G765" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22001,7 +22001,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G766" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22027,7 +22027,7 @@
         <v>3.25</v>
       </c>
       <c r="G767" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22053,7 +22053,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G768" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22079,7 +22079,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22105,7 +22105,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G770" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22131,7 +22131,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G771" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22157,7 +22157,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G772" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22183,7 +22183,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22209,7 +22209,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G774" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22235,7 +22235,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22261,7 +22261,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22287,7 +22287,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G777" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22313,7 +22313,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G778" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22339,7 +22339,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G779" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22365,7 +22365,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22391,7 +22391,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G781" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22417,7 +22417,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G782" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22443,7 +22443,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G783" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22469,7 +22469,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22495,7 +22495,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G785" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22521,7 +22521,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G786" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22547,7 +22547,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22573,7 +22573,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22599,7 +22599,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G789" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22625,7 +22625,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G790" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22651,7 +22651,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22677,7 +22677,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G792" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22703,7 +22703,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22729,7 +22729,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G794" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22755,7 +22755,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G795" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22781,7 +22781,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G796" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22807,7 +22807,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G797" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22833,7 +22833,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G798" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22859,7 +22859,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22885,7 +22885,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G800" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22911,7 +22911,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G801" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22937,7 +22937,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22963,7 +22963,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22989,7 +22989,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23015,7 +23015,7 @@
         <v>3.5</v>
       </c>
       <c r="G805" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23041,7 +23041,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23067,7 +23067,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G807" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23093,7 +23093,7 @@
         <v>3.5</v>
       </c>
       <c r="G808" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23119,7 +23119,7 @@
         <v>3.5</v>
       </c>
       <c r="G809" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23145,7 +23145,7 @@
         <v>3.5</v>
       </c>
       <c r="G810" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23171,7 +23171,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23197,7 +23197,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23223,7 +23223,7 @@
         <v>3.5</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23249,7 +23249,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23275,7 +23275,7 @@
         <v>3.5</v>
       </c>
       <c r="G815" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23301,7 +23301,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23327,7 +23327,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G817" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23353,7 +23353,7 @@
         <v>3.5</v>
       </c>
       <c r="G818" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23379,7 +23379,7 @@
         <v>3.5</v>
       </c>
       <c r="G819" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23405,7 +23405,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23431,7 +23431,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G821" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23457,7 +23457,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G822" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23483,7 +23483,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23509,7 +23509,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G824" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23535,7 +23535,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G825" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23561,7 +23561,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23587,7 +23587,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23613,7 +23613,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G828" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23639,7 +23639,7 @@
         <v>3.5</v>
       </c>
       <c r="G829" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23665,7 +23665,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G830" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23691,7 +23691,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23717,7 +23717,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G832" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23743,7 +23743,7 @@
         <v>3.5</v>
       </c>
       <c r="G833" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23769,7 +23769,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G834" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23795,7 +23795,7 @@
         <v>3.5</v>
       </c>
       <c r="G835" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23821,7 +23821,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G836" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23847,7 +23847,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G837" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23873,7 +23873,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G838" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23899,7 +23899,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G839" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23925,7 +23925,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23951,7 +23951,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G841" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23977,7 +23977,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G842" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24003,7 +24003,7 @@
         <v>3.5</v>
       </c>
       <c r="G843" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24029,7 +24029,7 @@
         <v>3.5</v>
       </c>
       <c r="G844" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24055,7 +24055,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G845" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24081,7 +24081,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24107,7 +24107,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24133,7 +24133,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G848" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24159,7 +24159,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G849" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24185,7 +24185,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24211,7 +24211,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24237,7 +24237,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G852" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24263,7 +24263,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G853" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24289,7 +24289,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G854" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24315,7 +24315,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G855" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24341,7 +24341,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G856" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24367,7 +24367,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G857" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24393,7 +24393,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G858" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24419,7 +24419,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -24445,7 +24445,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G860" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -24471,7 +24471,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G861" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -24497,7 +24497,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G862" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -24523,7 +24523,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G863" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -24549,7 +24549,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G864" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -24575,7 +24575,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G865" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -24601,7 +24601,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G866" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -24627,7 +24627,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G867" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -24653,7 +24653,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G868" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -24679,7 +24679,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G869" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -24705,7 +24705,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G870" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -24731,7 +24731,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G871" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -24757,7 +24757,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G872" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -24783,7 +24783,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G873" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -24809,7 +24809,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G874" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -24835,7 +24835,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G875" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -24861,7 +24861,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G876" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -24887,7 +24887,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G877" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -24913,7 +24913,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G878" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -24939,7 +24939,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G879" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -24965,7 +24965,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G880" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -24991,7 +24991,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G881" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -25017,7 +25017,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G882" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -25043,7 +25043,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G883" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -25069,7 +25069,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G884" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -25095,7 +25095,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G885" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -25121,7 +25121,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G886" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -25147,7 +25147,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G887" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -25173,7 +25173,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25199,7 +25199,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G889" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -25225,7 +25225,7 @@
         <v>3.25</v>
       </c>
       <c r="G890" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -25251,7 +25251,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G891" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -25277,7 +25277,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25303,7 +25303,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25329,7 +25329,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G894" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -25355,7 +25355,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G895" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -25381,7 +25381,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G896" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -25407,7 +25407,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G897" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -25433,7 +25433,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G898" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -25459,7 +25459,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G899" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -25485,7 +25485,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G900" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -25511,7 +25511,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G901" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -25537,7 +25537,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G902" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -25563,7 +25563,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G903" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -25589,7 +25589,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G904" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -25615,7 +25615,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25641,7 +25641,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -25667,7 +25667,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G907" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -25693,7 +25693,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G908" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -25719,7 +25719,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G909" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -25745,7 +25745,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25771,7 +25771,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25797,7 +25797,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G912" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -25823,7 +25823,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G913" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -25849,7 +25849,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G914" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -25875,7 +25875,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -25901,7 +25901,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G916" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -25927,7 +25927,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G917" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -25953,7 +25953,7 @@
         <v>3</v>
       </c>
       <c r="G918" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -26083,7 +26083,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G923" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -26109,7 +26109,7 @@
         <v>3</v>
       </c>
       <c r="G924" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26161,7 +26161,7 @@
         <v>3</v>
       </c>
       <c r="G926" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26187,7 +26187,7 @@
         <v>3</v>
       </c>
       <c r="G927" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26421,7 +26421,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G936" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -26447,7 +26447,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G937" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -27149,7 +27149,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G964" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -27175,7 +27175,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G965" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -27201,7 +27201,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G966" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -27227,7 +27227,7 @@
         <v>3</v>
       </c>
       <c r="G967" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27383,7 +27383,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G973" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -27409,7 +27409,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G974" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -27435,7 +27435,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G975" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -27461,7 +27461,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G976" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -27617,7 +27617,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G982" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -27643,7 +27643,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G983" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -27695,7 +27695,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G985" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -27747,7 +27747,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G987" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -27799,7 +27799,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -27825,7 +27825,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G990" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -27851,7 +27851,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G991" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -27877,7 +27877,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G992" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -27903,7 +27903,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -27929,7 +27929,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G994" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -27955,7 +27955,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G995" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -27981,7 +27981,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G996" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -28007,7 +28007,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G997" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -28033,7 +28033,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G998" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -28059,7 +28059,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G999" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -28085,7 +28085,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1000" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -28111,7 +28111,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1001" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -28137,7 +28137,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1002" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -28163,7 +28163,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1003" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -28189,7 +28189,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1004" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -28215,7 +28215,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1005" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -28241,7 +28241,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1006" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -28267,7 +28267,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1007" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -28293,7 +28293,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1008" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -28319,7 +28319,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1009" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -28345,7 +28345,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1010" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -28371,7 +28371,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1011" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -28397,7 +28397,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1012" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -28423,7 +28423,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1013" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -28449,7 +28449,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1014" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -28475,7 +28475,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1015" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -28501,7 +28501,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1016" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -28527,7 +28527,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1017" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -28553,7 +28553,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1018" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -28579,7 +28579,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1019" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -28605,7 +28605,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1020" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -28631,7 +28631,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1021" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -28657,7 +28657,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1022" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -28735,7 +28735,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1025" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -28761,7 +28761,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1026" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -28787,7 +28787,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1027" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -28813,7 +28813,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1028" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -28839,7 +28839,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1029" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -28917,7 +28917,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1032" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -28943,7 +28943,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1033" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -28969,7 +28969,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1034" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -28995,7 +28995,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1035" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -29021,7 +29021,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1036" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -29047,7 +29047,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1037" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -29073,7 +29073,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1038" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -29203,7 +29203,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1043" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -29229,7 +29229,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1044" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -29255,7 +29255,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1045" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -29281,7 +29281,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1046" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -29307,7 +29307,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1047" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -29333,7 +29333,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1048" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -29411,7 +29411,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1051" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -29437,7 +29437,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1052" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -29463,7 +29463,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1053" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -29489,7 +29489,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1054" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -29515,7 +29515,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1055" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -29541,7 +29541,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1056" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -29567,7 +29567,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29593,7 +29593,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1058" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -29619,7 +29619,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1059" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -30165,7 +30165,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1080" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -30451,7 +30451,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1091" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -30529,7 +30529,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1094" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -30607,7 +30607,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1097" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -30633,7 +30633,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1098" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -30659,7 +30659,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1099" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -30685,7 +30685,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1100" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -30711,7 +30711,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -31023,7 +31023,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -31387,7 +31387,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1127" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -31439,7 +31439,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1129" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -31465,7 +31465,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1130" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -31647,7 +31647,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1137" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -31673,7 +31673,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -32167,7 +32167,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -32193,7 +32193,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1158" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -32219,7 +32219,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -32713,7 +32713,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1178" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -32739,7 +32739,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1179" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -32817,7 +32817,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1182" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -32843,7 +32843,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -32869,7 +32869,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -32895,7 +32895,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1185" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -32999,7 +32999,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1189" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -33103,7 +33103,7 @@
         <v>3</v>
       </c>
       <c r="G1193" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33129,7 +33129,7 @@
         <v>3</v>
       </c>
       <c r="G1194" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33155,7 +33155,7 @@
         <v>3</v>
       </c>
       <c r="G1195" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33181,7 +33181,7 @@
         <v>3</v>
       </c>
       <c r="G1196" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33207,7 +33207,7 @@
         <v>3</v>
       </c>
       <c r="G1197" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33233,7 +33233,7 @@
         <v>3</v>
       </c>
       <c r="G1198" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33259,7 +33259,7 @@
         <v>3</v>
       </c>
       <c r="G1199" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -34819,7 +34819,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G1259" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -34949,7 +34949,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1264" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -34975,7 +34975,7 @@
         <v>3.25</v>
       </c>
       <c r="G1265" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -35027,7 +35027,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1267" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -35053,7 +35053,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -35079,7 +35079,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1269" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -35105,7 +35105,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1270" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -35131,7 +35131,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1271" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -35157,7 +35157,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1272" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -35183,7 +35183,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1273" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -35209,7 +35209,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1274" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -35235,7 +35235,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35261,7 +35261,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1276" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -35287,7 +35287,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35313,7 +35313,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1278" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -35339,7 +35339,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1279" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -35417,7 +35417,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1282" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -35443,7 +35443,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1283" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -35469,7 +35469,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1284" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -35495,7 +35495,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1285" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -35521,7 +35521,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1286" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -35547,7 +35547,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1287" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -35573,7 +35573,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1288" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -35625,7 +35625,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1290" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -35677,7 +35677,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1292" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -35703,7 +35703,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1293" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -35729,7 +35729,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1294" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -35755,7 +35755,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1295" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -35781,7 +35781,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1296" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -35807,7 +35807,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1297" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -35885,7 +35885,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1300" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -35937,7 +35937,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1302" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -36015,7 +36015,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -36041,7 +36041,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1306" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -36067,7 +36067,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1307" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -36093,7 +36093,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1308" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -36171,7 +36171,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1311" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -36197,7 +36197,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1312" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -36223,7 +36223,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1313" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -36249,7 +36249,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1314" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -36327,7 +36327,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1317" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -36535,7 +36535,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1325" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -36561,7 +36561,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1326" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -36587,7 +36587,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1327" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -36613,7 +36613,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1328" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -36665,7 +36665,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -36717,7 +36717,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1332" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -36743,7 +36743,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1333" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -36769,7 +36769,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1334" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -36951,7 +36951,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1341" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -37185,7 +37185,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1350" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -37211,7 +37211,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1351" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -37237,7 +37237,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1352" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -37263,7 +37263,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1353" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -37471,7 +37471,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1361" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -37497,7 +37497,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1362" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -37523,7 +37523,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1363" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -37549,7 +37549,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1364" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -37575,7 +37575,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1365" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -37601,7 +37601,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1366" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -37627,7 +37627,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1367" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -37705,7 +37705,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1370" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37731,7 +37731,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1371" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37757,7 +37757,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1372" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37783,7 +37783,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1373" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37861,7 +37861,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1376" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37913,7 +37913,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1378" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37965,7 +37965,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1380" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -38017,7 +38017,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1382" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -38043,7 +38043,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1383" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -38095,7 +38095,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1385" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -38147,7 +38147,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1387" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -38225,7 +38225,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38251,7 +38251,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1391" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38277,7 +38277,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1392" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38303,7 +38303,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1393" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38329,7 +38329,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1394" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -38355,7 +38355,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1395" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -38381,7 +38381,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1396" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -38407,7 +38407,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -38433,7 +38433,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1398" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38459,7 +38459,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1399" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38485,7 +38485,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1400" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38511,7 +38511,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1401" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38537,7 +38537,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1402" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38563,7 +38563,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1403" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38589,7 +38589,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1404" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38615,7 +38615,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1405" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38641,7 +38641,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38667,7 +38667,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1407" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38693,7 +38693,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38719,7 +38719,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1409" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38745,7 +38745,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38771,7 +38771,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1411" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38797,7 +38797,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1412" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38823,7 +38823,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1413" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38849,7 +38849,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1414" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38901,7 +38901,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1416" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38927,7 +38927,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1417" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38953,7 +38953,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1418" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -39005,7 +39005,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1420" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39083,7 +39083,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1423" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39109,7 +39109,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1424" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -39317,7 +39317,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1432" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -39343,7 +39343,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1433" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -39603,7 +39603,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1443" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39629,7 +39629,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1444" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39655,7 +39655,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1445" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39733,7 +39733,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1448" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39837,7 +39837,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39863,7 +39863,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1453" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39889,7 +39889,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1454" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39915,7 +39915,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1455" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -42749,7 +42749,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1564" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -42775,7 +42775,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1565" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42801,7 +42801,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1566" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42827,7 +42827,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1567" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42853,7 +42853,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1568" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42879,7 +42879,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1569" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42905,7 +42905,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1570" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42931,7 +42931,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1571" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42957,7 +42957,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1572" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42983,7 +42983,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1573" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43035,7 +43035,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1575" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43061,7 +43061,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1576" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43087,7 +43087,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43113,7 +43113,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1578" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43165,7 +43165,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1580" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43945,7 +43945,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1610" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43997,7 +43997,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1612" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44049,7 +44049,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1614" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44153,7 +44153,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1618" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44179,7 +44179,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1619" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44205,7 +44205,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1620" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44231,7 +44231,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1621" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -58924,6 +58924,58 @@
         <v>577</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.2916666667</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>577</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5025115741</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>310</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>3.16000008583069</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>3.15000009536743</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>3.16000008583069</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>3.15000009536743</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>579</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="578">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397891998291</t>
+    <t xml:space="preserve">2.30397915840149</t>
   </si>
   <si>
     <t xml:space="preserve">2.17185139656067</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21974754333496</t>
+    <t xml:space="preserve">2.21974778175354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836760520935</t>
+    <t xml:space="preserve">2.18836736679077</t>
   </si>
   <si>
     <t xml:space="preserve">2.17019963264465</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">2.08927154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00504016876221</t>
+    <t xml:space="preserve">2.00503993034363</t>
   </si>
   <si>
     <t xml:space="preserve">2.09257459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1140456199646</t>
+    <t xml:space="preserve">2.11404514312744</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542603492737</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
     <t xml:space="preserve">2.0628457069397</t>
@@ -92,19 +92,19 @@
     <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972339630127</t>
+    <t xml:space="preserve">2.03972363471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03642058372498</t>
+    <t xml:space="preserve">2.0364203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852384090424</t>
+    <t xml:space="preserve">1.98852407932281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660108566284</t>
+    <t xml:space="preserve">2.01660132408142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365951538086</t>
+    <t xml:space="preserve">1.97365939617157</t>
   </si>
   <si>
     <t xml:space="preserve">2.06119418144226</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">1.99017560482025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329803466797</t>
+    <t xml:space="preserve">2.01329755783081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11734843254089</t>
+    <t xml:space="preserve">2.11734867095947</t>
   </si>
   <si>
     <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875347137451</t>
+    <t xml:space="preserve">2.32875299453735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35352730751038</t>
+    <t xml:space="preserve">2.35352683067322</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223726272583</t>
+    <t xml:space="preserve">2.31223750114441</t>
   </si>
   <si>
     <t xml:space="preserve">2.22139954566956</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">2.14707732200623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716769218445</t>
+    <t xml:space="preserve">2.13716745376587</t>
   </si>
   <si>
     <t xml:space="preserve">2.28746318817139</t>
@@ -146,46 +146,46 @@
     <t xml:space="preserve">2.36839175224304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4773964881897</t>
+    <t xml:space="preserve">2.47739696502686</t>
   </si>
   <si>
     <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42124271392822</t>
+    <t xml:space="preserve">2.42124247550964</t>
   </si>
   <si>
     <t xml:space="preserve">2.39481711387634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47409343719482</t>
+    <t xml:space="preserve">2.47409391403198</t>
   </si>
   <si>
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520274162292</t>
+    <t xml:space="preserve">2.5352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042866706848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126686096191</t>
+    <t xml:space="preserve">2.60126662254333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135746955872</t>
+    <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117601394653</t>
+    <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180932044983</t>
+    <t xml:space="preserve">2.54180908203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51703548431396</t>
+    <t xml:space="preserve">2.51703524589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868653297424</t>
+    <t xml:space="preserve">2.51868677139282</t>
   </si>
   <si>
     <t xml:space="preserve">2.47244215011597</t>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">2.41793966293335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574496269226</t>
+    <t xml:space="preserve">2.47574543952942</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895835876465</t>
+    <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
     <t xml:space="preserve">2.49391293525696</t>
@@ -209,25 +209,25 @@
     <t xml:space="preserve">2.46253275871277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43610692024231</t>
+    <t xml:space="preserve">2.43610715866089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40307545661926</t>
+    <t xml:space="preserve">2.4030749797821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106149673462</t>
+    <t xml:space="preserve">2.44106197357178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4245457649231</t>
+    <t xml:space="preserve">2.42454600334167</t>
   </si>
   <si>
     <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21148943901062</t>
+    <t xml:space="preserve">2.21148991584778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1404709815979</t>
+    <t xml:space="preserve">2.14047122001648</t>
   </si>
   <si>
     <t xml:space="preserve">2.16854810714722</t>
@@ -236,16 +236,16 @@
     <t xml:space="preserve">2.15533542633057</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10578727722168</t>
+    <t xml:space="preserve">2.10578751564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04610919952393</t>
+    <t xml:space="preserve">2.04610896110535</t>
   </si>
   <si>
     <t xml:space="preserve">2.00598955154419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303518295288</t>
+    <t xml:space="preserve">2.13303542137146</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
@@ -266,22 +266,22 @@
     <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255623340607</t>
+    <t xml:space="preserve">1.97255635261536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431776046753</t>
+    <t xml:space="preserve">2.00431799888611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927307128906</t>
+    <t xml:space="preserve">1.98927283287048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825451374054</t>
+    <t xml:space="preserve">1.64825475215912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79703223705292</t>
+    <t xml:space="preserve">1.7970324754715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374907493591</t>
+    <t xml:space="preserve">1.81374895572662</t>
   </si>
   <si>
     <t xml:space="preserve">1.81207716464996</t>
@@ -290,88 +290,91 @@
     <t xml:space="preserve">1.77195715904236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75356924533844</t>
+    <t xml:space="preserve">1.75356912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73016571998596</t>
+    <t xml:space="preserve">1.73016595840454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72180771827698</t>
+    <t xml:space="preserve">1.7218074798584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73852407932281</t>
+    <t xml:space="preserve">1.7385241985321</t>
   </si>
   <si>
     <t xml:space="preserve">1.68837451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75524091720581</t>
+    <t xml:space="preserve">1.75524067878723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855411052704</t>
+    <t xml:space="preserve">1.74855422973633</t>
   </si>
   <si>
     <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71344935894012</t>
+    <t xml:space="preserve">1.71344912052155</t>
   </si>
   <si>
     <t xml:space="preserve">1.68001616001129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673264026642</t>
+    <t xml:space="preserve">1.69673275947571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225675582886</t>
+    <t xml:space="preserve">1.87225699424744</t>
   </si>
   <si>
     <t xml:space="preserve">1.96419775485992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754157543182</t>
+    <t xml:space="preserve">1.96754169464111</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613899230957</t>
+    <t xml:space="preserve">2.05613923072815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933289527893</t>
+    <t xml:space="preserve">2.00933313369751</t>
   </si>
   <si>
     <t xml:space="preserve">2.02604937553406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443740844727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07787084579468</t>
+    <t xml:space="preserve">2.07787108421326</t>
   </si>
   <si>
     <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9708845615387</t>
+    <t xml:space="preserve">1.97088444232941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413816928864</t>
+    <t xml:space="preserve">1.94413805007935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97757124900818</t>
+    <t xml:space="preserve">1.97757136821747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103447914124</t>
+    <t xml:space="preserve">2.02103424072266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763119220734</t>
+    <t xml:space="preserve">2.06449770927429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0711841583252</t>
+    <t xml:space="preserve">1.99763107299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07118391990662</t>
   </si>
   <si>
     <t xml:space="preserve">2.07285594940186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625864028931</t>
+    <t xml:space="preserve">2.09625887870789</t>
   </si>
   <si>
     <t xml:space="preserve">2.11464738845825</t>
@@ -380,127 +383,127 @@
     <t xml:space="preserve">2.19823026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1882004737854</t>
+    <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652868270874</t>
+    <t xml:space="preserve">2.18652820587158</t>
   </si>
   <si>
     <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16312527656555</t>
+    <t xml:space="preserve">2.16312503814697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16479659080505</t>
+    <t xml:space="preserve">2.16479706764221</t>
   </si>
   <si>
     <t xml:space="preserve">2.19655847549438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2316632270813</t>
+    <t xml:space="preserve">2.23166346549988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330498695374</t>
+    <t xml:space="preserve">2.22330522537231</t>
   </si>
   <si>
     <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33196258544922</t>
+    <t xml:space="preserve">2.3319628238678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34032106399536</t>
+    <t xml:space="preserve">2.34032130241394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34700775146484</t>
+    <t xml:space="preserve">2.34700798988342</t>
   </si>
   <si>
     <t xml:space="preserve">2.38044095039368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536623001099</t>
+    <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32360458374023</t>
+    <t xml:space="preserve">2.32360434532166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855965614319</t>
+    <t xml:space="preserve">2.30855941772461</t>
   </si>
   <si>
     <t xml:space="preserve">2.33864951133728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31691789627075</t>
+    <t xml:space="preserve">2.31691813468933</t>
   </si>
   <si>
     <t xml:space="preserve">2.34533596038818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539578437805</t>
+    <t xml:space="preserve">2.36539602279663</t>
   </si>
   <si>
     <t xml:space="preserve">2.36372447013855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33530592918396</t>
+    <t xml:space="preserve">2.33530616760254</t>
   </si>
   <si>
     <t xml:space="preserve">2.26008129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2951865196228</t>
+    <t xml:space="preserve">2.29518628120422</t>
   </si>
   <si>
     <t xml:space="preserve">2.25673818588257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30521583557129</t>
+    <t xml:space="preserve">2.30521631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24670815467834</t>
+    <t xml:space="preserve">2.24670839309692</t>
   </si>
   <si>
     <t xml:space="preserve">2.14808058738708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17984175682068</t>
+    <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631894111633</t>
+    <t xml:space="preserve">2.11631917953491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21494698524475</t>
+    <t xml:space="preserve">2.21494674682617</t>
   </si>
   <si>
     <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011156082153</t>
+    <t xml:space="preserve">2.27011132240295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506663322449</t>
+    <t xml:space="preserve">2.25506639480591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18987202644348</t>
+    <t xml:space="preserve">2.1898717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339484214783</t>
+    <t xml:space="preserve">2.25339508056641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19154357910156</t>
+    <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19990158081055</t>
+    <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24336528778076</t>
+    <t xml:space="preserve">2.24336504936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14139413833618</t>
+    <t xml:space="preserve">2.1413938999176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14640879631042</t>
+    <t xml:space="preserve">2.146409034729</t>
   </si>
   <si>
     <t xml:space="preserve">2.183185338974</t>
@@ -509,76 +512,76 @@
     <t xml:space="preserve">2.30688786506653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861948013306</t>
+    <t xml:space="preserve">2.32861924171448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554617881775</t>
+    <t xml:space="preserve">2.41554594039917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223215103149</t>
+    <t xml:space="preserve">2.42223262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551567077637</t>
+    <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45900869369507</t>
+    <t xml:space="preserve">2.45900893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709784507751</t>
+    <t xml:space="preserve">2.37709736824036</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52754664421082</t>
+    <t xml:space="preserve">2.52754688262939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50748658180237</t>
+    <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
     <t xml:space="preserve">2.54927825927734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909854888916</t>
+    <t xml:space="preserve">2.48909831047058</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46569538116455</t>
+    <t xml:space="preserve">2.46569561958313</t>
   </si>
   <si>
     <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241233825684</t>
+    <t xml:space="preserve">2.48241186141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.39715766906738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4389488697052</t>
+    <t xml:space="preserve">2.43894910812378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4907705783844</t>
+    <t xml:space="preserve">2.49077010154724</t>
   </si>
   <si>
     <t xml:space="preserve">2.49912858009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50414347648621</t>
+    <t xml:space="preserve">2.50414371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906899452209</t>
+    <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45399379730225</t>
+    <t xml:space="preserve">2.45399403572083</t>
   </si>
   <si>
     <t xml:space="preserve">2.46402382850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39882922172546</t>
+    <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
     <t xml:space="preserve">2.42390394210815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59942817687988</t>
+    <t xml:space="preserve">2.59942770004272</t>
   </si>
   <si>
     <t xml:space="preserve">2.64790606498718</t>
@@ -593,16 +596,16 @@
     <t xml:space="preserve">2.64957785606384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163862228394</t>
+    <t xml:space="preserve">2.78163886070251</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84181833267212</t>
+    <t xml:space="preserve">2.8418185710907</t>
   </si>
   <si>
     <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513164520264</t>
+    <t xml:space="preserve">2.83513188362122</t>
   </si>
   <si>
     <t xml:space="preserve">2.81674337387085</t>
@@ -611,16 +614,16 @@
     <t xml:space="preserve">2.83346009254456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77328062057495</t>
+    <t xml:space="preserve">2.77328085899353</t>
   </si>
   <si>
     <t xml:space="preserve">2.71811580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172871589661</t>
+    <t xml:space="preserve">2.81172847747803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74987697601318</t>
+    <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
     <t xml:space="preserve">2.76659369468689</t>
@@ -632,22 +635,22 @@
     <t xml:space="preserve">2.77495193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166889190674</t>
+    <t xml:space="preserve">2.79166865348816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486207962036</t>
+    <t xml:space="preserve">2.74486231803894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319052696228</t>
+    <t xml:space="preserve">2.74319076538086</t>
   </si>
   <si>
     <t xml:space="preserve">2.67465257644653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823569297791</t>
+    <t xml:space="preserve">2.75823521614075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316073417664</t>
+    <t xml:space="preserve">2.73316049575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.78331017494202</t>
@@ -656,7 +659,7 @@
     <t xml:space="preserve">2.73817563056946</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838537216187</t>
+    <t xml:space="preserve">2.80838513374329</t>
   </si>
   <si>
     <t xml:space="preserve">2.79835534095764</t>
@@ -668,7 +671,7 @@
     <t xml:space="preserve">3.02068591117859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387957572937</t>
+    <t xml:space="preserve">2.97387933731079</t>
   </si>
   <si>
     <t xml:space="preserve">2.95883464813232</t>
@@ -677,43 +680,43 @@
     <t xml:space="preserve">2.96384930610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856484413147</t>
+    <t xml:space="preserve">2.86856508255005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96552133560181</t>
+    <t xml:space="preserve">2.96552109718323</t>
   </si>
   <si>
     <t xml:space="preserve">2.99728274345398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898408889771</t>
+    <t xml:space="preserve">3.00898432731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86355018615723</t>
+    <t xml:space="preserve">2.86354994773865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859487533569</t>
+    <t xml:space="preserve">2.87859535217285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94867587089539</t>
+    <t xml:space="preserve">2.94867610931396</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00936913490295</t>
+    <t xml:space="preserve">3.00936937332153</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96216344833374</t>
+    <t xml:space="preserve">2.96216368675232</t>
   </si>
   <si>
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622866630554</t>
+    <t xml:space="preserve">3.02622842788696</t>
   </si>
   <si>
     <t xml:space="preserve">2.97733688354492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88292551040649</t>
+    <t xml:space="preserve">2.88292503356934</t>
   </si>
   <si>
     <t xml:space="preserve">2.86606597900391</t>
@@ -722,19 +725,19 @@
     <t xml:space="preserve">2.84246301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87112379074097</t>
+    <t xml:space="preserve">2.87112355232239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80705857276917</t>
+    <t xml:space="preserve">2.80705881118774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7564811706543</t>
+    <t xml:space="preserve">2.75648093223572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74973773956299</t>
+    <t xml:space="preserve">2.74973726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624992370605</t>
+    <t xml:space="preserve">2.73625016212463</t>
   </si>
   <si>
     <t xml:space="preserve">2.75816702842712</t>
@@ -749,19 +752,19 @@
     <t xml:space="preserve">2.8896689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629722595215</t>
+    <t xml:space="preserve">2.88629698753357</t>
   </si>
   <si>
     <t xml:space="preserve">2.85763645172119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86438012123108</t>
+    <t xml:space="preserve">2.86438035964966</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123941421509</t>
+    <t xml:space="preserve">2.88123965263367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9419322013855</t>
+    <t xml:space="preserve">2.94193243980408</t>
   </si>
   <si>
     <t xml:space="preserve">2.9267590045929</t>
@@ -770,7 +773,7 @@
     <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92844486236572</t>
+    <t xml:space="preserve">2.9284451007843</t>
   </si>
   <si>
     <t xml:space="preserve">2.93518877029419</t>
@@ -794,19 +797,19 @@
     <t xml:space="preserve">2.89978432655334</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001557350159</t>
+    <t xml:space="preserve">2.92001533508301</t>
   </si>
   <si>
     <t xml:space="preserve">2.94024634361267</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91495776176453</t>
+    <t xml:space="preserve">2.91495752334595</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94530415534973</t>
+    <t xml:space="preserve">2.94530439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97902250289917</t>
+    <t xml:space="preserve">2.97902274131775</t>
   </si>
   <si>
     <t xml:space="preserve">2.98408055305481</t>
@@ -818,13 +821,13 @@
     <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879173278809</t>
+    <t xml:space="preserve">2.95879149436951</t>
   </si>
   <si>
     <t xml:space="preserve">2.90315628051758</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84920716285706</t>
+    <t xml:space="preserve">2.8492066860199</t>
   </si>
   <si>
     <t xml:space="preserve">2.86269402503967</t>
@@ -836,25 +839,25 @@
     <t xml:space="preserve">2.93181681632996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90821361541748</t>
+    <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
     <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8407769203186</t>
+    <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95710587501526</t>
+    <t xml:space="preserve">2.95710563659668</t>
   </si>
   <si>
     <t xml:space="preserve">2.97227907180786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745226860046</t>
+    <t xml:space="preserve">2.98745203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91832971572876</t>
+    <t xml:space="preserve">2.9183292388916</t>
   </si>
   <si>
     <t xml:space="preserve">2.91158556938171</t>
@@ -863,7 +866,7 @@
     <t xml:space="preserve">3.03465795516968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01779890060425</t>
+    <t xml:space="preserve">3.01779913902283</t>
   </si>
   <si>
     <t xml:space="preserve">3.03803014755249</t>
@@ -872,13 +875,13 @@
     <t xml:space="preserve">3.07680606842041</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00431156158447</t>
+    <t xml:space="preserve">3.00431132316589</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05657505989075</t>
+    <t xml:space="preserve">3.05657482147217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1509861946106</t>
+    <t xml:space="preserve">3.15098667144775</t>
   </si>
   <si>
     <t xml:space="preserve">3.11895418167114</t>
@@ -887,10 +890,10 @@
     <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454280853271</t>
+    <t xml:space="preserve">3.02454257011414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285671234131</t>
+    <t xml:space="preserve">3.02285647392273</t>
   </si>
   <si>
     <t xml:space="preserve">3.02117085456848</t>
@@ -899,31 +902,28 @@
     <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147018432617</t>
+    <t xml:space="preserve">2.90147042274475</t>
   </si>
   <si>
     <t xml:space="preserve">2.93013119697571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81548857688904</t>
+    <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96890711784363</t>
+    <t xml:space="preserve">2.96890735626221</t>
   </si>
   <si>
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.87280988693237</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87280964851379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96047759056091</t>
+    <t xml:space="preserve">2.96047782897949</t>
   </si>
   <si>
     <t xml:space="preserve">2.90484237670898</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">2.93350291252136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862904548645</t>
+    <t xml:space="preserve">2.79862928390503</t>
   </si>
   <si>
     <t xml:space="preserve">2.73962187767029</t>
@@ -950,43 +950,43 @@
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904423713684</t>
+    <t xml:space="preserve">2.68904447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6300368309021</t>
+    <t xml:space="preserve">2.63003730773926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57945942878723</t>
+    <t xml:space="preserve">2.57945966720581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60474801063538</t>
+    <t xml:space="preserve">2.60474824905396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59631824493408</t>
+    <t xml:space="preserve">2.59631872177124</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417060852051</t>
+    <t xml:space="preserve">2.55417037010193</t>
   </si>
   <si>
     <t xml:space="preserve">2.58788895606995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61317777633667</t>
+    <t xml:space="preserve">2.61317801475525</t>
   </si>
   <si>
     <t xml:space="preserve">2.62160754203796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553258895874</t>
+    <t xml:space="preserve">2.65532565116882</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71433329582214</t>
+    <t xml:space="preserve">2.71433305740356</t>
   </si>
   <si>
     <t xml:space="preserve">2.79019951820374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05994725227356</t>
+    <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
     <t xml:space="preserve">2.962810754776</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736261367798</t>
+    <t xml:space="preserve">2.99736285209656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417308807373</t>
+    <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85915589332581</t>
+    <t xml:space="preserve">2.85915565490723</t>
   </si>
   <si>
     <t xml:space="preserve">2.81596612930298</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">2.83324193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78141450881958</t>
+    <t xml:space="preserve">2.78141403198242</t>
   </si>
   <si>
     <t xml:space="preserve">2.79005217552185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79869031906128</t>
+    <t xml:space="preserve">2.7986900806427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76413822174072</t>
+    <t xml:space="preserve">2.7641384601593</t>
   </si>
   <si>
     <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6863968372345</t>
+    <t xml:space="preserve">2.68639707565308</t>
   </si>
   <si>
     <t xml:space="preserve">2.72958660125732</t>
@@ -1046,19 +1046,19 @@
     <t xml:space="preserve">2.73822474479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6518452167511</t>
+    <t xml:space="preserve">2.65184545516968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7123110294342</t>
+    <t xml:space="preserve">2.71231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094893455505</t>
+    <t xml:space="preserve">2.72094869613647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550055503845</t>
+    <t xml:space="preserve">2.75550031661987</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">2.69503498077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048312187195</t>
+    <t xml:space="preserve">2.66048336029053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60001754760742</t>
+    <t xml:space="preserve">2.600017786026</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
@@ -1082,37 +1082,37 @@
     <t xml:space="preserve">2.57410407066345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5654661655426</t>
+    <t xml:space="preserve">2.56546592712402</t>
   </si>
   <si>
     <t xml:space="preserve">2.54819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55682778358459</t>
+    <t xml:space="preserve">2.55682826042175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6172935962677</t>
+    <t xml:space="preserve">2.61729335784912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6345694065094</t>
+    <t xml:space="preserve">2.63456964492798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66912078857422</t>
+    <t xml:space="preserve">2.6691210269928</t>
   </si>
   <si>
     <t xml:space="preserve">2.80732798576355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82460379600525</t>
+    <t xml:space="preserve">2.82460403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84187960624695</t>
+    <t xml:space="preserve">2.84187984466553</t>
   </si>
   <si>
     <t xml:space="preserve">2.85051774978638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8937075138092</t>
+    <t xml:space="preserve">2.89370727539062</t>
   </si>
   <si>
     <t xml:space="preserve">2.9282591342926</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">2.88506937026978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91962146759033</t>
+    <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689727783203</t>
+    <t xml:space="preserve">2.93689703941345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327632904053</t>
+    <t xml:space="preserve">3.02327656745911</t>
   </si>
   <si>
     <t xml:space="preserve">3.06646609306335</t>
@@ -1145,22 +1145,22 @@
     <t xml:space="preserve">3.00600051879883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04919004440308</t>
+    <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191447257996</t>
+    <t xml:space="preserve">3.03191423416138</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98008680343628</t>
+    <t xml:space="preserve">2.9800865650177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09238004684448</t>
+    <t xml:space="preserve">3.0923798084259</t>
   </si>
   <si>
     <t xml:space="preserve">2.97144889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0751039981842</t>
+    <t xml:space="preserve">3.07510423660278</t>
   </si>
   <si>
     <t xml:space="preserve">2.91875743865967</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231221199036</t>
+    <t xml:space="preserve">2.97231245040894</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02586793899536</t>
+    <t xml:space="preserve">3.02586770057678</t>
   </si>
   <si>
     <t xml:space="preserve">3.07049703598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264544487</t>
+    <t xml:space="preserve">3.05264520645142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694202423096</t>
+    <t xml:space="preserve">3.01694178581238</t>
   </si>
   <si>
     <t xml:space="preserve">2.99908995628357</t>
@@ -1196,22 +1196,22 @@
     <t xml:space="preserve">3.07942271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09727454185486</t>
+    <t xml:space="preserve">3.09727478027344</t>
   </si>
   <si>
     <t xml:space="preserve">3.04371929168701</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834862709045</t>
+    <t xml:space="preserve">3.08834886550903</t>
   </si>
   <si>
-    <t xml:space="preserve">3.13297820091248</t>
+    <t xml:space="preserve">3.1329779624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93660879135132</t>
+    <t xml:space="preserve">2.9366090297699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768311500549</t>
+    <t xml:space="preserve">2.92768335342407</t>
   </si>
   <si>
     <t xml:space="preserve">2.90090560913086</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">2.90983152389526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95446062088013</t>
+    <t xml:space="preserve">2.95446085929871</t>
   </si>
   <si>
     <t xml:space="preserve">2.98123836517334</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64205551147461</t>
+    <t xml:space="preserve">2.64205574989319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62420392036438</t>
+    <t xml:space="preserve">2.6242036819458</t>
   </si>
   <si>
     <t xml:space="preserve">2.60635209083557</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">2.65990734100342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58850049972534</t>
+    <t xml:space="preserve">2.58850026130676</t>
   </si>
   <si>
     <t xml:space="preserve">2.71346235275269</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">2.69561076164246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72238802909851</t>
+    <t xml:space="preserve">2.72238850593567</t>
   </si>
   <si>
     <t xml:space="preserve">2.59742617607117</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">2.73131418228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65098166465759</t>
+    <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
     <t xml:space="preserve">2.70453643798828</t>
   </si>
   <si>
-    <t xml:space="preserve">3.23116254806519</t>
+    <t xml:space="preserve">3.23116230964661</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15975570678711</t>
+    <t xml:space="preserve">3.15975546836853</t>
   </si>
   <si>
     <t xml:space="preserve">3.1419038772583</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">3.10620045661926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99016427993774</t>
+    <t xml:space="preserve">2.99016404151917</t>
   </si>
   <si>
     <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272126197815</t>
+    <t xml:space="preserve">2.80272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379534721375</t>
+    <t xml:space="preserve">2.79379510879517</t>
   </si>
   <si>
     <t xml:space="preserve">2.4278347492218</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">2.47246408462524</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46353816986084</t>
+    <t xml:space="preserve">2.46353840827942</t>
   </si>
   <si>
     <t xml:space="preserve">2.57957458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61527800559998</t>
+    <t xml:space="preserve">2.6152777671814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78486919403076</t>
+    <t xml:space="preserve">2.78486943244934</t>
   </si>
   <si>
     <t xml:space="preserve">2.77594351768494</t>
@@ -1340,70 +1340,70 @@
     <t xml:space="preserve">2.84735035896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8294985294342</t>
+    <t xml:space="preserve">2.82949876785278</t>
   </si>
   <si>
     <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305401802063</t>
+    <t xml:space="preserve">2.88305377960205</t>
   </si>
   <si>
     <t xml:space="preserve">2.82057285308838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74023985862732</t>
+    <t xml:space="preserve">2.7402400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63312983512878</t>
+    <t xml:space="preserve">2.63312959671021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064867019653</t>
+    <t xml:space="preserve">2.57064890861511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49924159049988</t>
+    <t xml:space="preserve">2.49924182891846</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55279684066772</t>
+    <t xml:space="preserve">2.5527970790863</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031567573547</t>
+    <t xml:space="preserve">2.49031591415405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43676090240479</t>
+    <t xml:space="preserve">2.43676066398621</t>
   </si>
   <si>
     <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320541381836</t>
+    <t xml:space="preserve">2.38320565223694</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41890907287598</t>
+    <t xml:space="preserve">2.4189088344574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45461249351501</t>
+    <t xml:space="preserve">2.45461225509644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709365844727</t>
+    <t xml:space="preserve">2.51709342002869</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520218849182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15082955360413</t>
+    <t xml:space="preserve">3.15082979202271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653297424316</t>
+    <t xml:space="preserve">3.18653321266174</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16868138313293</t>
+    <t xml:space="preserve">3.16868162155151</t>
   </si>
   <si>
     <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35612463951111</t>
+    <t xml:space="preserve">3.35612487792969</t>
   </si>
   <si>
     <t xml:space="preserve">3.28471779823303</t>
@@ -1412,19 +1412,19 @@
     <t xml:space="preserve">3.21331071853638</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24901437759399</t>
+    <t xml:space="preserve">3.24901413917542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042098045349</t>
+    <t xml:space="preserve">3.32042121887207</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108696937561</t>
+    <t xml:space="preserve">3.48108673095703</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42753148078918</t>
+    <t xml:space="preserve">3.42753124237061</t>
   </si>
   <si>
     <t xml:space="preserve">3.49893856048584</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">3.39182806015015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.33827304840088</t>
+    <t xml:space="preserve">3.3382728099823</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30256962776184</t>
+    <t xml:space="preserve">3.30256938934326</t>
   </si>
   <si>
     <t xml:space="preserve">3.2668662071228</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">3.44538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65960359573364</t>
+    <t xml:space="preserve">3.65960383415222</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">3.53464198112488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51679039001465</t>
+    <t xml:space="preserve">3.51679015159607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967988967896</t>
+    <t xml:space="preserve">3.40967965126038</t>
   </si>
   <si>
-    <t xml:space="preserve">3.17760729789734</t>
+    <t xml:space="preserve">3.17760753631592</t>
   </si>
   <si>
     <t xml:space="preserve">3.32438230514526</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.259920835495</t>
+    <t xml:space="preserve">3.25992059707642</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675579071045</t>
+    <t xml:space="preserve">3.29675602912903</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1499,7 +1499,7 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308564186096</t>
+    <t xml:space="preserve">3.22308540344238</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1508,7 +1508,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890895843506</t>
+    <t xml:space="preserve">3.03890919685364</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1520,16 +1520,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01128268241882</t>
+    <t xml:space="preserve">3.0112829208374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653571128845</t>
+    <t xml:space="preserve">3.06653547286987</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682121276855</t>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523880958557</t>
+    <t xml:space="preserve">2.96523857116699</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1544,22 +1544,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625020980835</t>
+    <t xml:space="preserve">3.18625044822693</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811811447144</t>
+    <t xml:space="preserve">3.04811787605286</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049136161804</t>
+    <t xml:space="preserve">3.02049160003662</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365640640259</t>
+    <t xml:space="preserve">2.98365616798401</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286508560181</t>
+    <t xml:space="preserve">2.99286532402039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24150323867798</t>
+    <t xml:space="preserve">3.2415030002594</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1680,9 +1680,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -6762,7 +6759,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G180" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="H180" t="s">
         <v>9</v>
@@ -6840,7 +6837,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G183" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
@@ -6866,7 +6863,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G184" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -6892,7 +6889,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G185" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H185" t="s">
         <v>9</v>
@@ -7048,7 +7045,7 @@
         <v>2.4779999256134</v>
       </c>
       <c r="G191" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H191" t="s">
         <v>9</v>
@@ -7074,7 +7071,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G192" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -7100,7 +7097,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G193" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -7152,7 +7149,7 @@
         <v>2.50799989700317</v>
       </c>
       <c r="G195" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -7204,7 +7201,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G197" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -7230,7 +7227,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G198" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -7256,7 +7253,7 @@
         <v>2.61800003051758</v>
       </c>
       <c r="G199" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -7282,7 +7279,7 @@
         <v>2.6159999370575</v>
       </c>
       <c r="G200" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -7308,7 +7305,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G201" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H201" t="s">
         <v>9</v>
@@ -7334,7 +7331,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G202" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H202" t="s">
         <v>9</v>
@@ -7360,7 +7357,7 @@
         <v>2.58999991416931</v>
       </c>
       <c r="G203" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -7386,7 +7383,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G204" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -7412,7 +7409,7 @@
         <v>2.62800002098083</v>
       </c>
       <c r="G205" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -7438,7 +7435,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G206" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -7464,7 +7461,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G207" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -7490,7 +7487,7 @@
         <v>2.66000008583069</v>
       </c>
       <c r="G208" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -7516,7 +7513,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G209" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -7542,7 +7539,7 @@
         <v>2.74799990653992</v>
       </c>
       <c r="G210" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H210" t="s">
         <v>9</v>
@@ -7568,7 +7565,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G211" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -7594,7 +7591,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G212" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -7620,7 +7617,7 @@
         <v>2.80800008773804</v>
       </c>
       <c r="G213" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -7646,7 +7643,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G214" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -7672,7 +7669,7 @@
         <v>2.84800004959106</v>
       </c>
       <c r="G215" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -7698,7 +7695,7 @@
         <v>2.81800007820129</v>
       </c>
       <c r="G216" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -7724,7 +7721,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G217" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -7750,7 +7747,7 @@
         <v>2.76200008392334</v>
       </c>
       <c r="G218" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -7776,7 +7773,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G219" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -7802,7 +7799,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G220" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -7828,7 +7825,7 @@
         <v>2.79800009727478</v>
       </c>
       <c r="G221" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -7854,7 +7851,7 @@
         <v>2.7720000743866</v>
       </c>
       <c r="G222" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -7880,7 +7877,7 @@
         <v>2.80599999427795</v>
       </c>
       <c r="G223" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -7906,7 +7903,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G224" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -7932,7 +7929,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G225" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -7958,7 +7955,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G226" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -7984,7 +7981,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G227" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -8010,7 +8007,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G228" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -8036,7 +8033,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G229" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -8062,7 +8059,7 @@
         <v>2.79399991035461</v>
       </c>
       <c r="G230" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -8088,7 +8085,7 @@
         <v>2.7039999961853</v>
       </c>
       <c r="G231" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -8114,7 +8111,7 @@
         <v>2.74600005149841</v>
       </c>
       <c r="G232" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -8140,7 +8137,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G233" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -8166,7 +8163,7 @@
         <v>2.75799989700317</v>
       </c>
       <c r="G234" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -8192,7 +8189,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G235" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -8218,7 +8215,7 @@
         <v>2.68799996376038</v>
       </c>
       <c r="G236" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -8244,7 +8241,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G237" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -8270,7 +8267,7 @@
         <v>2.60800004005432</v>
       </c>
       <c r="G238" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -8296,7 +8293,7 @@
         <v>2.53200006484985</v>
       </c>
       <c r="G239" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -8322,7 +8319,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G240" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H240" t="s">
         <v>9</v>
@@ -8348,7 +8345,7 @@
         <v>2.65000009536743</v>
       </c>
       <c r="G241" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -8374,7 +8371,7 @@
         <v>2.63599991798401</v>
       </c>
       <c r="G242" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -8400,7 +8397,7 @@
         <v>2.71600008010864</v>
       </c>
       <c r="G243" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -8426,7 +8423,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G244" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -8452,7 +8449,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G245" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -8478,7 +8475,7 @@
         <v>2.69600009918213</v>
       </c>
       <c r="G246" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -8504,7 +8501,7 @@
         <v>2.69799995422363</v>
       </c>
       <c r="G247" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -8530,7 +8527,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G248" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -8556,7 +8553,7 @@
         <v>2.62199997901917</v>
       </c>
       <c r="G249" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -8582,7 +8579,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G250" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -8608,7 +8605,7 @@
         <v>2.58800005912781</v>
       </c>
       <c r="G251" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -8634,7 +8631,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G252" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -8660,7 +8657,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G253" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -8686,7 +8683,7 @@
         <v>2.68400001525879</v>
       </c>
       <c r="G254" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -8712,7 +8709,7 @@
         <v>2.56200003623962</v>
       </c>
       <c r="G255" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -8738,7 +8735,7 @@
         <v>2.63199996948242</v>
       </c>
       <c r="G256" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -8764,7 +8761,7 @@
         <v>2.56800007820129</v>
       </c>
       <c r="G257" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -8790,7 +8787,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G258" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -8816,7 +8813,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G259" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -8842,7 +8839,7 @@
         <v>2.61199998855591</v>
       </c>
       <c r="G260" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -8868,7 +8865,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G261" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -8894,7 +8891,7 @@
         <v>2.78600001335144</v>
       </c>
       <c r="G262" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -8920,7 +8917,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G263" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -8946,7 +8943,7 @@
         <v>2.70000004768372</v>
       </c>
       <c r="G264" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -8972,7 +8969,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G265" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -8998,7 +8995,7 @@
         <v>2.82800006866455</v>
       </c>
       <c r="G266" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -9024,7 +9021,7 @@
         <v>2.89800000190735</v>
       </c>
       <c r="G267" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -9050,7 +9047,7 @@
         <v>2.87800002098083</v>
       </c>
       <c r="G268" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -9076,7 +9073,7 @@
         <v>2.94199991226196</v>
       </c>
       <c r="G269" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -9102,7 +9099,7 @@
         <v>2.84400010108948</v>
       </c>
       <c r="G270" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -9128,7 +9125,7 @@
         <v>3.0239999294281</v>
       </c>
       <c r="G271" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -9154,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="G272" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -9180,7 +9177,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G273" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -9206,7 +9203,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G274" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -9232,7 +9229,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G275" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -9258,7 +9255,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G276" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -9284,7 +9281,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G277" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -9310,7 +9307,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G278" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -9336,7 +9333,7 @@
         <v>2.86800003051758</v>
       </c>
       <c r="G279" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -9362,7 +9359,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G280" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -9388,7 +9385,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G281" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -9414,7 +9411,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G282" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -9440,7 +9437,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G283" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -9466,7 +9463,7 @@
         <v>2.94199991226196</v>
       </c>
       <c r="G284" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -9492,7 +9489,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G285" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -9518,7 +9515,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G286" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -9544,7 +9541,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G287" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -9570,7 +9567,7 @@
         <v>2.99600005149841</v>
       </c>
       <c r="G288" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -9596,7 +9593,7 @@
         <v>2.96600008010864</v>
       </c>
       <c r="G289" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -9622,7 +9619,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G290" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -9648,7 +9645,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G291" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -9674,7 +9671,7 @@
         <v>2.9779999256134</v>
       </c>
       <c r="G292" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -9700,7 +9697,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G293" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -9726,7 +9723,7 @@
         <v>2.93600010871887</v>
       </c>
       <c r="G294" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -9752,7 +9749,7 @@
         <v>2.94799995422363</v>
       </c>
       <c r="G295" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -9778,7 +9775,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G296" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -9804,7 +9801,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G297" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -9830,7 +9827,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -9856,7 +9853,7 @@
         <v>2.91799998283386</v>
       </c>
       <c r="G299" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -9882,7 +9879,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G300" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -9908,7 +9905,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G301" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -9934,7 +9931,7 @@
         <v>3</v>
       </c>
       <c r="G302" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -9960,7 +9957,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G303" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -9986,7 +9983,7 @@
         <v>3</v>
       </c>
       <c r="G304" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -10012,7 +10009,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G305" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -10038,7 +10035,7 @@
         <v>3.16799998283386</v>
       </c>
       <c r="G306" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -10064,7 +10061,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G307" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -10090,7 +10087,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G308" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -10116,7 +10113,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G309" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -10142,7 +10139,7 @@
         <v>3.19799995422363</v>
       </c>
       <c r="G310" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -10168,7 +10165,7 @@
         <v>3.32800006866455</v>
       </c>
       <c r="G311" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -10194,7 +10191,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G312" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -10220,7 +10217,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G313" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -10246,7 +10243,7 @@
         <v>3.39199995994568</v>
       </c>
       <c r="G314" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -10272,7 +10269,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G315" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -10298,7 +10295,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G316" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -10324,7 +10321,7 @@
         <v>3.31800007820129</v>
       </c>
       <c r="G317" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -10350,7 +10347,7 @@
         <v>3.25200009346008</v>
       </c>
       <c r="G318" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -10376,7 +10373,7 @@
         <v>3.36400008201599</v>
       </c>
       <c r="G319" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -10402,7 +10399,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G320" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -10428,7 +10425,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G321" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -10454,7 +10451,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G322" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -10480,7 +10477,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G323" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -10506,7 +10503,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G324" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -10532,7 +10529,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G325" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -10558,7 +10555,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G326" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -10584,7 +10581,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G327" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -10610,7 +10607,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G328" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -10636,7 +10633,7 @@
         <v>3.28399991989136</v>
       </c>
       <c r="G329" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -10662,7 +10659,7 @@
         <v>3.28200006484985</v>
       </c>
       <c r="G330" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -10688,7 +10685,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G331" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -10714,7 +10711,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G332" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -10740,7 +10737,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G333" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -10766,7 +10763,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G334" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -10792,7 +10789,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G335" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -10818,7 +10815,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G336" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -10844,7 +10841,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G337" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -10870,7 +10867,7 @@
         <v>3.27600002288818</v>
       </c>
       <c r="G338" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -10896,7 +10893,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G339" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -10922,7 +10919,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G340" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -10948,7 +10945,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G341" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -10974,7 +10971,7 @@
         <v>3.34800004959106</v>
       </c>
       <c r="G342" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -11000,7 +10997,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G343" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -11026,7 +11023,7 @@
         <v>3.61400008201599</v>
       </c>
       <c r="G344" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -11052,7 +11049,7 @@
         <v>3.55800008773804</v>
       </c>
       <c r="G345" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -11078,7 +11075,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G346" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -11104,7 +11101,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G347" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -11130,7 +11127,7 @@
         <v>3.43199992179871</v>
       </c>
       <c r="G348" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -11156,7 +11153,7 @@
         <v>3.54800009727478</v>
       </c>
       <c r="G349" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -11182,7 +11179,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G350" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -11208,7 +11205,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G351" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -11234,7 +11231,7 @@
         <v>3.42600011825562</v>
       </c>
       <c r="G352" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -11260,7 +11257,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G353" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -11286,7 +11283,7 @@
         <v>3.5460000038147</v>
       </c>
       <c r="G354" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -11312,7 +11309,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G355" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -11338,7 +11335,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G356" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -11364,7 +11361,7 @@
         <v>3.51399993896484</v>
       </c>
       <c r="G357" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -11390,7 +11387,7 @@
         <v>3.5</v>
       </c>
       <c r="G358" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -11416,7 +11413,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G359" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -11442,7 +11439,7 @@
         <v>3.53200006484985</v>
       </c>
       <c r="G360" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -11468,7 +11465,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G361" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -11494,7 +11491,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G362" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -11520,7 +11517,7 @@
         <v>3.37199997901917</v>
       </c>
       <c r="G363" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -11546,7 +11543,7 @@
         <v>3.40599989891052</v>
       </c>
       <c r="G364" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -11572,7 +11569,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G365" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -11598,7 +11595,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G366" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -11624,7 +11621,7 @@
         <v>3.26200008392334</v>
       </c>
       <c r="G367" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -11650,7 +11647,7 @@
         <v>3.24600005149841</v>
       </c>
       <c r="G368" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -11676,7 +11673,7 @@
         <v>3.2720000743866</v>
       </c>
       <c r="G369" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -11702,7 +11699,7 @@
         <v>3.29200005531311</v>
       </c>
       <c r="G370" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -11728,7 +11725,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G371" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -11754,7 +11751,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G372" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -11780,7 +11777,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G373" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -11806,7 +11803,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G374" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -11832,7 +11829,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G375" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -11858,7 +11855,7 @@
         <v>3.42799997329712</v>
       </c>
       <c r="G376" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -11884,7 +11881,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G377" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -11910,7 +11907,7 @@
         <v>3.39800000190735</v>
       </c>
       <c r="G378" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -11936,7 +11933,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G379" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -11962,7 +11959,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G380" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -11988,7 +11985,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G381" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -12014,7 +12011,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G382" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -12040,7 +12037,7 @@
         <v>3.5</v>
       </c>
       <c r="G383" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -12066,7 +12063,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G384" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -12092,7 +12089,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G385" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -12118,7 +12115,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G386" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -12144,7 +12141,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G387" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -12170,7 +12167,7 @@
         <v>3.49600005149841</v>
       </c>
       <c r="G388" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -12196,7 +12193,7 @@
         <v>3.47199988365173</v>
       </c>
       <c r="G389" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -12222,7 +12219,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G390" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -12248,7 +12245,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G391" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -12274,7 +12271,7 @@
         <v>3.5</v>
       </c>
       <c r="G392" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -12300,7 +12297,7 @@
         <v>3.5</v>
       </c>
       <c r="G393" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -12326,7 +12323,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G394" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -12352,7 +12349,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G395" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -12378,7 +12375,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G396" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -12404,7 +12401,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G397" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -12430,7 +12427,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G398" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -12456,7 +12453,7 @@
         <v>3.46399998664856</v>
       </c>
       <c r="G399" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -12482,7 +12479,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G400" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -12508,7 +12505,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G401" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -12534,7 +12531,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G402" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -12560,7 +12557,7 @@
         <v>3.48799991607666</v>
       </c>
       <c r="G403" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -12586,7 +12583,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G404" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -12612,7 +12609,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G405" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -12638,7 +12635,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G406" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -12664,7 +12661,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G407" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -12690,7 +12687,7 @@
         <v>3.53399991989136</v>
       </c>
       <c r="G408" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -12716,7 +12713,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G409" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -12742,7 +12739,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G410" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -12768,7 +12765,7 @@
         <v>3.50399994850159</v>
       </c>
       <c r="G411" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -12794,7 +12791,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G412" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -12820,7 +12817,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G413" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -12846,7 +12843,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G414" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -12872,7 +12869,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G415" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -12898,7 +12895,7 @@
         <v>3.48200011253357</v>
       </c>
       <c r="G416" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -12924,7 +12921,7 @@
         <v>3.47399997711182</v>
       </c>
       <c r="G417" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -12950,7 +12947,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G418" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -12976,7 +12973,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G419" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -13002,7 +12999,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G420" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -13028,7 +13025,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G421" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -13054,7 +13051,7 @@
         <v>3.39599990844727</v>
       </c>
       <c r="G422" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -13080,7 +13077,7 @@
         <v>3.49399995803833</v>
       </c>
       <c r="G423" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -13106,7 +13103,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G424" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -13132,7 +13129,7 @@
         <v>3.4779999256134</v>
       </c>
       <c r="G425" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -13158,7 +13155,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G426" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -13184,7 +13181,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G427" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -13210,7 +13207,7 @@
         <v>3.40400004386902</v>
       </c>
       <c r="G428" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -13236,7 +13233,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G429" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -13262,7 +13259,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G430" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -13288,7 +13285,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G431" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -13314,7 +13311,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G432" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -13340,7 +13337,7 @@
         <v>3.52600002288818</v>
       </c>
       <c r="G433" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -13366,7 +13363,7 @@
         <v>3.54399991035461</v>
       </c>
       <c r="G434" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -13392,7 +13389,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G435" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -13418,7 +13415,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G436" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -13444,7 +13441,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G437" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -13470,7 +13467,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G438" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -13496,7 +13493,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G439" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -13522,7 +13519,7 @@
         <v>3.5</v>
       </c>
       <c r="G440" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -13548,7 +13545,7 @@
         <v>3.5</v>
       </c>
       <c r="G441" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -13574,7 +13571,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G442" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -13600,7 +13597,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G443" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -13626,7 +13623,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G444" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -13652,7 +13649,7 @@
         <v>3.46199989318848</v>
       </c>
       <c r="G445" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -13678,7 +13675,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G446" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -13704,7 +13701,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G447" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -13730,7 +13727,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -13756,7 +13753,7 @@
         <v>3.45799994468689</v>
       </c>
       <c r="G449" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -13782,7 +13779,7 @@
         <v>3.4539999961853</v>
       </c>
       <c r="G450" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -13808,7 +13805,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G451" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -13834,7 +13831,7 @@
         <v>3.44400000572205</v>
       </c>
       <c r="G452" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -13860,7 +13857,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G453" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -13886,7 +13883,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G454" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -13912,7 +13909,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G455" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -13938,7 +13935,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G456" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -13964,7 +13961,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G457" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -13990,7 +13987,7 @@
         <v>3.60400009155273</v>
       </c>
       <c r="G458" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -14016,7 +14013,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G459" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -14042,7 +14039,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G460" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -14068,7 +14065,7 @@
         <v>3.56399989128113</v>
       </c>
       <c r="G461" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -14094,7 +14091,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G462" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -14120,7 +14117,7 @@
         <v>3.62599992752075</v>
       </c>
       <c r="G463" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -14146,7 +14143,7 @@
         <v>3.73799991607666</v>
       </c>
       <c r="G464" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -14172,7 +14169,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G465" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -14198,7 +14195,7 @@
         <v>3.65000009536743</v>
       </c>
       <c r="G466" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -14224,7 +14221,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G467" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -14250,7 +14247,7 @@
         <v>3.52800011634827</v>
       </c>
       <c r="G468" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -14276,7 +14273,7 @@
         <v>3.49799990653992</v>
       </c>
       <c r="G469" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -14302,7 +14299,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G470" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -14328,7 +14325,7 @@
         <v>3.58800005912781</v>
       </c>
       <c r="G471" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -14354,7 +14351,7 @@
         <v>3.58599996566772</v>
       </c>
       <c r="G472" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -14380,7 +14377,7 @@
         <v>3.58400011062622</v>
       </c>
       <c r="G473" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -14406,7 +14403,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G474" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -14432,7 +14429,7 @@
         <v>3.4779999256134</v>
       </c>
       <c r="G475" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -14458,7 +14455,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G476" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -14484,7 +14481,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G477" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -14510,7 +14507,7 @@
         <v>3.44199991226196</v>
       </c>
       <c r="G478" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -14536,7 +14533,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G479" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -14562,7 +14559,7 @@
         <v>3.4760000705719</v>
       </c>
       <c r="G480" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -14588,7 +14585,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G481" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -14614,7 +14611,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G482" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -14640,7 +14637,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G483" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -14666,7 +14663,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G484" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -14692,7 +14689,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G485" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -14718,7 +14715,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G486" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -14744,7 +14741,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G487" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -14770,7 +14767,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G488" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -14796,7 +14793,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G489" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -14822,7 +14819,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G490" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -14848,7 +14845,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G491" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -14874,7 +14871,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G492" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -14900,7 +14897,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -14926,7 +14923,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G494" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -14952,7 +14949,7 @@
         <v>3.5220000743866</v>
       </c>
       <c r="G495" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -14978,7 +14975,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G496" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -15004,7 +15001,7 @@
         <v>3.51799988746643</v>
       </c>
       <c r="G497" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -15030,7 +15027,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15056,7 +15053,7 @@
         <v>3.41799998283386</v>
       </c>
       <c r="G499" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -15082,7 +15079,7 @@
         <v>3.42400002479553</v>
       </c>
       <c r="G500" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -15108,7 +15105,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G501" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -15160,7 +15157,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G503" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -15186,7 +15183,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G504" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -15238,7 +15235,7 @@
         <v>3.50799989700317</v>
       </c>
       <c r="G506" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -15316,7 +15313,7 @@
         <v>3.48399996757507</v>
       </c>
       <c r="G509" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -15342,7 +15339,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G510" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -15368,7 +15365,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G511" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -15394,7 +15391,7 @@
         <v>3.48600006103516</v>
       </c>
       <c r="G512" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -15420,7 +15417,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G513" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -15446,7 +15443,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G514" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -15472,7 +15469,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G515" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -15498,7 +15495,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G516" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -15550,7 +15547,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G518" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -15576,7 +15573,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G519" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -15602,7 +15599,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G520" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -15628,7 +15625,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G521" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -15654,7 +15651,7 @@
         <v>3.5</v>
       </c>
       <c r="G522" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -15706,7 +15703,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G524" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -15732,7 +15729,7 @@
         <v>3.58999991416931</v>
       </c>
       <c r="G525" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -15758,7 +15755,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G526" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -15784,7 +15781,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G527" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -15810,7 +15807,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G528" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -15836,7 +15833,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G529" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -15862,7 +15859,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G530" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -15888,7 +15885,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G531" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -15914,7 +15911,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G532" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -15940,7 +15937,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G533" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -15966,7 +15963,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G534" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -15992,7 +15989,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G535" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -16018,7 +16015,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G536" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -16044,7 +16041,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G537" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -16070,7 +16067,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G538" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -16096,7 +16093,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G539" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -16798,7 +16795,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G566" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -16824,7 +16821,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G567" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -16850,7 +16847,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G568" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -16876,7 +16873,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G569" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -16902,7 +16899,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G570" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -16928,7 +16925,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G571" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -16954,7 +16951,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G572" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -16980,7 +16977,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G573" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17006,7 +17003,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G574" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -17032,7 +17029,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G575" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17084,7 +17081,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G577" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -17110,7 +17107,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G578" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -17136,7 +17133,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G579" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -17162,7 +17159,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G580" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -17188,7 +17185,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G581" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -17214,7 +17211,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G582" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -17240,7 +17237,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G583" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -17266,7 +17263,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G584" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -17292,7 +17289,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G585" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -17318,7 +17315,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G586" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -17344,7 +17341,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G587" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -17396,7 +17393,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G589" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -17422,7 +17419,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G590" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -17448,7 +17445,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G591" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -17474,7 +17471,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G592" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -17526,7 +17523,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G594" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -17552,7 +17549,7 @@
         <v>3.5</v>
       </c>
       <c r="G595" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -17578,7 +17575,7 @@
         <v>3.5</v>
       </c>
       <c r="G596" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -17604,7 +17601,7 @@
         <v>3.5</v>
       </c>
       <c r="G597" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -17656,7 +17653,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G599" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -17682,7 +17679,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G600" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -17708,7 +17705,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G601" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -17734,7 +17731,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G602" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -17786,7 +17783,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G604" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -17812,7 +17809,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G605" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -17838,7 +17835,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G606" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -17864,7 +17861,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G607" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -56760,7 +56757,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56786,7 +56783,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56994,7 +56991,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57124,7 +57121,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57150,7 +57147,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57176,7 +57173,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57228,7 +57225,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57254,7 +57251,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57306,7 +57303,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57332,7 +57329,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57358,7 +57355,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57384,7 +57381,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57410,7 +57407,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57436,7 +57433,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57540,7 +57537,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57566,7 +57563,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57592,7 +57589,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57618,7 +57615,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57644,7 +57641,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57670,7 +57667,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57696,7 +57693,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57722,7 +57719,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57748,7 +57745,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57774,7 +57771,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57800,7 +57797,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57826,7 +57823,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57852,7 +57849,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57878,7 +57875,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57904,7 +57901,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57930,7 +57927,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57956,7 +57953,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57982,7 +57979,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58008,7 +58005,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58034,7 +58031,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58060,7 +58057,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58086,7 +58083,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58112,7 +58109,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2155" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58138,7 +58135,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58164,7 +58161,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58190,7 +58187,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2158" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58216,7 +58213,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2159" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58242,7 +58239,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2160" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58268,7 +58265,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2161" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58294,7 +58291,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2162" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58320,7 +58317,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2163" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58346,7 +58343,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2164" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58372,7 +58369,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2165" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58398,7 +58395,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2166" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58424,7 +58421,7 @@
         <v>3.25</v>
       </c>
       <c r="G2167" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58450,7 +58447,7 @@
         <v>3.25</v>
       </c>
       <c r="G2168" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58476,7 +58473,7 @@
         <v>3.25</v>
       </c>
       <c r="G2169" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58502,7 +58499,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2170" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58528,7 +58525,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58554,7 +58551,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2172" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58580,7 +58577,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2173" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58606,7 +58603,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2174" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58632,7 +58629,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2175" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58658,7 +58655,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2176" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58684,7 +58681,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2177" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58710,7 +58707,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2178" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58736,7 +58733,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2179" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58762,7 +58759,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2180" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58788,7 +58785,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2181" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58814,7 +58811,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2182" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58840,7 +58837,7 @@
         <v>3.25</v>
       </c>
       <c r="G2183" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58866,7 +58863,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2184" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58892,7 +58889,7 @@
         <v>3.25</v>
       </c>
       <c r="G2185" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58918,7 +58915,7 @@
         <v>3.25</v>
       </c>
       <c r="G2186" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58944,7 +58941,7 @@
         <v>3.25</v>
       </c>
       <c r="G2187" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58952,7 +58949,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="1" t="n">
-        <v>45509.6100694444</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B2188" t="n">
         <v>410</v>
@@ -58970,9 +58967,35 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2188" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H2188" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B2189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2189" t="n">
+        <v>3.24000000953674</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>3.24000000953674</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>3.24000000953674</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>3.24000000953674</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2189" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="580">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,19 +44,19 @@
     <t xml:space="preserve">ENV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35517859458923</t>
+    <t xml:space="preserve">2.35517835617065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28581142425537</t>
+    <t xml:space="preserve">2.28581166267395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397915840149</t>
+    <t xml:space="preserve">2.30397939682007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185139656067</t>
+    <t xml:space="preserve">2.17185163497925</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21974754333496</t>
+    <t xml:space="preserve">2.21974802017212</t>
   </si>
   <si>
     <t xml:space="preserve">2.18836736679077</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">2.00503993034363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257459640503</t>
+    <t xml:space="preserve">2.09257435798645</t>
   </si>
   <si>
     <t xml:space="preserve">2.11404538154602</t>
@@ -92,25 +92,25 @@
     <t xml:space="preserve">2.06449770927429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03972315788269</t>
+    <t xml:space="preserve">2.03972339630127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03642058372498</t>
+    <t xml:space="preserve">2.0364203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852384090424</t>
+    <t xml:space="preserve">1.98852396011353</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365939617157</t>
+    <t xml:space="preserve">1.97365951538086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119418144226</t>
+    <t xml:space="preserve">2.06119441986084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017560482025</t>
+    <t xml:space="preserve">1.99017572402954</t>
   </si>
   <si>
     <t xml:space="preserve">2.01329779624939</t>
@@ -122,31 +122,31 @@
     <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875323295593</t>
+    <t xml:space="preserve">2.32875275611877</t>
   </si>
   <si>
     <t xml:space="preserve">2.35352730751038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223678588867</t>
+    <t xml:space="preserve">2.31223702430725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22139954566956</t>
+    <t xml:space="preserve">2.22139930725098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14707732200623</t>
+    <t xml:space="preserve">2.14707708358765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716816902161</t>
+    <t xml:space="preserve">2.13716769218445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746366500854</t>
+    <t xml:space="preserve">2.28746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36839151382446</t>
+    <t xml:space="preserve">2.36839175224304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739696502686</t>
+    <t xml:space="preserve">2.47739672660828</t>
   </si>
   <si>
     <t xml:space="preserve">2.34526920318604</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520250320435</t>
+    <t xml:space="preserve">2.5352029800415</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126662254333</t>
+    <t xml:space="preserve">2.60126709938049</t>
   </si>
   <si>
     <t xml:space="preserve">2.59135699272156</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180955886841</t>
+    <t xml:space="preserve">2.54180932044983</t>
   </si>
   <si>
     <t xml:space="preserve">2.51703524589539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868653297424</t>
+    <t xml:space="preserve">2.51868677139282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47244215011597</t>
+    <t xml:space="preserve">2.47244238853455</t>
   </si>
   <si>
     <t xml:space="preserve">2.50712585449219</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">2.41793942451477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574543952942</t>
+    <t xml:space="preserve">2.47574496269226</t>
   </si>
   <si>
     <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49391317367554</t>
+    <t xml:space="preserve">2.49391293525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253252029419</t>
+    <t xml:space="preserve">2.46253275871277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43610739707947</t>
+    <t xml:space="preserve">2.43610692024231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4030749797821</t>
+    <t xml:space="preserve">2.40307545661926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4410617351532</t>
+    <t xml:space="preserve">2.44106197357178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4245457649231</t>
+    <t xml:space="preserve">2.42454600334167</t>
   </si>
   <si>
     <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2114896774292</t>
+    <t xml:space="preserve">2.21148943901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.1404709815979</t>
@@ -233,94 +233,94 @@
     <t xml:space="preserve">2.16854786872864</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15533566474915</t>
+    <t xml:space="preserve">2.15533518791199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10578727722168</t>
+    <t xml:space="preserve">2.10578751564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04610896110535</t>
+    <t xml:space="preserve">2.0461094379425</t>
   </si>
   <si>
     <t xml:space="preserve">2.00598955154419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303542137146</t>
+    <t xml:space="preserve">2.13303565979004</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02772116661072</t>
+    <t xml:space="preserve">2.0277214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04778122901917</t>
+    <t xml:space="preserve">2.04778099060059</t>
   </si>
   <si>
     <t xml:space="preserve">2.03942251205444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02270579338074</t>
+    <t xml:space="preserve">2.02270603179932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01434803009033</t>
+    <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255611419678</t>
+    <t xml:space="preserve">1.97255623340607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431776046753</t>
+    <t xml:space="preserve">2.00431799888611</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927295207977</t>
+    <t xml:space="preserve">1.98927271366119</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825463294983</t>
+    <t xml:space="preserve">1.64825487136841</t>
   </si>
   <si>
     <t xml:space="preserve">1.79703235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374907493591</t>
+    <t xml:space="preserve">1.81374883651733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207716464996</t>
+    <t xml:space="preserve">1.81207704544067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195715904236</t>
+    <t xml:space="preserve">1.77195727825165</t>
   </si>
   <si>
     <t xml:space="preserve">1.75356924533844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73016583919525</t>
+    <t xml:space="preserve">1.73016595840454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72180771827698</t>
+    <t xml:space="preserve">1.7218074798584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73852396011353</t>
+    <t xml:space="preserve">1.7385241985321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837440013885</t>
+    <t xml:space="preserve">1.68837463855743</t>
   </si>
   <si>
     <t xml:space="preserve">1.75524079799652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855411052704</t>
+    <t xml:space="preserve">1.74855422973633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688255786896</t>
+    <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
     <t xml:space="preserve">1.71344923973083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68001627922058</t>
+    <t xml:space="preserve">1.680016040802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673275947571</t>
+    <t xml:space="preserve">1.696732878685</t>
   </si>
   <si>
     <t xml:space="preserve">1.87225687503815</t>
@@ -329,43 +329,43 @@
     <t xml:space="preserve">1.9641979932785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754145622253</t>
+    <t xml:space="preserve">1.96754109859467</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613923072815</t>
+    <t xml:space="preserve">2.05613946914673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933265686035</t>
+    <t xml:space="preserve">2.00933289527893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02604937553406</t>
+    <t xml:space="preserve">2.02604961395264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443788528442</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0778706073761</t>
+    <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
     <t xml:space="preserve">2.05781054496765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088468074799</t>
+    <t xml:space="preserve">1.97088444232941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413828849792</t>
+    <t xml:space="preserve">1.94413793087006</t>
   </si>
   <si>
     <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103447914124</t>
+    <t xml:space="preserve">2.02103424072266</t>
   </si>
   <si>
     <t xml:space="preserve">1.99763131141663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0711841583252</t>
+    <t xml:space="preserve">2.07118391990662</t>
   </si>
   <si>
     <t xml:space="preserve">2.07285594940186</t>
@@ -374,25 +374,25 @@
     <t xml:space="preserve">2.09625887870789</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464715003967</t>
+    <t xml:space="preserve">2.11464738845825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19822978973389</t>
+    <t xml:space="preserve">2.19823026657104</t>
   </si>
   <si>
     <t xml:space="preserve">2.1882004737854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652820587158</t>
+    <t xml:space="preserve">2.18652868270874</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643882751465</t>
+    <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
     <t xml:space="preserve">2.16312527656555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16479706764221</t>
+    <t xml:space="preserve">2.16479682922363</t>
   </si>
   <si>
     <t xml:space="preserve">2.19655847549438</t>
@@ -404,40 +404,40 @@
     <t xml:space="preserve">2.22330522537231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29685807228088</t>
+    <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33196258544922</t>
+    <t xml:space="preserve">2.3319628238678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34032106399536</t>
+    <t xml:space="preserve">2.34032130241394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34700775146484</t>
+    <t xml:space="preserve">2.34700798988342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38044095039368</t>
+    <t xml:space="preserve">2.3804407119751</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536623001099</t>
+    <t xml:space="preserve">2.35536575317383</t>
   </si>
   <si>
     <t xml:space="preserve">2.32360458374023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855965614319</t>
+    <t xml:space="preserve">2.30855989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386492729187</t>
+    <t xml:space="preserve">2.33864951133728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31691789627075</t>
+    <t xml:space="preserve">2.31691765785217</t>
   </si>
   <si>
     <t xml:space="preserve">2.34533619880676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36539602279663</t>
+    <t xml:space="preserve">2.36539578437805</t>
   </si>
   <si>
     <t xml:space="preserve">2.36372447013855</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">2.25673818588257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30521631240845</t>
+    <t xml:space="preserve">2.30521655082703</t>
   </si>
   <si>
     <t xml:space="preserve">2.24670815467834</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">2.14808034896851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17984175682068</t>
+    <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
     <t xml:space="preserve">2.11631894111633</t>
@@ -476,28 +476,28 @@
     <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011156082153</t>
+    <t xml:space="preserve">2.27011179924011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25506663322449</t>
+    <t xml:space="preserve">2.25506639480591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1898717880249</t>
+    <t xml:space="preserve">2.18987202644348</t>
   </si>
   <si>
     <t xml:space="preserve">2.25339484214783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19154357910156</t>
+    <t xml:space="preserve">2.19154334068298</t>
   </si>
   <si>
     <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2433648109436</t>
+    <t xml:space="preserve">2.24336528778076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1413938999176</t>
+    <t xml:space="preserve">2.14139366149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.14640879631042</t>
@@ -506,25 +506,25 @@
     <t xml:space="preserve">2.183185338974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688762664795</t>
+    <t xml:space="preserve">2.30688786506653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861971855164</t>
+    <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554594039917</t>
+    <t xml:space="preserve">2.41554570198059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42223262786865</t>
+    <t xml:space="preserve">2.42223238945007</t>
   </si>
   <si>
     <t xml:space="preserve">2.40551567077637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45900893211365</t>
+    <t xml:space="preserve">2.45900845527649</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709784507751</t>
+    <t xml:space="preserve">2.37709760665894</t>
   </si>
   <si>
     <t xml:space="preserve">2.52754664421082</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54927825927734</t>
+    <t xml:space="preserve">2.54927849769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.48909854888916</t>
@@ -545,13 +545,13 @@
     <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241209983826</t>
+    <t xml:space="preserve">2.48241186141968</t>
   </si>
   <si>
     <t xml:space="preserve">2.3971574306488</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43894910812378</t>
+    <t xml:space="preserve">2.4389488697052</t>
   </si>
   <si>
     <t xml:space="preserve">2.49077033996582</t>
@@ -560,22 +560,22 @@
     <t xml:space="preserve">2.49912881851196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50414371490479</t>
+    <t xml:space="preserve">2.50414347648621</t>
   </si>
   <si>
     <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45399379730225</t>
+    <t xml:space="preserve">2.45399403572083</t>
   </si>
   <si>
     <t xml:space="preserve">2.46402382850647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39882922172546</t>
+    <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390394210815</t>
+    <t xml:space="preserve">2.42390370368958</t>
   </si>
   <si>
     <t xml:space="preserve">2.59942817687988</t>
@@ -584,52 +584,52 @@
     <t xml:space="preserve">2.64790606498718</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62450289726257</t>
+    <t xml:space="preserve">2.62450313568115</t>
   </si>
   <si>
     <t xml:space="preserve">2.67298102378845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64957761764526</t>
+    <t xml:space="preserve">2.64957785606384</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163862228394</t>
+    <t xml:space="preserve">2.78163886070251</t>
   </si>
   <si>
     <t xml:space="preserve">2.84181833267212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847522735596</t>
+    <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83513164520264</t>
+    <t xml:space="preserve">2.83513188362122</t>
   </si>
   <si>
     <t xml:space="preserve">2.81674337387085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346009254456</t>
+    <t xml:space="preserve">2.83346033096313</t>
   </si>
   <si>
     <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811580657959</t>
+    <t xml:space="preserve">2.71811556816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172895431519</t>
+    <t xml:space="preserve">2.81172871589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74987697601318</t>
+    <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659393310547</t>
+    <t xml:space="preserve">2.76659369468689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.751549243927</t>
+    <t xml:space="preserve">2.75154900550842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495217323303</t>
+    <t xml:space="preserve">2.77495241165161</t>
   </si>
   <si>
     <t xml:space="preserve">2.79166889190674</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">2.75823545455933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316073417664</t>
+    <t xml:space="preserve">2.73316097259521</t>
   </si>
   <si>
     <t xml:space="preserve">2.78331017494202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817586898804</t>
+    <t xml:space="preserve">2.73817539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838537216187</t>
+    <t xml:space="preserve">2.80838513374329</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79835557937622</t>
+    <t xml:space="preserve">2.79835534095764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002689361572</t>
+    <t xml:space="preserve">2.80002665519714</t>
   </si>
   <si>
     <t xml:space="preserve">3.02068591117859</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">2.95883440971375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.96384930610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856484413147</t>
+    <t xml:space="preserve">2.86856508255005</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96552133560181</t>
+    <t xml:space="preserve">2.96552157402039</t>
   </si>
   <si>
     <t xml:space="preserve">2.9972825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898408889771</t>
+    <t xml:space="preserve">3.00898432731628</t>
   </si>
   <si>
     <t xml:space="preserve">2.86355018615723</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">2.87859511375427</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94867610931396</t>
+    <t xml:space="preserve">2.94867587089539</t>
   </si>
   <si>
     <t xml:space="preserve">3.00936913490295</t>
@@ -707,22 +707,22 @@
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622866630554</t>
+    <t xml:space="preserve">3.02622842788696</t>
   </si>
   <si>
     <t xml:space="preserve">2.97733688354492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88292527198792</t>
+    <t xml:space="preserve">2.88292503356934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86606597900391</t>
+    <t xml:space="preserve">2.86606621742249</t>
   </si>
   <si>
     <t xml:space="preserve">2.84246301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87112379074097</t>
+    <t xml:space="preserve">2.87112355232239</t>
   </si>
   <si>
     <t xml:space="preserve">2.80705857276917</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">2.75648093223572</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74973750114441</t>
+    <t xml:space="preserve">2.74973726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624992370605</t>
+    <t xml:space="preserve">2.73625040054321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7581672668457</t>
+    <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
     <t xml:space="preserve">2.77502655982971</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">2.8896689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629698753357</t>
+    <t xml:space="preserve">2.88629722595215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85763645172119</t>
+    <t xml:space="preserve">2.85763621330261</t>
   </si>
   <si>
     <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123941421509</t>
+    <t xml:space="preserve">2.88123965263367</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9419322013855</t>
+    <t xml:space="preserve">2.94193243980408</t>
   </si>
   <si>
     <t xml:space="preserve">2.9267590045929</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92844486236572</t>
+    <t xml:space="preserve">2.9284451007843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93518877029419</t>
+    <t xml:space="preserve">2.93518900871277</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699001312256</t>
+    <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
     <t xml:space="preserve">2.92507338523865</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">2.91664385795593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9368748664856</t>
+    <t xml:space="preserve">2.93687462806702</t>
   </si>
   <si>
     <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89978432655334</t>
+    <t xml:space="preserve">2.89978408813477</t>
   </si>
   <si>
     <t xml:space="preserve">2.92001557350159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024658203125</t>
+    <t xml:space="preserve">2.94024634361267</t>
   </si>
   <si>
     <t xml:space="preserve">2.91495752334595</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">2.94530439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97902274131775</t>
+    <t xml:space="preserve">2.97902250289917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98408055305481</t>
+    <t xml:space="preserve">2.98408031463623</t>
   </si>
   <si>
     <t xml:space="preserve">2.97565078735352</t>
@@ -818,10 +818,10 @@
     <t xml:space="preserve">2.95373392105103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879149436951</t>
+    <t xml:space="preserve">2.95879197120667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315651893616</t>
+    <t xml:space="preserve">2.90315628051758</t>
   </si>
   <si>
     <t xml:space="preserve">2.84920692443848</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93856072425842</t>
+    <t xml:space="preserve">2.93856048583984</t>
   </si>
   <si>
     <t xml:space="preserve">2.93181681632996</t>
@@ -842,34 +842,34 @@
     <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8407769203186</t>
+    <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.95710587501526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227931022644</t>
+    <t xml:space="preserve">2.97227907180786</t>
   </si>
   <si>
     <t xml:space="preserve">2.98745203018188</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9183292388916</t>
+    <t xml:space="preserve">2.91832947731018</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91158580780029</t>
+    <t xml:space="preserve">2.91158556938171</t>
   </si>
   <si>
     <t xml:space="preserve">3.03465795516968</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01779913902283</t>
+    <t xml:space="preserve">3.01779890060425</t>
   </si>
   <si>
     <t xml:space="preserve">3.03803014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07680630683899</t>
+    <t xml:space="preserve">3.07680606842041</t>
   </si>
   <si>
     <t xml:space="preserve">3.00431156158447</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">3.05657482147217</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15098643302917</t>
+    <t xml:space="preserve">3.15098667144775</t>
   </si>
   <si>
     <t xml:space="preserve">3.11895418167114</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454280853271</t>
+    <t xml:space="preserve">3.02454257011414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285647392273</t>
+    <t xml:space="preserve">3.02285671234131</t>
   </si>
   <si>
     <t xml:space="preserve">3.02117085456848</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147018432617</t>
+    <t xml:space="preserve">2.90147042274475</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93013119697571</t>
+    <t xml:space="preserve">2.93013095855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81548857688904</t>
+    <t xml:space="preserve">2.81548833847046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87449550628662</t>
+    <t xml:space="preserve">2.8744957447052</t>
   </si>
   <si>
     <t xml:space="preserve">2.96890711784363</t>
@@ -917,28 +917,25 @@
     <t xml:space="preserve">2.99251008033752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384930610657</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.87280964851379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96047759056091</t>
+    <t xml:space="preserve">2.96047735214233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484237670898</t>
+    <t xml:space="preserve">2.90484261512756</t>
   </si>
   <si>
     <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350291252136</t>
+    <t xml:space="preserve">2.93350315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862928390503</t>
+    <t xml:space="preserve">2.79862904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962187767029</t>
+    <t xml:space="preserve">2.73962211608887</t>
   </si>
   <si>
     <t xml:space="preserve">2.68061470985413</t>
@@ -950,10 +947,10 @@
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904447555542</t>
+    <t xml:space="preserve">2.68904423713684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63003706932068</t>
+    <t xml:space="preserve">2.6300368309021</t>
   </si>
   <si>
     <t xml:space="preserve">2.57945942878723</t>
@@ -965,10 +962,10 @@
     <t xml:space="preserve">2.59631848335266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417037010193</t>
+    <t xml:space="preserve">2.55417060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58788895606995</t>
+    <t xml:space="preserve">2.58788871765137</t>
   </si>
   <si>
     <t xml:space="preserve">2.61317777633667</t>
@@ -983,37 +980,37 @@
     <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79019951820374</t>
+    <t xml:space="preserve">2.79019975662231</t>
   </si>
   <si>
     <t xml:space="preserve">3.05994725227356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96281099319458</t>
+    <t xml:space="preserve">2.962810754776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9455349445343</t>
+    <t xml:space="preserve">2.94553518295288</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0146381855011</t>
+    <t xml:space="preserve">3.01463842391968</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872470855713</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736285209656</t>
+    <t xml:space="preserve">2.99736261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417308807373</t>
+    <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85915565490723</t>
+    <t xml:space="preserve">2.85915589332581</t>
   </si>
   <si>
     <t xml:space="preserve">2.81596612930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8332417011261</t>
+    <t xml:space="preserve">2.83324193954468</t>
   </si>
   <si>
     <t xml:space="preserve">2.781414270401</t>
@@ -1028,19 +1025,19 @@
     <t xml:space="preserve">2.7641384601593</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77277636528015</t>
+    <t xml:space="preserve">2.77277660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68639707565308</t>
+    <t xml:space="preserve">2.6863968372345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72958660125732</t>
+    <t xml:space="preserve">2.7295868396759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775917053223</t>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137964248657</t>
+    <t xml:space="preserve">2.59137988090515</t>
   </si>
   <si>
     <t xml:space="preserve">2.73822474479675</t>
@@ -1049,7 +1046,7 @@
     <t xml:space="preserve">2.6518452167511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7123110294342</t>
+    <t xml:space="preserve">2.71231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
@@ -1058,61 +1055,61 @@
     <t xml:space="preserve">2.72094893455505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550031661987</t>
+    <t xml:space="preserve">2.75550055503845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64320731163025</t>
+    <t xml:space="preserve">2.64320755004883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70367288589478</t>
+    <t xml:space="preserve">2.70367312431335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69503498077393</t>
+    <t xml:space="preserve">2.69503474235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048312187195</t>
+    <t xml:space="preserve">2.66048336029053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.600017786026</t>
+    <t xml:space="preserve">2.60001802444458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60865569114685</t>
+    <t xml:space="preserve">2.60865545272827</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410407066345</t>
+    <t xml:space="preserve">2.57410383224487</t>
   </si>
   <si>
     <t xml:space="preserve">2.56546592712402</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481903553009</t>
+    <t xml:space="preserve">2.54819011688232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55682826042175</t>
+    <t xml:space="preserve">2.55682802200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61729335784912</t>
+    <t xml:space="preserve">2.6172935962677</t>
   </si>
   <si>
     <t xml:space="preserve">2.6345694065094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6691210269928</t>
+    <t xml:space="preserve">2.66912078857422</t>
   </si>
   <si>
     <t xml:space="preserve">2.80732798576355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82460403442383</t>
+    <t xml:space="preserve">2.82460379600525</t>
   </si>
   <si>
     <t xml:space="preserve">2.84187960624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85051774978638</t>
+    <t xml:space="preserve">2.8505175113678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89370727539062</t>
+    <t xml:space="preserve">2.8937075138092</t>
   </si>
   <si>
     <t xml:space="preserve">2.9282591342926</t>
@@ -1130,25 +1127,25 @@
     <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689703941345</t>
+    <t xml:space="preserve">2.93689727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327656745911</t>
+    <t xml:space="preserve">3.02327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646585464478</t>
+    <t xml:space="preserve">3.06646609306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.04055213928223</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00600051879883</t>
+    <t xml:space="preserve">3.00600075721741</t>
   </si>
   <si>
     <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03191423416138</t>
+    <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
     <t xml:space="preserve">2.9800865650177</t>
@@ -1157,19 +1154,22 @@
     <t xml:space="preserve">3.0923798084259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97144889831543</t>
+    <t xml:space="preserve">2.97144865989685</t>
   </si>
   <si>
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91875743865967</t>
+    <t xml:space="preserve">2.94553470611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91875720024109</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231221199036</t>
+    <t xml:space="preserve">2.97231245040894</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
@@ -1178,34 +1178,34 @@
     <t xml:space="preserve">3.02586770057678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07049703598022</t>
+    <t xml:space="preserve">3.07049679756165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264544487</t>
+    <t xml:space="preserve">3.05264520645142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694178581238</t>
+    <t xml:space="preserve">3.01694202423096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908995628357</t>
+    <t xml:space="preserve">2.99909019470215</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0615713596344</t>
+    <t xml:space="preserve">3.06157112121582</t>
   </si>
   <si>
     <t xml:space="preserve">3.07942271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">3.09727478027344</t>
+    <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371929168701</t>
+    <t xml:space="preserve">3.04371953010559</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08834886550903</t>
+    <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1329779624939</t>
+    <t xml:space="preserve">3.13297820091248</t>
   </si>
   <si>
     <t xml:space="preserve">2.93660879135132</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">2.92768311500549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90090537071228</t>
+    <t xml:space="preserve">2.90090560913086</t>
   </si>
   <si>
     <t xml:space="preserve">2.90983152389526</t>
@@ -1232,22 +1232,22 @@
     <t xml:space="preserve">2.75809168815613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81164717674255</t>
+    <t xml:space="preserve">2.81164693832397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74916577339172</t>
+    <t xml:space="preserve">2.7491660118103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.67775917053223</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205574989319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62420392036438</t>
+    <t xml:space="preserve">2.6242036819458</t>
   </si>
   <si>
     <t xml:space="preserve">2.60635209083557</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883325576782</t>
+    <t xml:space="preserve">2.66883301734924</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453643798828</t>
+    <t xml:space="preserve">2.70453667640686</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
@@ -1295,28 +1295,28 @@
     <t xml:space="preserve">3.1419038772583</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11512613296509</t>
+    <t xml:space="preserve">3.11512637138367</t>
   </si>
   <si>
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620045661926</t>
+    <t xml:space="preserve">3.10620069503784</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99016404151917</t>
+    <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
     <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272126197815</t>
+    <t xml:space="preserve">2.80272102355957</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379510879517</t>
+    <t xml:space="preserve">2.79379534721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4278347492218</t>
+    <t xml:space="preserve">2.42783498764038</t>
   </si>
   <si>
     <t xml:space="preserve">2.47246408462524</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">2.46353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57957482337952</t>
+    <t xml:space="preserve">2.57957458496094</t>
   </si>
   <si>
     <t xml:space="preserve">2.61527800559998</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78486943244934</t>
+    <t xml:space="preserve">2.78486919403076</t>
   </si>
   <si>
     <t xml:space="preserve">2.77594351768494</t>
@@ -1346,10 +1346,10 @@
     <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305377960205</t>
+    <t xml:space="preserve">2.88305401802063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057285308838</t>
+    <t xml:space="preserve">2.82057309150696</t>
   </si>
   <si>
     <t xml:space="preserve">2.74023985862732</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">2.63312983512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064867019653</t>
+    <t xml:space="preserve">2.57064890861511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49924182891846</t>
+    <t xml:space="preserve">2.49924159049988</t>
   </si>
   <si>
     <t xml:space="preserve">2.55279684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031591415405</t>
+    <t xml:space="preserve">2.49031567573547</t>
   </si>
   <si>
     <t xml:space="preserve">2.43676090240479</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">2.39213132858276</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38320565223694</t>
+    <t xml:space="preserve">2.38320541381836</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189088344574</t>
+    <t xml:space="preserve">2.41890907287598</t>
   </si>
   <si>
     <t xml:space="preserve">2.45461249351501</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">3.15082979202271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653321266174</t>
+    <t xml:space="preserve">3.18653297424316</t>
   </si>
   <si>
     <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545912742615</t>
+    <t xml:space="preserve">3.19545888900757</t>
   </si>
   <si>
     <t xml:space="preserve">3.35612463951111</t>
@@ -1415,19 +1415,19 @@
     <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042121887207</t>
+    <t xml:space="preserve">3.32042098045349</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108696937561</t>
+    <t xml:space="preserve">3.48108673095703</t>
   </si>
   <si>
     <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893856048584</t>
+    <t xml:space="preserve">3.49893832206726</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">3.64175224304199</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5346417427063</t>
+    <t xml:space="preserve">3.53464198112488</t>
   </si>
   <si>
     <t xml:space="preserve">3.51679039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967988967896</t>
+    <t xml:space="preserve">3.40967965126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.17760729789734</t>
@@ -1484,10 +1484,10 @@
     <t xml:space="preserve">3.17704129219055</t>
   </si>
   <si>
-    <t xml:space="preserve">3.25992059707642</t>
+    <t xml:space="preserve">3.259920835495</t>
   </si>
   <si>
-    <t xml:space="preserve">3.29675602912903</t>
+    <t xml:space="preserve">3.29675579071045</t>
   </si>
   <si>
     <t xml:space="preserve">3.1309974193573</t>
@@ -1499,7 +1499,10 @@
     <t xml:space="preserve">3.23229432106018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.22308540344238</t>
+    <t xml:space="preserve">3.22308564186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -1508,7 +1511,7 @@
     <t xml:space="preserve">3.1402063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03890919685364</t>
+    <t xml:space="preserve">3.03890895843506</t>
   </si>
   <si>
     <t xml:space="preserve">3.07574439048767</t>
@@ -1520,16 +1523,16 @@
     <t xml:space="preserve">3.11257982254028</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0112829208374</t>
+    <t xml:space="preserve">3.01128268241882</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06653547286987</t>
+    <t xml:space="preserve">3.06653571128845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94682097434998</t>
+    <t xml:space="preserve">2.94682121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96523857116699</t>
+    <t xml:space="preserve">2.96523880958557</t>
   </si>
   <si>
     <t xml:space="preserve">3.09416198730469</t>
@@ -1544,22 +1547,22 @@
     <t xml:space="preserve">3.08495330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18625044822693</t>
+    <t xml:space="preserve">3.18625020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04811787605286</t>
+    <t xml:space="preserve">3.04811811447144</t>
   </si>
   <si>
     <t xml:space="preserve">3.02970027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02049160003662</t>
+    <t xml:space="preserve">3.02049136161804</t>
   </si>
   <si>
     <t xml:space="preserve">2.95602989196777</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98365616798401</t>
+    <t xml:space="preserve">2.98365640640259</t>
   </si>
   <si>
     <t xml:space="preserve">2.81789755821228</t>
@@ -1586,10 +1589,10 @@
     <t xml:space="preserve">2.93761229515076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99286532402039</t>
+    <t xml:space="preserve">2.99286508560181</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2415030002594</t>
+    <t xml:space="preserve">3.24150323867798</t>
   </si>
   <si>
     <t xml:space="preserve">2.90077686309814</t>
@@ -1680,6 +1683,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.00441360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94682097434998</t>
   </si>
   <si>
     <t xml:space="preserve">3.04280877113342</t>
@@ -15027,7 +15033,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15131,7 +15137,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G502" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15209,7 +15215,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G505" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15261,7 +15267,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G507" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15287,7 +15293,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15521,7 +15527,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15677,7 +15683,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G523" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16119,7 +16125,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G540" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16145,7 +16151,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16171,7 +16177,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G542" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16197,7 +16203,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16223,7 +16229,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G544" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16249,7 +16255,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16275,7 +16281,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G546" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16301,7 +16307,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G547" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16327,7 +16333,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G548" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16353,7 +16359,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16379,7 +16385,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G550" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16405,7 +16411,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G551" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16431,7 +16437,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G552" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16457,7 +16463,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G553" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16483,7 +16489,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G554" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16509,7 +16515,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16535,7 +16541,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G556" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16561,7 +16567,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G557" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16587,7 +16593,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G558" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16613,7 +16619,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G559" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16639,7 +16645,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16665,7 +16671,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16691,7 +16697,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16717,7 +16723,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G563" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16743,7 +16749,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16769,7 +16775,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G565" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17055,7 +17061,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G576" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17367,7 +17373,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G588" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17497,7 +17503,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G593" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17627,7 +17633,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17757,7 +17763,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G603" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17887,7 +17893,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17913,7 +17919,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G609" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17939,7 +17945,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G610" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17965,7 +17971,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -17991,7 +17997,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G612" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18017,7 +18023,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18043,7 +18049,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18069,7 +18075,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G615" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18095,7 +18101,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G616" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18121,7 +18127,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18147,7 +18153,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G618" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18173,7 +18179,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G619" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18199,7 +18205,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18225,7 +18231,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18251,7 +18257,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18277,7 +18283,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18303,7 +18309,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18329,7 +18335,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18355,7 +18361,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18381,7 +18387,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G627" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18407,7 +18413,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G628" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18433,7 +18439,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G629" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18459,7 +18465,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G630" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18485,7 +18491,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G631" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18511,7 +18517,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18537,7 +18543,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18563,7 +18569,7 @@
         <v>3</v>
       </c>
       <c r="G634" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18589,7 +18595,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G635" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18615,7 +18621,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G636" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18641,7 +18647,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G637" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18667,7 +18673,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G638" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18693,7 +18699,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G639" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18719,7 +18725,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18745,7 +18751,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G641" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18771,7 +18777,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G642" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18797,7 +18803,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18823,7 +18829,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18849,7 +18855,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18875,7 +18881,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G646" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18901,7 +18907,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18927,7 +18933,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G648" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18953,7 +18959,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18979,7 +18985,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G650" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19005,7 +19011,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19031,7 +19037,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19057,7 +19063,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G653" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19083,7 +19089,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G654" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19109,7 +19115,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G655" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19135,7 +19141,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G656" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19161,7 +19167,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G657" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19187,7 +19193,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19213,7 +19219,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19239,7 +19245,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G660" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19265,7 +19271,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19291,7 +19297,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G662" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19317,7 +19323,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G663" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19343,7 +19349,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G664" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19369,7 +19375,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G665" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19395,7 +19401,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G666" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19421,7 +19427,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G667" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19447,7 +19453,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G668" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19473,7 +19479,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19499,7 +19505,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G670" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19525,7 +19531,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G671" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19551,7 +19557,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19577,7 +19583,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19603,7 +19609,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19629,7 +19635,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G675" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19655,7 +19661,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G676" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19681,7 +19687,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19707,7 +19713,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19733,7 +19739,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G679" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19759,7 +19765,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G680" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19785,7 +19791,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19811,7 +19817,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G682" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19837,7 +19843,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G683" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19863,7 +19869,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G684" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19889,7 +19895,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G685" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19915,7 +19921,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19941,7 +19947,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G687" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19967,7 +19973,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -19993,7 +19999,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20019,7 +20025,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G690" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20045,7 +20051,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G691" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20071,7 +20077,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G692" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20097,7 +20103,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G693" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20123,7 +20129,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G694" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20149,7 +20155,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G695" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20175,7 +20181,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G696" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20201,7 +20207,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G697" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20227,7 +20233,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G698" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20253,7 +20259,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G699" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20279,7 +20285,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G700" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20305,7 +20311,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G701" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20331,7 +20337,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G702" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20357,7 +20363,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G703" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20383,7 +20389,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G704" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20409,7 +20415,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G705" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20435,7 +20441,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G706" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20461,7 +20467,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20487,7 +20493,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G708" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20513,7 +20519,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G709" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20539,7 +20545,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20565,7 +20571,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20591,7 +20597,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20617,7 +20623,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20643,7 +20649,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20669,7 +20675,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G715" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20695,7 +20701,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G716" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20721,7 +20727,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G717" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20747,7 +20753,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20773,7 +20779,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G719" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20799,7 +20805,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G720" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20825,7 +20831,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20851,7 +20857,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G722" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20877,7 +20883,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G723" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20903,7 +20909,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G724" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20929,7 +20935,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20955,7 +20961,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20981,7 +20987,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G727" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21007,7 +21013,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G728" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21033,7 +21039,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G729" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21059,7 +21065,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21085,7 +21091,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G731" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21111,7 +21117,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G732" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21137,7 +21143,7 @@
         <v>3.25</v>
       </c>
       <c r="G733" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21163,7 +21169,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G734" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21189,7 +21195,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21215,7 +21221,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21241,7 +21247,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G737" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21267,7 +21273,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21293,7 +21299,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G739" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21319,7 +21325,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G740" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21345,7 +21351,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G741" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21371,7 +21377,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21397,7 +21403,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G743" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21423,7 +21429,7 @@
         <v>3.25</v>
       </c>
       <c r="G744" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21449,7 +21455,7 @@
         <v>3.25</v>
       </c>
       <c r="G745" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21475,7 +21481,7 @@
         <v>3.25</v>
       </c>
       <c r="G746" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21501,7 +21507,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G747" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21527,7 +21533,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G748" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21553,7 +21559,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G749" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21579,7 +21585,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21605,7 +21611,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21631,7 +21637,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G752" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21657,7 +21663,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G753" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21683,7 +21689,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G754" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21709,7 +21715,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21735,7 +21741,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21761,7 +21767,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G757" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21787,7 +21793,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G758" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21813,7 +21819,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G759" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21839,7 +21845,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21865,7 +21871,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21891,7 +21897,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G762" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21917,7 +21923,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G763" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21943,7 +21949,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G764" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21969,7 +21975,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G765" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -21995,7 +22001,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G766" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22021,7 +22027,7 @@
         <v>3.25</v>
       </c>
       <c r="G767" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22047,7 +22053,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G768" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22073,7 +22079,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22099,7 +22105,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G770" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22125,7 +22131,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G771" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22151,7 +22157,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G772" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22177,7 +22183,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22203,7 +22209,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G774" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22229,7 +22235,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22255,7 +22261,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22281,7 +22287,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G777" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22307,7 +22313,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G778" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22333,7 +22339,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G779" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22359,7 +22365,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22385,7 +22391,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G781" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22411,7 +22417,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G782" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22437,7 +22443,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G783" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22463,7 +22469,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22489,7 +22495,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G785" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22515,7 +22521,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G786" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22541,7 +22547,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22567,7 +22573,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22593,7 +22599,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G789" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22619,7 +22625,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G790" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22645,7 +22651,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22671,7 +22677,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G792" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22697,7 +22703,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22723,7 +22729,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G794" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22749,7 +22755,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G795" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22775,7 +22781,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G796" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22801,7 +22807,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G797" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22827,7 +22833,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G798" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22853,7 +22859,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22879,7 +22885,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G800" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22905,7 +22911,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G801" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22931,7 +22937,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22957,7 +22963,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22983,7 +22989,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23009,7 +23015,7 @@
         <v>3.5</v>
       </c>
       <c r="G805" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23035,7 +23041,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23061,7 +23067,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G807" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23087,7 +23093,7 @@
         <v>3.5</v>
       </c>
       <c r="G808" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23113,7 +23119,7 @@
         <v>3.5</v>
       </c>
       <c r="G809" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23139,7 +23145,7 @@
         <v>3.5</v>
       </c>
       <c r="G810" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23165,7 +23171,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23191,7 +23197,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23217,7 +23223,7 @@
         <v>3.5</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23243,7 +23249,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23269,7 +23275,7 @@
         <v>3.5</v>
       </c>
       <c r="G815" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23295,7 +23301,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23321,7 +23327,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G817" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23347,7 +23353,7 @@
         <v>3.5</v>
       </c>
       <c r="G818" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23373,7 +23379,7 @@
         <v>3.5</v>
       </c>
       <c r="G819" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23399,7 +23405,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23425,7 +23431,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G821" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23451,7 +23457,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G822" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23477,7 +23483,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23503,7 +23509,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G824" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23529,7 +23535,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G825" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23555,7 +23561,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23581,7 +23587,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23607,7 +23613,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G828" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23633,7 +23639,7 @@
         <v>3.5</v>
       </c>
       <c r="G829" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23659,7 +23665,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G830" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23685,7 +23691,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23711,7 +23717,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G832" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23737,7 +23743,7 @@
         <v>3.5</v>
       </c>
       <c r="G833" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23763,7 +23769,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G834" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23789,7 +23795,7 @@
         <v>3.5</v>
       </c>
       <c r="G835" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23815,7 +23821,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G836" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23841,7 +23847,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G837" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23867,7 +23873,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G838" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23893,7 +23899,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G839" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23919,7 +23925,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23945,7 +23951,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G841" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23971,7 +23977,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G842" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -23997,7 +24003,7 @@
         <v>3.5</v>
       </c>
       <c r="G843" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24023,7 +24029,7 @@
         <v>3.5</v>
       </c>
       <c r="G844" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24049,7 +24055,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G845" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24075,7 +24081,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24101,7 +24107,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24127,7 +24133,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G848" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24153,7 +24159,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G849" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24179,7 +24185,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24205,7 +24211,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24231,7 +24237,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G852" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24257,7 +24263,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G853" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24283,7 +24289,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G854" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24309,7 +24315,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G855" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24335,7 +24341,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G856" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24361,7 +24367,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G857" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24387,7 +24393,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G858" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24413,7 +24419,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25167,7 +25173,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25271,7 +25277,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25297,7 +25303,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25609,7 +25615,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25739,7 +25745,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25765,7 +25771,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29561,7 +29567,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30705,7 +30711,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -35229,7 +35235,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35281,7 +35287,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -38739,7 +38745,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -43081,7 +43087,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44771,7 +44777,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44797,7 +44803,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44823,7 +44829,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44875,7 +44881,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1646" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44901,7 +44907,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1647" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44927,7 +44933,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1648" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44979,7 +44985,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45005,7 +45011,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45031,7 +45037,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45057,7 +45063,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45083,7 +45089,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1654" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45109,7 +45115,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1655" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45135,7 +45141,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1656" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45161,7 +45167,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1657" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45213,7 +45219,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1659" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45239,7 +45245,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45265,7 +45271,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1661" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45291,7 +45297,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1662" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45317,7 +45323,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45343,7 +45349,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45369,7 +45375,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45395,7 +45401,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1666" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45421,7 +45427,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1667" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45447,7 +45453,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45473,7 +45479,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1669" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45499,7 +45505,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45525,7 +45531,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1671" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45551,7 +45557,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45577,7 +45583,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45603,7 +45609,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1674" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45629,7 +45635,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1675" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45655,7 +45661,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1676" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45681,7 +45687,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1677" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45707,7 +45713,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1678" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45733,7 +45739,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45759,7 +45765,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45785,7 +45791,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1681" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45837,7 +45843,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1683" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45863,7 +45869,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1684" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45915,7 +45921,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45941,7 +45947,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45967,7 +45973,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45993,7 +45999,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1689" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46019,7 +46025,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46045,7 +46051,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46071,7 +46077,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46097,7 +46103,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1693" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46123,7 +46129,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1694" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46149,7 +46155,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46227,7 +46233,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46253,7 +46259,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1699" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46279,7 +46285,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46331,7 +46337,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46357,7 +46363,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46383,7 +46389,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1704" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46409,7 +46415,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1705" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46435,7 +46441,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46461,7 +46467,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1707" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46565,7 +46571,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46591,7 +46597,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46617,7 +46623,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46643,7 +46649,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1714" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46669,7 +46675,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46695,7 +46701,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46721,7 +46727,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46747,7 +46753,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1718" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46773,7 +46779,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46799,7 +46805,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46825,7 +46831,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46851,7 +46857,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46877,7 +46883,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1723" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46903,7 +46909,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1724" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46929,7 +46935,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46955,7 +46961,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1726" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46981,7 +46987,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1727" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47007,7 +47013,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47033,7 +47039,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1729" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47059,7 +47065,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47085,7 +47091,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1731" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47111,7 +47117,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1732" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47137,7 +47143,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47163,7 +47169,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1734" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47189,7 +47195,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1735" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47215,7 +47221,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47241,7 +47247,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1737" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47267,7 +47273,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47293,7 +47299,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47319,7 +47325,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1740" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47345,7 +47351,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47371,7 +47377,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1742" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47397,7 +47403,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47423,7 +47429,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1744" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47449,7 +47455,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1745" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47475,7 +47481,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47501,7 +47507,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1747" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47527,7 +47533,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47553,7 +47559,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1749" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47579,7 +47585,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1750" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47605,7 +47611,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47631,7 +47637,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1752" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47657,7 +47663,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1753" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47683,7 +47689,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47709,7 +47715,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1755" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47735,7 +47741,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1756" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47761,7 +47767,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1757" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47787,7 +47793,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1758" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47813,7 +47819,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47839,7 +47845,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1760" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47865,7 +47871,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47891,7 +47897,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47917,7 +47923,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47943,7 +47949,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47969,7 +47975,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1765" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47995,7 +48001,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1766" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48021,7 +48027,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48047,7 +48053,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1768" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48073,7 +48079,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48099,7 +48105,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1770" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48125,7 +48131,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1771" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48151,7 +48157,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1772" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48177,7 +48183,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1773" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48203,7 +48209,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1774" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48229,7 +48235,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1775" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48255,7 +48261,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1776" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48281,7 +48287,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1777" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48307,7 +48313,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1778" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48333,7 +48339,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1779" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48359,7 +48365,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48385,7 +48391,7 @@
         <v>3.25</v>
       </c>
       <c r="G1781" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48411,7 +48417,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1782" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48437,7 +48443,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48463,7 +48469,7 @@
         <v>3.25</v>
       </c>
       <c r="G1784" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48489,7 +48495,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1785" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48515,7 +48521,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1786" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48541,7 +48547,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48567,7 +48573,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48593,7 +48599,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1789" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48619,7 +48625,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1790" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48645,7 +48651,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1791" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48671,7 +48677,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1792" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48697,7 +48703,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48723,7 +48729,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48749,7 +48755,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1795" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48775,7 +48781,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48801,7 +48807,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48827,7 +48833,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48853,7 +48859,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1799" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48879,7 +48885,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48905,7 +48911,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1801" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48931,7 +48937,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1802" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48957,7 +48963,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1803" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48983,7 +48989,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49009,7 +49015,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1805" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49035,7 +49041,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1806" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49061,7 +49067,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1807" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49087,7 +49093,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49113,7 +49119,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1809" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49139,7 +49145,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1810" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49165,7 +49171,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1811" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49191,7 +49197,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49217,7 +49223,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1813" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49243,7 +49249,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1814" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49269,7 +49275,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1815" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49295,7 +49301,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49321,7 +49327,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1817" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49347,7 +49353,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1818" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49373,7 +49379,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49399,7 +49405,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49425,7 +49431,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49451,7 +49457,7 @@
         <v>3.25</v>
       </c>
       <c r="G1822" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49477,7 +49483,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49503,7 +49509,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1824" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49529,7 +49535,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1825" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49555,7 +49561,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1826" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49581,7 +49587,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49607,7 +49613,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49633,7 +49639,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1829" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49659,7 +49665,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49685,7 +49691,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49711,7 +49717,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49737,7 +49743,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1833" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49763,7 +49769,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1834" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49789,7 +49795,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1835" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49815,7 +49821,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49841,7 +49847,7 @@
         <v>3.25</v>
       </c>
       <c r="G1837" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49867,7 +49873,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1838" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49893,7 +49899,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1839" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49919,7 +49925,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49945,7 +49951,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1841" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49971,7 +49977,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1842" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49997,7 +50003,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1843" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50023,7 +50029,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50049,7 +50055,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1845" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50075,7 +50081,7 @@
         <v>3.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50101,7 +50107,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1847" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50127,7 +50133,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1848" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50153,7 +50159,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1849" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50179,7 +50185,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1850" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50205,7 +50211,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1851" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50231,7 +50237,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50257,7 +50263,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1853" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50283,7 +50289,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1854" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50309,7 +50315,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1855" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50335,7 +50341,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1856" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50361,7 +50367,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1857" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50387,7 +50393,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1858" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50413,7 +50419,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1859" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50439,7 +50445,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1860" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50465,7 +50471,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1861" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50491,7 +50497,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1862" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50517,7 +50523,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1863" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50543,7 +50549,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1864" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50569,7 +50575,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1865" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50595,7 +50601,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1866" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50621,7 +50627,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50647,7 +50653,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50673,7 +50679,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1869" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50699,7 +50705,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1870" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50725,7 +50731,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1871" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50751,7 +50757,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1872" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50777,7 +50783,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1873" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50803,7 +50809,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1874" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50829,7 +50835,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1875" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50855,7 +50861,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1876" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50881,7 +50887,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1877" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50907,7 +50913,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1878" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50933,7 +50939,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1879" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50959,7 +50965,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1880" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50985,7 +50991,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1881" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51011,7 +51017,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1882" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51037,7 +51043,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1883" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51063,7 +51069,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1884" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51089,7 +51095,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1885" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51115,7 +51121,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1886" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51141,7 +51147,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1887" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51167,7 +51173,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1888" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51193,7 +51199,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1889" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51219,7 +51225,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1890" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51245,7 +51251,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1891" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51271,7 +51277,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1892" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51297,7 +51303,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1893" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51323,7 +51329,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1894" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51349,7 +51355,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1895" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51375,7 +51381,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1896" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51401,7 +51407,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1897" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51427,7 +51433,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1898" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51453,7 +51459,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1899" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51479,7 +51485,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1900" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51505,7 +51511,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1901" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51531,7 +51537,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1902" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51557,7 +51563,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1903" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51583,7 +51589,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1904" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51609,7 +51615,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1905" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51635,7 +51641,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1906" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51661,7 +51667,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1907" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51687,7 +51693,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51713,7 +51719,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1909" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51739,7 +51745,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1910" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51765,7 +51771,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51791,7 +51797,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1912" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51817,7 +51823,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51843,7 +51849,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1914" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51869,7 +51875,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51895,7 +51901,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1916" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51921,7 +51927,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51947,7 +51953,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1918" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51973,7 +51979,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1919" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51999,7 +52005,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1920" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52025,7 +52031,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52051,7 +52057,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52077,7 +52083,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52103,7 +52109,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52129,7 +52135,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1925" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52155,7 +52161,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1926" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52181,7 +52187,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1927" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52207,7 +52213,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1928" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52233,7 +52239,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1929" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52259,7 +52265,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1930" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52285,7 +52291,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1931" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52311,7 +52317,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1932" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52337,7 +52343,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1933" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52363,7 +52369,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1934" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52389,7 +52395,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1935" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52415,7 +52421,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1936" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52441,7 +52447,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52467,7 +52473,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1938" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52493,7 +52499,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1939" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52519,7 +52525,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1940" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52545,7 +52551,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52571,7 +52577,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52597,7 +52603,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1943" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52623,7 +52629,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1944" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52649,7 +52655,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52675,7 +52681,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52701,7 +52707,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1947" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52727,7 +52733,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1948" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52753,7 +52759,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1949" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52779,7 +52785,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52805,7 +52811,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52831,7 +52837,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1952" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52857,7 +52863,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1953" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52883,7 +52889,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1954" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52909,7 +52915,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1955" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52935,7 +52941,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1956" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52961,7 +52967,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52987,7 +52993,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53013,7 +53019,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1959" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53039,7 +53045,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53065,7 +53071,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53091,7 +53097,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53117,7 +53123,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1963" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53143,7 +53149,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53169,7 +53175,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53195,7 +53201,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1966" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53221,7 +53227,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1967" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53247,7 +53253,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53273,7 +53279,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53299,7 +53305,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53325,7 +53331,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53351,7 +53357,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1972" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53377,7 +53383,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1973" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53403,7 +53409,7 @@
         <v>3</v>
       </c>
       <c r="G1974" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53429,7 +53435,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1975" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53455,7 +53461,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53481,7 +53487,7 @@
         <v>3</v>
       </c>
       <c r="G1977" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53507,7 +53513,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1978" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53533,7 +53539,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1979" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53559,7 +53565,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53585,7 +53591,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53611,7 +53617,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1982" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53637,7 +53643,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1983" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53663,7 +53669,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1984" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53689,7 +53695,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1985" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53715,7 +53721,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1986" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53741,7 +53747,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1987" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53767,7 +53773,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1988" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53793,7 +53799,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1989" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53819,7 +53825,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1990" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53845,7 +53851,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53871,7 +53877,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1992" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53897,7 +53903,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1993" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53923,7 +53929,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1994" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53949,7 +53955,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1995" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53975,7 +53981,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1996" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54001,7 +54007,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54027,7 +54033,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54053,7 +54059,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1999" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54079,7 +54085,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G2000" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54105,7 +54111,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54131,7 +54137,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54157,7 +54163,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54183,7 +54189,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54209,7 +54215,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54235,7 +54241,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2006" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54261,7 +54267,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2007" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54287,7 +54293,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G2008" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54313,7 +54319,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54339,7 +54345,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2010" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54365,7 +54371,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2011" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54391,7 +54397,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2012" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54417,7 +54423,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2013" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54443,7 +54449,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2014" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54469,7 +54475,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54495,7 +54501,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2016" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54521,7 +54527,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2017" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54547,7 +54553,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2018" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54573,7 +54579,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2019" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54599,7 +54605,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2020" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54625,7 +54631,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2021" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54651,7 +54657,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2022" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54677,7 +54683,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2023" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54703,7 +54709,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54729,7 +54735,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2025" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54755,7 +54761,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2026" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54781,7 +54787,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2027" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54807,7 +54813,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2028" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54833,7 +54839,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2029" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54859,7 +54865,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2030" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54885,7 +54891,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54911,7 +54917,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2032" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54937,7 +54943,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2033" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54963,7 +54969,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54989,7 +54995,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2035" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55015,7 +55021,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2036" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55041,7 +55047,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2037" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55067,7 +55073,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2038" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55093,7 +55099,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55119,7 +55125,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2040" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55145,7 +55151,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2041" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55171,7 +55177,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2042" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55197,7 +55203,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2043" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55223,7 +55229,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55249,7 +55255,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2045" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55275,7 +55281,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2046" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55301,7 +55307,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2047" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55327,7 +55333,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2048" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55353,7 +55359,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2049" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55379,7 +55385,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2050" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55405,7 +55411,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2051" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55431,7 +55437,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2052" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55457,7 +55463,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55483,7 +55489,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2054" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55509,7 +55515,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2055" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55535,7 +55541,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2056" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55561,7 +55567,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2057" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55587,7 +55593,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2058" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55613,7 +55619,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2059" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55639,7 +55645,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2060" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55665,7 +55671,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2061" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55691,7 +55697,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2062" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55717,7 +55723,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2063" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55743,7 +55749,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2064" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55769,7 +55775,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2065" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55795,7 +55801,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2066" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55821,7 +55827,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2067" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55847,7 +55853,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2068" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55873,7 +55879,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2069" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55899,7 +55905,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2070" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55925,7 +55931,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2071" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55951,7 +55957,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2072" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55977,7 +55983,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56003,7 +56009,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2074" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56029,7 +56035,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2075" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56055,7 +56061,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2076" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56081,7 +56087,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2077" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56107,7 +56113,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2078" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56133,7 +56139,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2079" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56159,7 +56165,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2080" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56185,7 +56191,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2081" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56211,7 +56217,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2082" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56237,7 +56243,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2083" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56263,7 +56269,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2084" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56289,7 +56295,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2085" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56315,7 +56321,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2086" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56341,7 +56347,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56367,7 +56373,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2088" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56393,7 +56399,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56419,7 +56425,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56445,7 +56451,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2091" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56471,7 +56477,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56497,7 +56503,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56523,7 +56529,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2094" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56549,7 +56555,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2095" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56575,7 +56581,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56601,7 +56607,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2097" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56627,7 +56633,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2098" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56653,7 +56659,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2099" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56679,7 +56685,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2100" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56705,7 +56711,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2101" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56731,7 +56737,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56757,7 +56763,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56783,7 +56789,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56809,7 +56815,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2105" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56835,7 +56841,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2106" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56861,7 +56867,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2107" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56887,7 +56893,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2108" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56913,7 +56919,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2109" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56939,7 +56945,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2110" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56965,7 +56971,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56991,7 +56997,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57017,7 +57023,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2113" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57043,7 +57049,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57069,7 +57075,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57095,7 +57101,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57121,7 +57127,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57147,7 +57153,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57173,7 +57179,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57199,7 +57205,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2120" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57225,7 +57231,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57251,7 +57257,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57277,7 +57283,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2123" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57303,7 +57309,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57329,7 +57335,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57355,7 +57361,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57381,7 +57387,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57407,7 +57413,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57433,7 +57439,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57459,7 +57465,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57485,7 +57491,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57511,7 +57517,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57537,7 +57543,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57563,7 +57569,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57589,7 +57595,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57615,7 +57621,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57641,7 +57647,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57667,7 +57673,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57693,7 +57699,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57719,7 +57725,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57745,7 +57751,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57771,7 +57777,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57797,7 +57803,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57823,7 +57829,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57849,7 +57855,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57875,7 +57881,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57901,7 +57907,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57927,7 +57933,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57953,7 +57959,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57979,7 +57985,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58005,7 +58011,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58031,7 +58037,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58057,7 +58063,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58083,7 +58089,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58109,7 +58115,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2155" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58135,7 +58141,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58161,7 +58167,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58187,7 +58193,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2158" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58213,7 +58219,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2159" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58239,7 +58245,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2160" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58265,7 +58271,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2161" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58291,7 +58297,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2162" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58317,7 +58323,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2163" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58343,7 +58349,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2164" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58369,7 +58375,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2165" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58395,7 +58401,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2166" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58421,7 +58427,7 @@
         <v>3.25</v>
       </c>
       <c r="G2167" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58447,7 +58453,7 @@
         <v>3.25</v>
       </c>
       <c r="G2168" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58473,7 +58479,7 @@
         <v>3.25</v>
       </c>
       <c r="G2169" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58499,7 +58505,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2170" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58525,7 +58531,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58551,7 +58557,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2172" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58577,7 +58583,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2173" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58603,7 +58609,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2174" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58629,7 +58635,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2175" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58655,7 +58661,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2176" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58681,7 +58687,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2177" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58707,7 +58713,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2178" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58733,7 +58739,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2179" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58759,7 +58765,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2180" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58785,7 +58791,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2181" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58811,7 +58817,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2182" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58837,7 +58843,7 @@
         <v>3.25</v>
       </c>
       <c r="G2183" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58863,7 +58869,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2184" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58889,7 +58895,7 @@
         <v>3.25</v>
       </c>
       <c r="G2185" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58915,7 +58921,7 @@
         <v>3.25</v>
       </c>
       <c r="G2186" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58941,7 +58947,7 @@
         <v>3.25</v>
       </c>
       <c r="G2187" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58967,7 +58973,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2188" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -58993,7 +58999,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2189" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -59019,7 +59025,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2190" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -59045,7 +59051,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2191" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -59071,7 +59077,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2192" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -59097,7 +59103,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2193" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -59105,16 +59111,16 @@
     </row>
     <row r="2194">
       <c r="A2194" s="1" t="n">
-        <v>45517.6493171296</v>
+        <v>45517.2916666667</v>
       </c>
       <c r="B2194" t="n">
         <v>111</v>
       </c>
       <c r="C2194" t="n">
-        <v>3.19000005722046</v>
+        <v>3.15000009536743</v>
       </c>
       <c r="D2194" t="n">
-        <v>3.10999989509583</v>
+        <v>3.15000009536743</v>
       </c>
       <c r="E2194" t="n">
         <v>3.15000009536743</v>
@@ -59123,9 +59129,35 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2194" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H2194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="1" t="n">
+        <v>45518.6493055556</v>
+      </c>
+      <c r="B2195" t="n">
+        <v>642</v>
+      </c>
+      <c r="C2195" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>3.11999988555908</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>3.24000000953674</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2195" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">ENV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35517835617065</t>
+    <t xml:space="preserve">2.35517859458923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28581166267395</t>
+    <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397891998291</t>
+    <t xml:space="preserve">2.30397939682007</t>
   </si>
   <si>
     <t xml:space="preserve">2.17185139656067</t>
@@ -59,34 +59,34 @@
     <t xml:space="preserve">2.21974754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836736679077</t>
+    <t xml:space="preserve">2.18836712837219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019987106323</t>
+    <t xml:space="preserve">2.17019963264465</t>
   </si>
   <si>
     <t xml:space="preserve">2.09752941131592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.089271068573</t>
+    <t xml:space="preserve">2.08927154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00504016876221</t>
+    <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09257459640503</t>
+    <t xml:space="preserve">2.09257483482361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404514312744</t>
+    <t xml:space="preserve">2.11404490470886</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14542603492737</t>
+    <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0628457069397</t>
+    <t xml:space="preserve">2.06284618377686</t>
   </si>
   <si>
     <t xml:space="preserve">2.06449770927429</t>
@@ -95,31 +95,31 @@
     <t xml:space="preserve">2.03972339630127</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03642010688782</t>
+    <t xml:space="preserve">2.0364203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852407932281</t>
+    <t xml:space="preserve">1.98852384090424</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365999221802</t>
+    <t xml:space="preserve">1.97365939617157</t>
   </si>
   <si>
     <t xml:space="preserve">2.06119394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017548561096</t>
+    <t xml:space="preserve">1.99017560482025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329827308655</t>
+    <t xml:space="preserve">2.01329779624939</t>
   </si>
   <si>
     <t xml:space="preserve">2.11734867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2544310092926</t>
+    <t xml:space="preserve">2.25443124771118</t>
   </si>
   <si>
     <t xml:space="preserve">2.32875323295593</t>
@@ -128,124 +128,124 @@
     <t xml:space="preserve">2.3535270690918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31223702430725</t>
+    <t xml:space="preserve">2.31223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2213990688324</t>
+    <t xml:space="preserve">2.22139954566956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14707732200623</t>
+    <t xml:space="preserve">2.14707708358765</t>
   </si>
   <si>
     <t xml:space="preserve">2.13716793060303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746294975281</t>
+    <t xml:space="preserve">2.28746318817139</t>
   </si>
   <si>
     <t xml:space="preserve">2.36839175224304</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739696502686</t>
+    <t xml:space="preserve">2.47739720344543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34526920318604</t>
+    <t xml:space="preserve">2.34526896476746</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42124247550964</t>
+    <t xml:space="preserve">2.42124271392822</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39481711387634</t>
+    <t xml:space="preserve">2.39481735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4740936756134</t>
+    <t xml:space="preserve">2.47409391403198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43445539474487</t>
+    <t xml:space="preserve">2.43445563316345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520274162292</t>
+    <t xml:space="preserve">2.53520250320435</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126686096191</t>
+    <t xml:space="preserve">2.60126709938049</t>
   </si>
   <si>
     <t xml:space="preserve">2.59135723114014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117625236511</t>
+    <t xml:space="preserve">2.61117601394653</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54180932044983</t>
+    <t xml:space="preserve">2.54180955886841</t>
   </si>
   <si>
     <t xml:space="preserve">2.51703548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5186870098114</t>
+    <t xml:space="preserve">2.51868677139282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47244238853455</t>
+    <t xml:space="preserve">2.47244215011597</t>
   </si>
   <si>
     <t xml:space="preserve">2.50712561607361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41793966293335</t>
+    <t xml:space="preserve">2.41793942451477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574520111084</t>
+    <t xml:space="preserve">2.47574496269226</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48895835876465</t>
+    <t xml:space="preserve">2.48895812034607</t>
   </si>
   <si>
     <t xml:space="preserve">2.49391293525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253252029419</t>
+    <t xml:space="preserve">2.46253275871277</t>
   </si>
   <si>
     <t xml:space="preserve">2.43610692024231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4030749797821</t>
+    <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44106197357178</t>
+    <t xml:space="preserve">2.4410617351532</t>
   </si>
   <si>
     <t xml:space="preserve">2.4245457649231</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37830138206482</t>
+    <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
     <t xml:space="preserve">2.2114896774292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14047074317932</t>
+    <t xml:space="preserve">2.1404709815979</t>
   </si>
   <si>
     <t xml:space="preserve">2.16854810714722</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15533542633057</t>
+    <t xml:space="preserve">2.15533566474915</t>
   </si>
   <si>
     <t xml:space="preserve">2.10578727722168</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0461094379425</t>
+    <t xml:space="preserve">2.04610896110535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598955154419</t>
+    <t xml:space="preserve">2.00598931312561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13303518295288</t>
+    <t xml:space="preserve">2.13303542137146</t>
   </si>
   <si>
     <t xml:space="preserve">2.08957242965698</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">2.02772116661072</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04778099060059</t>
+    <t xml:space="preserve">2.04778122901917</t>
   </si>
   <si>
     <t xml:space="preserve">2.03942251205444</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">2.02270603179932</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01434803009033</t>
+    <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255623340607</t>
+    <t xml:space="preserve">1.97255611419678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00431799888611</t>
+    <t xml:space="preserve">2.00431776046753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927283287048</t>
+    <t xml:space="preserve">1.98927295207977</t>
   </si>
   <si>
     <t xml:space="preserve">1.64825463294983</t>
@@ -287,52 +287,52 @@
     <t xml:space="preserve">1.81207704544067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195727825165</t>
+    <t xml:space="preserve">1.77195715904236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75356924533844</t>
+    <t xml:space="preserve">1.75356912612915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73016595840454</t>
+    <t xml:space="preserve">1.73016583919525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72180771827698</t>
+    <t xml:space="preserve">1.7218074798584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7385241985321</t>
+    <t xml:space="preserve">1.73852407932281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68837440013885</t>
+    <t xml:space="preserve">1.68837451934814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75524067878723</t>
+    <t xml:space="preserve">1.75524079799652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855399131775</t>
+    <t xml:space="preserve">1.74855411052704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688243865967</t>
+    <t xml:space="preserve">1.74688255786896</t>
   </si>
   <si>
     <t xml:space="preserve">1.71344923973083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68001616001129</t>
+    <t xml:space="preserve">1.680016040802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69673275947571</t>
+    <t xml:space="preserve">1.696732878685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225675582886</t>
+    <t xml:space="preserve">1.87225663661957</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96419787406921</t>
+    <t xml:space="preserve">1.9641979932785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754133701324</t>
+    <t xml:space="preserve">1.96754145622253</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05613923072815</t>
+    <t xml:space="preserve">2.05613946914673</t>
   </si>
   <si>
     <t xml:space="preserve">2.00933289527893</t>
@@ -341,67 +341,67 @@
     <t xml:space="preserve">2.02604937553406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443740844727</t>
+    <t xml:space="preserve">2.04443764686584</t>
   </si>
   <si>
     <t xml:space="preserve">2.07787084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05781054496765</t>
+    <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088479995728</t>
+    <t xml:space="preserve">1.97088444232941</t>
   </si>
   <si>
     <t xml:space="preserve">1.94413805007935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97757124900818</t>
+    <t xml:space="preserve">1.97757136821747</t>
   </si>
   <si>
     <t xml:space="preserve">2.02103447914124</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763119220734</t>
+    <t xml:space="preserve">1.99763107299805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07118391990662</t>
+    <t xml:space="preserve">2.0711841583252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07285594940186</t>
+    <t xml:space="preserve">2.07285571098328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625887870789</t>
+    <t xml:space="preserve">2.09625911712646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464715003967</t>
+    <t xml:space="preserve">2.11464738845825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823050498962</t>
+    <t xml:space="preserve">2.19823026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18820023536682</t>
+    <t xml:space="preserve">2.18819999694824</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652844429016</t>
+    <t xml:space="preserve">2.18652820587158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15643882751465</t>
+    <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16312551498413</t>
+    <t xml:space="preserve">2.16312527656555</t>
   </si>
   <si>
     <t xml:space="preserve">2.16479682922363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655847549438</t>
+    <t xml:space="preserve">2.19655823707581</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23166346549988</t>
+    <t xml:space="preserve">2.2316632270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330498695374</t>
+    <t xml:space="preserve">2.22330522537231</t>
   </si>
   <si>
     <t xml:space="preserve">2.2968578338623</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">2.3319628238678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34032106399536</t>
+    <t xml:space="preserve">2.34032130241394</t>
   </si>
   <si>
     <t xml:space="preserve">2.34700751304626</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">2.38044095039368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35536623001099</t>
+    <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32360458374023</t>
+    <t xml:space="preserve">2.32360434532166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855965614319</t>
+    <t xml:space="preserve">2.30855989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33864951133728</t>
+    <t xml:space="preserve">2.3386492729187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31691765785217</t>
+    <t xml:space="preserve">2.31691813468933</t>
   </si>
   <si>
     <t xml:space="preserve">2.34533596038818</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">2.33530616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26008176803589</t>
+    <t xml:space="preserve">2.26008152961731</t>
   </si>
   <si>
     <t xml:space="preserve">2.2951865196228</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">2.17984199523926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11631894111633</t>
+    <t xml:space="preserve">2.11631870269775</t>
   </si>
   <si>
     <t xml:space="preserve">2.21494674682617</t>
@@ -476,40 +476,40 @@
     <t xml:space="preserve">2.20324516296387</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011156082153</t>
+    <t xml:space="preserve">2.27011179924011</t>
   </si>
   <si>
     <t xml:space="preserve">2.25506639480591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1898717880249</t>
+    <t xml:space="preserve">2.18987202644348</t>
   </si>
   <si>
     <t xml:space="preserve">2.25339484214783</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19154334068298</t>
+    <t xml:space="preserve">2.19154357910156</t>
   </si>
   <si>
     <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24336528778076</t>
+    <t xml:space="preserve">2.2433648109436</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14139366149902</t>
+    <t xml:space="preserve">2.1413938999176</t>
   </si>
   <si>
     <t xml:space="preserve">2.14640879631042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18318510055542</t>
+    <t xml:space="preserve">2.183185338974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688786506653</t>
+    <t xml:space="preserve">2.30688762664795</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861948013306</t>
+    <t xml:space="preserve">2.32861971855164</t>
   </si>
   <si>
     <t xml:space="preserve">2.41554594039917</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">2.42223238945007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40551567077637</t>
+    <t xml:space="preserve">2.40551590919495</t>
   </si>
   <si>
     <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709784507751</t>
+    <t xml:space="preserve">2.37709760665894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52754688262939</t>
+    <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
     <t xml:space="preserve">2.50748705863953</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">2.54927802085876</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48909878730774</t>
+    <t xml:space="preserve">2.48909854888916</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46569561958313</t>
+    <t xml:space="preserve">2.46569538116455</t>
   </si>
   <si>
     <t xml:space="preserve">2.53256177902222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48241186141968</t>
+    <t xml:space="preserve">2.48241209983826</t>
   </si>
   <si>
     <t xml:space="preserve">2.39715766906738</t>
@@ -557,13 +557,13 @@
     <t xml:space="preserve">2.49077033996582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4991283416748</t>
+    <t xml:space="preserve">2.49912881851196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50414347648621</t>
+    <t xml:space="preserve">2.50414371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906875610352</t>
+    <t xml:space="preserve">2.47906851768494</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399379730225</t>
@@ -575,31 +575,31 @@
     <t xml:space="preserve">2.39882898330688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42390394210815</t>
+    <t xml:space="preserve">2.42390418052673</t>
   </si>
   <si>
     <t xml:space="preserve">2.5994279384613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64790606498718</t>
+    <t xml:space="preserve">2.6479058265686</t>
   </si>
   <si>
     <t xml:space="preserve">2.62450289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67298126220703</t>
+    <t xml:space="preserve">2.67298102378845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64957785606384</t>
+    <t xml:space="preserve">2.64957809448242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163886070251</t>
+    <t xml:space="preserve">2.78163862228394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8418185710907</t>
+    <t xml:space="preserve">2.84181833267212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847522735596</t>
+    <t xml:space="preserve">2.83847498893738</t>
   </si>
   <si>
     <t xml:space="preserve">2.83513188362122</t>
@@ -617,28 +617,28 @@
     <t xml:space="preserve">2.71811580657959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172895431519</t>
+    <t xml:space="preserve">2.81172871589661</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74987721443176</t>
+    <t xml:space="preserve">2.74987697601318</t>
   </si>
   <si>
     <t xml:space="preserve">2.76659393310547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75154876708984</t>
+    <t xml:space="preserve">2.751549243927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495217323303</t>
+    <t xml:space="preserve">2.77495193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79166865348816</t>
+    <t xml:space="preserve">2.79166889190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486231803894</t>
+    <t xml:space="preserve">2.74486255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74319052696228</t>
+    <t xml:space="preserve">2.74319076538086</t>
   </si>
   <si>
     <t xml:space="preserve">2.67465257644653</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">2.75823545455933</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316073417664</t>
+    <t xml:space="preserve">2.73316097259521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78331017494202</t>
+    <t xml:space="preserve">2.7833104133606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817563056946</t>
+    <t xml:space="preserve">2.73817586898804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80838513374329</t>
+    <t xml:space="preserve">2.80838537216187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79835557937622</t>
+    <t xml:space="preserve">2.79835534095764</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80002689361572</t>
+    <t xml:space="preserve">2.8000271320343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068614959717</t>
+    <t xml:space="preserve">3.02068591117859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387957572937</t>
+    <t xml:space="preserve">2.97387981414795</t>
   </si>
   <si>
     <t xml:space="preserve">2.95883464813232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
+    <t xml:space="preserve">2.96384930610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856508255005</t>
+    <t xml:space="preserve">2.86856484413147</t>
   </si>
   <si>
     <t xml:space="preserve">2.96552133560181</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">2.9972825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898432731628</t>
+    <t xml:space="preserve">3.00898408889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86355018615723</t>
+    <t xml:space="preserve">2.86354994773865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859487533569</t>
+    <t xml:space="preserve">2.87859511375427</t>
   </si>
   <si>
     <t xml:space="preserve">2.94867610931396</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">3.00936913490295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96216368675232</t>
+    <t xml:space="preserve">2.96216320991516</t>
   </si>
   <si>
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622842788696</t>
+    <t xml:space="preserve">3.02622866630554</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97733664512634</t>
+    <t xml:space="preserve">2.9773371219635</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88292503356934</t>
+    <t xml:space="preserve">2.88292527198792</t>
   </si>
   <si>
     <t xml:space="preserve">2.86606597900391</t>
@@ -734,22 +734,22 @@
     <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73624992370605</t>
+    <t xml:space="preserve">2.73625016212463</t>
   </si>
   <si>
     <t xml:space="preserve">2.75816702842712</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77502608299255</t>
+    <t xml:space="preserve">2.77502655982971</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83234739303589</t>
+    <t xml:space="preserve">2.83234763145447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88966917991638</t>
+    <t xml:space="preserve">2.88966870307922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88629698753357</t>
+    <t xml:space="preserve">2.88629722595215</t>
   </si>
   <si>
     <t xml:space="preserve">2.85763645172119</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">2.86438012123108</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88123941421509</t>
+    <t xml:space="preserve">2.88123917579651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94193267822266</t>
+    <t xml:space="preserve">2.9419322013855</t>
   </si>
   <si>
     <t xml:space="preserve">2.9267590045929</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">2.9672212600708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9284451007843</t>
+    <t xml:space="preserve">2.92844486236572</t>
   </si>
   <si>
     <t xml:space="preserve">2.93518877029419</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">2.94699001312256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92507314682007</t>
+    <t xml:space="preserve">2.92507338523865</t>
   </si>
   <si>
     <t xml:space="preserve">2.91664361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93687462806702</t>
+    <t xml:space="preserve">2.9368748664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96553564071655</t>
+    <t xml:space="preserve">2.96553540229797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8997848033905</t>
+    <t xml:space="preserve">2.89978456497192</t>
   </si>
   <si>
     <t xml:space="preserve">2.92001557350159</t>
@@ -800,19 +800,19 @@
     <t xml:space="preserve">2.94024658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91495752334595</t>
+    <t xml:space="preserve">2.91495776176453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94530415534973</t>
+    <t xml:space="preserve">2.94530439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97902250289917</t>
+    <t xml:space="preserve">2.97902274131775</t>
   </si>
   <si>
     <t xml:space="preserve">2.98408055305481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97565102577209</t>
+    <t xml:space="preserve">2.97565078735352</t>
   </si>
   <si>
     <t xml:space="preserve">2.95373392105103</t>
@@ -821,46 +821,46 @@
     <t xml:space="preserve">2.95879149436951</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315628051758</t>
+    <t xml:space="preserve">2.90315651893616</t>
   </si>
   <si>
     <t xml:space="preserve">2.84920692443848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86269402503967</t>
+    <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93856048583984</t>
+    <t xml:space="preserve">2.938560962677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93181705474854</t>
+    <t xml:space="preserve">2.93181681632996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90821409225464</t>
+    <t xml:space="preserve">2.90821385383606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86943817138672</t>
+    <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
     <t xml:space="preserve">2.8407769203186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95710563659668</t>
+    <t xml:space="preserve">2.95710587501526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227907180786</t>
+    <t xml:space="preserve">2.97227931022644</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98745203018188</t>
+    <t xml:space="preserve">2.98745226860046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9183292388916</t>
+    <t xml:space="preserve">2.91832947731018</t>
   </si>
   <si>
     <t xml:space="preserve">2.91158604621887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03465819358826</t>
+    <t xml:space="preserve">3.03465795516968</t>
   </si>
   <si>
     <t xml:space="preserve">3.01779890060425</t>
@@ -875,22 +875,22 @@
     <t xml:space="preserve">3.00431156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05657505989075</t>
+    <t xml:space="preserve">3.05657482147217</t>
   </si>
   <si>
     <t xml:space="preserve">3.15098667144775</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11895418167114</t>
+    <t xml:space="preserve">3.11895442008972</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97396540641785</t>
+    <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
     <t xml:space="preserve">3.02454280853271</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285671234131</t>
+    <t xml:space="preserve">3.02285647392273</t>
   </si>
   <si>
     <t xml:space="preserve">3.02117085456848</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">2.89135503768921</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147042274475</t>
+    <t xml:space="preserve">2.90147018432617</t>
   </si>
   <si>
     <t xml:space="preserve">2.93013119697571</t>
@@ -911,10 +911,13 @@
     <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96890711784363</t>
+    <t xml:space="preserve">2.96890735626221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99251008033752</t>
+    <t xml:space="preserve">2.9925103187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96384954452515</t>
   </si>
   <si>
     <t xml:space="preserve">2.87280964851379</t>
@@ -923,22 +926,22 @@
     <t xml:space="preserve">2.96047759056091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90484213829041</t>
+    <t xml:space="preserve">2.90484237670898</t>
   </si>
   <si>
     <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350315093994</t>
+    <t xml:space="preserve">2.93350291252136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862904548645</t>
+    <t xml:space="preserve">2.79862928390503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962187767029</t>
+    <t xml:space="preserve">2.73962163925171</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68061494827271</t>
+    <t xml:space="preserve">2.68061447143555</t>
   </si>
   <si>
     <t xml:space="preserve">2.69747400283813</t>
@@ -950,10 +953,10 @@
     <t xml:space="preserve">2.68904447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63003706932068</t>
+    <t xml:space="preserve">2.6300368309021</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57945919036865</t>
+    <t xml:space="preserve">2.57945942878723</t>
   </si>
   <si>
     <t xml:space="preserve">2.60474801063538</t>
@@ -962,7 +965,7 @@
     <t xml:space="preserve">2.59631848335266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55417037010193</t>
+    <t xml:space="preserve">2.55417060852051</t>
   </si>
   <si>
     <t xml:space="preserve">2.58788895606995</t>
@@ -971,10 +974,10 @@
     <t xml:space="preserve">2.61317777633667</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160730361938</t>
+    <t xml:space="preserve">2.62160754203796</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6553258895874</t>
+    <t xml:space="preserve">2.65532612800598</t>
   </si>
   <si>
     <t xml:space="preserve">2.71433329582214</t>
@@ -983,7 +986,7 @@
     <t xml:space="preserve">2.79019951820374</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05994701385498</t>
+    <t xml:space="preserve">3.05994725227356</t>
   </si>
   <si>
     <t xml:space="preserve">2.962810754776</t>
@@ -992,22 +995,22 @@
     <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463866233826</t>
+    <t xml:space="preserve">3.01463842391968</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98872470855713</t>
+    <t xml:space="preserve">2.98872447013855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99736285209656</t>
+    <t xml:space="preserve">2.99736261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417284965515</t>
+    <t xml:space="preserve">2.95417308807373</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85915565490723</t>
+    <t xml:space="preserve">2.85915541648865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8159658908844</t>
+    <t xml:space="preserve">2.81596612930298</t>
   </si>
   <si>
     <t xml:space="preserve">2.8332417011261</t>
@@ -1016,7 +1019,7 @@
     <t xml:space="preserve">2.781414270401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79005217552185</t>
+    <t xml:space="preserve">2.79005241394043</t>
   </si>
   <si>
     <t xml:space="preserve">2.7986900806427</t>
@@ -1031,46 +1034,46 @@
     <t xml:space="preserve">2.68639707565308</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7295868396759</t>
+    <t xml:space="preserve">2.72958660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.67775917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137988090515</t>
+    <t xml:space="preserve">2.59137964248657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73822474479675</t>
+    <t xml:space="preserve">2.73822450637817</t>
   </si>
   <si>
     <t xml:space="preserve">2.6518452167511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71231079101562</t>
+    <t xml:space="preserve">2.7123110294342</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72094893455505</t>
+    <t xml:space="preserve">2.72094869613647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550055503845</t>
+    <t xml:space="preserve">2.75550031661987</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70367312431335</t>
+    <t xml:space="preserve">2.70367288589478</t>
   </si>
   <si>
     <t xml:space="preserve">2.69503474235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048288345337</t>
+    <t xml:space="preserve">2.66048336029053</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60001754760742</t>
+    <t xml:space="preserve">2.600017786026</t>
   </si>
   <si>
     <t xml:space="preserve">2.60865569114685</t>
@@ -1079,61 +1082,61 @@
     <t xml:space="preserve">2.57410407066345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56546592712402</t>
+    <t xml:space="preserve">2.5654661655426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54819011688232</t>
+    <t xml:space="preserve">2.5481903553009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55682826042175</t>
+    <t xml:space="preserve">2.55682802200317</t>
   </si>
   <si>
     <t xml:space="preserve">2.61729335784912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6345694065094</t>
+    <t xml:space="preserve">2.63456916809082</t>
   </si>
   <si>
     <t xml:space="preserve">2.6691210269928</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80732822418213</t>
+    <t xml:space="preserve">2.80732798576355</t>
   </si>
   <si>
     <t xml:space="preserve">2.82460403442383</t>
   </si>
   <si>
-    <t xml:space="preserve">2.84187984466553</t>
+    <t xml:space="preserve">2.84187960624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8505175113678</t>
+    <t xml:space="preserve">2.85051774978638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89370727539062</t>
+    <t xml:space="preserve">2.8937075138092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9282591342926</t>
+    <t xml:space="preserve">2.92825937271118</t>
   </si>
   <si>
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8677933216095</t>
+    <t xml:space="preserve">2.86779356002808</t>
   </si>
   <si>
     <t xml:space="preserve">2.88506937026978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91962122917175</t>
+    <t xml:space="preserve">2.91962146759033</t>
   </si>
   <si>
     <t xml:space="preserve">2.93689703941345</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327632904053</t>
+    <t xml:space="preserve">3.02327656745911</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646609306335</t>
+    <t xml:space="preserve">3.06646585464478</t>
   </si>
   <si>
     <t xml:space="preserve">3.04055213928223</t>
@@ -1142,13 +1145,13 @@
     <t xml:space="preserve">3.00600051879883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04919028282166</t>
+    <t xml:space="preserve">3.04919004440308</t>
   </si>
   <si>
     <t xml:space="preserve">3.03191447257996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.98008704185486</t>
+    <t xml:space="preserve">2.9800865650177</t>
   </si>
   <si>
     <t xml:space="preserve">3.0923798084259</t>
@@ -1160,16 +1163,13 @@
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94553470611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91875720024109</t>
+    <t xml:space="preserve">2.91875743865967</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231245040894</t>
+    <t xml:space="preserve">2.97231221199036</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">3.07049703598022</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264520645142</t>
+    <t xml:space="preserve">3.05264544487</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01694178581238</t>
+    <t xml:space="preserve">3.01694202423096</t>
   </si>
   <si>
     <t xml:space="preserve">2.99908995628357</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371953010559</t>
+    <t xml:space="preserve">3.04371929168701</t>
   </si>
   <si>
     <t xml:space="preserve">3.08834862709045</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1329779624939</t>
+    <t xml:space="preserve">3.13297820091248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9366090297699</t>
+    <t xml:space="preserve">2.93660879135132</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92768287658691</t>
+    <t xml:space="preserve">2.92768311500549</t>
   </si>
   <si>
     <t xml:space="preserve">2.90090560913086</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">2.90983152389526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95446085929871</t>
+    <t xml:space="preserve">2.95446062088013</t>
   </si>
   <si>
     <t xml:space="preserve">2.98123836517334</t>
@@ -1235,10 +1235,13 @@
     <t xml:space="preserve">2.81164693832397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74916577339172</t>
+    <t xml:space="preserve">2.7491660118103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668508529663</t>
+    <t xml:space="preserve">2.68668484687805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.64205551147461</t>
@@ -1247,10 +1250,10 @@
     <t xml:space="preserve">2.62420392036438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60635232925415</t>
+    <t xml:space="preserve">2.60635209083557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65990710258484</t>
+    <t xml:space="preserve">2.65990734100342</t>
   </si>
   <si>
     <t xml:space="preserve">2.58850049972534</t>
@@ -1259,16 +1262,16 @@
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883301734924</t>
+    <t xml:space="preserve">2.66883325576782</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72238850593567</t>
+    <t xml:space="preserve">2.72238802909851</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59742641448975</t>
+    <t xml:space="preserve">2.59742617607117</t>
   </si>
   <si>
     <t xml:space="preserve">2.76701760292053</t>
@@ -1277,10 +1280,10 @@
     <t xml:space="preserve">2.73131418228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65098142623901</t>
+    <t xml:space="preserve">2.65098166465759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453667640686</t>
+    <t xml:space="preserve">2.70453643798828</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
@@ -1298,25 +1301,25 @@
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620069503784</t>
+    <t xml:space="preserve">3.10620045661926</t>
   </si>
   <si>
     <t xml:space="preserve">2.99016427993774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89197993278503</t>
+    <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272102355957</t>
+    <t xml:space="preserve">2.80272126197815</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79379510879517</t>
+    <t xml:space="preserve">2.79379534721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42783498764038</t>
+    <t xml:space="preserve">2.4278347492218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47246432304382</t>
+    <t xml:space="preserve">2.47246408462524</t>
   </si>
   <si>
     <t xml:space="preserve">2.46353816986084</t>
@@ -1337,34 +1340,34 @@
     <t xml:space="preserve">2.84735035896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82949876785278</t>
+    <t xml:space="preserve">2.8294985294342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.856276512146</t>
+    <t xml:space="preserve">2.85627627372742</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88305377960205</t>
+    <t xml:space="preserve">2.88305401802063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057309150696</t>
+    <t xml:space="preserve">2.82057285308838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7402400970459</t>
+    <t xml:space="preserve">2.74023985862732</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63312959671021</t>
+    <t xml:space="preserve">2.63312983512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064890861511</t>
+    <t xml:space="preserve">2.57064867019653</t>
   </si>
   <si>
     <t xml:space="preserve">2.49924159049988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5527970790863</t>
+    <t xml:space="preserve">2.55279684066772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49031591415405</t>
+    <t xml:space="preserve">2.49031567573547</t>
   </si>
   <si>
     <t xml:space="preserve">2.43676090240479</t>
@@ -1382,22 +1385,22 @@
     <t xml:space="preserve">2.45461249351501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709342002869</t>
+    <t xml:space="preserve">2.51709365844727</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520218849182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15082979202271</t>
+    <t xml:space="preserve">3.15082955360413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.18653321266174</t>
+    <t xml:space="preserve">3.18653297424316</t>
   </si>
   <si>
     <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545888900757</t>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.35612463951111</t>
@@ -1406,43 +1409,43 @@
     <t xml:space="preserve">3.28471779823303</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2133104801178</t>
+    <t xml:space="preserve">3.21331071853638</t>
   </si>
   <si>
     <t xml:space="preserve">3.24901437759399</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32042121887207</t>
+    <t xml:space="preserve">3.32042098045349</t>
   </si>
   <si>
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108673095703</t>
+    <t xml:space="preserve">3.48108696937561</t>
   </si>
   <si>
     <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893832206726</t>
+    <t xml:space="preserve">3.49893856048584</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3382728099823</t>
+    <t xml:space="preserve">3.33827304840088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30256938934326</t>
+    <t xml:space="preserve">3.30256962776184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.26686596870422</t>
+    <t xml:space="preserve">3.2668662071228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.44538331031799</t>
+    <t xml:space="preserve">3.44538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6596040725708</t>
+    <t xml:space="preserve">3.65960359573364</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1454,7 +1457,7 @@
     <t xml:space="preserve">3.53464198112488</t>
   </si>
   <si>
-    <t xml:space="preserve">3.51679015159607</t>
+    <t xml:space="preserve">3.51679039001465</t>
   </si>
   <si>
     <t xml:space="preserve">3.40967988967896</t>
@@ -1497,9 +1500,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.22308564186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -15036,7 +15036,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15140,7 +15140,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G502" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G505" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G507" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15530,7 +15530,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15686,7 +15686,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G523" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16128,7 +16128,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G540" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16154,7 +16154,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G542" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16232,7 +16232,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G544" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16258,7 +16258,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16284,7 +16284,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G546" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16310,7 +16310,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G547" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16336,7 +16336,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G548" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16388,7 +16388,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G550" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16414,7 +16414,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G551" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G552" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16466,7 +16466,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G553" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16492,7 +16492,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G554" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16518,7 +16518,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G556" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16570,7 +16570,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G557" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G558" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16622,7 +16622,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G559" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16648,7 +16648,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16674,7 +16674,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16700,7 +16700,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16726,7 +16726,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G563" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16752,7 +16752,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16778,7 +16778,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G565" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17064,7 +17064,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G576" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17376,7 +17376,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G588" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G593" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G603" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G608" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G609" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G610" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G612" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G615" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G616" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G617" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G618" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G619" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G620" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18234,7 +18234,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18286,7 +18286,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18312,7 +18312,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G624" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G625" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G627" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G628" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G629" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G630" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18494,7 +18494,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G631" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G632" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18572,7 +18572,7 @@
         <v>3</v>
       </c>
       <c r="G634" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18598,7 +18598,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G635" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G636" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G637" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G638" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G639" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G641" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G642" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G646" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G648" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G650" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G653" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G654" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G655" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19144,7 +19144,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G656" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G657" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G658" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G660" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G662" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G663" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G664" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G665" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G666" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G667" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G668" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G670" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G671" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G673" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G675" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G676" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G679" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G680" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G682" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G683" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G684" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G685" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G686" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G687" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20002,7 +20002,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G690" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20054,7 +20054,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G691" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G692" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G693" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G694" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G695" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G696" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G697" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G698" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G699" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G700" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20314,7 +20314,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G701" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G702" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G703" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G704" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G705" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G706" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G707" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G708" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G709" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20652,7 +20652,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G715" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G716" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20730,7 +20730,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G717" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G719" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G720" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G722" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G723" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20912,7 +20912,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G724" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20938,7 +20938,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G727" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G728" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G729" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G731" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G732" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>3.25</v>
       </c>
       <c r="G733" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G734" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G737" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G739" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G740" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G741" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G743" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>3.25</v>
       </c>
       <c r="G744" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>3.25</v>
       </c>
       <c r="G745" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>3.25</v>
       </c>
       <c r="G746" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G747" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G748" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G749" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G752" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G753" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G754" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G757" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G758" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G759" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G762" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G763" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G764" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G765" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G766" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>3.25</v>
       </c>
       <c r="G767" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G768" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G770" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G771" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G772" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G774" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G777" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G778" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G779" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G781" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G782" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G783" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G784" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G785" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G786" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G789" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G790" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G792" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G794" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G795" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G796" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G797" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G798" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G800" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G801" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>3.5</v>
       </c>
       <c r="G805" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G807" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>3.5</v>
       </c>
       <c r="G808" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>3.5</v>
       </c>
       <c r="G809" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>3.5</v>
       </c>
       <c r="G810" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>3.5</v>
       </c>
       <c r="G813" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>3.5</v>
       </c>
       <c r="G815" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G816" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G817" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>3.5</v>
       </c>
       <c r="G818" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>3.5</v>
       </c>
       <c r="G819" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G821" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G822" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G824" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G825" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G828" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>3.5</v>
       </c>
       <c r="G829" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G830" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G832" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>3.5</v>
       </c>
       <c r="G833" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G834" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>3.5</v>
       </c>
       <c r="G835" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G836" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G837" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G838" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G839" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G840" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G841" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G842" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>3.5</v>
       </c>
       <c r="G843" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>3.5</v>
       </c>
       <c r="G844" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G845" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G848" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G849" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G852" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G853" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G854" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G855" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G856" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G857" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G858" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>3</v>
       </c>
       <c r="G918" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G919" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G920" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G921" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G922" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>3</v>
       </c>
       <c r="G924" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G925" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>3</v>
       </c>
       <c r="G926" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>3</v>
       </c>
       <c r="G927" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G928" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G929" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G930" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G931" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -26320,7 +26320,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G932" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -26346,7 +26346,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G933" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G934" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G935" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -26476,7 +26476,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G938" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -26502,7 +26502,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G939" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -26528,7 +26528,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G940" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -26554,7 +26554,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G941" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -26580,7 +26580,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G942" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -26606,7 +26606,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G943" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G944" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -26658,7 +26658,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G945" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G946" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G947" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -26736,7 +26736,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G948" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G949" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -26788,7 +26788,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G950" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -26814,7 +26814,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G951" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -26840,7 +26840,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G952" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -26866,7 +26866,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G953" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -26892,7 +26892,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G954" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -26918,7 +26918,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G955" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -26944,7 +26944,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G956" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -26970,7 +26970,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G957" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -26996,7 +26996,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G958" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -27022,7 +27022,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G959" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -27048,7 +27048,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G960" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -27074,7 +27074,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G961" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -27100,7 +27100,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G962" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -27126,7 +27126,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G963" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -27230,7 +27230,7 @@
         <v>3</v>
       </c>
       <c r="G967" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -27256,7 +27256,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G968" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -27282,7 +27282,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G969" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -27308,7 +27308,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G970" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G971" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G972" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G977" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G978" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G979" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -27568,7 +27568,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G980" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -27594,7 +27594,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G981" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G984" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -27724,7 +27724,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G986" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G988" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -28686,7 +28686,7 @@
         <v>3.5</v>
       </c>
       <c r="G1023" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -28712,7 +28712,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1024" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -28868,7 +28868,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1030" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -28894,7 +28894,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1031" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -29102,7 +29102,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1039" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -29128,7 +29128,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1040" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -29154,7 +29154,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1041" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -29180,7 +29180,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1042" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -29362,7 +29362,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1049" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -29388,7 +29388,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1050" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -29570,7 +29570,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -29648,7 +29648,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1060" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -29674,7 +29674,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1061" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -29700,7 +29700,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1062" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -29726,7 +29726,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1063" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -29752,7 +29752,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1064" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -29778,7 +29778,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1065" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -29804,7 +29804,7 @@
         <v>2.72000002861023</v>
       </c>
       <c r="G1066" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -29830,7 +29830,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1067" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -29856,7 +29856,7 @@
         <v>2.76999998092651</v>
       </c>
       <c r="G1068" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -29882,7 +29882,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1069" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -29908,7 +29908,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1070" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -29934,7 +29934,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1071" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -29960,7 +29960,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1072" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -29986,7 +29986,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1073" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -30012,7 +30012,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1074" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -30038,7 +30038,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1075" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -30064,7 +30064,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1076" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -30090,7 +30090,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1077" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -30116,7 +30116,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1078" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -30142,7 +30142,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1079" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -30194,7 +30194,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1081" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -30220,7 +30220,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1082" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -30246,7 +30246,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1083" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -30272,7 +30272,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1084" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -30298,7 +30298,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1085" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -30324,7 +30324,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1086" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -30350,7 +30350,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1087" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -30376,7 +30376,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1088" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -30402,7 +30402,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G1089" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -30428,7 +30428,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1090" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -30480,7 +30480,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1092" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -30506,7 +30506,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1093" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -30558,7 +30558,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1095" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -30584,7 +30584,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1096" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -30714,7 +30714,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -30740,7 +30740,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1102" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -30766,7 +30766,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1103" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -30792,7 +30792,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1104" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -30818,7 +30818,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1105" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -30844,7 +30844,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1106" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -30870,7 +30870,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1107" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -30896,7 +30896,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1108" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -30922,7 +30922,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1109" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -30948,7 +30948,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1110" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -30974,7 +30974,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1111" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -31000,7 +31000,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -31052,7 +31052,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1114" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -31078,7 +31078,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1115" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -31104,7 +31104,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1116" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -31130,7 +31130,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1117" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -31156,7 +31156,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1118" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -31182,7 +31182,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1119" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -31208,7 +31208,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1120" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -31234,7 +31234,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1121" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -31260,7 +31260,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1122" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -31286,7 +31286,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1123" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -31312,7 +31312,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -31338,7 +31338,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1125" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -31364,7 +31364,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1126" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -31416,7 +31416,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1128" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -31494,7 +31494,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1131" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -31520,7 +31520,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1132" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -31546,7 +31546,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1133" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -31572,7 +31572,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -31598,7 +31598,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1135" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -31624,7 +31624,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1136" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -31702,7 +31702,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -31728,7 +31728,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -31754,7 +31754,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -31780,7 +31780,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -31806,7 +31806,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1143" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -31832,7 +31832,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1144" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -31858,7 +31858,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1145" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -31884,7 +31884,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -31910,7 +31910,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -31936,7 +31936,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -31962,7 +31962,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1149" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -31988,7 +31988,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1150" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -32014,7 +32014,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1151" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -32040,7 +32040,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1152" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -32066,7 +32066,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1153" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -32092,7 +32092,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1154" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -32118,7 +32118,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1155" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -32144,7 +32144,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1156" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -32248,7 +32248,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1160" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -32274,7 +32274,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1161" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -32300,7 +32300,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1162" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -32326,7 +32326,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1163" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -32352,7 +32352,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1164" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -32378,7 +32378,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1165" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -32404,7 +32404,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1166" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -32430,7 +32430,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1167" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -32456,7 +32456,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1168" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -32482,7 +32482,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1169" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -32508,7 +32508,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1170" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -32534,7 +32534,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1171" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -32560,7 +32560,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1172" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -32586,7 +32586,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1173" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -32612,7 +32612,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1174" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -32638,7 +32638,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1175" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -32664,7 +32664,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1176" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -32690,7 +32690,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1177" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -32768,7 +32768,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1180" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -32794,7 +32794,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1181" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -32924,7 +32924,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1186" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -32950,7 +32950,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1187" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -32976,7 +32976,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1188" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1190" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -33054,7 +33054,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1191" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -33080,7 +33080,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G1192" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -33106,7 +33106,7 @@
         <v>3</v>
       </c>
       <c r="G1193" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -33132,7 +33132,7 @@
         <v>3</v>
       </c>
       <c r="G1194" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -33158,7 +33158,7 @@
         <v>3</v>
       </c>
       <c r="G1195" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -33184,7 +33184,7 @@
         <v>3</v>
       </c>
       <c r="G1196" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -33210,7 +33210,7 @@
         <v>3</v>
       </c>
       <c r="G1197" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -33236,7 +33236,7 @@
         <v>3</v>
       </c>
       <c r="G1198" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -33262,7 +33262,7 @@
         <v>3</v>
       </c>
       <c r="G1199" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -33288,7 +33288,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1200" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -33314,7 +33314,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1201" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -33340,7 +33340,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1202" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -33366,7 +33366,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1203" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -33392,7 +33392,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1204" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -33418,7 +33418,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1205" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -33444,7 +33444,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1206" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -33470,7 +33470,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1207" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -33496,7 +33496,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1208" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -33522,7 +33522,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1209" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -33548,7 +33548,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1210" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -33574,7 +33574,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1211" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -33600,7 +33600,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1212" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -33626,7 +33626,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1213" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -33652,7 +33652,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1214" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -33678,7 +33678,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1215" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -33704,7 +33704,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1216" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -33730,7 +33730,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1217" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -33756,7 +33756,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1218" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -33782,7 +33782,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1219" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -33808,7 +33808,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1220" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -33834,7 +33834,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1221" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -33860,7 +33860,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1222" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -33886,7 +33886,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1223" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -33912,7 +33912,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1224" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -33938,7 +33938,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1225" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -33964,7 +33964,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1226" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -33990,7 +33990,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1227" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -34016,7 +34016,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1228" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -34042,7 +34042,7 @@
         <v>2.67000007629395</v>
       </c>
       <c r="G1229" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -34068,7 +34068,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1230" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -34094,7 +34094,7 @@
         <v>2.75</v>
       </c>
       <c r="G1231" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -34120,7 +34120,7 @@
         <v>2.73000001907349</v>
       </c>
       <c r="G1232" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -34146,7 +34146,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1233" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -34172,7 +34172,7 @@
         <v>2.99000000953674</v>
       </c>
       <c r="G1234" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -34198,7 +34198,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1235" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -34224,7 +34224,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1236" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -34250,7 +34250,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1237" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -34276,7 +34276,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1238" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -34302,7 +34302,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1239" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -34328,7 +34328,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1240" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -34354,7 +34354,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1241" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -34380,7 +34380,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1242" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -34406,7 +34406,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1243" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -34432,7 +34432,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1244" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -34458,7 +34458,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1245" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -34484,7 +34484,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1246" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -34510,7 +34510,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1247" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -34536,7 +34536,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1248" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -34562,7 +34562,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1249" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -34588,7 +34588,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1250" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -34614,7 +34614,7 @@
         <v>2.9300000667572</v>
       </c>
       <c r="G1251" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -34640,7 +34640,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1252" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -34666,7 +34666,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1253" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -34692,7 +34692,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1254" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -34718,7 +34718,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1255" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -34744,7 +34744,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1256" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -34770,7 +34770,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1257" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -34796,7 +34796,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1258" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -34848,7 +34848,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1260" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -34874,7 +34874,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1261" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -34900,7 +34900,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1262" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -34926,7 +34926,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1263" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -35004,7 +35004,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1266" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -35238,7 +35238,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35290,7 +35290,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -35368,7 +35368,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1280" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -35394,7 +35394,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1281" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -35602,7 +35602,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1289" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -35654,7 +35654,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1291" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -35836,7 +35836,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1298" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -35862,7 +35862,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1299" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -35914,7 +35914,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1301" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -35966,7 +35966,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1303" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -35992,7 +35992,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1304" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -36122,7 +36122,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1309" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -36148,7 +36148,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1310" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -36278,7 +36278,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1315" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -36304,7 +36304,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1316" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -36356,7 +36356,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1318" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -36382,7 +36382,7 @@
         <v>3.5</v>
       </c>
       <c r="G1319" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -36408,7 +36408,7 @@
         <v>3.5</v>
       </c>
       <c r="G1320" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -36434,7 +36434,7 @@
         <v>3.5</v>
       </c>
       <c r="G1321" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -36460,7 +36460,7 @@
         <v>3.5</v>
       </c>
       <c r="G1322" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -36486,7 +36486,7 @@
         <v>3.5</v>
       </c>
       <c r="G1323" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -36512,7 +36512,7 @@
         <v>3.5</v>
       </c>
       <c r="G1324" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -36642,7 +36642,7 @@
         <v>3.5</v>
       </c>
       <c r="G1329" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -36694,7 +36694,7 @@
         <v>3.5</v>
       </c>
       <c r="G1331" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -36798,7 +36798,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1335" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -36824,7 +36824,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1336" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -36850,7 +36850,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1337" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -36876,7 +36876,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1338" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -36902,7 +36902,7 @@
         <v>3.5</v>
       </c>
       <c r="G1339" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -36928,7 +36928,7 @@
         <v>3.5</v>
       </c>
       <c r="G1340" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -36980,7 +36980,7 @@
         <v>3.5</v>
       </c>
       <c r="G1342" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -37006,7 +37006,7 @@
         <v>3.5</v>
       </c>
       <c r="G1343" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -37032,7 +37032,7 @@
         <v>3.5</v>
       </c>
       <c r="G1344" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -37058,7 +37058,7 @@
         <v>3.5</v>
       </c>
       <c r="G1345" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -37084,7 +37084,7 @@
         <v>3.5</v>
       </c>
       <c r="G1346" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -37110,7 +37110,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1347" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -37136,7 +37136,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1348" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -37162,7 +37162,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1349" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -37292,7 +37292,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1354" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -37318,7 +37318,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1355" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -37344,7 +37344,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1356" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -37370,7 +37370,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1357" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -37396,7 +37396,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1358" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -37422,7 +37422,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1359" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -37448,7 +37448,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1360" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -37656,7 +37656,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1368" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -37682,7 +37682,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1369" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -37812,7 +37812,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1374" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37838,7 +37838,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1375" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37890,7 +37890,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1377" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37942,7 +37942,7 @@
         <v>3.5</v>
       </c>
       <c r="G1379" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37994,7 +37994,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1381" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -38072,7 +38072,7 @@
         <v>3.5</v>
       </c>
       <c r="G1384" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -38124,7 +38124,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1386" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -38176,7 +38176,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1388" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -38202,7 +38202,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1389" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -38748,7 +38748,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38878,7 +38878,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1415" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38982,7 +38982,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1419" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39034,7 +39034,7 @@
         <v>3.5</v>
       </c>
       <c r="G1421" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -39060,7 +39060,7 @@
         <v>3.5</v>
       </c>
       <c r="G1422" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -39138,7 +39138,7 @@
         <v>3.5</v>
       </c>
       <c r="G1425" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -39164,7 +39164,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1426" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39190,7 +39190,7 @@
         <v>3.5</v>
       </c>
       <c r="G1427" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -39216,7 +39216,7 @@
         <v>3.5</v>
       </c>
       <c r="G1428" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -39242,7 +39242,7 @@
         <v>3.5</v>
       </c>
       <c r="G1429" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39268,7 +39268,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1430" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39294,7 +39294,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1431" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -39372,7 +39372,7 @@
         <v>3.5</v>
       </c>
       <c r="G1434" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -39398,7 +39398,7 @@
         <v>3.5</v>
       </c>
       <c r="G1435" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -39424,7 +39424,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1436" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39450,7 +39450,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1437" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39476,7 +39476,7 @@
         <v>3.5</v>
       </c>
       <c r="G1438" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39502,7 +39502,7 @@
         <v>3.5</v>
       </c>
       <c r="G1439" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39528,7 +39528,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1440" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39554,7 +39554,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1441" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39580,7 +39580,7 @@
         <v>3.5</v>
       </c>
       <c r="G1442" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39684,7 +39684,7 @@
         <v>3.5</v>
       </c>
       <c r="G1446" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39710,7 +39710,7 @@
         <v>3.5</v>
       </c>
       <c r="G1447" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39762,7 +39762,7 @@
         <v>3.5</v>
       </c>
       <c r="G1449" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39788,7 +39788,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1450" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39814,7 +39814,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1451" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39944,7 +39944,7 @@
         <v>3.5</v>
       </c>
       <c r="G1456" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39970,7 +39970,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1457" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39996,7 +39996,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1458" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -40022,7 +40022,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1459" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -40048,7 +40048,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1460" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40074,7 +40074,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1461" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40100,7 +40100,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1462" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40126,7 +40126,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1463" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40152,7 +40152,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1464" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40178,7 +40178,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1465" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40204,7 +40204,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1466" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40230,7 +40230,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1467" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40256,7 +40256,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1468" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40282,7 +40282,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1469" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40308,7 +40308,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1470" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40334,7 +40334,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1471" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -40360,7 +40360,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1472" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -40386,7 +40386,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1473" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -40412,7 +40412,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1474" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -40438,7 +40438,7 @@
         <v>3.92000007629395</v>
       </c>
       <c r="G1475" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40464,7 +40464,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1476" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40490,7 +40490,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1477" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40516,7 +40516,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1478" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40542,7 +40542,7 @@
         <v>3.90000009536743</v>
       </c>
       <c r="G1479" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40568,7 +40568,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1480" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40594,7 +40594,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1481" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40620,7 +40620,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1482" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40646,7 +40646,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1483" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40672,7 +40672,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1484" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40698,7 +40698,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1485" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40724,7 +40724,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1486" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40750,7 +40750,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1487" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40776,7 +40776,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1488" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40802,7 +40802,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1489" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40828,7 +40828,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1490" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40854,7 +40854,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1491" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40880,7 +40880,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1492" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40906,7 +40906,7 @@
         <v>3.85999989509583</v>
       </c>
       <c r="G1493" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40932,7 +40932,7 @@
         <v>4.09999990463257</v>
       </c>
       <c r="G1494" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40958,7 +40958,7 @@
         <v>4</v>
       </c>
       <c r="G1495" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40984,7 +40984,7 @@
         <v>4</v>
       </c>
       <c r="G1496" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41010,7 +41010,7 @@
         <v>4.07999992370605</v>
       </c>
       <c r="G1497" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41036,7 +41036,7 @@
         <v>3.96000003814697</v>
       </c>
       <c r="G1498" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -41062,7 +41062,7 @@
         <v>3.94000005722046</v>
       </c>
       <c r="G1499" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41088,7 +41088,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1500" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41114,7 +41114,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1501" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -41140,7 +41140,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1502" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41166,7 +41166,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1503" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41192,7 +41192,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1504" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41218,7 +41218,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1505" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -41244,7 +41244,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1506" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -41270,7 +41270,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1507" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41296,7 +41296,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1508" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -41322,7 +41322,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1509" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -41348,7 +41348,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1510" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -41374,7 +41374,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1511" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -41400,7 +41400,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1512" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -41426,7 +41426,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1513" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41452,7 +41452,7 @@
         <v>3.72000002861023</v>
       </c>
       <c r="G1514" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -41478,7 +41478,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1515" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41504,7 +41504,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1516" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41530,7 +41530,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1517" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41556,7 +41556,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1518" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41582,7 +41582,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1519" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41608,7 +41608,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1520" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41634,7 +41634,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1521" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41660,7 +41660,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1522" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41686,7 +41686,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1523" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41712,7 +41712,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1524" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41738,7 +41738,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1525" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41764,7 +41764,7 @@
         <v>3.83999991416931</v>
       </c>
       <c r="G1526" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41790,7 +41790,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1527" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41816,7 +41816,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1528" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41842,7 +41842,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1529" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41868,7 +41868,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1530" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41894,7 +41894,7 @@
         <v>3.79999995231628</v>
       </c>
       <c r="G1531" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41920,7 +41920,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1532" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41946,7 +41946,7 @@
         <v>3.74000000953674</v>
       </c>
       <c r="G1533" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41972,7 +41972,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1534" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41998,7 +41998,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1535" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42024,7 +42024,7 @@
         <v>3.8199999332428</v>
       </c>
       <c r="G1536" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42050,7 +42050,7 @@
         <v>3.77999997138977</v>
       </c>
       <c r="G1537" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42076,7 +42076,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1538" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42102,7 +42102,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1539" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42128,7 +42128,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1540" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42154,7 +42154,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1541" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42180,7 +42180,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1542" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42206,7 +42206,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1543" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42232,7 +42232,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1544" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42258,7 +42258,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1545" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -42284,7 +42284,7 @@
         <v>3.70000004768372</v>
       </c>
       <c r="G1546" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -42310,7 +42310,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1547" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42336,7 +42336,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1548" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42362,7 +42362,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1549" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -42388,7 +42388,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1550" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -42414,7 +42414,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1551" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -42440,7 +42440,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1552" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42466,7 +42466,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1553" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42492,7 +42492,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1554" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42518,7 +42518,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1555" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42544,7 +42544,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1556" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42570,7 +42570,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1557" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42596,7 +42596,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1558" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42622,7 +42622,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1559" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -42648,7 +42648,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42674,7 +42674,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1561" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42700,7 +42700,7 @@
         <v>3.5</v>
       </c>
       <c r="G1562" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42726,7 +42726,7 @@
         <v>3.5</v>
       </c>
       <c r="G1563" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43012,7 +43012,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1574" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43090,7 +43090,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43142,7 +43142,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1579" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -43194,7 +43194,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1581" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43220,7 +43220,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1582" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43246,7 +43246,7 @@
         <v>3.75999999046326</v>
       </c>
       <c r="G1583" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43272,7 +43272,7 @@
         <v>3.66000008583069</v>
       </c>
       <c r="G1584" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43298,7 +43298,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1585" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43324,7 +43324,7 @@
         <v>3.6800000667572</v>
       </c>
       <c r="G1586" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43350,7 +43350,7 @@
         <v>3.64000010490417</v>
       </c>
       <c r="G1587" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43376,7 +43376,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -43402,7 +43402,7 @@
         <v>3.61999988555908</v>
       </c>
       <c r="G1589" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -43428,7 +43428,7 @@
         <v>3.59999990463257</v>
       </c>
       <c r="G1590" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43454,7 +43454,7 @@
         <v>3.5699999332428</v>
       </c>
       <c r="G1591" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43480,7 +43480,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1592" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43506,7 +43506,7 @@
         <v>3.5</v>
       </c>
       <c r="G1593" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43532,7 +43532,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1594" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43558,7 +43558,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1595" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43584,7 +43584,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1596" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43610,7 +43610,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1597" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43636,7 +43636,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1598" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43662,7 +43662,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43688,7 +43688,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1600" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43714,7 +43714,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1601" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43740,7 +43740,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G1602" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -43766,7 +43766,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1603" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -43792,7 +43792,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1604" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -43818,7 +43818,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G1605" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -43844,7 +43844,7 @@
         <v>3.5</v>
       </c>
       <c r="G1606" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43870,7 +43870,7 @@
         <v>3.5</v>
       </c>
       <c r="G1607" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43896,7 +43896,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1608" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43922,7 +43922,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1609" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43974,7 +43974,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1611" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44026,7 +44026,7 @@
         <v>3.5</v>
       </c>
       <c r="G1613" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44078,7 +44078,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44104,7 +44104,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1616" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44130,7 +44130,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1617" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44260,7 +44260,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1622" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44286,7 +44286,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1623" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44312,7 +44312,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1624" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44338,7 +44338,7 @@
         <v>3.60999989509583</v>
       </c>
       <c r="G1625" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44364,7 +44364,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -44390,7 +44390,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1627" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -44416,7 +44416,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44442,7 +44442,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1629" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44468,7 +44468,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G1630" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44494,7 +44494,7 @@
         <v>3.53999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44520,7 +44520,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G1632" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44546,7 +44546,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1633" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44572,7 +44572,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G1634" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44598,7 +44598,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1635" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44624,7 +44624,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1636" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44650,7 +44650,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G1637" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44676,7 +44676,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G1638" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44702,7 +44702,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1639" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44728,7 +44728,7 @@
         <v>3.5</v>
       </c>
       <c r="G1640" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44754,7 +44754,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1641" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44780,7 +44780,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44806,7 +44806,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44858,7 +44858,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1645" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44962,7 +44962,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1649" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45196,7 +45196,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1658" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45820,7 +45820,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G1682" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45898,7 +45898,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G1685" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45924,7 +45924,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45950,7 +45950,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45976,7 +45976,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46028,7 +46028,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46054,7 +46054,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46080,7 +46080,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46158,7 +46158,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46184,7 +46184,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1696" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46210,7 +46210,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1697" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46314,7 +46314,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G1701" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46496,7 +46496,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46522,7 +46522,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1709" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46548,7 +46548,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -59244,7 +59244,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="1" t="n">
-        <v>45525.649375</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B2199" t="n">
         <v>1500</v>
@@ -59253,7 +59253,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="D2199" t="n">
-        <v>3.19000005722046</v>
+        <v>3.16000008583069</v>
       </c>
       <c r="E2199" t="n">
         <v>3.21000003814697</v>
@@ -59265,6 +59265,32 @@
         <v>580</v>
       </c>
       <c r="H2199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>45526.6303587963</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>3.16000008583069</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>3.14000010490417</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>3.16000008583069</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>3.14000010490417</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>579</v>
+      </c>
+      <c r="H2200" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="582">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33370804786682</t>
+    <t xml:space="preserve">2.33370780944824</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35517859458923</t>
+    <t xml:space="preserve">2.35517883300781</t>
   </si>
   <si>
     <t xml:space="preserve">2.28581142425537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30397939682007</t>
+    <t xml:space="preserve">2.30397915840149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185139656067</t>
+    <t xml:space="preserve">2.17185163497925</t>
   </si>
   <si>
     <t xml:space="preserve">2.21974754333496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18836712837219</t>
+    <t xml:space="preserve">2.18836736679077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17019963264465</t>
+    <t xml:space="preserve">2.17019987106323</t>
   </si>
   <si>
     <t xml:space="preserve">2.09752941131592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08927154541016</t>
+    <t xml:space="preserve">2.08927130699158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320766448975</t>
+    <t xml:space="preserve">2.02320742607117</t>
   </si>
   <si>
     <t xml:space="preserve">2.00503969192505</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">2.09257483482361</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404490470886</t>
+    <t xml:space="preserve">2.11404538154602</t>
   </si>
   <si>
     <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06284618377686</t>
+    <t xml:space="preserve">2.0628457069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449770927429</t>
+    <t xml:space="preserve">2.06449747085571</t>
   </si>
   <si>
     <t xml:space="preserve">2.03972339630127</t>
@@ -98,34 +98,34 @@
     <t xml:space="preserve">2.0364203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852384090424</t>
+    <t xml:space="preserve">1.98852372169495</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97365939617157</t>
+    <t xml:space="preserve">1.97365975379944</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119394302368</t>
+    <t xml:space="preserve">2.06119418144226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017560482025</t>
+    <t xml:space="preserve">1.99017548561096</t>
   </si>
   <si>
     <t xml:space="preserve">2.01329779624939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11734867095947</t>
+    <t xml:space="preserve">2.11734890937805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25443124771118</t>
+    <t xml:space="preserve">2.25443148612976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32875323295593</t>
+    <t xml:space="preserve">2.32875275611877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3535270690918</t>
+    <t xml:space="preserve">2.35352683067322</t>
   </si>
   <si>
     <t xml:space="preserve">2.31223726272583</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">2.22139954566956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14707708358765</t>
+    <t xml:space="preserve">2.14707732200623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13716793060303</t>
+    <t xml:space="preserve">2.13716816902161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28746318817139</t>
+    <t xml:space="preserve">2.28746294975281</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36839175224304</t>
+    <t xml:space="preserve">2.36839127540588</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47739720344543</t>
+    <t xml:space="preserve">2.47739696502686</t>
   </si>
   <si>
     <t xml:space="preserve">2.34526896476746</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">2.39481735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47409391403198</t>
+    <t xml:space="preserve">2.47409343719482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43445563316345</t>
+    <t xml:space="preserve">2.43445539474487</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53520250320435</t>
+    <t xml:space="preserve">2.53520274162292</t>
   </si>
   <si>
     <t xml:space="preserve">2.51042890548706</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60126709938049</t>
+    <t xml:space="preserve">2.60126686096191</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59135723114014</t>
+    <t xml:space="preserve">2.59135699272156</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61117601394653</t>
+    <t xml:space="preserve">2.61117625236511</t>
   </si>
   <si>
     <t xml:space="preserve">2.54180955886841</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">2.51703548431396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51868677139282</t>
+    <t xml:space="preserve">2.5186870098114</t>
   </si>
   <si>
     <t xml:space="preserve">2.47244215011597</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50712561607361</t>
+    <t xml:space="preserve">2.50712585449219</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41793942451477</t>
+    <t xml:space="preserve">2.41793966293335</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47574496269226</t>
+    <t xml:space="preserve">2.47574520111084</t>
   </si>
   <si>
     <t xml:space="preserve">2.48895812034607</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">2.49391293525696</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253275871277</t>
+    <t xml:space="preserve">2.46253252029419</t>
   </si>
   <si>
     <t xml:space="preserve">2.43610692024231</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">2.40307521820068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4410617351532</t>
+    <t xml:space="preserve">2.44106197357178</t>
   </si>
   <si>
     <t xml:space="preserve">2.4245457649231</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">2.37830114364624</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2114896774292</t>
+    <t xml:space="preserve">2.21148943901062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1404709815979</t>
+    <t xml:space="preserve">2.14047122001648</t>
   </si>
   <si>
     <t xml:space="preserve">2.16854810714722</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">2.15533566474915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10578727722168</t>
+    <t xml:space="preserve">2.10578751564026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04610896110535</t>
+    <t xml:space="preserve">2.0461094379425</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00598931312561</t>
+    <t xml:space="preserve">2.00598978996277</t>
   </si>
   <si>
     <t xml:space="preserve">2.13303542137146</t>
@@ -251,43 +251,43 @@
     <t xml:space="preserve">2.08957242965698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02772116661072</t>
+    <t xml:space="preserve">2.0277214050293</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04778122901917</t>
+    <t xml:space="preserve">2.04778099060059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03942251205444</t>
+    <t xml:space="preserve">2.03942275047302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02270603179932</t>
+    <t xml:space="preserve">2.02270650863647</t>
   </si>
   <si>
     <t xml:space="preserve">2.01434779167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97255611419678</t>
+    <t xml:space="preserve">1.97255599498749</t>
   </si>
   <si>
     <t xml:space="preserve">2.00431776046753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98927295207977</t>
+    <t xml:space="preserve">1.98927319049835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64825463294983</t>
+    <t xml:space="preserve">1.64825475215912</t>
   </si>
   <si>
     <t xml:space="preserve">1.79703235626221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81374907493591</t>
+    <t xml:space="preserve">1.81374871730804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81207704544067</t>
+    <t xml:space="preserve">1.81207716464996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77195715904236</t>
+    <t xml:space="preserve">1.77195739746094</t>
   </si>
   <si>
     <t xml:space="preserve">1.75356912612915</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">1.73016583919525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7218074798584</t>
+    <t xml:space="preserve">1.72180759906769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73852407932281</t>
+    <t xml:space="preserve">1.7385241985321</t>
   </si>
   <si>
     <t xml:space="preserve">1.68837451934814</t>
@@ -308,61 +308,61 @@
     <t xml:space="preserve">1.75524079799652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74855411052704</t>
+    <t xml:space="preserve">1.74855434894562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74688255786896</t>
+    <t xml:space="preserve">1.74688243865967</t>
   </si>
   <si>
     <t xml:space="preserve">1.71344923973083</t>
   </si>
   <si>
-    <t xml:space="preserve">1.680016040802</t>
+    <t xml:space="preserve">1.68001616001129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.696732878685</t>
+    <t xml:space="preserve">1.69673275947571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87225663661957</t>
+    <t xml:space="preserve">1.87225699424744</t>
   </si>
   <si>
     <t xml:space="preserve">1.9641979932785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96754145622253</t>
+    <t xml:space="preserve">1.96754157543182</t>
   </si>
   <si>
     <t xml:space="preserve">2.05613946914673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00933289527893</t>
+    <t xml:space="preserve">2.00933265686035</t>
   </si>
   <si>
     <t xml:space="preserve">2.02604937553406</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04443764686584</t>
+    <t xml:space="preserve">2.04443740844727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07787084579468</t>
+    <t xml:space="preserve">2.07787108421326</t>
   </si>
   <si>
     <t xml:space="preserve">2.05781078338623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97088444232941</t>
+    <t xml:space="preserve">1.97088491916656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94413805007935</t>
+    <t xml:space="preserve">1.94413816928864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97757136821747</t>
+    <t xml:space="preserve">1.97757124900818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02103447914124</t>
+    <t xml:space="preserve">2.02103471755981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763107299805</t>
+    <t xml:space="preserve">1.99763131141663</t>
   </si>
   <si>
     <t xml:space="preserve">2.0711841583252</t>
@@ -371,49 +371,49 @@
     <t xml:space="preserve">2.07285571098328</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09625911712646</t>
+    <t xml:space="preserve">2.09625864028931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11464738845825</t>
+    <t xml:space="preserve">2.11464715003967</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19823026657104</t>
+    <t xml:space="preserve">2.19823002815247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18819999694824</t>
+    <t xml:space="preserve">2.18820023536682</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18652820587158</t>
+    <t xml:space="preserve">2.18652868270874</t>
   </si>
   <si>
     <t xml:space="preserve">2.15643858909607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16312527656555</t>
+    <t xml:space="preserve">2.16312575340271</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16479682922363</t>
+    <t xml:space="preserve">2.16479706764221</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19655823707581</t>
+    <t xml:space="preserve">2.19655871391296</t>
   </si>
   <si>
     <t xml:space="preserve">2.2316632270813</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22330522537231</t>
+    <t xml:space="preserve">2.22330474853516</t>
   </si>
   <si>
     <t xml:space="preserve">2.2968578338623</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3319628238678</t>
+    <t xml:space="preserve">2.33196258544922</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34032130241394</t>
+    <t xml:space="preserve">2.34032106399536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34700751304626</t>
+    <t xml:space="preserve">2.34700775146484</t>
   </si>
   <si>
     <t xml:space="preserve">2.38044095039368</t>
@@ -422,25 +422,25 @@
     <t xml:space="preserve">2.35536599159241</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32360434532166</t>
+    <t xml:space="preserve">2.32360458374023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30855989456177</t>
+    <t xml:space="preserve">2.30855941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3386492729187</t>
+    <t xml:space="preserve">2.33864951133728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31691813468933</t>
+    <t xml:space="preserve">2.31691789627075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34533596038818</t>
+    <t xml:space="preserve">2.34533619880676</t>
   </si>
   <si>
     <t xml:space="preserve">2.36539578437805</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36372447013855</t>
+    <t xml:space="preserve">2.36372423171997</t>
   </si>
   <si>
     <t xml:space="preserve">2.33530616760254</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">2.26008152961731</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2951865196228</t>
+    <t xml:space="preserve">2.29518628120422</t>
   </si>
   <si>
     <t xml:space="preserve">2.25673818588257</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">2.30521631240845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24670839309692</t>
+    <t xml:space="preserve">2.24670815467834</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14808034896851</t>
+    <t xml:space="preserve">2.14808058738708</t>
   </si>
   <si>
     <t xml:space="preserve">2.17984199523926</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">2.21494674682617</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20324516296387</t>
+    <t xml:space="preserve">2.20324492454529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27011179924011</t>
+    <t xml:space="preserve">2.27011156082153</t>
   </si>
   <si>
     <t xml:space="preserve">2.25506639480591</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18987202644348</t>
+    <t xml:space="preserve">2.1898717880249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25339484214783</t>
+    <t xml:space="preserve">2.25339508056641</t>
   </si>
   <si>
     <t xml:space="preserve">2.19154357910156</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">2.19990181922913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2433648109436</t>
+    <t xml:space="preserve">2.24336504936218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1413938999176</t>
+    <t xml:space="preserve">2.14139366149902</t>
   </si>
   <si>
     <t xml:space="preserve">2.14640879631042</t>
   </si>
   <si>
-    <t xml:space="preserve">2.183185338974</t>
+    <t xml:space="preserve">2.18318510055542</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30688762664795</t>
+    <t xml:space="preserve">2.30688810348511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32861971855164</t>
+    <t xml:space="preserve">2.32861948013306</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41554594039917</t>
+    <t xml:space="preserve">2.41554546356201</t>
   </si>
   <si>
     <t xml:space="preserve">2.42223238945007</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">2.45900869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37709760665894</t>
+    <t xml:space="preserve">2.37709784507751</t>
   </si>
   <si>
     <t xml:space="preserve">2.52754664421082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50748705863953</t>
+    <t xml:space="preserve">2.50748682022095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54927802085876</t>
+    <t xml:space="preserve">2.54927849769592</t>
   </si>
   <si>
     <t xml:space="preserve">2.48909854888916</t>
@@ -548,22 +548,22 @@
     <t xml:space="preserve">2.48241209983826</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39715766906738</t>
+    <t xml:space="preserve">2.39715719223022</t>
   </si>
   <si>
     <t xml:space="preserve">2.43894910812378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49077033996582</t>
+    <t xml:space="preserve">2.49077010154724</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49912881851196</t>
+    <t xml:space="preserve">2.49912858009338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50414371490479</t>
+    <t xml:space="preserve">2.50414347648621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47906851768494</t>
+    <t xml:space="preserve">2.47906875610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.45399379730225</t>
@@ -578,28 +578,28 @@
     <t xml:space="preserve">2.42390418052673</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5994279384613</t>
+    <t xml:space="preserve">2.59942770004272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6479058265686</t>
+    <t xml:space="preserve">2.64790606498718</t>
   </si>
   <si>
     <t xml:space="preserve">2.62450289726257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67298102378845</t>
+    <t xml:space="preserve">2.67298126220703</t>
   </si>
   <si>
     <t xml:space="preserve">2.64957809448242</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78163862228394</t>
+    <t xml:space="preserve">2.78163886070251</t>
   </si>
   <si>
     <t xml:space="preserve">2.84181833267212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83847498893738</t>
+    <t xml:space="preserve">2.83847522735596</t>
   </si>
   <si>
     <t xml:space="preserve">2.83513188362122</t>
@@ -608,91 +608,91 @@
     <t xml:space="preserve">2.81674337387085</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83346009254456</t>
+    <t xml:space="preserve">2.83346056938171</t>
   </si>
   <si>
     <t xml:space="preserve">2.77328062057495</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71811580657959</t>
+    <t xml:space="preserve">2.71811556816101</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81172871589661</t>
+    <t xml:space="preserve">2.81172847747803</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74987697601318</t>
+    <t xml:space="preserve">2.74987721443176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76659393310547</t>
+    <t xml:space="preserve">2.76659417152405</t>
   </si>
   <si>
     <t xml:space="preserve">2.751549243927</t>
   </si>
   <si>
-    <t xml:space="preserve">2.77495193481445</t>
+    <t xml:space="preserve">2.77495217323303</t>
   </si>
   <si>
     <t xml:space="preserve">2.79166889190674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.74486255645752</t>
+    <t xml:space="preserve">2.74486231803894</t>
   </si>
   <si>
     <t xml:space="preserve">2.74319076538086</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67465257644653</t>
+    <t xml:space="preserve">2.67465281486511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75823545455933</t>
+    <t xml:space="preserve">2.75823521614075</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73316097259521</t>
+    <t xml:space="preserve">2.73316049575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7833104133606</t>
+    <t xml:space="preserve">2.78331065177917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73817586898804</t>
+    <t xml:space="preserve">2.73817563056946</t>
   </si>
   <si>
     <t xml:space="preserve">2.80838537216187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79835534095764</t>
+    <t xml:space="preserve">2.79835557937622</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8000271320343</t>
+    <t xml:space="preserve">2.80002689361572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02068591117859</t>
+    <t xml:space="preserve">3.02068567276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97387981414795</t>
+    <t xml:space="preserve">2.97387957572937</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95883464813232</t>
+    <t xml:space="preserve">2.95883440971375</t>
   </si>
   <si>
     <t xml:space="preserve">2.96384930610657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86856484413147</t>
+    <t xml:space="preserve">2.86856508255005</t>
   </si>
   <si>
     <t xml:space="preserve">2.96552133560181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9972825050354</t>
+    <t xml:space="preserve">2.99728274345398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00898408889771</t>
+    <t xml:space="preserve">3.00898432731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86354994773865</t>
+    <t xml:space="preserve">2.86355018615723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87859511375427</t>
+    <t xml:space="preserve">2.87859487533569</t>
   </si>
   <si>
     <t xml:space="preserve">2.94867610931396</t>
@@ -701,16 +701,16 @@
     <t xml:space="preserve">3.00936913490295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96216320991516</t>
+    <t xml:space="preserve">2.96216344833374</t>
   </si>
   <si>
     <t xml:space="preserve">2.95036220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02622866630554</t>
+    <t xml:space="preserve">3.02622818946838</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9773371219635</t>
+    <t xml:space="preserve">2.97733688354492</t>
   </si>
   <si>
     <t xml:space="preserve">2.88292527198792</t>
@@ -722,22 +722,22 @@
     <t xml:space="preserve">2.84246301651001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87112379074097</t>
+    <t xml:space="preserve">2.87112355232239</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80705857276917</t>
+    <t xml:space="preserve">2.80705881118774</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7564811706543</t>
+    <t xml:space="preserve">2.75648093223572</t>
   </si>
   <si>
     <t xml:space="preserve">2.74973750114441</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73625016212463</t>
+    <t xml:space="preserve">2.73625040054321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75816702842712</t>
+    <t xml:space="preserve">2.75816679000854</t>
   </si>
   <si>
     <t xml:space="preserve">2.77502655982971</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">2.88629722595215</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85763645172119</t>
+    <t xml:space="preserve">2.85763669013977</t>
   </si>
   <si>
     <t xml:space="preserve">2.86438012123108</t>
@@ -761,10 +761,10 @@
     <t xml:space="preserve">2.88123917579651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9419322013855</t>
+    <t xml:space="preserve">2.94193267822266</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9267590045929</t>
+    <t xml:space="preserve">2.92675924301147</t>
   </si>
   <si>
     <t xml:space="preserve">2.9672212600708</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">2.93518877029419</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94699001312256</t>
+    <t xml:space="preserve">2.94699025154114</t>
   </si>
   <si>
     <t xml:space="preserve">2.92507338523865</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">2.9368748664856</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96553540229797</t>
+    <t xml:space="preserve">2.96553564071655</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89978456497192</t>
+    <t xml:space="preserve">2.89978408813477</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92001557350159</t>
+    <t xml:space="preserve">2.92001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94024658203125</t>
+    <t xml:space="preserve">2.94024634361267</t>
   </si>
   <si>
     <t xml:space="preserve">2.91495776176453</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">2.94530439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97902274131775</t>
+    <t xml:space="preserve">2.97902250289917</t>
   </si>
   <si>
     <t xml:space="preserve">2.98408055305481</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">2.97565078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95373392105103</t>
+    <t xml:space="preserve">2.95373368263245</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95879149436951</t>
+    <t xml:space="preserve">2.95879173278809</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90315651893616</t>
+    <t xml:space="preserve">2.90315628051758</t>
   </si>
   <si>
     <t xml:space="preserve">2.84920692443848</t>
@@ -830,37 +830,37 @@
     <t xml:space="preserve">2.86269426345825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.938560962677</t>
+    <t xml:space="preserve">2.93856048583984</t>
   </si>
   <si>
     <t xml:space="preserve">2.93181681632996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90821385383606</t>
+    <t xml:space="preserve">2.90821409225464</t>
   </si>
   <si>
     <t xml:space="preserve">2.86943793296814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8407769203186</t>
+    <t xml:space="preserve">2.84077715873718</t>
   </si>
   <si>
     <t xml:space="preserve">2.95710587501526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97227931022644</t>
+    <t xml:space="preserve">2.97227883338928</t>
   </si>
   <si>
     <t xml:space="preserve">2.98745226860046</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91832947731018</t>
+    <t xml:space="preserve">2.9183292388916</t>
   </si>
   <si>
     <t xml:space="preserve">2.91158604621887</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03465795516968</t>
+    <t xml:space="preserve">3.03465819358826</t>
   </si>
   <si>
     <t xml:space="preserve">3.01779890060425</t>
@@ -875,52 +875,49 @@
     <t xml:space="preserve">3.00431156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05657482147217</t>
+    <t xml:space="preserve">3.05657505989075</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15098667144775</t>
+    <t xml:space="preserve">3.15098643302917</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11895442008972</t>
+    <t xml:space="preserve">3.11895418167114</t>
   </si>
   <si>
     <t xml:space="preserve">2.97396516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02454280853271</t>
+    <t xml:space="preserve">3.02454257011414</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02285647392273</t>
+    <t xml:space="preserve">3.02285671234131</t>
   </si>
   <si>
     <t xml:space="preserve">3.02117085456848</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89135503768921</t>
+    <t xml:space="preserve">2.89135479927063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.90147018432617</t>
+    <t xml:space="preserve">2.90147042274475</t>
   </si>
   <si>
     <t xml:space="preserve">2.93013119697571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81548833847046</t>
+    <t xml:space="preserve">2.81548857688904</t>
   </si>
   <si>
     <t xml:space="preserve">2.87449550628662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96890735626221</t>
+    <t xml:space="preserve">2.96890711784363</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9925103187561</t>
+    <t xml:space="preserve">2.99250984191895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96384954452515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87280964851379</t>
+    <t xml:space="preserve">2.87280988693237</t>
   </si>
   <si>
     <t xml:space="preserve">2.96047759056091</t>
@@ -932,16 +929,16 @@
     <t xml:space="preserve">2.87955331802368</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93350291252136</t>
+    <t xml:space="preserve">2.93350315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79862928390503</t>
+    <t xml:space="preserve">2.79862904548645</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73962163925171</t>
+    <t xml:space="preserve">2.73962187767029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68061447143555</t>
+    <t xml:space="preserve">2.68061470985413</t>
   </si>
   <si>
     <t xml:space="preserve">2.69747400283813</t>
@@ -950,13 +947,13 @@
     <t xml:space="preserve">2.73119235038757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68904447555542</t>
+    <t xml:space="preserve">2.68904423713684</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6300368309021</t>
+    <t xml:space="preserve">2.63003706932068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57945942878723</t>
+    <t xml:space="preserve">2.57945919036865</t>
   </si>
   <si>
     <t xml:space="preserve">2.60474801063538</t>
@@ -971,22 +968,22 @@
     <t xml:space="preserve">2.58788895606995</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61317777633667</t>
+    <t xml:space="preserve">2.61317801475525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62160754203796</t>
+    <t xml:space="preserve">2.62160730361938</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65532612800598</t>
+    <t xml:space="preserve">2.65532565116882</t>
   </si>
   <si>
     <t xml:space="preserve">2.71433329582214</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79019951820374</t>
+    <t xml:space="preserve">2.79019975662231</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05994725227356</t>
+    <t xml:space="preserve">3.05994701385498</t>
   </si>
   <si>
     <t xml:space="preserve">2.962810754776</t>
@@ -995,7 +992,7 @@
     <t xml:space="preserve">2.9455349445343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01463842391968</t>
+    <t xml:space="preserve">3.01463866233826</t>
   </si>
   <si>
     <t xml:space="preserve">2.98872447013855</t>
@@ -1004,25 +1001,25 @@
     <t xml:space="preserve">2.99736261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95417308807373</t>
+    <t xml:space="preserve">2.95417284965515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85915541648865</t>
+    <t xml:space="preserve">2.85915589332581</t>
   </si>
   <si>
     <t xml:space="preserve">2.81596612930298</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8332417011261</t>
+    <t xml:space="preserve">2.83324193954468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.781414270401</t>
+    <t xml:space="preserve">2.78141450881958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79005241394043</t>
+    <t xml:space="preserve">2.79005217552185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7986900806427</t>
+    <t xml:space="preserve">2.79869031906128</t>
   </si>
   <si>
     <t xml:space="preserve">2.7641384601593</t>
@@ -1031,25 +1028,25 @@
     <t xml:space="preserve">2.77277636528015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68639707565308</t>
+    <t xml:space="preserve">2.68639659881592</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72958660125732</t>
+    <t xml:space="preserve">2.7295868396759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775917053223</t>
+    <t xml:space="preserve">2.67775893211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59137964248657</t>
+    <t xml:space="preserve">2.59137988090515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73822450637817</t>
+    <t xml:space="preserve">2.73822474479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6518452167511</t>
+    <t xml:space="preserve">2.65184497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7123110294342</t>
+    <t xml:space="preserve">2.71231079101562</t>
   </si>
   <si>
     <t xml:space="preserve">2.7468626499176</t>
@@ -1058,7 +1055,7 @@
     <t xml:space="preserve">2.72094869613647</t>
   </si>
   <si>
-    <t xml:space="preserve">2.75550031661987</t>
+    <t xml:space="preserve">2.75550055503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.64320731163025</t>
@@ -1070,7 +1067,7 @@
     <t xml:space="preserve">2.69503474235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66048336029053</t>
+    <t xml:space="preserve">2.66048312187195</t>
   </si>
   <si>
     <t xml:space="preserve">2.600017786026</t>
@@ -1079,31 +1076,31 @@
     <t xml:space="preserve">2.60865569114685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57410407066345</t>
+    <t xml:space="preserve">2.57410383224487</t>
   </si>
   <si>
     <t xml:space="preserve">2.5654661655426</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5481903553009</t>
+    <t xml:space="preserve">2.54819011688232</t>
   </si>
   <si>
     <t xml:space="preserve">2.55682802200317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61729335784912</t>
+    <t xml:space="preserve">2.6172935962677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63456916809082</t>
+    <t xml:space="preserve">2.6345694065094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6691210269928</t>
+    <t xml:space="preserve">2.66912078857422</t>
   </si>
   <si>
     <t xml:space="preserve">2.80732798576355</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82460403442383</t>
+    <t xml:space="preserve">2.82460379600525</t>
   </si>
   <si>
     <t xml:space="preserve">2.84187960624695</t>
@@ -1112,31 +1109,31 @@
     <t xml:space="preserve">2.85051774978638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8937075138092</t>
+    <t xml:space="preserve">2.89370727539062</t>
   </si>
   <si>
-    <t xml:space="preserve">2.92825937271118</t>
+    <t xml:space="preserve">2.9282591342926</t>
   </si>
   <si>
     <t xml:space="preserve">2.91098308563232</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86779356002808</t>
+    <t xml:space="preserve">2.86779379844666</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88506937026978</t>
+    <t xml:space="preserve">2.88506960868835</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91962146759033</t>
+    <t xml:space="preserve">2.91962122917175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93689703941345</t>
+    <t xml:space="preserve">2.93689727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02327656745911</t>
+    <t xml:space="preserve">3.02327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06646585464478</t>
+    <t xml:space="preserve">3.06646609306335</t>
   </si>
   <si>
     <t xml:space="preserve">3.04055213928223</t>
@@ -1145,7 +1142,7 @@
     <t xml:space="preserve">3.00600051879883</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04919004440308</t>
+    <t xml:space="preserve">3.04919028282166</t>
   </si>
   <si>
     <t xml:space="preserve">3.03191447257996</t>
@@ -1157,37 +1154,40 @@
     <t xml:space="preserve">3.0923798084259</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97144889831543</t>
+    <t xml:space="preserve">2.97144865989685</t>
   </si>
   <si>
     <t xml:space="preserve">3.0751039981842</t>
   </si>
   <si>
-    <t xml:space="preserve">2.91875743865967</t>
+    <t xml:space="preserve">2.94553470611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.91875720024109</t>
   </si>
   <si>
     <t xml:space="preserve">2.96338653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97231221199036</t>
+    <t xml:space="preserve">2.97231245040894</t>
   </si>
   <si>
     <t xml:space="preserve">3.03479361534119</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02586793899536</t>
+    <t xml:space="preserve">3.02586770057678</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07049703598022</t>
+    <t xml:space="preserve">3.07049679756165</t>
   </si>
   <si>
-    <t xml:space="preserve">3.05264544487</t>
+    <t xml:space="preserve">3.05264520645142</t>
   </si>
   <si>
     <t xml:space="preserve">3.01694202423096</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99908995628357</t>
+    <t xml:space="preserve">2.99909019470215</t>
   </si>
   <si>
     <t xml:space="preserve">3.06157112121582</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">3.09727454185486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04371929168701</t>
+    <t xml:space="preserve">3.04371953010559</t>
   </si>
   <si>
     <t xml:space="preserve">3.08834862709045</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">2.90983152389526</t>
   </si>
   <si>
-    <t xml:space="preserve">2.95446062088013</t>
+    <t xml:space="preserve">2.95446085929871</t>
   </si>
   <si>
     <t xml:space="preserve">2.98123836517334</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">2.7491660118103</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68668484687805</t>
+    <t xml:space="preserve">2.68668508529663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.67775893211365</t>
+    <t xml:space="preserve">2.67775917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64205551147461</t>
+    <t xml:space="preserve">2.64205574989319</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62420392036438</t>
+    <t xml:space="preserve">2.6242036819458</t>
   </si>
   <si>
     <t xml:space="preserve">2.60635209083557</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">2.71346235275269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.66883325576782</t>
+    <t xml:space="preserve">2.66883301734924</t>
   </si>
   <si>
     <t xml:space="preserve">2.69561076164246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72238802909851</t>
+    <t xml:space="preserve">2.72238826751709</t>
   </si>
   <si>
     <t xml:space="preserve">2.59742617607117</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">2.73131418228149</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65098166465759</t>
+    <t xml:space="preserve">2.65098142623901</t>
   </si>
   <si>
-    <t xml:space="preserve">2.70453643798828</t>
+    <t xml:space="preserve">2.70453667640686</t>
   </si>
   <si>
     <t xml:space="preserve">3.23116254806519</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15975570678711</t>
+    <t xml:space="preserve">3.15975546836853</t>
   </si>
   <si>
     <t xml:space="preserve">3.1419038772583</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">3.12405228614807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10620045661926</t>
+    <t xml:space="preserve">3.10620069503784</t>
   </si>
   <si>
     <t xml:space="preserve">2.99016427993774</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">2.89197969436646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.80272126197815</t>
+    <t xml:space="preserve">2.80272102355957</t>
   </si>
   <si>
     <t xml:space="preserve">2.79379534721375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4278347492218</t>
+    <t xml:space="preserve">2.42783498764038</t>
   </si>
   <si>
     <t xml:space="preserve">2.47246408462524</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">2.84735035896301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8294985294342</t>
+    <t xml:space="preserve">2.82949876785278</t>
   </si>
   <si>
     <t xml:space="preserve">2.85627627372742</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">2.88305401802063</t>
   </si>
   <si>
-    <t xml:space="preserve">2.82057285308838</t>
+    <t xml:space="preserve">2.82057309150696</t>
   </si>
   <si>
     <t xml:space="preserve">2.74023985862732</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">2.63312983512878</t>
   </si>
   <si>
-    <t xml:space="preserve">2.57064867019653</t>
+    <t xml:space="preserve">2.57064890861511</t>
   </si>
   <si>
     <t xml:space="preserve">2.49924159049988</t>
@@ -1385,13 +1385,13 @@
     <t xml:space="preserve">2.45461249351501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51709365844727</t>
+    <t xml:space="preserve">2.51709342002869</t>
   </si>
   <si>
     <t xml:space="preserve">2.86520218849182</t>
   </si>
   <si>
-    <t xml:space="preserve">3.15082955360413</t>
+    <t xml:space="preserve">3.15082979202271</t>
   </si>
   <si>
     <t xml:space="preserve">3.18653297424316</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">3.16868138313293</t>
   </si>
   <si>
-    <t xml:space="preserve">3.19545912742615</t>
+    <t xml:space="preserve">3.19545888900757</t>
   </si>
   <si>
     <t xml:space="preserve">3.35612463951111</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">3.37397646903992</t>
   </si>
   <si>
-    <t xml:space="preserve">3.48108696937561</t>
+    <t xml:space="preserve">3.48108673095703</t>
   </si>
   <si>
     <t xml:space="preserve">3.42753148078918</t>
   </si>
   <si>
-    <t xml:space="preserve">3.49893856048584</t>
+    <t xml:space="preserve">3.49893832206726</t>
   </si>
   <si>
     <t xml:space="preserve">3.39182806015015</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">3.33827304840088</t>
   </si>
   <si>
-    <t xml:space="preserve">3.30256962776184</t>
+    <t xml:space="preserve">3.30256938934326</t>
   </si>
   <si>
     <t xml:space="preserve">3.2668662071228</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">3.44538307189941</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65960359573364</t>
+    <t xml:space="preserve">3.65960383415222</t>
   </si>
   <si>
     <t xml:space="preserve">3.57034540176392</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">3.51679039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">3.40967988967896</t>
+    <t xml:space="preserve">3.40967965126038</t>
   </si>
   <si>
     <t xml:space="preserve">3.17760729789734</t>
@@ -1500,6 +1500,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.22308564186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19545912742615</t>
   </si>
   <si>
     <t xml:space="preserve">3.15862369537354</t>
@@ -15036,7 +15039,7 @@
         <v>3.51600003242493</v>
       </c>
       <c r="G498" t="s">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -15140,7 +15143,7 @@
         <v>3.40799999237061</v>
       </c>
       <c r="G502" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -15218,7 +15221,7 @@
         <v>3.51200008392334</v>
       </c>
       <c r="G505" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -15270,7 +15273,7 @@
         <v>3.44600009918213</v>
       </c>
       <c r="G507" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -15296,7 +15299,7 @@
         <v>3.41599988937378</v>
       </c>
       <c r="G508" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -15530,7 +15533,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G517" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -15686,7 +15689,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G523" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -16128,7 +16131,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G540" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -16154,7 +16157,7 @@
         <v>3.25</v>
       </c>
       <c r="G541" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -16180,7 +16183,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G542" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -16206,7 +16209,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G543" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -16232,7 +16235,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G544" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -16258,7 +16261,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -16284,7 +16287,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G546" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -16310,7 +16313,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G547" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -16336,7 +16339,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G548" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -16362,7 +16365,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G549" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -16388,7 +16391,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G550" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -16414,7 +16417,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G551" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -16440,7 +16443,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G552" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -16466,7 +16469,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G553" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -16492,7 +16495,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G554" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -16518,7 +16521,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G555" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -16544,7 +16547,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G556" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -16570,7 +16573,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G557" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -16596,7 +16599,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G558" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -16622,7 +16625,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G559" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -16648,7 +16651,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G560" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -16674,7 +16677,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G561" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -16700,7 +16703,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G562" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -16726,7 +16729,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G563" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -16752,7 +16755,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G564" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -16778,7 +16781,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G565" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -17064,7 +17067,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G576" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17376,7 +17379,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G588" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -17506,7 +17509,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G593" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -17636,7 +17639,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G598" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -17766,7 +17769,7 @@
         <v>3.63000011444092</v>
       </c>
       <c r="G603" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -17896,7 +17899,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -17922,7 +17925,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G609" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -17948,7 +17951,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G610" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -17974,7 +17977,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18000,7 +18003,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G612" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -18026,7 +18029,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G613" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18052,7 +18055,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18078,7 +18081,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G615" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -18104,7 +18107,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G616" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -18130,7 +18133,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G617" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18156,7 +18159,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G618" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -18182,7 +18185,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G619" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -18208,7 +18211,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G620" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -18234,7 +18237,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G621" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -18260,7 +18263,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G622" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -18286,7 +18289,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G623" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -18312,7 +18315,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G624" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -18338,7 +18341,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G625" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -18364,7 +18367,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G626" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -18390,7 +18393,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G627" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -18416,7 +18419,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G628" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -18442,7 +18445,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G629" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -18468,7 +18471,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G630" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -18494,7 +18497,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G631" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -18520,7 +18523,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G632" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -18546,7 +18549,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G633" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -18572,7 +18575,7 @@
         <v>3</v>
       </c>
       <c r="G634" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -18598,7 +18601,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G635" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -18624,7 +18627,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G636" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -18650,7 +18653,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G637" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -18676,7 +18679,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G638" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -18702,7 +18705,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G639" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -18728,7 +18731,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G640" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -18754,7 +18757,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G641" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -18780,7 +18783,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G642" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -18806,7 +18809,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G643" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -18832,7 +18835,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G644" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -18858,7 +18861,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G645" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -18884,7 +18887,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G646" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -18910,7 +18913,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G647" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -18936,7 +18939,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G648" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -18962,7 +18965,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G649" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -18988,7 +18991,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G650" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -19014,7 +19017,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G651" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -19040,7 +19043,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G652" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -19066,7 +19069,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G653" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -19092,7 +19095,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G654" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -19118,7 +19121,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G655" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -19144,7 +19147,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G656" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -19170,7 +19173,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G657" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -19196,7 +19199,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G658" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -19222,7 +19225,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G659" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -19248,7 +19251,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G660" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -19274,7 +19277,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G661" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -19300,7 +19303,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G662" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -19326,7 +19329,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G663" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -19352,7 +19355,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G664" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -19378,7 +19381,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G665" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -19404,7 +19407,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G666" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -19430,7 +19433,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G667" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -19456,7 +19459,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G668" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -19482,7 +19485,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G669" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -19508,7 +19511,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G670" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -19534,7 +19537,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G671" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -19560,7 +19563,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G672" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -19586,7 +19589,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G673" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -19612,7 +19615,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G674" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -19638,7 +19641,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G675" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -19664,7 +19667,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G676" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -19690,7 +19693,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G677" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -19716,7 +19719,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G678" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -19742,7 +19745,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G679" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -19768,7 +19771,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G680" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -19794,7 +19797,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G681" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -19820,7 +19823,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G682" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -19846,7 +19849,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G683" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -19872,7 +19875,7 @@
         <v>3.02999997138977</v>
       </c>
       <c r="G684" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -19898,7 +19901,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G685" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -19924,7 +19927,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G686" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -19950,7 +19953,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G687" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -19976,7 +19979,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G688" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -20002,7 +20005,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G689" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -20028,7 +20031,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G690" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -20054,7 +20057,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G691" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -20080,7 +20083,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G692" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -20106,7 +20109,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G693" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -20132,7 +20135,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G694" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -20158,7 +20161,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G695" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -20184,7 +20187,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G696" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -20210,7 +20213,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G697" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -20236,7 +20239,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G698" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -20262,7 +20265,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G699" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -20288,7 +20291,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G700" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -20314,7 +20317,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G701" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -20340,7 +20343,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G702" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -20366,7 +20369,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G703" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -20392,7 +20395,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G704" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -20418,7 +20421,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G705" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -20444,7 +20447,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G706" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -20470,7 +20473,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -20496,7 +20499,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G708" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -20522,7 +20525,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G709" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -20548,7 +20551,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G710" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -20574,7 +20577,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G711" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -20600,7 +20603,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G712" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -20626,7 +20629,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G713" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -20652,7 +20655,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G714" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -20678,7 +20681,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G715" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -20704,7 +20707,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G716" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -20730,7 +20733,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G717" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -20756,7 +20759,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -20782,7 +20785,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G719" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -20808,7 +20811,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G720" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -20834,7 +20837,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G721" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -20860,7 +20863,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G722" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -20886,7 +20889,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G723" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -20912,7 +20915,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G724" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -20938,7 +20941,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -20964,7 +20967,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G726" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -20990,7 +20993,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G727" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -21016,7 +21019,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G728" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -21042,7 +21045,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G729" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -21068,7 +21071,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G730" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -21094,7 +21097,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G731" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -21120,7 +21123,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G732" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -21146,7 +21149,7 @@
         <v>3.25</v>
       </c>
       <c r="G733" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -21172,7 +21175,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G734" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -21198,7 +21201,7 @@
         <v>3.25</v>
       </c>
       <c r="G735" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -21224,7 +21227,7 @@
         <v>3.25</v>
       </c>
       <c r="G736" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -21250,7 +21253,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G737" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -21276,7 +21279,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G738" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -21302,7 +21305,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G739" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -21328,7 +21331,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G740" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -21354,7 +21357,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G741" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -21380,7 +21383,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G742" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -21406,7 +21409,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G743" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -21432,7 +21435,7 @@
         <v>3.25</v>
       </c>
       <c r="G744" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -21458,7 +21461,7 @@
         <v>3.25</v>
       </c>
       <c r="G745" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -21484,7 +21487,7 @@
         <v>3.25</v>
       </c>
       <c r="G746" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -21510,7 +21513,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G747" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -21536,7 +21539,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G748" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -21562,7 +21565,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G749" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -21588,7 +21591,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G750" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -21614,7 +21617,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G751" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -21640,7 +21643,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G752" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -21666,7 +21669,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G753" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -21692,7 +21695,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G754" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -21718,7 +21721,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G755" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -21744,7 +21747,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G756" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -21770,7 +21773,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G757" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -21796,7 +21799,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G758" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -21822,7 +21825,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G759" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -21848,7 +21851,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G760" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -21874,7 +21877,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G761" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -21900,7 +21903,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G762" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -21926,7 +21929,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G763" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -21952,7 +21955,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G764" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -21978,7 +21981,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G765" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -22004,7 +22007,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G766" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -22030,7 +22033,7 @@
         <v>3.25</v>
       </c>
       <c r="G767" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -22056,7 +22059,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G768" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -22082,7 +22085,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G769" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -22108,7 +22111,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G770" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -22134,7 +22137,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G771" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -22160,7 +22163,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G772" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -22186,7 +22189,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G773" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -22212,7 +22215,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G774" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -22238,7 +22241,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G775" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -22264,7 +22267,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G776" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -22290,7 +22293,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G777" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -22316,7 +22319,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G778" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -22342,7 +22345,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G779" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -22368,7 +22371,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G780" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -22394,7 +22397,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G781" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -22420,7 +22423,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G782" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -22446,7 +22449,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G783" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -22472,7 +22475,7 @@
         <v>3.39000010490417</v>
       </c>
       <c r="G784" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -22498,7 +22501,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G785" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -22524,7 +22527,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G786" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -22550,7 +22553,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G787" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -22576,7 +22579,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G788" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -22602,7 +22605,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G789" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -22628,7 +22631,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G790" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -22654,7 +22657,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G791" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -22680,7 +22683,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G792" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -22706,7 +22709,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G793" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -22732,7 +22735,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G794" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -22758,7 +22761,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G795" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -22784,7 +22787,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G796" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -22810,7 +22813,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G797" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -22836,7 +22839,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G798" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -22862,7 +22865,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G799" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -22888,7 +22891,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G800" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -22914,7 +22917,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G801" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -22940,7 +22943,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G802" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -22966,7 +22969,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G803" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -22992,7 +22995,7 @@
         <v>3.40000009536743</v>
       </c>
       <c r="G804" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -23018,7 +23021,7 @@
         <v>3.5</v>
       </c>
       <c r="G805" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -23044,7 +23047,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -23070,7 +23073,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G807" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -23096,7 +23099,7 @@
         <v>3.5</v>
       </c>
       <c r="G808" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -23122,7 +23125,7 @@
         <v>3.5</v>
       </c>
       <c r="G809" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -23148,7 +23151,7 @@
         <v>3.5</v>
       </c>
       <c r="G810" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -23174,7 +23177,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G811" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -23200,7 +23203,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G812" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -23226,7 +23229,7 @@
         <v>3.5</v>
       </c>
       <c r="G813" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -23252,7 +23255,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G814" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -23278,7 +23281,7 @@
         <v>3.5</v>
       </c>
       <c r="G815" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -23304,7 +23307,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G816" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -23330,7 +23333,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G817" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -23356,7 +23359,7 @@
         <v>3.5</v>
       </c>
       <c r="G818" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -23382,7 +23385,7 @@
         <v>3.5</v>
       </c>
       <c r="G819" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -23408,7 +23411,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -23434,7 +23437,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G821" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -23460,7 +23463,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G822" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -23486,7 +23489,7 @@
         <v>3.45000004768372</v>
       </c>
       <c r="G823" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -23512,7 +23515,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G824" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -23538,7 +23541,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G825" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -23564,7 +23567,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G826" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -23590,7 +23593,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G827" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -23616,7 +23619,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G828" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -23642,7 +23645,7 @@
         <v>3.5</v>
       </c>
       <c r="G829" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -23668,7 +23671,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G830" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -23694,7 +23697,7 @@
         <v>3.57999992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -23720,7 +23723,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G832" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -23746,7 +23749,7 @@
         <v>3.5</v>
       </c>
       <c r="G833" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -23772,7 +23775,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G834" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -23798,7 +23801,7 @@
         <v>3.5</v>
       </c>
       <c r="G835" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -23824,7 +23827,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G836" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -23850,7 +23853,7 @@
         <v>3.50999999046326</v>
       </c>
       <c r="G837" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -23876,7 +23879,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G838" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -23902,7 +23905,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G839" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -23928,7 +23931,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -23954,7 +23957,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G841" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -23980,7 +23983,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G842" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -24006,7 +24009,7 @@
         <v>3.5</v>
       </c>
       <c r="G843" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -24032,7 +24035,7 @@
         <v>3.5</v>
       </c>
       <c r="G844" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -24058,7 +24061,7 @@
         <v>3.44000005722046</v>
       </c>
       <c r="G845" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -24084,7 +24087,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G846" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -24110,7 +24113,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G847" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -24136,7 +24139,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G848" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -24162,7 +24165,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G849" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -24188,7 +24191,7 @@
         <v>3.49000000953674</v>
       </c>
       <c r="G850" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -24214,7 +24217,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G851" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -24240,7 +24243,7 @@
         <v>3.52999997138977</v>
       </c>
       <c r="G852" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -24266,7 +24269,7 @@
         <v>3.55999994277954</v>
       </c>
       <c r="G853" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -24292,7 +24295,7 @@
         <v>3.54999995231628</v>
       </c>
       <c r="G854" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -24318,7 +24321,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G855" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -24344,7 +24347,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G856" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -24370,7 +24373,7 @@
         <v>3.48000001907349</v>
       </c>
       <c r="G857" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -24396,7 +24399,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G858" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -24422,7 +24425,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G859" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25176,7 +25179,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G888" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -25280,7 +25283,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G892" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -25306,7 +25309,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G893" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -25618,7 +25621,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G905" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -25748,7 +25751,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G910" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -25774,7 +25777,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G911" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29570,7 +29573,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1057" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -30714,7 +30717,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1101" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -35238,7 +35241,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1275" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -35290,7 +35293,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1277" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -38748,7 +38751,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1410" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -43090,7 +43093,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1577" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44780,7 +44783,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1642" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44806,7 +44809,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1643" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44832,7 +44835,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1644" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44884,7 +44887,7 @@
         <v>3.41000008583069</v>
       </c>
       <c r="G1646" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44910,7 +44913,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1647" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44936,7 +44939,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1648" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44988,7 +44991,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45014,7 +45017,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1651" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45040,7 +45043,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45066,7 +45069,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45092,7 +45095,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1654" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45118,7 +45121,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1655" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45144,7 +45147,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1656" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45170,7 +45173,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1657" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45222,7 +45225,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1659" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45248,7 +45251,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1660" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45274,7 +45277,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1661" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45300,7 +45303,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1662" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45326,7 +45329,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1663" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45352,7 +45355,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1664" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45378,7 +45381,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1665" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -45404,7 +45407,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1666" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -45430,7 +45433,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1667" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45456,7 +45459,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1668" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45482,7 +45485,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1669" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45508,7 +45511,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45534,7 +45537,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1671" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45560,7 +45563,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1672" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45586,7 +45589,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1673" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45612,7 +45615,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1674" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45638,7 +45641,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1675" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45664,7 +45667,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1676" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45690,7 +45693,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1677" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45716,7 +45719,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1678" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45742,7 +45745,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45768,7 +45771,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45794,7 +45797,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1681" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45846,7 +45849,7 @@
         <v>3.38000011444092</v>
       </c>
       <c r="G1683" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45872,7 +45875,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1684" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45924,7 +45927,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1686" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45950,7 +45953,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1687" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45976,7 +45979,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1688" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46002,7 +46005,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1689" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46028,7 +46031,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1690" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46054,7 +46057,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1691" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46080,7 +46083,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1692" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46106,7 +46109,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1693" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46132,7 +46135,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1694" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46158,7 +46161,7 @@
         <v>3.47000002861023</v>
       </c>
       <c r="G1695" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46236,7 +46239,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1698" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46262,7 +46265,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1699" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46288,7 +46291,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46340,7 +46343,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1702" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46366,7 +46369,7 @@
         <v>3.46000003814697</v>
       </c>
       <c r="G1703" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -46392,7 +46395,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1704" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -46418,7 +46421,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1705" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46444,7 +46447,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46470,7 +46473,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1707" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46574,7 +46577,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46600,7 +46603,7 @@
         <v>3.42000007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46626,7 +46629,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1713" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46652,7 +46655,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1714" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46678,7 +46681,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46704,7 +46707,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1716" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46730,7 +46733,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1717" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46756,7 +46759,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1718" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46782,7 +46785,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1719" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46808,7 +46811,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46834,7 +46837,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1721" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46860,7 +46863,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1722" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46886,7 +46889,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1723" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46912,7 +46915,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1724" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46938,7 +46941,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1725" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46964,7 +46967,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G1726" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46990,7 +46993,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1727" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47016,7 +47019,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1728" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47042,7 +47045,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1729" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47068,7 +47071,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47094,7 +47097,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1731" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47120,7 +47123,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1732" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47146,7 +47149,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47172,7 +47175,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1734" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47198,7 +47201,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1735" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47224,7 +47227,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1736" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47250,7 +47253,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1737" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47276,7 +47279,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47302,7 +47305,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1739" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47328,7 +47331,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1740" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47354,7 +47357,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1741" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47380,7 +47383,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1742" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -47406,7 +47409,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1743" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -47432,7 +47435,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1744" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47458,7 +47461,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1745" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47484,7 +47487,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1746" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47510,7 +47513,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1747" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47536,7 +47539,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47562,7 +47565,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1749" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47588,7 +47591,7 @@
         <v>3.35999989509583</v>
       </c>
       <c r="G1750" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47614,7 +47617,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1751" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47640,7 +47643,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1752" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47666,7 +47669,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1753" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47692,7 +47695,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47718,7 +47721,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1755" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47744,7 +47747,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1756" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47770,7 +47773,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1757" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47796,7 +47799,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1758" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47822,7 +47825,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1759" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47848,7 +47851,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1760" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47874,7 +47877,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1761" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47900,7 +47903,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1762" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47926,7 +47929,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1763" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47952,7 +47955,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47978,7 +47981,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1765" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48004,7 +48007,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1766" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48030,7 +48033,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1767" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48056,7 +48059,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1768" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48082,7 +48085,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1769" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48108,7 +48111,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1770" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48134,7 +48137,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1771" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48160,7 +48163,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1772" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48186,7 +48189,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1773" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48212,7 +48215,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1774" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48238,7 +48241,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1775" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48264,7 +48267,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1776" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48290,7 +48293,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1777" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48316,7 +48319,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1778" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48342,7 +48345,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1779" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48368,7 +48371,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -48394,7 +48397,7 @@
         <v>3.25</v>
       </c>
       <c r="G1781" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -48420,7 +48423,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1782" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48446,7 +48449,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1783" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48472,7 +48475,7 @@
         <v>3.25</v>
       </c>
       <c r="G1784" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48498,7 +48501,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1785" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48524,7 +48527,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1786" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48550,7 +48553,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1787" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48576,7 +48579,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1788" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48602,7 +48605,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1789" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48628,7 +48631,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1790" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48654,7 +48657,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1791" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48680,7 +48683,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1792" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48706,7 +48709,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1793" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48732,7 +48735,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1794" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48758,7 +48761,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1795" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48784,7 +48787,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1796" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48810,7 +48813,7 @@
         <v>3.51999998092651</v>
       </c>
       <c r="G1797" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48836,7 +48839,7 @@
         <v>3.36999988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48862,7 +48865,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1799" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48888,7 +48891,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48914,7 +48917,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1801" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48940,7 +48943,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1802" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48966,7 +48969,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1803" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48992,7 +48995,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1804" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49018,7 +49021,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1805" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49044,7 +49047,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1806" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49070,7 +49073,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1807" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49096,7 +49099,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1808" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49122,7 +49125,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1809" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49148,7 +49151,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G1810" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49174,7 +49177,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1811" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49200,7 +49203,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1812" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49226,7 +49229,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1813" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49252,7 +49255,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1814" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49278,7 +49281,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1815" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49304,7 +49307,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49330,7 +49333,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1817" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49356,7 +49359,7 @@
         <v>3.3199999332428</v>
       </c>
       <c r="G1818" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49382,7 +49385,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1819" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -49408,7 +49411,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1820" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -49434,7 +49437,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1821" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49460,7 +49463,7 @@
         <v>3.25</v>
       </c>
       <c r="G1822" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49486,7 +49489,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49512,7 +49515,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1824" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49538,7 +49541,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1825" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49564,7 +49567,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G1826" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49590,7 +49593,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1827" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49616,7 +49619,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1828" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49642,7 +49645,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1829" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49668,7 +49671,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1830" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49694,7 +49697,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1831" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49720,7 +49723,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49746,7 +49749,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1833" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49772,7 +49775,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1834" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49798,7 +49801,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1835" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49824,7 +49827,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G1836" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49850,7 +49853,7 @@
         <v>3.25</v>
       </c>
       <c r="G1837" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49876,7 +49879,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1838" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49902,7 +49905,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1839" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49928,7 +49931,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1840" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49954,7 +49957,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1841" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49980,7 +49983,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1842" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50006,7 +50009,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1843" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50032,7 +50035,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1844" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50058,7 +50061,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1845" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50084,7 +50087,7 @@
         <v>3.25</v>
       </c>
       <c r="G1846" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50110,7 +50113,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1847" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50136,7 +50139,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1848" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50162,7 +50165,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1849" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50188,7 +50191,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1850" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50214,7 +50217,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1851" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50240,7 +50243,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1852" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50266,7 +50269,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1853" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50292,7 +50295,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1854" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50318,7 +50321,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1855" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50344,7 +50347,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1856" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50370,7 +50373,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1857" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -50396,7 +50399,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1858" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -50422,7 +50425,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1859" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50448,7 +50451,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1860" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50474,7 +50477,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1861" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50500,7 +50503,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1862" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50526,7 +50529,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1863" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50552,7 +50555,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1864" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50578,7 +50581,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1865" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50604,7 +50607,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1866" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50630,7 +50633,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1867" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50656,7 +50659,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1868" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50682,7 +50685,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1869" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50708,7 +50711,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1870" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50734,7 +50737,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1871" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50760,7 +50763,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1872" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50786,7 +50789,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1873" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50812,7 +50815,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1874" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50838,7 +50841,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1875" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50864,7 +50867,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1876" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50890,7 +50893,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1877" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50916,7 +50919,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1878" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50942,7 +50945,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1879" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50968,7 +50971,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1880" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50994,7 +50997,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1881" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51020,7 +51023,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1882" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51046,7 +51049,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1883" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51072,7 +51075,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1884" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51098,7 +51101,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1885" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51124,7 +51127,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1886" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51150,7 +51153,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1887" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51176,7 +51179,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1888" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51202,7 +51205,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1889" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51228,7 +51231,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1890" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51254,7 +51257,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1891" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51280,7 +51283,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1892" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51306,7 +51309,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1893" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51332,7 +51335,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1894" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51358,7 +51361,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1895" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51384,7 +51387,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1896" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -51410,7 +51413,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1897" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -51436,7 +51439,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1898" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51462,7 +51465,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1899" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51488,7 +51491,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1900" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51514,7 +51517,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1901" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51540,7 +51543,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1902" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51566,7 +51569,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1903" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51592,7 +51595,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1904" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51618,7 +51621,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1905" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51644,7 +51647,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1906" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51670,7 +51673,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1907" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51696,7 +51699,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51722,7 +51725,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1909" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51748,7 +51751,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1910" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51774,7 +51777,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51800,7 +51803,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1912" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51826,7 +51829,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1913" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51852,7 +51855,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1914" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51878,7 +51881,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51904,7 +51907,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1916" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51930,7 +51933,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51956,7 +51959,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1918" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51982,7 +51985,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1919" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52008,7 +52011,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1920" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52034,7 +52037,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52060,7 +52063,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52086,7 +52089,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52112,7 +52115,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1924" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52138,7 +52141,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1925" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52164,7 +52167,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1926" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52190,7 +52193,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1927" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52216,7 +52219,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1928" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52242,7 +52245,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G1929" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52268,7 +52271,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1930" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52294,7 +52297,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1931" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52320,7 +52323,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1932" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52346,7 +52349,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1933" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52372,7 +52375,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1934" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -52398,7 +52401,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1935" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -52424,7 +52427,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1936" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52450,7 +52453,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1937" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52476,7 +52479,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1938" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52502,7 +52505,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1939" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52528,7 +52531,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1940" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52554,7 +52557,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52580,7 +52583,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52606,7 +52609,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1943" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52632,7 +52635,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1944" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52658,7 +52661,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52684,7 +52687,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52710,7 +52713,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1947" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52736,7 +52739,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1948" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52762,7 +52765,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1949" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52788,7 +52791,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1950" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52814,7 +52817,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1951" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52840,7 +52843,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1952" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52866,7 +52869,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1953" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52892,7 +52895,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G1954" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52918,7 +52921,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1955" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52944,7 +52947,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1956" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52970,7 +52973,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1957" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52996,7 +52999,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1958" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53022,7 +53025,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1959" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53048,7 +53051,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1960" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53074,7 +53077,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1961" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53100,7 +53103,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G1962" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53126,7 +53129,7 @@
         <v>3.01999998092651</v>
       </c>
       <c r="G1963" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53152,7 +53155,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1964" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53178,7 +53181,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1965" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53204,7 +53207,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1966" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53230,7 +53233,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1967" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53256,7 +53259,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1968" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53282,7 +53285,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1969" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53308,7 +53311,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1970" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53334,7 +53337,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1971" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53360,7 +53363,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1972" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -53386,7 +53389,7 @@
         <v>2.96000003814697</v>
       </c>
       <c r="G1973" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -53412,7 +53415,7 @@
         <v>3</v>
       </c>
       <c r="G1974" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -53438,7 +53441,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1975" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53464,7 +53467,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1976" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53490,7 +53493,7 @@
         <v>3</v>
       </c>
       <c r="G1977" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53516,7 +53519,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1978" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53542,7 +53545,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G1979" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53568,7 +53571,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1980" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53594,7 +53597,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1981" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53620,7 +53623,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1982" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53646,7 +53649,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1983" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53672,7 +53675,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1984" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53698,7 +53701,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1985" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53724,7 +53727,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1986" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53750,7 +53753,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1987" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53776,7 +53779,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1988" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53802,7 +53805,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1989" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53828,7 +53831,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1990" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53854,7 +53857,7 @@
         <v>3.03999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53880,7 +53883,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1992" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53906,7 +53909,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1993" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53932,7 +53935,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1994" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53958,7 +53961,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1995" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53984,7 +53987,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1996" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54010,7 +54013,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1997" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54036,7 +54039,7 @@
         <v>2.83999991416931</v>
       </c>
       <c r="G1998" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54062,7 +54065,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G1999" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54088,7 +54091,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G2000" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54114,7 +54117,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G2001" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54140,7 +54143,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2002" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54166,7 +54169,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2003" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54192,7 +54195,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2004" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54218,7 +54221,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2005" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54244,7 +54247,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G2006" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54270,7 +54273,7 @@
         <v>2.90000009536743</v>
       </c>
       <c r="G2007" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54296,7 +54299,7 @@
         <v>2.94000005722046</v>
       </c>
       <c r="G2008" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54322,7 +54325,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G2009" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54348,7 +54351,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2010" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54374,7 +54377,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2011" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -54400,7 +54403,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2012" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -54426,7 +54429,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2013" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54452,7 +54455,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2014" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54478,7 +54481,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2015" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54504,7 +54507,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2016" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54530,7 +54533,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2017" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54556,7 +54559,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2018" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54582,7 +54585,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2019" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54608,7 +54611,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2020" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54634,7 +54637,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2021" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54660,7 +54663,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2022" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54686,7 +54689,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2023" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54712,7 +54715,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54738,7 +54741,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2025" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54764,7 +54767,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2026" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54790,7 +54793,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2027" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54816,7 +54819,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2028" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54842,7 +54845,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2029" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54868,7 +54871,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2030" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54894,7 +54897,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2031" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54920,7 +54923,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2032" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54946,7 +54949,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2033" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54972,7 +54975,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54998,7 +55001,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2035" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55024,7 +55027,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2036" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55050,7 +55053,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2037" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55076,7 +55079,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2038" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55102,7 +55105,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55128,7 +55131,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2040" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55154,7 +55157,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2041" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55180,7 +55183,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2042" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55206,7 +55209,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2043" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55232,7 +55235,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55258,7 +55261,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2045" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55284,7 +55287,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2046" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55310,7 +55313,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2047" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55336,7 +55339,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2048" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55362,7 +55365,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2049" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -55388,7 +55391,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2050" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -55414,7 +55417,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G2051" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -55440,7 +55443,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2052" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55466,7 +55469,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2053" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55492,7 +55495,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2054" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55518,7 +55521,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2055" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55544,7 +55547,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2056" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55570,7 +55573,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2057" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55596,7 +55599,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2058" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55622,7 +55625,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2059" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55648,7 +55651,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2060" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55674,7 +55677,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2061" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55700,7 +55703,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2062" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55726,7 +55729,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2063" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55752,7 +55755,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2064" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55778,7 +55781,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2065" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55804,7 +55807,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2066" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55830,7 +55833,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2067" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55856,7 +55859,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2068" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55882,7 +55885,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2069" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55908,7 +55911,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2070" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55934,7 +55937,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2071" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55960,7 +55963,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2072" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55986,7 +55989,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2073" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56012,7 +56015,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2074" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56038,7 +56041,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2075" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56064,7 +56067,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2076" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56090,7 +56093,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2077" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56116,7 +56119,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2078" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56142,7 +56145,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2079" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56168,7 +56171,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2080" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56194,7 +56197,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2081" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56220,7 +56223,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2082" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56246,7 +56249,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2083" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56272,7 +56275,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2084" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56298,7 +56301,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2085" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56324,7 +56327,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2086" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56350,7 +56353,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2087" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56376,7 +56379,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2088" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -56402,7 +56405,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -56428,7 +56431,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2090" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56454,7 +56457,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2091" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56480,7 +56483,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2092" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56506,7 +56509,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56532,7 +56535,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2094" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56558,7 +56561,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2095" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56584,7 +56587,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2096" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56610,7 +56613,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2097" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56636,7 +56639,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2098" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56662,7 +56665,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2099" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56688,7 +56691,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2100" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56714,7 +56717,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2101" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56740,7 +56743,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56766,7 +56769,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2103" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56792,7 +56795,7 @@
         <v>3.0699999332428</v>
       </c>
       <c r="G2104" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56818,7 +56821,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2105" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56844,7 +56847,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2106" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56870,7 +56873,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2107" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56896,7 +56899,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2108" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56922,7 +56925,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2109" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56948,7 +56951,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2110" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56974,7 +56977,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2111" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57000,7 +57003,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2112" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57026,7 +57029,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2113" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57052,7 +57055,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57078,7 +57081,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2115" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57104,7 +57107,7 @@
         <v>3.13000011444092</v>
       </c>
       <c r="G2116" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57130,7 +57133,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2117" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57156,7 +57159,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G2118" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57182,7 +57185,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G2119" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57208,7 +57211,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2120" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57234,7 +57237,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2121" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57260,7 +57263,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2122" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57286,7 +57289,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2123" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57312,7 +57315,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57338,7 +57341,7 @@
         <v>3.25</v>
       </c>
       <c r="G2125" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57364,7 +57367,7 @@
         <v>3.25</v>
       </c>
       <c r="G2126" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -57390,7 +57393,7 @@
         <v>3.25</v>
       </c>
       <c r="G2127" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -57416,7 +57419,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G2128" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57442,7 +57445,7 @@
         <v>3.25</v>
       </c>
       <c r="G2129" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57468,7 +57471,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2130" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57494,7 +57497,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2131" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57520,7 +57523,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2132" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57546,7 +57549,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2133" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57572,7 +57575,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2134" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57598,7 +57601,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57624,7 +57627,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2136" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57650,7 +57653,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2137" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57676,7 +57679,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2138" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57702,7 +57705,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2139" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57728,7 +57731,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2140" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57754,7 +57757,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G2141" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57780,7 +57783,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G2142" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57806,7 +57809,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2143" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57832,7 +57835,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2144" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57858,7 +57861,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2145" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57884,7 +57887,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2146" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57910,7 +57913,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2147" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57936,7 +57939,7 @@
         <v>3.08999991416931</v>
       </c>
       <c r="G2148" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57962,7 +57965,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2149" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57988,7 +57991,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2150" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58014,7 +58017,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58040,7 +58043,7 @@
         <v>3.07999992370605</v>
       </c>
       <c r="G2152" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58066,7 +58069,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G2153" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58092,7 +58095,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2154" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58118,7 +58121,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2155" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58144,7 +58147,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58170,7 +58173,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G2157" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58196,7 +58199,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2158" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58222,7 +58225,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2159" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58248,7 +58251,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2160" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58274,7 +58277,7 @@
         <v>3.19000005722046</v>
       </c>
       <c r="G2161" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58300,7 +58303,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2162" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58326,7 +58329,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2163" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58352,7 +58355,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2164" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -58378,7 +58381,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2165" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -58404,7 +58407,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2166" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -58430,7 +58433,7 @@
         <v>3.25</v>
       </c>
       <c r="G2167" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58456,7 +58459,7 @@
         <v>3.25</v>
       </c>
       <c r="G2168" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58482,7 +58485,7 @@
         <v>3.25</v>
       </c>
       <c r="G2169" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58508,7 +58511,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2170" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58534,7 +58537,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2171" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58560,7 +58563,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2172" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58586,7 +58589,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G2173" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58612,7 +58615,7 @@
         <v>3.21000003814697</v>
       </c>
       <c r="G2174" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58638,7 +58641,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2175" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58664,7 +58667,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2176" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58690,7 +58693,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2177" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58716,7 +58719,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2178" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58742,7 +58745,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G2179" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58768,7 +58771,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2180" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58794,7 +58797,7 @@
         <v>3.22000002861023</v>
       </c>
       <c r="G2181" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58820,7 +58823,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2182" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58846,7 +58849,7 @@
         <v>3.25</v>
       </c>
       <c r="G2183" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58872,7 +58875,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G2184" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58898,7 +58901,7 @@
         <v>3.25</v>
       </c>
       <c r="G2185" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -58924,7 +58927,7 @@
         <v>3.25</v>
       </c>
       <c r="G2186" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -58950,7 +58953,7 @@
         <v>3.25</v>
       </c>
       <c r="G2187" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -58976,7 +58979,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2188" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -59002,7 +59005,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2189" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -59028,7 +59031,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2190" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -59054,7 +59057,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2191" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -59080,7 +59083,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2192" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -59106,7 +59109,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2193" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -59132,7 +59135,7 @@
         <v>3.15000009536743</v>
       </c>
       <c r="G2194" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -59158,7 +59161,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G2195" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -59184,7 +59187,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2196" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -59210,7 +59213,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G2197" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -59236,7 +59239,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G2198" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -59262,7 +59265,7 @@
         <v>3.16000008583069</v>
       </c>
       <c r="G2199" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -59270,7 +59273,7 @@
     </row>
     <row r="2200">
       <c r="A2200" s="1" t="n">
-        <v>45526.6303587963</v>
+        <v>45526.2916666667</v>
       </c>
       <c r="B2200" t="n">
         <v>2200</v>
@@ -59288,9 +59291,35 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G2200" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H2200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="1" t="n">
+        <v>45527.5913194444</v>
+      </c>
+      <c r="B2201" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C2201" t="n">
+        <v>3.23000001907349</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>3.15000009536743</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>3.15000009536743</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>3.23000001907349</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>565</v>
+      </c>
+      <c r="H2201" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/ENV.MI.xlsx
+++ b/data/ENV.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33370780944824</t>
+    <t xml:space="preserve">2.33370804786682</t>
   </si>
   <si>
     <t xml:space="preserve">ENV.MI</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">2.30397891998291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17185115814209</t>
+    <t xml:space="preserve">2.17185139656067</t>
   </si>
   <si>
     <t xml:space="preserve">2.21974754333496</t>
@@ -65,67 +65,67 @@
     <t xml:space="preserve">2.17019963264465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09752917289734</t>
+    <t xml:space="preserve">2.0975296497345</t>
   </si>
   <si>
-    <t xml:space="preserve">2.089271068573</t>
+    <t xml:space="preserve">2.08927154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02320742607117</t>
+    <t xml:space="preserve">2.02320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00503993034363</t>
+    <t xml:space="preserve">2.00503969192505</t>
   </si>
   <si>
     <t xml:space="preserve">2.09257459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11404538154602</t>
+    <t xml:space="preserve">2.1140456199646</t>
   </si>
   <si>
     <t xml:space="preserve">2.14542579650879</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06284618377686</t>
+    <t xml:space="preserve">2.0628457069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06449747085571</t>
+    <t xml:space="preserve">2.06449723243713</t>
   </si>
   <si>
     <t xml:space="preserve">2.03972363471985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0364203453064</t>
+    <t xml:space="preserve">2.03642058372498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98852407932281</t>
+    <t xml:space="preserve">1.98852384090424</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660084724426</t>
+    <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
     <t xml:space="preserve">1.97365963459015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06119394302368</t>
+    <t xml:space="preserve">2.06119418144226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99017584323883</t>
+    <t xml:space="preserve">1.99017560482025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01329779624939</t>
+    <t xml:space="preserve">2.01329803466797</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11734843254089</t>
+    <t xml:sp